--- a/output/Total_time_range_data/河北省/张家口市_学习考察.xlsx
+++ b/output/Total_time_range_data/河北省/张家口市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5502 +436,6020 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>省直工委驻道北村工作队积极协调康保镇赴正定县招商引资</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.zjkkb.gov.cn/single/30/80496.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['近日，为推动乡村产业高质量发展，拓宽农民增收致富渠道，省直工委驻道北村工作队充分发挥桥梁纽带作用，会同康保镇党委政府有关负责同志组成考察组，赴石家庄市学习农业产业化发展先进经验，开展项目招引，商讨合作意向，助推康保镇招商引资工作取得新突破。', '在塔元庄同福示范园，考察组深入智慧农场，认真参观展览大厅，详细了解企业发展历程、村企合作模式、规模效益、技术创新等方面，实地感悟塔元庄村践行习近平总书记', '考察组与塔元庄村党支部书记尹小平举行了工作座谈。尹小平书记表示，脱贫攻坚期间省直工委驻村干部牵线搭桥，塔元庄村和道北村结成帮扶对子，今天亲友来访，倍感亲切，十分欢迎。康保镇镇长李茂林详细介绍了康保县、康保镇的资源和区位优势以及农业产业发展现状，邀请尹书记带队到康进行实地考察。双方进行了深入交流，一致表示要在帮扶道北村基础上，加大沟通对接，找准合作交点，拓展合作领域，催生合作项目，实现互惠共赢良好发展。', '在石家庄市惠康食品有限公司，考察组详细了解该公司的经营管理、技术创新、发展战略、投资方向等情况，参观该公司生产车间。参观后，李茂林向企业负责人介绍了康保县招商引资政策、营商环境和康保镇特殊资源禀赋，并诚挚邀请石家庄市惠康食品有限公司来康参观考察、投资兴业、共商发展。据介绍，石家庄市惠康食品有限公司是集农业种植、养殖、预制菜生产销售、中高端牛肉和果蔬食品加工销售、肉类贸易等为一体的大型食品企业。', '考察组考察结束返康后一致表示，要认真总结本次学习考察的收获，积极吸收塔元庄村发展产业的先进理念和模式，对标先进典型查找自身不足和缺项，拓展思维、大胆探索，力争把学习考察成果转化为推进各项工作的具体措施。省直工委驻村工作队将进一步发挥纽带链接作用，密切做好沟通对接，为康保县乡村振兴贡献更大力量。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>区长唐殿福率队赴石家庄高新技术产业开发区桥西区学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.zjkxuanhua.gov.cn/content/24623.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['3月14日，区长唐殿福率队赴石家庄高新技术产业开发区、桥西区学习考察，聚焦优化营商环境、提升政务服务等领域，“点对点”学习、“面对面”取经，在学习借鉴中拓宽发展思路，在寻标对标中激扬奋进力量。经济开发区党工委副书记、管委会常务副主任韩启胜，区委常委、常务副区长孙刚以及发改局、审批局负责人陪同考察。', '在高新区政务服务中心，唐殿福一行与高新区党工委委员、管委会副主任张会强进行了深入座谈交流。高新区经济发展局、行政审批局、市场监督管理局、投资服务局、考核办等部门负责人分别介绍了高新区在优化营商环境中的经验做法。唐殿福表示，石家庄高新区作为国家级经济开发区，在优化营商环境、推进政务服务改革等方面走在全省前列，特别是“一网通办”“不见面审批”“拿地即开工”“诚信体系建设”等方面创新做法，为我区政务服务工作提供了很好的示范样板。', '座谈会结束后，考察组先后赴石家庄市金融法庭、桥西区政务服务大厅学习考察。在石家庄市金融法庭，考察组实地察看了石家庄金融法庭立案大厅、金融纠纷联动化解中心、五个特色调解室、审判执行等工作区，观看了金融法庭宣传片，详细了解了整体布局、功能设计、金融纠纷治理大数据平台的相关数据，以及石家庄金融法庭成立以来的整体运行情况。唐殿福表示，石家庄金融法庭作为我省首家集中管辖金融案件专业化法庭，在充分发挥调解组织作用、助力诉前阶段化解矛盾纠纷等方面经验令人印象深刻，特别是案件的集中受理、批量办理模式值得学习借鉴，为我区优化金融法治环境、防范化解金融风险提供了良好的工作思路和方法。', '在桥西区政务服务大厅，考察组详细了解了大厅布局、功能分区、运行机制等情况。唐殿福表示，桥西区政务服务大厅资源配置齐全合理，服务运转明晰有序，为企业及群众提供了便利舒适的办事环境，特别是在项目清单管理、办事指南制定、政务信息公开、企业开办专区建设等方面，为我区优化营商环境、提升政务服务效能提供了先进经验。', '常采他山之石，多谋发展之策。通过此次考察学习，进一步开阔了眼界，看到了我区在政务服务、金融法治等工作中存在的差距，明确了改进提升的方向。下一步，我区将结合自身工作实际，积极探索创新，坚持目标导向、问题导向，努力把学习成果转化成谋划工作、狠抓落实的具体思路和方法，以更高的标准，更实的举措，全方位推进优化营商环境工作，为推进经济高质量发展做出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>县委常委政府副县长李军军一行赴安徽蚌埠市固镇县经济开发区管委会学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/82242.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['县委常委、政府副县长李军军一行赴安徽蚌埠市固镇县经济开发区管委会学习考察 - 蔚县人民政府', '3月29日上午，县委常委、政府副县长李军军，县经济开发区党工委副书记、管委会常务副主任邵忠民及北水泉镇、常宁乡、县医保局、县投促局有关负责人一行赴安徽蚌埠市固镇县经济开发区管委会学习考察。', '考察中，固镇县经开区管委会主任陈天鹏向李军军一行详细介绍了固镇县经开区产业布局、土地政策、招商引资、审批权限、平台公司等情况。', '李军军一行在固镇县经开区有关负责人陪同下，对丰原集团秸秆制糖、可降解制品项目进行实地调研。', '随后，李军军一行在北京科创联盟淮安负责人丁永和的陪同下，赴淮安鸿玛生物科技有限公司对接考察。公司负责人介绍了公司发展历程、专利研发以及鸡蛋白蛋白多肽、鸡蛋膜活性肽产品等情况。科创联盟代表介绍了第三方对该项目的评估和市场前景，表示对该项目将全程服务和投资。', '李军军向鸿玛生物、科创联盟负责人详细介绍了蔚县自然资源、区位优势、营商环境，并诚挚邀请他们到蔚县投资兴业，蔚县将会不断优化营商环境，为企业提供优惠的政策，相关部门也回会做好服务对接工作，帮助企业解决项目建设过程中遇到的问题，让企业投资安心、发展顺心。', '邵忠民说，该公司生产的产品属于高科技转化产品，同时具备带动乡村养殖户增收致富的作用，符合蔚县产业发展和乡村振兴布局，蔚县经济开发区欢迎鸿玛生物落地，并将精诚合作，同筑辉煌。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市机关事务管理局党的二十大精神集中学习培训班圆满收官</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/196416.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['本次培训班为期5天，邀请周瑞峰、徐秀娟、崔晓鹏、赵燕君、丁万英5位老师从马克思主义中国化时代化、文化自信自强、数字经济发展、深刻把握党章等多维度、多层次、多方位解读了党的二十大精神，通过生动活泼、富有感染力的授课内容，带领我们共同领悟二十大提出的新观点、新论断、新思想、新战略和新要求。全体局领导和全局党员干部全程参加培训班，并参加结业考试。结业式上，3名学员代表结合本职工作，就如何将党的二十大精神转化为落实机关事务管理工作高质量发展的行动实践上谈了心得体会。', '局党组书记、局长刘家利主持了开班式和结业式，并就下一步全局“三比三看双提升”大培训工作提出要求：', '一是管理局全局上下要进一步统一思想，按照文锋书记关于党的二十大精神学习宣传贯彻的指示批示要求，增强对“两个确立”的政治认同、思想认同，提高对“两个确立”决定性意义的认识，进而转化为落实“两个维护”的实际成效；二是管理局全局上下要进一步真抓实干，以“三比三看双提升”活动为载体，立足岗位工作，扎实落实精准化、实战化、实效化的大培训工作要求，把党的二十大精神培训贯彻“大练兵”始终，实现全方位提质增效；三是管理局全局上下要进一步开拓创新，对标对表全国机关事务工作先进经验，开展单项工作业务的学习考察，提升规范化管理和信息化建设，助推机关事务工作高质量发展。', '3月27、28日，张家口市司法局主持召开2023年度新任人民监督员培训会，全市174名新任人民监督员参加培训。市人民检察院党组成员、副检察长刘英，市司法局党组书记、局长李贵军出席培训结业仪式并讲话，张家口市司法局二级调研员邹宗奎主持结业仪式。此次选任的174名人民监督员，是严格按照最高人民检察院、司法部新修订的《人民监督员选任管理办法》和《河北省人民监督员选任管理办法实施细则（试行）》的要求，依据']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>蔚县发展和改革局供电公司组织人员赴石家庄市晋州市学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/0OgPYBXzitq3YeCsvWbGnQ</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['3月12日，蔚县发展和改革局相关人员、供电公司负责人等赴石家庄市晋州市学习考察优化营商环境工作。', '他们对晋州市优化营商环境审批服务、管理运营、功能布局、指标分析等方面进行了全面细致的学习考察，并和晋州市发改局、行政审批局等部门负责人进行了深入的交流座谈。表示将会把晋州市发展和改革局作为蔚县优化营商环境工作对标对表单位，长期学习交流。', '此次学习考察，对标先进地区优化营商环境先进经验，结合蔚县实际，进一步拓宽了思路，解放了思想，为进一步优化全县营商环境提供了经验。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>县委书记贾兵主持召开怀来县解放思想增进六个观念学习研讨会</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.huailai.gov.cn/single/11/43806.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['县委书记贾兵主持召开怀来县“解放思想、增进‘六个观念’”学习研讨会-怀来县人民政府', '省委书记倪岳峰在省委十届三次全会中强调，要强化“六个观念”，不断改进思想工作和作风，在解放思想中统一思想，在奋发进取中开创未来。这不仅为我们做好下一步工作指明了方向，也对我们的工作提出了更高标准、更严要求。为坚决贯彻落实上级部署要求，切实把学习考察成果转化为高质量的生动实践，加快推动各级干部转作风、提能力、促发展，3月5日，县委书记贾兵在政务楼第三会议室召开怀来县“解放思想、增进‘六个观念’”学习研讨会。县政府县长张琪、县人大常委会主任刘朝君、县政协主席韩志明等县处级领导出席会议。县直各有关部门、各乡镇负责同志参加会议。', '与会同志共同观看了赴浙江、北京以及河南等地的考察学习专题片，部分县领导汇报了考察心得体会，东花园镇、土木镇、县农业农村局、县水务局等乡镇和部门负责同志进行了交流发言。', '贾兵强调，省委书记倪岳峰提出的强化“六个观念”，是我县当前和今后一段时期重要的工作要求，各级各部门要全面对标对表，及时校准偏差，深入解放思想、着力改革创新，敢于担当尽责、勇于攻坚克难，在强化“六个观念”上争做示范、走在前列。要持之以恒优化营商环境，充分借鉴好、运用好浙江等发达地区关于优化营商环境的先进做法，加快补齐短板弱项，打造市场化、法治化一流营商环境。要全力以赴抓好工作落实，不断强化执行意识，用硬执行力保障各项硬任务顺利完成，加快打造中国式现代化怀来场景。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>康保县组织创城重点部门赴怀来县考察学习文明城市创建工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.zjkkb.gov.cn/single/30/25544.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['2月13日，由县委常委、宣传部长郭孟良带队，组织创城办、市场监管局、城管局、教育局等成员单位负责人到怀来县考察学习文明城市创建工作。', '考察团成员先后到鸡鸣驿古城、沙城镇华新社区、沙城镇府前小学、百货大楼等点位考察学习，通过听取介绍、实地查看等方式，详细了解了怀来县创建工作先进经验。', '每到一处，大家都认真听取讲解，仔细观看、详细记录，围绕社区管理、志愿服务、基础设施等多个方面进行系统考察学习，并深入交流研讨。', '通过此次考察学习，考察组将深入学习借鉴怀来县创建文明城市工作中好的思路、方法和经验，在对比中找到了自身的差距与不足，不断完善工作机制，补齐工作短板，更加清晰创城工作的重点、思路和方法，为做好我县今年的创城工作打下坚实基础。', '大家纷纷表示，本次学习考察目的明确，内容丰富，重点突出，取得了良好的效果。将认真学习消化在怀来的所见所学所感，结合康保创城工作实际，进一步提高站位，细化措施、查缺补漏，强化争先意识、创新精神和效率观念，全力做好文明城市创建工作。期间，考察团一行还深入到官厅水库国家湿地公园等点位进行了现场参观学习。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>县委常委政府常务副县长支向阳一行赴浙江等地学习考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/81750.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['3月2日—3月7日，县委常委、政府常务副县长支向阳带领县委组织部、县行政审批局、县发改局、县司法局、源恒建发集团等单位负责同志赴浙江省杭州市临安区、萧山区，嘉兴市南湖区、秀州区、天津市滨海新区学习考察市民中心运行及企业服务工作。', '支向阳一行对各先进地区优化营商环境审批服务、管理运营、功能布局等方面进行了全面细致的学习考察，并进行了深入的交流座谈。', '浙江省杭州市萧山区政务服务管理办公室，围绕数字赋能，以政务提速实现办事高效，首创“数字评价”新体系，打造“问办一体”新机制，深化“一网通办”新模式；嘉兴市南湖区一业一证，肩并肩、无前台、无纸化办公服务新模式各具特色。', '支向阳指出，此次学习考察，十分重要，也十分必要，对标先进地区优化营商环境先进经验，差距之大，感触颇深。我们要及时梳理总结先进经验和管理理念，结合工作实际，拓宽思路，解放思想，进一步整合简化审批流程，提高服务效能，有效推动全县政务服务标准化、规范化、便利化建设。', '此次考察不仅学习了先进地区的先进改革举措，并与杭州市萧山区、嘉兴市南湖区、秀州区签定了“跨省通办”联动机制框架协议，推进政务服务“标准统一、代收帮办、远程办理、协同联动”的“跨省通办”新模式，为蔚县营造了便民利企良好发展环境。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>县人大常委会副主任县工商联主席杨丙英一行赴涞水县开展招商引资和学习考察活动</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/81456.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['县人大常委会副主任、县工商联主席杨丙英一行赴涞水县开展招商引资和学习考察活动 - 蔚县人民政府', '2月8日，县人大常委会副主任、县工商联主席杨丙英带领南岭庄乡党委主要负责同志等一行6人，赴保定市涞水县开展招商引资和学习考察活动。', '在三坡镇南峪村，杨丙英一行参观考察了由中国乡村发展基金会打造的百美村宿成功示范点和村民自建民宿区。', '座谈会上，详细了解了该产业发展历程和可复制经验，并就双方下步合作内容和运营模式达成了共识。', '在义安镇刘皇甫村，参观考察了百亩棚摘葡萄园和拆危拆旧安置区，学习了该村在产业提升转型和危旧居民区村民安置以及村容村貌治理方面的成功经验。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>石井乡走出去引进来战略拉开了招商引资帷幕</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.zjksy.gov.cn/single/126/12430.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['有关负责同志进行了深入交流，全面了解了梅花鹿养殖基地选址交通条件、水源状况、土地性质等情况，考察调研梅花鹿标准化养殖、经销及鹿产品加工', '梅花鹿具有很强的环境适应能力和抗病能力，具备易饲养等特点，梅花鹿养殖产业有很多优势。结合', ', 拿出可行性方案，力争梅花鹿养殖基地项目早日落地、早日建成，使梅花鹿养殖成为助力乡村振兴的特色产业，有效推动群众增收致富', '石井乡政府乡长李明带领禾嘉农业科技有限公司负责人到山西省朔州市应县实地考察蔬菜深加工生产线，详细了解了蔬菜烘干、腌制、净菜生产的加工工序及产值、销路、环保、供热等情况，为', '2023年蔬菜深加工项目实施的可行性得到了第一手资料。该项目落地后，既弥补了全县蔬菜深加工产业的空白，又延伸了全县蔬菜产业链条，为当地经济发展、农民就业等方面将做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>对政协张家口市桥东区十届二次全会社会建设类第号提案的答复</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/content/71422.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['对政协张家口市桥东区十届二次全会社会建设类第37号提案的答复 - 张家口市桥东区人民政府', '社区治理得好不好，关键在基层党组织、在广大党员，要把基层党组织这个战斗堡垒建得更强，发挥社区党员、干部先锋模范作用，健全基层党组织领导的基层群众自治机制，把社区工作做到位做到家，在办好一件件老百姓操心事、烦心事中提升群众获得感、幸福感、安全感。', '近年来，在区委区政府的领导下，我们更加注意探索基层治理体系和治理能力现代化的有效路径，切实提升组织群众、引领群众和服务群众水平，不断提升人民群众的幸福感和满意度。', '为切实加强基层治理体系和治理能力现代化建设，发挥网格化服务管理作用，桥东区建立了路段街长、小区片长制度，由区级领导担任大片长，每个大片再细化为若干个小片，由正科级领导担任小片长，构建起职责明确、任务到人、一包到底的基层治理责任体系。社区党组织、包联单位、驻街单位三方联动，本着责任到底、任务全覆盖的原则，在社区党委统一指挥下共同参与所包路段、片区的全部工作，构建起全区上下齐抓共管、协同作战的网格化治理体系，做到责任到人大管理、为民服务无死角。', '工作，畅通说事解题的快速响应渠道，发挥好街道社区党组织的示范带动作用，纾民困、解民忧，攻坚破解疑难共性问题，通过打造社区和小区（楼院）党组织书记、楼长（党小组长）、邻里大管家、志愿者和区直部门解题队伍', '三级组织管理体系，全力推进说事解题工作。形成推进基层治理、提供优质服务、解决群众诉求的工作机制', '根据区委组织部印发《关于强化党建引领提高物业服务管理水平工作的实施方案》的安排部署，组建了5个街道47个社区物委会，', '根据区委组织部印发《关于强化党建引领提高物业服务管理水平工作的实施方案》的安排部署，组建了', '由社区居民委员会、社区社会组织负责人和楼门长（居民代表）、社区物业管理员、社区辅警、法律顾问、人民调解员等组成。定期召开专题会议，', '协调解决辖区内物业管理中出现的问题，督促业委会和物业服务企业履职尽责。指导街道、社区完善物委会管理的相关运行机制，加快构建社区党组织、居民委员会、业主委员会、物业服务企业、楼门长、综合服务站等', '为加快推进我区城乡社区协商工作，促进城乡社区协商制度化，规范化和程序化。我局印发《关于继续加强和完善城市社区民主协商共治工作的通知》，指导社区从加强社区民主协商共治小组；建设修订完善社区民主协商共治事项目录；统筹做好社区民主协商共治程序三方面入手，对本社区年度工作计划、自治章程、居民公约、公共事务和公益事业及居民意见较为集中的重点难点热点问题开展民主协商，', '极构建社区党组织为核心，社区居民委员会、居务监督委员会、业主委员会、居民（代表）小组、物业公司、社会组织和政府相关职能部门于一体的多元共建、共商共治的开放性基层治理格局。', '积极扩宽社区干部新出路，抓住选、育、管、用等环节，强化激励、严格管理、加强培训、拓宽思路，激励社区工作者担当作为、争先创优。去年圆满完成社区', '。提高社区工作人员待遇，按照职业化体系管理，定岗定资，工资水平有了大幅提升。大胆提拔任用人才，打通了社区书记进一步向上发展的通道，很多优秀的社区书记被提拔到街道副科级岗位。考核择优入编，考虑社区干部在疫情期间的特殊贡献，对表现特别突出的社区书记纳入事业编制管理。加强教育培训，', '等方式，围绕加强城市基层党建工作、党建引领基层治理、物业管理先进理念等内容进行培训。多次组织优秀社区书记到北京、上海、浙江等地学习考察，有效提升了其为民服务、组织动员、议事协商、应急处置等方面的能力水平，确保解题有能力、办事有方法。', '谢红委员：您好！您提出的“关于提升我区城市社区养老方案”的建议收悉，现答复如下：近年来，我区为满足辖区各层面老年人平安养老、健康养老、幸福养老的服务需求，按照“政府引导、社会参与、老人受益”的工作思路，持续加强养老服务体系建设，探索推进老龄事业和产业发展，基本建立了以居家为基础、社区为依托、机构为补充、医养相结合的养老服务体系，致力于把社区和居家养老服务做得更加温情更加贴心，有效提升老年人的获得感...']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>对河北省第十三届人民代表大会第五次会议第号建议的答复</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-07-27</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/rdjy/175773.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['通过对近年来数据分析，我市社区矫正工作中涉及未成年人在矫人员呈现以下几个特点。一是人数少，分布不平衡。', '，分布在各县区基本是个位数，有的县区长时间没有未成年人社区矫正对象。二是群体特殊，矫正要求高。《中华人民共和国社区矫正法》对未成年人的社区矫正单列专章进行特别规定。三是当前实际工作措施。针对未成年人的特点，根据社区矫正法特别规定，我市现阶段对未成年人的矫正形成一套成熟的管理帮教措施。在办理入矫时与其他社区矫正对象分开进行，单独为每一个未成年', '办理入矫手续，要求监护人在场单独进行入矫宣告。日常管理中未成年社区矫正对象的教育、谈话、思想汇报都单独进行，为其单独制定个性化矫正方案。在对其就读、工作、生活地', '月市人大召集市检察院、市教育局、团市委进行了专题研究。市检察院提供了公安机关向检察院移交', '人名单，通过电话询问、学籍系统查询、县区学校核实，大多数孩子目前随班就读，个别因义务教育阶段结束，步入了社会。', '当前全市未成年特殊群体人数较少，暂不设立特殊群体专门学校，继续由各社区矫正机构抓好教育引导和转化工作。若需设立，先外出学习考察，调研相关地区关于未成年特殊群体学校设立情况，借鉴好的经验做法，结合全市实际，再行研究设立方案。', '孙永青代表：您提的“关于建立和完善城市薄弱学校及城乡结合部学校专项扶持的建议”已收悉，经认真研究，提出如下答复意见。早在2014年，教育部、国家发展改革委、财政部就下发了《全面改善贫困地区义务教育薄弱学校基本办学条件》文件，从2014-2018年全面改善贫困地区义务教育薄弱学校基本办学条件（简称“全面改薄”），重点支持“乡镇寄宿制和乡村小规模”（简称“两类学校”）建设，2014-2018年我市共投']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>9</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>阳原县组团赴海宁市学习考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-08-04</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/97/66821.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['7月29—30日，我县由县政府贾景宣副县长带队，带领相关部门和企业赴海宁市学习考察。考察组一行利用', '2022年会间隙，抽时间参观了第二十九届海宁中国皮革博览会，考察了浙江雪豹服饰有限公司和欧斯蒂娜服饰有限公司', '考察团刚落地海宁就赶赴第二十九届海宁中国皮革博览会现场，线下参观全国参展企业最新毛皮皮革及制品，了解服装产业流行时尚发展走向，并与参展企业交流，宣传阳原招商政策即优惠条件。会议期间考察了国内知名企业雪豹服饰有限公司和欧斯蒂娜服饰有限公司，参观企业生产车间、设计室和新产品展示后进行了座谈，听取了企业生产情况和对未来市场行情的预测，就当前产业现状和企业发展存在的问题进行了交流。贾县长详细向企业介绍了阳原招商引资优惠政策、阳原经济开发区（毛皮循环经济园区、园区污水处理厂）建设情况和全县毛皮产业发展情况；表示将认真学习借鉴对方的成功经验和先进理念，进一步加强沟通和交流，优化我方营商环境；并宣传拟在我县准备组织召开毛皮产业招商推介会，诚挚邀请海宁皮革协会组织和有意向性合作企业参加并到阳原考察，希望两地加强合作，实现优势互补、合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>9</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>我区召开南口公园公益图书馆设计方案论证会</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-07-20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/content/66966.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['7月18日，区委书记冯祥利主持召开南口公园公益图书馆设计方案论证会，听取公益图书馆设计方案。他要求，要坚持以人民为中心的发展思想，高起点规划、高标准设计，对标全国一流，进一步优化细化完善方案，努力提升城市品位，不断满足人民群众精神文化需求。区委常委、区委办主任刘小健出席，区相关部门及设计单位负责人参加会议。', '会上，冯祥利认真听取公益图书馆项目规划设计方案，同与会人员共同讨论，修改完善设计细节和功能布局。他指出，公益图书馆项目是桥东区的城市名片和文化地标，设计好、建设好、运营好意义十分重大。要进一步完善项目方案，把公益图书馆项目与工业文化主题公园衔接起来，在风格上简约简单、美观大气，在功能上突出重点、注重实用，全力建设成为全市一流书店，更好满足人民群众日益增长的精神文化需求。', '冯祥利要求，要坚持以人民为中心的发展思想，立足实际、着眼长远，做好整体规划布局，加快推进空间功能拓展，推动城市品位、功能实现新提升。要依托现有房屋结构，突出设计感和视觉冲击力，科学合理布局，努力实现空间利用最大化。要深入开展调查研究，赴全国先进图书馆进行学习考察，学习先进设计理念，结合我区实际，进一步完善规划设计方案。要突出功能性，在满足市民多种阅读需求的同时，要兼顾多功能会议、儿童休闲等功能，为老百姓提供了一个高水平、高质量、高审美标准的阅读休闲场所。', '7月19日，我区召开疫情处置模拟演练会，区长庄炳强出席并讲话。副区长尹建荣，各工作组、工作专班负责人参加演练。演练过程中，模拟全区某核酸采集点送检的（20：1）样本中，发现一个混检初筛阳性。区防疫办值班人员立即向防疫办主任、副区长尹建荣报告，经逐级上报区委主要领导后，启动《桥东区新冠肺炎疫情防控应急预案》，24个工作组、12个专班、8支队伍按照职责分工立即启动应急处置机制，第一时间按照预案流程开展...']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>我区召开年第十一次党工委扩大会议</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/219/28928.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['会议传达学习了《中共张家口市委关于深入学习贯彻中央政治局和省委常委民主生活会精神召开', '年度市委民主生活会情况的通报》文件精神；党的二十届二中全会精神和省委主要领导在省委常委会（扩大）会议上传达学习贯彻党的二十届二中全会精神时的讲话精神，研究我区贯彻落实意见；《关于赴北京、深圳、贵阳、宁波市公安局学习考察的情况报告》文件精神，研究我区贯彻落实意见；传达了《关于学习借鉴省体育局《河北体育强省建设场景展厅策划设计方案》制定完善各领域工作方案的通知》文件精神；听取了区自然资源和规划局关于森林草原防灭火工作情况的汇报、区组织部对', '年度考核结果的通报；审议了《乡镇党委书记考核办法》、《村党组织书记考核办法》、《乡村振兴工作队考核办法》；参会党工委领导班子成员分别讲了自己的意见；薛美华做总结讲话。', '要根据文件精神，及时进行我区民主生活会情况的通报，坚持把党的政治建设摆在首位，持续强化理论武装，教育引导广大党员干部坚决捍卫“两个确立”，增强“四个意识”、坚定“四个自信”、做到“两个维护”。要集中抓好问题整改，努力使整改的过程成为转变工作作风、推动工作落实的过程。要建立健全长效机制，持之以恒加强党风廉政建设和纪律作风建设，努力营造风清气正、风正劲足的干事创业环境。要促进成果转化落实，不断提升履职效能，精心谋划今年重点工作，深入开展调查研究，努力把民主生活会成果转化为推动察北工作的实际成效。', '要根据文件精神，及时进行我区民主生活会情况的通报，坚持把党的政治建设摆在首位，持续强化理论武装，教育引导广大党员干部坚决捍卫', '。要集中抓好问题整改，努力使整改的过程成为转变工作作风、推动工作落实的过程。要建立健全长效机制，持之以恒加强党风廉政建设和纪律作风建设，努力营造风清气正、风正劲足的干事创业环境。要促进成果转化落实，不断提升履职效能，精心谋划今年重点工作，深入开展调查研究，努力把民主生活会成果转化为推动察北工作的实际成效。', '党的二十届二中全会，是在全面贯彻落实党的二十大精神开局之年召开的一次十分重要的会议。全区上下要切实提高政治站位，及时组织各级各部门传达学习习近平总书记重要讲话和党的二十届二中全会精神，不断提高政治判断力、政治领悟力、政治执行力，始终同以习近平同志为核心的党中央保持高度一致。要在全面学习、全面把握、全面落实上下功夫，紧密结合自身实际制定实施贯彻落实的具体方案和举措，深入谋划推进中国式现代化察北场景，推动党的二十大精神在察北落地见效。要深入贯彻落实倪岳峰书记在省委常委会（扩大）会议上进一步做到思想要解放、观念要跟上，精神要奋发、干事要进取，态度要坚决、落实要迅速，督查要到位、机制要顺畅，请示要主动、报告要及时，工作要严谨、做事要较真的要求，持续解放思想、转变观念，时刻保持奋发进取的状态，以坚决的态度、高效的行动贯彻落实党中央、省委、市委决策部署，营造干事创业的浓厚氛围。', '要根据《关于赴北京、深圳、贵阳、宁波市公安局学习考察的情况报告》文件精神，结合我区实际，对照标杆查找不足，创新思维方式和规划理念。按照《关于学习借鉴省体育局《河北体育强省建设场景展厅策划设计方案》制定完善各领域工作方案的通知》的要求，将先进的工作做法工作经验融入到我区各项的工作当中，针对各类存在问题，分时间、定时限、精细化开展专项治理，开局即决战，起步即冲刺，一刻不停推进察北各项工作向纵深发展 。', '要根据《关于赴北京、深圳、贵阳、宁波市公安局学习考察的情况报告》文件精神，结合我区实际，对照标杆查找不足，创新思维方式和规划理念。按照《关于学习借鉴省体育局《河北体育强省建设场景展厅策划设计方案》制定完善各领域工作方案的通知》的要求，将先进的工作做法工作经验融入到我区各项的工作当中，针对各类存在问题，分时间、定时限、精细化开展专项治理，开局即决战，起步即冲刺，一刻不停推进察北各项工作向纵深发展', '当前正值春季森林草原防火关键时期，全区上下要深入贯彻习近平总书记重要指示精神和党的二十大精神，认真落实省委、市委部署要求，时刻绷紧防火这根弦，坚决克服麻痹思想和侥幸心理，强化风险意识，强化底线思维，压实防火责任，切实抓实抓细森林草原防火各项工作。要充分发挥干部考核指挥棒、风向标、助推器作用，坚持围绕中心、服务大局，突出政治素质考核，促使各级干部做到忠诚干净担当；坚持务实高效、简便易行，不断提高干部考核工作制度化、规范化、科学化水平。要以高质量干部考核促进高素质干部队伍建设，激励全区干部牢记初心使命、勇于担当作为，全力推动中国式现代化察北场景落地落实。', '3月13日，市中级人民法院党组书记、院长王靖到我区督导检查春季森林草原防灭火工作。区党工委书记薛美华、党工委副书记康金以及区党政办、自然资源和规划局、应急管理局主要负责同志陪同。王靖院长深入桃园山庄、察北森林草原消防大队和沙沟镇通过听取汇报、查阅资料、现场检查、询问交流等方式，对森林草原防灭火工作安排部署、林长制责任落实、火源管控、隐患排查整治、重点人员管控、扑救应急物资准备、宣传教育、值班值守等...']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>解放思想大讨论暖泉镇赴广灵县开展解放思想对标先进学习观摩活动</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-08-16</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/53/79404.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['【解放思想大讨论】暖泉镇赴广灵县开展“解放思想 对标先进”学习观摩活动 - 蔚县人民政府', '本着对照先进找差距、立足自身谋跨越的诚恳态度，通过现场观摩、听取介绍、沟通交流等形式，学习组虚心学、认真听、仔细记、用心悟，', '通过此次对标学习，一方面坚定了发展信心，收获了经验做法，明确了路径方法，找到了问题关键，同时也感到了发展的压力。他山之石，可以攻玉。', '将在借鉴学习优秀经验做法的基础上，将资源优势转化为发展优势，交好本地发展优异答卷，迎接党的二十大胜利召开！']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>外出学习拓思路南山汽车产业基地赴中南高科燕郊电子信息产业园参观学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://60.8.117.40:92/nsq/single/747/220306.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['外出学习拓思路 南山汽车产业基地赴中南高科燕郊电子信息产业园参观学习-河北张家口南山汽车产业基地管理办公室', '为进一步对标先进找差距，2月22日，基地管理办公室投促局负责人周竑宇带队，赴廊坊中南高科燕郊电子信息产业园学习考察，学习园区运营及招商引资等方面经验做法，以“比学赶超”促“提质增效“。', '座谈交流时，双方围绕产业园区运营、创业企业孵化、基金协同招商等进行了深入交流与学习，北京中联智创投资管理有限公司创始人曹志国分享近20年的园区运营经验，周竑宇重点介绍了基地产业发展现状、未来发展前景、重点招商方向、项目扶持政策，双方围绕委托招商，合作运营等事宜进行了深入沟通，为下一步拓宽招商渠道、产业加速赋能提供了有益借鉴。', '会后，周竑宇一行，到由中联智创招商运营的中南高科燕郊电子信息产业园参观学习，该产业园位于河北省廊坊市三河市，总占地96亩，总建筑面积13.3万平米，入驻企业中，高新企业占比80%，瞪羚及科技中小企业占比20%。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>张家口市多措并举扎实做好森林草原防灭火工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/218932.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['2023年以来，河北省张家口市把全面推进森林草原防灭火工作与纵深推进“首都两区”建设、加强京津冀协同发展、加快建设京张体育文化旅游带、推进后奥运经济发展等重大国家战略有机结合，按照党委统一领导、政府牵头负责、部门协调联动、群众广泛参与的工作模式，在实实在在“抓”、扎扎实实“落”中，把问题变成课题，把想法变成行动，把难点变成亮点，全面做好各项森林草原火灾防控工作。', '一是领导重视程度“高”，责任传导“到边到底”。市委、市政府高度重视森林草原防灭火工作，防火紧要期，市委、市政府主要领导每月主持召开全市防火工作会议并播放防灭火工作暗查暗访片，随机抽点县区、乡镇主管或分管领导汇报本辖区森林草原防灭火工作开展情况；组织各县区党委、政府主要负责同志和各县区党委常委，人大常委会、政府、政协领导班子成员进行森林草原防火知识测试，并组织全市232个乡、4176个行政村干部视频连线，对森林草原防灭火应知应会内容进行随机出题、随机提问，进一步凝聚全市广大乡村干部抓防火的合力；组织相关部门和一级防火县政府主要负责同志赴吉林省通化市进行学习考察，结合考察学习成果，立足本市实际，制定了张家口市《森林草原防火“四员”管理制度》《积极争取林草项目资金支持的若干措施》《森林草原防灭火工作协同联动机制》《森林草原防火宗地联防联保工作制度》《森林草原消防专业队伍靠前驻防和野外驻训工作制度》《森林草原消防队伍标准化建设办法》《国有林场提质增效工作方案》《秸秆焚烧和综合利用工作方案》等8个文件。', '二是灾前预防措施“实”，风险防控“织密织细”。把宣传教育作为森林草原防灭火工作的第一道工序、第一道防线来抓，印刷森林草原防灭火宣传知识便捷式手提袋，向学生发放《森林草原防火谨记于心——致学生和家长的一封信》及有森林草原防火字样的书包、笔盒、笔、书写本，在电视台、出租车播放森林草原防火宣传字幕和标语，多形式、多角度开展森林草原防火宣传；全市设置固定检查站264个，瞭望台252个，防火重点时期增设临时卡口1879个，按照“七步”工作法和“八个一”清单对过往车辆及行人逐一登记、问询，严防火种进山入林；深入开展森林草原火灾隐患排查整治和“六清”专项行动，森林草原防火重点部位得到有效清理，从源头上杜绝了森林火灾的发生。', '三是消防队伍建设“快”，实战能力“越来越强”。市县两级森林草原专业队伍科学制定全年训练计划，落实日常训练和考核制度，不定期组织开展实战化演练，全年集中食宿备勤，防火关键期实行靠前驻防和野外驻训，协助驻防县区、乡镇加强重点区域、重点时期、重点环节、重点人群防控。全市重点乡镇组建森林草原消防专业队伍163支1811人、半专业队伍166支5082人，重点村组建半专业队伍1443支21997人，护林（草）员队伍达到32881人，填补了基层没有专业消防队伍的空白，半专业队伍较去年增加1400支15751人，154个重点乡镇、1443个重点村，特别是环京部位、重要设施周边实现了森林草原消防队伍全覆盖。同时，各乡镇建立防火扑救应急响应图，实行“挂图作战”，根据火情设置10、15、20、30、40分钟响应圈，细化明确扑救力量的集结点位、梯队力量、指挥程序，切实做到“打小、打早、打了”。', '四是火灾扑救体系“全”，应急处置“提质提效”。强化会商研判，及时发布预警提示，综合运用卫星监测、视频监控、飞机侦测、地面瞭望等多种手段，对火情进行全天候监测；强化预案衔接，完善“两案、一图、一手册”，形成以扑救处置方案为总方案，14个主要成员单位处置方案为子方案的“1＋14”火灾处置体系；强化协同配合，建立联防联控、跨区域联动、双重调用、宗地联防等机制，进一步加强火灾预防和火情早期处理，实现无火互防、有火共扑。同时，制定《关于开展全市森林草原防灭火教育培训工作的方案》，开展常态化的集中学习培训，全方位提升全市应急救灾及突发情况处置能力。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>下好劳务协作先手棋打好人才培养组合拳张北县三举措推动京津冀劳务协作走深走实</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-02-23</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/220235.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['下好劳务协作“先手棋” 打好人才培养“组合拳” 张北县三举措推动京津冀劳务协作走深走实-张家口市人民政府', '下好劳务协作“先手棋” 打好人才培养“组合拳” 张北县三举措推动京津冀劳务协作走深走实', '打好劳务协作“组合拳”，不断扩大劳务协作覆盖面、提高劳务协作辐射力、增加劳务协作吸引力、强化劳务协作满意度，打造就业振兴“倍增器”，促进', '北京市西城区、天津市滨海新区两个经济体量和劳动用工体量大的城区积极对接，先后两次赴两地进行学习考察、交流对接。2月19日，三地在张北成功举行了京津冀协同发展劳务对接、人才培养共享共建签约仪式，“三地”签约深化了京津冀协同发展的张北场景，联合招聘会则让协同发展的场景有了最具象化的体现。当日，来自京津冀地区的185家企业携3000余个就业岗位现场招贤纳士。185家企业线下参加活动，其中包括26家北京企业，32家天津企业，共提供就业岗位3265个。线上参加企业289家，提供就业岗位5000余个。共吸引求职者6000余人到场，达成就业意向1545人。', '坝上薯农等国家省市三级劳务品牌，为提升劳务品牌的含金量，打造一批能够体现张北地域特色、具有市场竞争力的劳务品牌，进一步加大技能人才的培训力度，张北县公共实训基地、滨海新区公共技能实训中心以及西城区民办职业技能学校，建立培训设备、师资团队共建共享机制，相互设立大师工作室，组织开展技能大赛等。同时', '京津冀协同发展已进入全面深化实施的新阶段，人力资源公共服务面临着重大机遇。张北就业服务部门积极探索深化就业创业合作新机制，', '三地将企业用工岗位需求、技能人才信息录入大数据平台，畅通数据共享渠道，实现就业择业“一网通办”，在张北，劳务人员就可以通过大数据平台，浏览京津企业用工信息，实现用工单位和劳务人员直接对接', '同时，联合开展各类就业创业对接活动，鼓励有创业意愿的劳动者异地创业的，同等享受当地创业扶持政策，', '为推动张家口市经济高质量发展，全力做好2024年元宵节及全国两会期间森林草原防灭火工作，2月23日，张家口市森防办组织召开全市森林草原防灭火视频调度会议。各县区森防办、林草主管部门负责同志；市应急局、市林草局、市公安局、市生态环境局、市农业农村局、市自然资源和规划局负责同志；各县区防火重点乡镇负责同志参加此次会议。会上，涿鹿县、赤城县、怀来县、蔚县、崇礼区林草主管部门主要负责同志围绕护林（草）员做']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>政府副县长马征市青联秘书长刘阳带队赴石家庄市开展学习考察和招商引资活动</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-03-04</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/86776.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['政府副县长马征、市青联秘书长刘阳带队赴石家庄市开展学习考察和招商引资活动 - 蔚县人民政府', '近日，政府副县长马征、市青联秘书长刘阳带队赴石家庄市开展学习考察和招商引资活动。座谈会上，共青团石家庄市委副书记李庆赟对蔚县青联考察队伍的到来表示热烈欢迎，并分享了团市委在项目建设、招商引资、优化营商环境等工作上的经验做法。马征详细介绍了蔚县区位优势、产业发展、招商引资政策等基本情况，诚挚邀请企业负责人来蔚参观考察、投资兴业。随后，考察队伍到河北常青投资有限公司、河北京南众康科技有限公司、石家庄市京华电子实业有限公司就文旅、医疗器械设备生产及电子元件生产等项目进行了实地考察。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>尚义县八道沟镇多元驱动促进村集体经济增收</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/214179.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['近年来，尚义县八道沟镇始终突出党建引领抓手，以发展壮大村集体经济为目标，因村制宜，蹚出了一条村村有渠道、个个有亮点的村集体增收创收路径。2022年全镇村集体总收入达533万元，14个行政村村均收入38万元，其中收入最高的赛尔台村收入达52万元。截至2023年上半年，各村均按计划完成收入目标任务。', '党建引领“打底子”。镇党委将发展壮大村集体经济列入党建工作重要内容，镇、村两级书记扛起主体责任。年初，镇与各村签订发展壮大村集体经济责任书，明确任务目标，细化落实抓手，进一步强化村党员干部紧迫意识、责任意识。建立“定人员、定任务、定责任、定目标、定时限”五定责任制，力促工作落深、落细、落到位，见人、见事、见效果。为使发展壮大村集体经济学有榜样、赶有标杆，今年以来，全镇组织各村书记开展擂台赛，举办相互学习观摩活动，外出学习考察，全镇打造了赛台村与沃佳薯业公司以“村支部+企业”产业共建模式发展马铃薯育种储存销售全链条产业，村集体年增收10.8万元。', '摸清家底“铺路子”。镇党委成立了村集体资源资产清查工作专班，对各村集体财产进行精准盘底核实，明晰产权，澄清家底，并得到有效开发利用。经组织协调，集中整合东水、赛台、北石塄等五个行政村集体草地，出租国投新能源公司，每年村集体获得租金收入20万元。八道沟村将集体滩地租赁给唐县客商，投资3000多万元建设拓兴牧业肉羊育肥园区，年增收租金3万元。西赛村、七甲山村分别将闲置多年的旧学校、旧村部出租给两家企业建起养殖场和蔬菜晾晒场，不仅增加了村集体经济收入，也为助推本地种养特色产业发展创造了条件，提供了便利。', '拓宽渠道“开方子”。围绕全镇确立的“定一个规划、选一条路子、活一村经济、富一方百姓”的思路，各村结合自身优势，创载体、搭平台、拓渠道，不断扩展增收创收空间。按照一村一策，各具特色的要求，全镇各村相继创出了“资源开发型”“土地运营型”“实体带动型”“资产收益型”等发展壮大集体经济新模式。南大井村、狐子窝村等5个空心村治理复垦宅基地1000亩，复垦后租赁种植大户发展特色农业，通过“土地运营”模式拓展了新的增收渠道。八道沟村、博岱花村分别建起了米面加工厂、冷库经济实体，“实体带动型”模式成为两村壮大集体经济的主要支柱。七甲山村借助企业帮扶优势，以股份合作的形式，依托义顺安农业科技园区建设春秋大棚20个，每年增收5万元。', '强化保障“搭台子”。以村“两委”班子换届为契机，积极选拔学历高、懂技术、会经营、善管理的返乡能人、致富带头人、年轻党员进入村“两委”班子，发挥其聪明才智，开创强村富民新局面。七甲山村蔬菜种植致富带头人田春芳竞选为村支部书记后，充分发挥本村亚麻产业种植优势，村集体建起了亚麻油加工厂，加工厂每年为村创收3万元。目前，全镇69名村两委干部，像田春芳这样的致富带头人近20人。同时，将村集体经济发展列入党建考核、村支部书记抓党建述职评议考核的重要内容和年度先进党支部，优秀村干部评选重要依据，出台村“两委”干部星级化管理“积分制”考核、党员积分制管理办法，激发村干部干事创业活力。', '10月11日，市体育局党组成员、副局长黄建军主持召开2023年全市群众体育工作调度会暨2024年体育惠民工程工作谋划部署会议。市体育局群众体育科全体人员及各县区体育部门分管局长和科（股）长参加会议。会上，群众体育科传达了省群众体育重点工作调度会会议精神，总结前三季度全市群众体育工作，安排部署下一阶段重点任务，解读了河北省2024年体育惠民工程。各县区围绕乡镇工程完成情况、冰雪运动“三进”推进情况、']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>李克良主持召开市政府常务会议听取校园安全知识产权保护等工作情况汇报</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/zfcwhy/213060.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['李克良主持召开市政府常务会议 听取校园安全、知识产权保护等工作情况汇报-张家口市人民政府', '日下午，市长李克良主持召开市政府常务会议，传达学习习近平总书记在主持召开新时代推动东北全面振兴座谈会时的重要讲话精神，习近平总书记在听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报时的重要讲话精神，河北省党政代表团赴新疆学习考察有关精神，通报我市党政代表团赴新疆考察对口支援工作情况，听取校园安全、知识产权保护等工作情况汇报。', '会议强调，要深刻领会习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，进一步解放思想、奋发进取，突出工作重点，优化营商环境，不断开创各项事业发展新局面。要认真研究《关于强化企业科技创新主体地位的意见》，抢抓机遇、强化举措、抓好落实，持续加快提升科技创新能力。要把对口援疆作为坚定拥护', '会议听取了全市校园安全重大事故隐患专项排查整治工作情况汇报，强调要加强安防体系建设，提高保安员配备标准，完善校园安全应急预案。要强化校园日常管理，定期对校舍进行安检和维护，加强学校食堂和校外供餐单位食品安全隐患排查整治。要着力推进依法治校，落实未成年人保护法和预防未成年人犯罪法，压实学校和老师教育管理责任。要深化学校安全教育，建立健全安全教育机制，抓好应急演练，提高师生在防火防灾防溺水等方面的自护自救能力。', '会议听取了全市知识产权保护和发展工作情况汇报，强调要实施高标准保护，建立健全市、县两级知识产权维权援助体系，在全社会营造', '的良好氛围。要提供高水平服务，不断强化知识产权信息公共服务体系建设，打通知识产权公共服务', '行动，健全以企业为主体、市场为导向的知识产权创造机制，全面激发企业科技研发潜力和活力。', '9月3日下午，市长李克良主持召开市政府常务会议，传达学习《习近平法治思想学习提纲》（节选）、李强总理在国务院第二次全体会议上的讲话精神、河北省2023年洪涝灾后重建领导小组第三次全体会议精神，听取项目建设、食品安全等工作情况汇报。 会议强调，要深学细悟笃行习近平法治思想，依法全面履行政府职责，持续提升依法行政水平，努力打造人民满意的法治政府。要认真学习贯彻李强总理在国务院第二次全体会议上的讲话精']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>赵文锋主持召开张家口市委常委会扩大会议</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/zjkyw/212845.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['9月14日下午，市委常委会（扩大）会议召开，传达学习习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神和中共中央政治局会议精神；传达学习河北省党政代表团赴新疆学习考察有关精神和张家口市党政代表团考察对口支援工作情况、河北省学习贯彻习近平新时代中国特色社会主义思想主题教育第一批总结暨第二批部署会议精神，研究张家口市贯彻落实意见。会议还研究了《中共张家口市委关于深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育的实施方案》。市委书记赵文锋主持并讲话。', '会议指出，要深入学习习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，深刻理解和把握其战略考量、丰富内涵和实践要求，结合张家口市实际，围绕构建现代产业体系、推动城乡融合发展、深入实施重大国家战略、保障改善民生、营造良好政治生态等工作，坚持问题导向，奋力创先争优，加强量化分析，压实各方责任，努力交出高质量发展优异答卷。', '会议强调，要充分认识干部教育培训的重大政治意义和实践意义，把党性教育贯穿始终，出台培训规划，加强阵地建设，突出培训实效，着力培养造就高素质干部队伍。', '会议指出，要始终把对口援疆工作作为一项政治任务来抓，找准帮助受援地高质量发展的切入点、接合点、发力点，深入推进人才进疆、产业进疆、技术进疆、企业家进疆等，在深化合作共赢中携手推进高质量发展。', '会议强调，张家口市各级党委（党组）要充分借鉴运用第一批主题教育成功经验，牢牢把握主题主线，全面落实“以学铸魂、以学增智、以学正风、以学促干”的重要要求，坚持问题导向、实践导向、结果导向，聚焦工作重点，大兴调查研究，加强组织领导，把主题教育谋划好、组织好、落实好，切实推动主题教育取得实实在在成效。', '9月13日下午，在收听收看全省知识产权保护和发展会议后，我市立即召开全市知识产权保护和发展会议，对相关工作进行安排部署。市长李克良出席并讲话。 李克良指出，加强知识产权保护和发展工作，是实施创新驱动的关键举措，是推动高质量发展的有力支撑，是优化营商环境的现实需要。各级各部门要深入学习贯彻习近平总书记重要指示精神，贯彻落实党中央、国务院决策部署和省委、省政府工作安排，进一步明确细化目标任务，全面...']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>对政协张家口市桥东区十八届三中全会社会建设类第号提案的答复</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/content/84427.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['对政协张家口市桥东区十八届三中全会 社会建设类第23号提案的答复 - 张家口市桥东区人民政府', '关键在基层党组织、在广大党员，健全基层党组织领导的基层群众自治机制，把社区工作做到位做到家，在办好一件件老百姓操心事、烦心事中提升群众获得感、幸福感、安全感。近年来，在区委区政府的领导下，我们更加注意探索基层治理体系和治理能力现代化的有效路径，', '《关于继续加强和完善城市社区民主协商共治工作的通知》，指导社区从加强社区民主协商共治小组；建设修订完善社区民主协商共治事项目录；统筹做好社区民主协商共治程', '序三方面入手，对本社区年度工作计划、自治章程、居民公约、公共事务和公益事业及居民意见较为集中的重点难点热点问题开展民主协商，', '构建社区党组织为核心，社区居民委员会、居务监督委员会、业主委员会、居民（代表）小组、物业公司、社会组织和政府相关职能部门于一体的多元共建、共商共治的开放性基层治理格局。', '一是强化基础建设，提高服务质量。推动社区综合服务设施标准化建设，整合党建、政务和社会服务等资源，将街道下沉的党群服务、基本公共服务、社会服务已经有关部门需由社区协办事项纳入社区综合服务站，设立综合服务窗口。按照《关于加强和改进城市基层党建工作的若干措施》要求，严格落实社区工作经费和党组织服务群众专项经费。', '积极扩宽社区干部新出路，抓住选、育、管、用等环节，强化激励、严格管理、加强培训、拓宽思路，激励社区工作者担当作为、争先创优。', '。提高社区工作人员待遇，按照职业化体系管理，定岗定资，工资水平有了大幅提升。大胆提拔任用人才，打通了社区书记进一步向上发展的通道，很多优秀的社区书记被提拔到街道副科级岗位。考核择优入编，考虑社区干部在疫情期间的特殊贡献，对表现特别突出的社区书记纳入事业编制管理。加强教育培训，', '等方式，围绕加强城市基层党建工作、党建引领基层治理、物业管理先进理念等内容进行培训。多次组织优秀社区书记到北京、上海、浙江等地学习考察，有效提升了为民服务、组织动员、议事协商、应急处置等方面的能力水平，确保解题有能力、办事有方法。', '由社区居民委员会、社区社会组织负责人和楼门长（居民代表）、社区物业管理员、社区辅警、法律顾问、人民调解员等组成。定期召开专题会议，', '协调解决辖区内物业管理中出现的问题，督促业委会和物业服务企业履职尽责。指导街道、社区完善物委会管理的相关运行机制，构建社区党组织、居民委员会、业主委员会、物业服务企业、楼门长、综合服务站等', '为切实加强基层治理体系和治理能力现代化建设，发挥网格化服务管理作用，桥东区建立了路段街长、小区片长制度，由区级领导担任大片长，每个大片再细化为若干个小片，由正科级领导担任小片长，构建起职责明确、任务到人、一包到底的基层治理责任体系。社区党组织、包联单位、驻街单位三方联动，本着责任到底、任务全覆盖的原则，在社区党委统一指挥下共同参与所包路段、片区的全部工作，构建起全区上下齐抓共管、协同作战的网格化治理体系，做到责任到人大管理、为民服务无死角。', '对政协张家口市桥东区十届三次全会社会建设类第13号提案的答复欧阳凯锋代表：您好！您提出的关于“完善志愿者管理制度，建立便捷有效响应机制”的提案已收悉，现答复如下：近年来，我区志愿者工作在区委区政府和区文明办的领导下，围绕大局，贴近群众，秉承“奉献、友爱、互助、进步”的志愿精神，在多个领域开展志愿服务，向有需要的人群提供社会关注与公共服务，成为全区群众性精神文明创建活动中的一道亮丽风景线。一、我区志...']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>9</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>李克良率团赴北京市门头沟区学习考察</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/zjkyw/203346.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['7月19日，市委副书记、市长李克良率相关部门和县区负责人到北京市门头沟区考察，深入学习贯彻习近平总书记重要讲话精神，进一步深化两地对接交流，共商合作发展大计，为推进京津冀协同发展贡献力量。门头沟区委副书记、区长吕晨飞参加活动。', '考察团先后到潭拓寺镇紫旸山庄客栈、中关村门头沟园政务服务站、中关村（京西）人工智能科技展厅、百洋科研成果转化展示中心等处，认真学习门头沟区在文旅产业、政务服务进驻园区、优化营商环境、人工智能产业发展等方面的先进经验，并召开座谈会，进行深入对接交流。', '李克良表示，通过学习考察，门头沟区特色鲜明的文旅产业、良好的政务服务环境和营商环境、突飞猛进的人工智能产业等让我们深受启发。张家口市将与门头沟区持续加强沟通对接，努力探索更为广阔的合作空间，携手实现共赢发展。张家口市各县区各部门要认真学习门头沟区的好经验，深入挖掘文化资源禀赋，大力发展民宿旅游，加快建设京张体育文化旅游带。要找准定位，立足国家数据中心集群城市，充分发挥张家口可利用土地充足，接纳大型数据中心项目的能力强、承载空间大、交通区位明显的优势，按照“研发和算法在北京，数据和算力在张家口”的思路，大力引进数字产业优质资源，持续推进大数据中心集群建设。要对标门头沟区政务服务，深入查找工作中存在的差距不足，加快推进跨省通办力度，持续优化工作流程，提升服务水平，全力打造营商环境新亮点，为交好本地发展优异答卷贡献力量。', '吕晨飞代表门头沟区委、区政府对考察团一行表示欢迎。他说，北京市委十三届三次全会对深入推进京津冀协同发展作出了安排部署，明确了具体措施和任务。门头沟区各级各部门将进一步提高政治站位，主动融入国家战略，深刻领会和把握京津冀协同发展的新形势、新目标、新要求，深化两地发展战略对接，建立长效合作机制，整合双方优势产业资源，打造新的合作亮点，在互利共赢中加快发展、共享成果，共同开启两地高质量发展新局面。', '门头沟区委常委、常务副区长庆兆珅，市领导郭志炜，市政府秘书长张爱民等参加。（张家口日报记者 秦建）', '7月18日，市委书记赵文锋到桥东区就氢能产业发展进行调研。何大为 摄 7月18日，市委书记赵文锋到桥东区调研氢能产业发展情况。他强调，要深入学习贯彻习近平总书记重要讲话精神，按照党中央、省委决策部署，完整、准确、全面贯彻新发展理念，创优产业发展生态，开拓创新应用场景，加快推进氢能产业发展壮大，努力交出高质量发展优异答卷，为建设新型能源强省贡献力量。 落户张家口氢能创新产业园区的昊安青源氢能...']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>优化营商环境万全公安一窗通办提升服务质效</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/71258.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['在提升服务居民质效、优化法治化营商环境进程中，张家口市公安局万全分局落实上级公安机关部署，在孔家庄派出所推行政务服务“一窗通办”，将“一事跑多窗”简化为“一窗办多事”，取得了新成效。', '“一窗通办”打破部门界限，按“前台综合受理、后台分类审批、统一窗口出件”的模式，改变过去办理环节多、重复交材料的情况，全面提高了办事效率。', '推进“一窗通办”过程中，万全公安分局三次到先进单位学习考察，解决了“思路”难题；专门购置了“多媒体触控机”、“交管证件专用打印机”等设备，解决了“数据”难题。“一窗通办”窗口运行以来，已办理户政业务3050件次，车驾管业务12件次。', '万全公安分局将积极探索完善“一窗通办”模式，不断创新和健全运行机制，实现窗口综合受理规范化、制度化、多样化，积极为群众提供更加便捷、高效、完整的“一站式”服务，真正提升“服务指数”。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>9</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>张家口市行政审批局三个聚焦深入开展主题教育前期工作以学促干切实优化营商环境</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-05-18</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://spj.zjk.gov.cn/single/506/201448.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['张家口市行政审批局 “三个聚焦”深入开展主题教育前期工作 以学促干切实优化营商环境-张家口市数据和政务服务局', '张家口市行政审批局 “三个聚焦”深入开展主题教育前期工作 以学促干切实优化营商环境', '“三个聚焦”深入开展习近平新时代中国特色社会主义思想“大学习”，全面系统、及时跟进学习，在思想碰撞中深化认识、坚定信念，在深学细悟中激发动力、增强本领，以学促干切实优化营商环境。', '坚持聚焦重点学。把习近平新时代中国特色社会主义思想学习作为日学习、周讲堂、月测试、季擂台的主要内容，自主题教育前期工作开展以来，组织理论学习中心组学习研讨3次、党支部集体学14次、党小组研讨学40余次，以多种形式原原本本学习《习近平新时代中国特色社会主义思想专题摘编》等内容，深刻领会习近平新时代中国特色社会主义思想的世界观、方法论，推动学习贯彻习近平新时代中国特色社会主义思想往深里走、往心里走、往实里走，持续夯实忠诚捍卫“两个确立”、坚决做到“两个维护”的思想根基。', '坚持聚焦重点学。把习近平新时代中国特色社会主义思想学习作为日学习、周讲堂、月测试、季擂台的主要内容，自主题教育前期工作开展以来，组织理论学习中心组学习研讨', '3次、党支部集体学14次、党小组研讨学40余次，以多种形式原原本本学习《习近平新时代中国特色社会主义思想专题摘编》等内容，深刻领会习近平新时代中国特色社会主义思想的世界观、方法论，推动学习贯彻习近平新时代中国特色社会主义思想往深里走、往心里走、往实里走，持续夯实忠诚捍卫“两个确立”、坚决做到“两个维护”的思想根基。', '坚持把主题教育预热升温与当前优化营商环境攻坚各项工作紧密结合起来。持续加强优化营商环境业务知识学习，包括习近平总书记关于行政审批和优化营商环境指示批示精神、', '“放管服”改革、行政审批制度改革、政务服务管理等有关法律法规、部门规章等内容。立足政务服务工作实际，利用碎片化时间和业余时间开展《百问百答》互考互问。组织开展营商环境100题专题学习，坚持以学促知、以学促干，把学习成果转化为优化营商环境的具体措施。', '6批次外出考察，赴北京、上海、安徽、江西等多地培训考察，补齐工作短板、汲取先进经验，并将学习考察成果落实到提升优化营商环节考核指标上。按照市委要求，从工作上找差距、从思想主观上找问题、对照职责和作用发挥找短板，制定“三找”任务、责任、措施、时限四个清单，建立科室“三找”四个清单，共梳理工作任务130余项，局党组讨论研究梳理工作任务13项，倒排工期、挂图作战，采取项目化落实、工程化推进的方式集中推动解决，按月报送工作进展，全面抓好整改提升，带动全体干部从一开始就学起来、做起来、查起来、改起来。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>市国动办赴浙江河南等地对标学习考察</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-06-03</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/201496.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['5月22-26日，按照市委市政府“大调研”活动安排，办党组书记、主任武爱军，三级调研员麻荣富带领市办业务人员和部分县区负责同志到浙江省杭州市、河南省郑州市和焦作市国防动员办公室对标先进、调研工程和座谈交流。杭州市的基本指挥所建设和结建人防工程建设较为先进，所属县区均已建成基本指挥所，构成了坚固的人防指挥所系统；结建人防工程建设思想开阔，地下车位充电装置已初具规模；管理模式超前，杭州市国动办已建成“智慧云”平台来监督全市范围内人防工程维护管理情况。郑州市的直属人防工程建设较为完善，以“德化新街”为代表的地下商业街人流量大、运营效果好，既保证了人防工程战时的防护功能，还提高了平时利用率。焦作市的营商环境工作较为突出，2019至2021年连续三年名列前茅，受到市人大常委会通报表彰；通过将优化营商环境纳入“一把手”工程、创造流程最优政务服务全链条、推进建设项目承诺制改革、实施“互联网+监管”“双随机、一公开”、推动信用体系建设和全面提升人防系统政务服务环境来提升营商环境工作。通过对标先进和调研考察，市国动办将进一步深化“三找”，下大力气查漏补缺、强化整改，致力进一步提升人防工程建设管理和优化营商环境水平。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>万全区司法局党组外出学习考察优化营商环境等业务工作</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/31/70073.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为了进一步更新优化提升营商环境工作理念，对标先进，开阔发展视野，全力推进优化营商环境攻坚战，近日，区司法局局长王月军带队赴钱塘区、黄山区、屯溪区等地学习考察优化营商环境工作。', '在钱塘区，司法局局长徐志忠陪同调研法治政府建设、行政执法监督、法律服务和律师管理等工作情况。双方还围绕法治化营商环境建设、行政复议工作、行政执法改革等内容进行了互动交流，希望以这次考察为契机，进一步加强沟通，共同促进法治化营商环境建设。', '在黄山区，区司法局党组成员、副局长李若安陪同实地查看了黄山区公共法律服务中心、社区矫正中心、青少年法治宣传教育基地，并深入该区耿城司法所，了解司法所规范化建设情况，查看了人民调解档案卷宗。', '在屯溪区，司法局党组书记、局长程志明陪同实地查看了屯溪区公共法律服务中心、智慧矫正中心，随后双方人员参与了座谈。会上，程志明局长介绍法治政府建设、优化法治化营商环境、基层治理等方面的先进做法和工作亮点。随后双方围绕法治政府建设示范创建、行政执法监督机制、行政复议改革等问题进行了深入的交流探讨。', '参加考察学习人员一致表示，要以此次考察学习为契机，深层次反思自身不足，解除固步自封的落后思想，学习兄弟县区敢创敢干的士气，努力提升司法行政工作水平，营造一流的法治化营商环境。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>9</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>南留庄镇组织人员赴北京市开展招商引资和学习考察活动</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/5EwVX71aJeFwwHxGCVUmwA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['4月22日至23日，南留庄镇主要负责人带领该镇镇村干部一行8人赴北京市开展招商引资和学习考察活动。', '该镇招商引资考察团与光大畜牧（北京）有限公司董事长王沥斌、北京志广富庶农产品有限公司总经理吴志广进行考察洽谈并召开座谈会。', '会上，与会人员共同观看南留庄镇宣传片《古韵新姿南留庄》，就已落地预投产的德广禾牧项目交换了意见，并研究洽谈启动二期项目。', '他们还与中科控股集团COO兼首席EOD专家黄新福进行了交流对接，并诚挚邀请黄新福到南留庄镇考察。', '今后，南留庄镇将进一步优化营商环境，扎实推进招商引资工作，全力推动全镇经济实现高质量跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>9</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>参加招商引资专题学习考察活动</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/single/170/75068.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['为加强招商引资干部队伍建设，提升招商队伍业务水平，4月16日至20日，市精准招商工作领导小组办公室组织市招商学习考察团赴浙江省杭州市，参加浙江大学继续教育学院举办的招商引资专题学习考察活动，桥东区商务局副局长臧祎娜、招商二科科长荆栩参加。', '本次培训为期4天，紧紧围绕产业招商和项目建设相关内容展开，设置了“政府招商的产业定位与策划包装”“加快新旧动能转换，促进产业优化升级”等课程。为切实提高针对性和实效性，培训还安排了现场教学环节，组织学院到杭州市下沙经开区、滨江高新区等地考察学习、与当地企业现场交流，通过实地考察互动，确保培训取得扎实成效。', '本次专题学习考察活动对招商引资工作具有很好的指导作用，参加的学员深受启发，收获颇丰。', '4月13日，区发改局开展“大练兵”业务学习（第二周）。学习加强投资项目可行性研究着力推动投资高质量发展——《投资项目可行性研究报告编写大纲及说明》解读之一首都“两区”办公室：坚持贯彻党的二十大精神，努力推动建立适应符合中国投资实践活动的投资项目可行性研究制度规范。可研大纲的颁布实施，将为扩大有效投资，促进高质量发展提供有力支撑。投资项目可行性研究报告的编写对于投资决策的制定和实际实施非常重要，是投...']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>9</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>市机关事务管理局赴外省学习考察公务用车集中统一管理</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-04-22</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/197675.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['4月17日至21日，市机关事务管理局党组成员、副局长郭金林带队一行6人赴天津市西青区机关事务管理局、江苏省宿迁市机关事务管理局、江苏省连云港市机关事务管理局学习考察公务用车管理体制机制建设情况。', '人赴天津市西青区机关事务管理局、江苏省宿迁市机关事务管理局、江苏省连云港市机关事务管理局学习考察公务用车管理体制机制建设情况。', '学习过程中重点考察了党政机关公务用车集中统一管理的运行机制和公务出行租赁服务保障模式，并实地观摩了公务用车平台建设、硬件设施、车辆档案、监督运行等。', '下一步，我局将转化利用学习考察成果，将成果转变为做法，助推我市实行公务用车集中统一管理。此次学习考察结合“大练兵”活动，采用“走出去、请进来”的方式向先进地区学习对标，进一步提升了公车管理水平。', '下一步，我局将转化利用学习考察成果，将成果转变为做法，助推我市实行公务用车集中统一管理。此次学习考察结合']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>9</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>县委常委政府副县长李军军一行赴佛山市仁康医院学习考察</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/82343.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['4月5日，县委常委、政府副县长李军军及县人民医院、县政府办、县投促局有关同志赴佛山市仁康医院学习考察。', '李军军一行对仁康医院健康医学工程慢病康复中心进行了实地观摩，并对中国工程院院士、中国生物医学工程研究奠基人俞梦孙提出的人体健康系统工程理论及系统整体架构进行了深入了解，与仁康医院负责人就医养结合、康复养老体系建设进行了探讨交流。', '李军军表示，康养行业是蔚县的一个发展方向，如何承接京津养老需求，一直是摆在我们面前需要解决的问题。通过本次学习考察，让大家清楚地认识到真正实现医养结合，需要地方政府不断加强整体规划、资源调配和区域布局。相关部门要认真了解、掌握、吃透上级政策措施、标准要求，正视医养服务工作存在的问题短板；要进一步完善医养服务体系，为患者提供更为高效的服务；要深入推进医疗设施建设，持续完善机构管理机制，让老年人真正达到老有所养、老有所依、老有所乐。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>9</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>李克良带队赴北京市延庆区考察对接</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-06-22</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/zjkyw/202350.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['6月20日下午，我市组团到北京市延庆区考察对接，深入学习贯彻习近平总书记重要讲话精神和党的二十大精神，全面落实党中央、国务院和省委、省政府决策部署，学习借鉴延庆区先进经验，进一步深化两地交流合作，为纵深推进京津冀协同发展贡献力量。延庆区委书记于波，市委副书记、市长李克良等参加活动。', '6月20日，市长李克良率市直有关部门负责人到北京市延庆区中关村延庆园格灵深瞳学习考察园区建设。曹东宇摄', '考察团先后到八达岭镇石峡村、中关村延庆园格灵深瞳（北京）智能科技有限公司、延庆区政务服务中心、延庆规划展览馆等处，认真学习延庆区在民宿产业、园区建设、政务服务进驻大厅及优化营商环境、城市规划建设等方面的先进经验。', '6月20日，市长李克良率市直有关部门负责人到北京市延庆区政务中心学习考察营商环境化方面的先进经验。曹东宇摄', '6月20日，市长李克良率市直有关部门负责人到北京市延庆区规划馆考察学习城市规划建设。曹东宇摄', '于波对考察团一行到来表示欢迎。他说，北京市委十三届三次全会审议通过的《中共北京市委关于贯彻落实习近平总书记在深入推进京津冀协同发展座谈会上重要讲话精神的意见》，对学习贯彻习近平总书记重要讲话精神、深入推进京津冀协同发展作出了安排部署，明确了具体措施和任务。延庆区委、区政府将切实把思想和行动统一到习近平总书记重要讲话精神上来，聚焦到北京市委决策部署上来，深刻领会和把握京津冀协同发展的新形势、新目标、新要求，大力支持张家口首都水源涵养功能区和生态环境支撑区建设，加强与怀来县、赤城县等毗邻县区对接合作，加快推动官厅水库生态修复和饮用水水源地恢复，协同打造京张体育文化旅游带等各项任务，努力推动两地协同发展不断迈上新台阶、取得新成效。', '6月20日，市长李克良率市直有关部门负责人到北京市延庆区八达岭镇石峡村学习考察民宿产业。曹东宇摄', '李克良表示，通过学习考察，延庆区特色鲜明的民宿产业、蓬勃发展的园区和企业、良好的政务服务环境和营商环境、先进的城市规划建设理念等让我们深受启发。张家口将与延庆区持续加强沟通对接，努力探索更为广阔的合作空间，携手实现共赢发展。张家口要认真学习延庆区的好经验，深入挖掘文化资源禀赋，大力发展民宿旅游，加快建设京张体育文化旅游带。要紧紧扭住疏解北京非首都功能这个“牛鼻子”，不断增强园区承载能力，大力引进科技、教育、医疗等优质资源，持续提升区域发展水平。要对标延庆区政务服务，深入查找工作中存在的差距不足，加大政务服务进驻大厅推进力度，持续优化工作流程，提升服务水平，全力打造营商环境新亮点。要充分发挥规划引领作用,以高标准规划引领高质量城市建设，为奋力谱写中国式现代化建设河北篇章贡献力量。', '延庆区委常委、常务副区长丁章春，市领导刘海峰、郭志炜，市政府秘书长张爱民等参加。（河山新闻记者 郝学锋）', '6月20日，市委书记赵文锋到蔚县调研。何大为 摄 6月20日，市委书记赵文锋以“四不两直”方式，到蔚县就“找差距、找问题、找短板”“三个一”等工作开展情况进行调研检查。他强调，要深入学习贯彻习近平总书记视察河北重要讲话精神和党的二十大精神，全面落实省委十届四次全会和市委十二届六次全会安排部署，以奋进姿态推动各项事业高质量发展。 在南留庄镇，赵文锋详细了解常态化征求企业诉求等工作开展情况，仔...']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>9</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>区长唐殿福主持召开开发区专题办公会</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2022-01-08</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.zjkxuanhua.gov.cn/content/20325.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['1月7日，区长唐殿福主持召开开发区专题办公会，研究园区需要实施的重点项目情况，听取开发区有关情况汇报。 开发区工委书记、管委会主任韩启胜，副区长徐坤，开发区管委会副主任李占魁、赵建彬参加会议。', '会上，研究了园区整体区域评估报告、北山园区颐粟农业科技孵化器项目、京张奥园区基础设施建设项目（一期）、西新产业园基础设施建设项目、南山园区基础设施建设项目、浣新洗涤产业园东侧道路建设项目、京奥大道建设项目、异质结10GW电池片及10GW光伏组件生产项目、三一重能华北制造中心建设及新能源开发一体化项目等9项园区需要实施的重点项目情况。同时，听取了开发区关于行政审批、资金债务、税收分成有关情况汇报。', '唐殿福指出，园区是我区产业转型的重要载体，是项目建设的重要平台，是招商引资的主要阵地，是承载全区未来发展的希望所在，各部门要深刻认识推进重大项目建设的重要意义，主动担当履职，统一思想形成合力，促进园区项目提速提效。', '唐殿福强调，要细化分解各重点项目任务，明确任务清单，定时间、定节点按时完成。要进一步压实责任，形成扁平化管理，组建工作专班，确保责任到人到岗。要加强学习考察，寻找投资强度够、实力强的项目，对重大项目要有针对性的对接，抓紧抓实谋划项目实施。要建立一个从最初设计、预算、评审到竣工、审计的全流程、全生命周期的长效机制，保证工程质量，解决资金来源。要坚定信心，拓展思路，明确主攻方向，以较真碰硬的决心，高度负责的态度，求真务实的作风，不折不扣的执行好目标计划，切实做好各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>加大招商引资力度促产业集群化发展</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2022-01-25</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/single/170/61532.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['2021年，我局立足全市建设“首都两区”、打造“河北一翼”总定位，按照区委、区政府“12557”总体思路，抢抓机遇，迎难而上，苦干实干、奋力攻坚，一如既往围绕招商行棋落子，', '省内外各类会展，精心组织招商引资活动。以展会为契机，举行有针对性的招商推介活动，大力宣传桥东，扩大其影响力，增进与投资者的交流和互信，吸引更多企业家来我区投资兴业。', '先后赴如皋、邯郸、辛集、石家庄、藁城，进行了实地学习考察。在学习考察过程中通过实地观摩、现场提问、座谈交流等方式，不断总结提炼各地的发展经验，进一步把学习考察成果转化为推动开发区发展的动力', '实施氢能“三区一中心”协同发展，通过要素保障、政策支持保障、市场应用保障，不断强链、补链、延链，打造百亿级的氢能产业集群。', '按照全区“相约冬奥—扛红旗、当先锋”专项行动安排，桥东区发展和改革局以雪为令，第一时间组织全局干部职工拿起铁锹、扫帚等工具，到包联路段清雪除冰，为群众出行提供了方便。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>9</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>学习考察桥东区融资平台建设</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.zjkqxq.gov.cn/single/11/70501.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['7月8日上午，桥西区委常委、常务副区长王晓龙带领区财政、区住建等相关部门负责人到桥东区就扩大融资平台建设，保持经济社会平稳健康发展进行深入学习交流。一是进一步解放思想，增强创新意识，整合全区优势资源，通过联合、重组、兼并，打通上下游，形成开发、设计、施工、运营的产业链，加快培育一批资产规模大、融资能力好、市场竞争力强、资质等级高的大型骨干企业。二是进一步深化区属和利物业、桥西市政等国有企业改革，全力推动组建大中型企业集团，按照现代企业制度要求，健全完善集团组织机构和科学的经营管理体制，形成精干高效、科学有序的企业管理运行体系。三是积极寻求市级融资平台支持力度，通过资本运作和产业整合，以此扩大资产规模，进而增强区属国有企业的实力，进一步提高融资能力。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>9</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>唐山市丰南区工商联主席马振生一行赴我市学习考察电商工作</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2022-07-06</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/175018.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['6月23日-24日工作。考察组先后赴张北县、尚义县、经开区和万全区，实地考察谷之婵、天勤农贸等企业，并与市县商务部门座谈，深入交流电商平台引进、大数据产业和农产品电商等。王铁军调研员、经开区商务局局长宋建丽和万全区商务局副局长田凤星陪同。', '为弘扬伟大的建党精神，庆祝建党101周年，进一步做好老干部员服务保障工作，根据中共张家口市委办公室印发《关于加强新时代退休干部党的建设工作的实施意见的通知》要求，2022年6月底至2022年7月初，在张晓东书记，治秀芳局长带领下开展了“七一”慰问离休干部和生活困难党员活动。张晓东书记到家慰问离休干部刘明铎，关切询问其身体状况和生活起居，鼓励老人要保重身体，同时叮嘱家属要照顾好老人生活。治秀芳局长到']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>9</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>张家口市财政局关于贯彻落实十八届中央政治局中央八项规定的实施办法</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021-10-26</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://czj.zjk.gov.cn/single/306/93425.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['为深入贯彻落实《十八届中央政治局关于改进工作作风、密切联系群众的八项规定》（中发[2012]11号）和省、市有关规定要求，结合我局实际，就财政干部改进工作作风、密切联系群众有关事项，制定本实施办法。', '1.完善调研制度。围绕提高决策水平和政策研究针对性，建立调研联系点制度，局领导和各处室定期到联系点调研走访。坚持领导干部直接联系群众制度，每名局领导在帮扶村、帮扶社区或帮扶企业确定8名以上普通群众，经常走访联系，征求意见建议，帮助解决难题。各处室根据部门职责，定期到各县区、业务部门、预算单位走访，了解政策落实情况，征求意见建议，解决实际问题。', '2.注重调研实效。明确调研主题，确保调研的针对性和成效性，对调研中发现的问题，要认真研究并加以解决。局领导和各业务处室每年到基层专题调研要形成1—2项调研成果，并抓好调研成果的转化应用。办公室负责实行外出管理，加强统筹安排，避免短期内对同一内容、同一地点先后重复、集中安排调研，减轻基层负担。', '3.坚持轻车简从。局领导到基层考察调研，要严格按照要求，不搞层层陪同、多人陪同。各处室到基层调研或开展业务工作，一般安排集体乘车，从严控制随行车辆。', '4.简化调研接待。到基层调研，严格按照规定标准住宿，会议室和房间不摆放鲜花、水果、干果、香烟和洗漱包。不安排宴请，工作餐安排当地菜品，不上高档菜肴，午餐禁止饮酒，用餐时间不超过40分钟。不得收受各类纪念品和土特产品，一律不组织与公务无关的活动。', '5.规范会议活动管理。除全局性会议外，能用文件、电话等形式解决问题的不召开会议，能衔接、合并召开的不分别开会。会议（培训）活动严格实行年度计划管理，确需召开的会议（培训）必须明确会议规模、参会人数和会议地点。未经批准，各处室不得随意召开由县区和部门参加的各类会议。办公室、人教处、机关事务管理中心要严格按照会议管理要求，严格会议标准、经费管理。', '6.控制会议培训规格。压缩会议（培训）时间，全市性财政工作会议每年不超过2次，会期不超过半天；单项业务工作会议每年不超过1次，会期不超过半天。单项业务培训每年不超过1次，时间不超过3天，重点培训经局领导批准后，天数可适当延长。精简与会人员，与会议内容无关的人员不参加会议。原则上，参会人员食宿费用自理。各项工作会议（培训），按照“谁分管、谁参加”的原则，安排分管领导出席。提倡开短会、讲短话，会议要减少安排大会发言。', '7.加强会议培训经费管理。一般性财政工作会议（培训）优先安排在局内会议室、赤城财政培训中心举办。实行会议经费审批制度，会议费预算事先报主管领导审核后，报主要领导审批。会议（培训）费开支实行综合定额控制，严格按规定标准列支。举办会议（培训）期间，不组织文艺表演，不安排合影，不额外配发生活用品，会场及房间不摆放水果、鲜花和香烟，不发放会议纪念品。严禁借会议（培训）名义组织消费性娱乐、外出参观、景点旅游等活动。', '8.压缩文件简报数量。上级下发的没有具体贯彻意见的文件均不再以局名义转发或印发。严格审核把关，凡属没有实质内容、可发可不发的文件一律不发。下发县区和处室的文件、通知等通过办公自动化系统或内网下发。除《张家口财政》、《财政特报信息》、《财政预算收支分析》印发纸质以外，《财政信息》通过财政网刊发电子信息，其他简报类刊物一律取消。控制文件篇幅，原则上报送市委、市政府、省财政厅文件不超过2000字，报局领导的一般性报告、请示等文件字数控制在1500字以内，调研报告字数控制在3000字以内。', '10.合理安排外出考察。因公外出考察实行年度计划管理，按规定程序审核报批。严禁借开会、考察、学习、培训等名义，变相组织公款旅游。各处室赴外省市考察学习，除上级机关或市委、市政府组织的学习考察外，原则上1年不超过2次，每次外出时间一般控制在4天以内，最长不超过6天。出国（境）考察，按规定程序审核报批，不得参加无实质性任务、没有明确公务目的的出国（境）考察活动，不得接受企业和服务对象的邀请出国（境）旅游。', '11.严格接待管理。接待上级领导和外省市来宾，要严格执行接待审批制度。在用餐和住宿安排上严格执行《张家口市财政局会议组织及公务接待管理办法》，严格执行接待规定，不准擅自提高接待标准。用餐体现地方特色，严格控制陪客人数，严格执行差旅费管理标准。', '12.严格财务管理。坚持厉行节约，勤俭办事，加强预算执行管理，带头严格控制机关一般性支出和“三公经费”。认真执行财务开支有关规定，实行支出事先报告制，严禁先花钱后审批，执行差旅费管理标准，严格控制会议活动经费，不得超标准报销住宿费和交通费。办公室要定期把各处室相关经费的使用情况报局领导审阅。', '13.严格公车使用管理。按照党政机关公务用车配备使用管理有关规定，严格公务用车管理。严禁为公车增加高档配置或豪华内饰，严禁以个人或企业等名义购置公务用车和办理使用手续，严禁私自换车、借车、公车私用，严禁领导干部擅自驾驶公车。到省外、省内出差提倡乘坐公共交通工具。公务用车实行定点维修、定点加油制度，严格落实车辆维修审批制度，不得在车辆维修等费用中虚列名目或夹带其它费用。', '14.严格遵守廉洁自律规定。严禁公款吃喝，公款消费，严禁婚事大操大办。严禁在公务活动中收受礼金、有价证券、支付凭证、商业预付卡和各种礼品、土特产。严禁用公款相互走访、送礼、宴请，不准在春节期间搞相互走访拜年活动。严禁参与任何形式的赌博和变相赌博活动。', '15．认真贯彻落实。全局干部要严格贯彻执行本办法的有关规定，做到令行禁止。科级以上领导干部要切实担负起领导责任，率先垂范，强化管理，带头改进工作作风，带头深入基层调查研究，带头密切联系群众，带头解决实际问题，自觉接受监督，切实提高实效。', '16．强化教育引导。要结合开展为民、务实、清廉教育实践活动，倡导清新、质朴的财政文风、会风、作风，使全体干部职工切实增强转作风、提效能、促发展的积极性和主动性。要教育广大干部职工从现在做起、从自我做起、从身边小事做起，努力营造求真务实、科学理财的良好风气，培育积极向上的财政文化。', '17.加强督导检查。各处室要对照上述要求，定期开展自查自纠，查摆解决存在的问题，建立抓落实的长效机制。监察室要把改进作风落实情况纳入局内年终考评内容，定期督促检查，年底通报；要建立和完善干部作风状况评价机制，督促干部职工自觉遵守。要加强“三公经费”使用情况的审查，并加强内部审计监督。', '18．严肃责任追究。对违反中央八项规定的，视情节轻重，分别给予批评教育、诫勉谈话、责令作出书面检查或组织处理；造成不良影响的，从重处理；构成违纪的，给予党纪政纪处分。', '本实施办法自发布之日起实施，由办公室、监察室负责解释。此前发布的有关规定，凡与本实施办法不一致的，以本办法为准。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>9</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>市科学技术局召开贯彻张家口市第十二次党代会精神学习传达会</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2021-08-22</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/139416.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['8月20日，市科技局党组书记、局长殷飞主持召开贯彻张家口市第十二次党代会精神学习传达会，局领导班子成员、机关全体党员干部职工、下属事业单位全体人员参加会议。', '殷飞指出，市第十二次党代会是在我国进入全面建设社会主义现代化国家、向第二个百年奋斗目标进军的新时代，张家口进入交好冬奥会筹办和本地发展两份优异答卷决战决胜关键时期召开的一次重要会议。大会坚持以习近平新时代中国特色社会主义思想为指导，客观全面回顾总结了市第十一次党代会以来我市主要工作，科学描绘了未来五年发展蓝图。具体可以用“1234567”7个数字来概括，“1”即“一个主题”：以“感恩奋进决战决胜交好冬奥会筹办和本地发展两份优异答卷奋力谱写新时代全面建设经济强省美丽河北的张家口篇章”为主题；“2”即“两份优异答卷”：冬奥会筹办和本地发展；“3”即“三个关键期”：历史上最好的政策窗口期、战略机遇期、发展黄金期；“4”即“四件大事”：冬奥会筹办、建成“首都两区”、打造“河北一翼”、加快建设京张体育文化旅游带；“5”即“五个绿色体系”：加快构建绿色生态、绿色城镇、绿色产业、绿色能源、绿色交通体系；“6”即“六个高质量”：高质量完成冬奥会筹办举办任务、高质量推进“首都两区”建设、高质量加快建设京张体育文化旅游带、高质量建设可再生能源示范区、高质量推动经济转型升级、高质量加强社会主义精神文明建设；“7”即“七方面工作”：筹办举办冬奥会、加快建设京张体育文化旅游带、构建绿色发展体系、深化改革开放创新、做大做强县域经济、繁荣发展社会主义宣传思想文化事业、加快社会民生事业发展。', '殷飞指出，市第十二次党代会是在我国进入全面建设社会主义现代化国家、向第二个百年奋斗目标进军的新时代，张家口进入交好冬奥会筹办和本地发展两份优异答卷决战决胜关键时期召开的一次重要会议。大会坚持以习近平新时代中国特色社会主义思想为指导，客观全面回顾总结了市第十一次党代会以来我市主要工作，科学描绘了未来五年发展蓝图。具体可以用', '设、高质量加快建设京张体育文化旅游带、高质量建设可再生能源示范区、高质量推动经济转型升级、高质量加强社会主义精神文明建设；', '殷飞强调，全局党员干部要提高思想认识和政治站位，把学习宣传贯彻市第十二次党代会精神作为当前和今后一个时期的一项重要政治任务，自觉把思想和行动统一到学习贯彻本次党代会精神上来。一是加强学习提素质，坚持习近平总书记重要讲话必学、重要文章必学、最新指示必学，坚持中央、省委、市委重大决策部署、重要会议精神必学，加强业务知识学习，增加各种知识储备，不断提高工作水平和能力素质。二是对标先进找差距，组织党员干部到先进地区考察学习，加强对外交流，拓宽视野，更新观念，查找不足，借鉴经验，并把学习考察成果运用到实际工作中去，以更高的标准谋划项目，以更大的力度推进创新，以更实的举措狠抓执行，推动科技创新各项工作落到实处、见到实效。三是转变作风办实事，要走出办公室，轻车简从、细致深入到包联乡村、企业开展调查研究，与干部群众面对面接触、心贴心交流，把全市科技工作实情摸清摸透，找准症结，分析原因，进一步聚焦重点难点堵点，研究提出解决问题的办法举措，拿出破解难题的实招硬招，向市委市政府提出富有建设性、针对性、可操作性、符合实际的意见建议。四是严格自律树形象，坚持“全局工作一盘棋”，树立顾全大局、爱岗敬业、清正廉洁的职业形象，树立坚持原则、坚守底线、公道正派的自律形象，树立立党为公、一心为民、团结实干的服务形象，着力增强党员干部的政治意识、大局意识、发展意识、责任意识、廉政意识，着力提高服务发展、服务企业、服务群众的能力。五是抓好党建促工作，要把抓好党建作为最大的政绩，', '殷飞强调，全局党员干部要提高思想认识和政治站位，把学习宣传贯彻市第十二次党代会精神作为当前和今后一个时期的一项重要政治任务，自觉把思想和行动统一到学习贯彻本次党代会精神上来。一是加强学习提素质，坚持习近平总书记重要讲话必学、重要文章必学、最新指示必学，坚持中央、省委、市委重大决策部署、重要会议精神必学，加强业务知识学习，增加各种知识储备，不断提高工作水平和能力素质。二是对标先进找差距，组织党员干部到先进地区考察学习，加强对外交流，拓宽视野，更新观念，查找不足，借鉴经验，并把学习考察成果运用到实际工作中去，以更高的标准谋划项目，以更大的力度推进创新，以更实的举措狠抓执行，推动科技创新各项工作落到实处、见到实效。三是转变作风办实事，要走出办公室，轻车简从、细致深入到包联乡村、企业开展调查研究，与干部群众面对面接触、心贴心交流，把全市科技工作实情摸清摸透，找准症结，分析原因，进一步聚焦重点难点堵点，研究提出解决问题的办法举措，拿出破解难题的实招硬招，向市委市政府提出富有建设性、针对性、可操作性、符合实际的意见建议。四是严格自律树形象，坚持', '树立顾全大局、爱岗敬业、清正廉洁的职业形象，树立坚持原则、坚守底线、公道正派的自律形象，树立立党为公、一心为民、团结实干的服务形象，着力增强党员干部的政治意识、大局意识、发展意识、责任意识、廉政意识，着力提高服务发展、服务企业、服务群众的能力。五是抓好党建促工作，要把抓好党建作为最大的政绩，', '为交好冬奥会筹办和本地发展两份优异答卷贡献更多科技智慧和力量，推动全局工作百尺竿头更进一步，以优异的成绩庆祝建党100周年。', '为交好冬奥会筹办和本地发展两份优异答卷贡献更多科技智慧和力量，推动全局工作百尺竿头更进一步，以优异的成绩庆祝建党', '8月20日上午，市人防办利用党团日活动时间，组织全办干部职工集中学习传达市第二次党代会精神。会议由副主任张军主持，市第十二次党代会、市人防办党组书记、主任武爱军从大会通过了一个好报告、选出了一个好班子、展示了一个好会风等方面，认真传达了大会精神。武爱军特别是对武卫东同志代表十一届市委以《感恩奋进决战决胜交好冬奥会筹办和本地发展两份优异答卷奋力谱写新时代全面建设经济强省美丽河北的张家口篇章》工作报告...']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>9</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>区委书记张聪率队乘坐京张高铁检查沿线环境卫生整治和安全隐患排查工作</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2021-10-07</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.zjkxuanhua.gov.cn/content/18828.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['区委书记张聪率队乘坐京张高铁检查沿线环境卫生整治和安全隐患排查工作-张家口市宣化区人民政府', '10月6日，区委书记张聪率队乘坐京张高铁，就沿线环境卫生整治和安全隐患排查工作进行检查，并到崇礼区考察学习城市建设管理、城市更新经验。区长唐殿福一同检查。', '当天下午，张聪、唐殿福一行首先乘坐G2514次高铁至下花园北站，随后转乘G8815次高铁至崇礼太子城站。在高铁上，张聪查看了宣化区域内高铁沿线两侧环境卫生整治情况，排查了高铁沿线两侧安全隐患点，认真听取有关负责人关于环境卫生整治和隐患排查等工作情况汇报，并就做好下步工作现场办公。张聪强调，京张高铁是对外展示形象的一个重要窗口，要按照市委市政府要求,聚焦“简约、安全、精彩”的冬奥会办赛要求,做好高铁沿线两侧环境卫生整治。要集中力量对高铁沿线环境进行全面彻底地整治提升，加大对沿线两侧乡村环境治理，全面提升高铁沿线两侧净化、绿化、美化水平。要高效推进沿线垃圾清运、绿化等环境卫生整治工作，建立长效管理机制，层层压实责任，加强日常监管，确保京张高铁沿线环境卫生整治工作取得实效，为高铁运行提供一个干净整洁美丽的环境。', '张聪强调，铁路沿线环境卫生安全隐患排查整治工作，事关高铁安全运行，事关人民群众生命财产安全。当前,临近冬奥会举办，要切实提高政治站位，统一思想认识,进一步增强工作责任感、紧迫感，牢固树立安全发展理念，严格按照市委市政府要求，切实加强隐患排查，有效整治各类问题，为高铁安全运行提供有力保障。', '随后，张聪、唐殿福一行在崇礼区区长赵赞的陪同下，学习考察了崇礼区城市建设管理和城市更新经验。崇礼区楼体的更新，街道牌匾的设置，城市的美化亮化，车辆的整齐停放等规范整洁的城区环境给张聪、唐殿福留下深刻印象。张聪表示，通过学习考察崇礼区城市建设管理和城市更新经验，进一步拓宽了城市发展思路。宣化区将学习借鉴崇礼区的经验,不断完善城市功能结构，合理规划城市建设管理和城市更新,为全区人民提供高品质生活空间，营造更加美丽宜居的城市环境。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>9</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>赤城县关于利用市场化方式推进矿山生态修复的管理办法的解读</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2021-08-25</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.ccx.gov.cn/single/26/20878.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['我县历史矿山开采存在生态环境保护意识淡薄,重开发、轻保护,治理能力不足及资金严重缺乏等弊端,导致矿山地质环境的保护及土地复垦工作滞后,给生态环境恢复与治理带来了严重阻碍。为解决我县矿山生态修复历史欠账、现实矛盾、投入不足等突出问题,按照“谁破坏、谁治理”“谁修复、谁受益”原则,通过政策激励,吸引社会资本投入,利用市场化运作、科学化治理的方式、加快推进我县矿山生态修复综合治理工作,依据《自然资源部关于探索利用市场化方式推进矿山生态修复的意见》(自然资规[2019]6号)、《工业和信息化部等10部委关于推进机制砂石行业高质量发展的若干意见》(工信部联原[2019]239号)、《国家发展改革委等15部委关于促进砂石行业健康有序发展的指导意见》(发改价格[2020]473号)、《河北省关于探索利用市场化方式推进矿山生态修复的实施管理办法》(冀自然规字[2020]2号)、《张家口市关于利用市场化方式推进矿山生态修复的实施方案》(张自然规字[2021]26号)等相关规定,自然资源局牵头起草了《赤城县关于利用市场化方式推进矿山生态修复的管理办法》。', '年3月16日至3月19日由主管县长包大智同志带队,市自然资源和规划局、县自然资源和规划局、霞丰公司等相关人员一行,到承德滦平县、唐山迁安市、廊坊三河市针对绿色矿山建设、废弃矿渣综合利用、矿山地质环境恢复等进行了为期四天的学习考察。通过考察学习,交流成功案例经验,结合我县工作实际对《赤城县关于利用市场化方式推进矿山生态修复的管理办法(讨论稿)》进行了修改完善。3月19日,征求了县司法局、法院、公安局等10个部门意见建议并进行修改完善后,于3月31 日,再次征求县政府相关领导意见建议。现将修改完善终稿《赤城县关于利用市场化方式推进矿山生态修复的管理办法(讨论稿)》提交县政府常务会议研究审议。', '为了使本《管理办法》具有可操作性,体现我县政府主导恢复治理特点,此次上会研究的《管理办法》共分总则、历史废弃矿山的生态修复、生产矿山的生态修复、监督管理四个章节,共十八条。', '提出了制定目的和依据,并指定实施范围。确定矿山生态修复综合治理应遵循的基本原则和应遵循的标准依据。', '确定対历史废弃矿山的生态修复综合治理应遵循的原则；确定了实施主体；确定了市场化运作方式;对矿山土地修复的国有建设用地、农用地、集体土地说明综合利用方式；定义废弃矿山土石料进行工程修复使用以及剩余销售的合理利用；修复完成后的土地实行差别化供应；确定生态修复实施完成后的验收管理。', '确定对生产矿山生态修复应遵循的原则；对于正在开采的矿山将依法取得的存量建设用地修复为耕地及园地、林地、草地和其他农用地的,确定腾退建设用地指标的使用管理方式以及矿山企业对修复后的建设用地再利用。', '要求生产矿山在每年第一季度提交由专家评审通过的年度恢复治理计划,完善了生产矿完成年度恢复治理计划工程的验收管理工作。', '明确了相关职能部门的工作职责,各职能部门加强组织领导,分工合作,动员各方面力量,激发市场参与动力,加快推进矿山生态修复工作。并对矿山生态修复项目进行监督管理,防', '赤城县人民政府 关于印发《赤城县关于利用市场化方式推进 矿山生态修复的管理办法》的通知']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>9</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>对政协张家口市桥东区九届五次全会文化建设类第号建议的答复</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2021-04-20</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/content/55751.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['对政协张家口市桥东区九届五次全会文化建设类第7号建议的答复 - 张家口市桥东区人民政府', '您好！您提出的关于"我市中学教育水平如何提高是进一步城市发展的关键" 的提案收悉，现答复如下：', '正如您提案中所提到的，我市中学教育水平如何提高是进一步城市发展的关键，也是习近平同志提出的"建设教育强国是中华民族伟大复兴的基础工程，必须把教育事业放在优先位置，深化教育改革，加快教育现代化，办人民满意的教育。" 根据目前张家口教育现状，桥东区出台了《关于深化桥东区教育体制改革的意见》，我们也进行了一系列改革措施。', '正如您提案中所提到的，我市中学教育水平如何提高是进一步城市发展的关键，也是习近平同志提出的', '2013年6月，桥东区开始实施 "集团化办学" 。按照 "龙头引领、地理就近" 的原则，将一所名校和若干所学校组成学校共同体，在教育理念、学校管理、教育科研、信息技术、教育评价、校产管理等方面统一管理、资源共享，全力打造 "中学集团化、小学学区化、幼教连锁化" 的办学新格局。中学：名校+分校--以现有的5所中学为基点，放大优质中学品牌效应，打造 "五中" 、 "七中" 两大教育集团，联合二十一中（五中一校区）、十二中（五中北校区）等中学共同发展，通过整体规划，整合名校资源，形成优质初中的全方位布局。一是建立教师档案。对所有教师的职称现状、教学能力、管理能力进行多维评测认定，从教师个人发展的角度为教师打造平台，提供机会，激励教师进行自我教学能力提升。', '定期开展培训活动保障教师成长。利用桥东区的特级教师、名师工作室等优秀资源开展青年教师、骨干教师、优秀班主任等多项培训活动，进行传帮带，促进骨干教师队伍梯次壮大，提升桥东区教育的教学质量。实施素质提升工程，先后组织中小学领导干部赴北京东城区和平里学区学习考察"学区制" 改革经验，赴深圳福田区学习考察课程谱系建构改革先进经验，组织校长、教师赴东北师范大学、北京师范大学、教育部基础教育管理干部培训中心等参加理论培训，促进校长教师开阔视野、提升能力。成立桥东区 "知行教师进修学校" ，组建桥东区 "知行" 教育智库研究会，承担全区教育系统干部教师的培训、培养职责，推进素质教育和教师专业发展；实施名师带动工程；实施重点培养工程。', '定期开展培训活动保障教师成长。利用桥东区的特级教师、名师工作室等优秀资源开展青年教师、骨干教师、优秀班主任等多项培训活动，进行传帮带，促进骨干教师队伍梯次壮大，提升桥东区教育的教学质量。实施素质提升工程，先后组织中小学领导干部赴北京东城区和平里学区学习考察', '实行教研员进驻学校将教研向教学前沿推近的措施，安排教研员在一线上课、随时与各校教师教研交流从而将各校之间好的教学经验进行交流，共享资源，凸显集团化办学的特色。加强教师教学成绩的综合评定。使每位教师在各自的岗位上凸显其教育价值。做好学生每次考试的成绩分析。既能及时发现各校学生学习的短板从而督促教师教育策略的调整，也能及时发现优秀的青年教师从而为教师梯队中的重点培养对象做储备。', '金德伟代表：您好！您提出的关于利用互联网及大数据手段建设以社区为基础的微内循环商业经济模式体系的建议，现答复如下：近年来，我区经济发展受到诸多因素的制约，发展相对缓慢，企业面临人才匮乏、创新能力不强、融资困难等问题，特别是中小微企业增长空间受限，增长量相对较少。自新冠疫情暴发以来，经济发展受到了很大冲击，中小企业受疫情影响主要有以下几点：一是疫情期间不能发货，库存大，资金不能回收，资金周转困难；二...']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>9</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>乌兰察布市民政局考察组学习考察张家口市宣化区殡葬改革工作</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2021-05-10</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.zjkxuanhua.gov.cn/xxgkcontent/17481.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['2021年5月8日（周六）, 乌兰察布市民政局考察团领导一行来我区考察学习殡葬改革工作先进经验。张家口市民政局副局长刘书锋、二级调研员原部红、局社会事务科岳阳科长、宣化区政府党组副书记王瑞军、区政府办副主任杨博、区民政局副局长王俊师、区殡葬管理处主任赵旭及局社会事务科等主要相关业务负责同志陪同调研学习。', '乌兰察布市民政局考察组先后来到宣化区殡葬管理处、区龙尾山公墓骨灰安放中心，详细了解了宣化区殡葬综合执法与队伍建设、按照殡葬改革规定清理散葬坟，实行集中到公墓及骨灰安放中心安置的工作做法和成效、移风易俗、保障群众基本安葬需求等方面的举措。', '考察学习过程中宣化区政府党组副书王瑞军同志记指出，当前宣化区殡葬改革工作势在必行，区委区政府高度重视，按照全市统一安排，第一时间组织召开全区“进一步推进殡葬综合改革工作会”，全面贯彻落省、市加快推进殡葬改革精神，强化政府主导，巩固提高火化率，大力发推进绿色殡葬。一是要强化组织领导，健全工作机制；二是要发挥政策引导，营造舆论氛围；三是要丰富打击手段，杜绝封建陋习；四是要广泛宣传、注重引导，形成党员干部带头，广大群众参与的良好局面。', '考察学习过程中宣化区政府党组副书王瑞军同志记指出，当前宣化区殡葬改革工作势在必行，区委区政府高度重视，按照全市统一安排，第一时间组织召开全区', '通过了解，乌兰察布市民政局考察组对我区殡葬改革工作进行了高度评价，认为我区殡葬改革工作思路清晰、措施扎实、成效显著，既节省了土地资源，又减轻了群众负担，一定要把我区的先进经验带回去，不断改善条件、提升服务水平，促进当地殡葬事业健康有序发展。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>9</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>赤城县考察团到我县学习考察城建及项目建设工作</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-12-22</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.zjksy.gov.cn/single/181/5780.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['近日，赤城县委副书记冯占武带领县领导戴文忠、王玉辉、张春晓、宋筱璟及相关乡镇、科局负责人到我县学习考察城建及项目建设工作，县委副书记侯建凭，县委常委、纪委书记、监委主任闫有军，县委常委、宣传部部长苑晓玲，副县长史志刚陪同。', '赤城县考察团一行先后来到我县工业园区、张家口大金风电装备有限公司、滨河公园等地实地考察，每到一处，考察团都认真听取情况介绍，详细了解了我县工业园区建设、企业生产经营、鸳鸯河河道治理及全县城市建设等方面的好经验好做法，并就如何做好城建及项目工作与我县进行交流、探讨。', '考察团对我县城建及项目建设工作表示肯定，认为我县城市规划建设定位准、理念新、思路清、措施实，项目建设力度大、进展顺利，势头强劲，在促进经济社会发展方面探索积累了好的经验做法，也为赤城提供了新的建设理念和发展思路，赤城县将以此次学习考察为契机，认真学习总结考察中学到的工作经验，结合实际开展工作。下一步，希望两地进一步加强沟通，在首都 "两区" 建设、城市建设、招商引资及重大项目建设方面进一步交流合作，共同开创两地城市建设和重点项目建设工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>9</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>万全区组织考察组赴张北桥西崇礼赤城学习文旅先进经验</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2021-03-19</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/48425.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['万全区组织考察组赴张北 桥西 崇礼 赤城学习文旅先进经验 - 张家口市万全区人民政府', '为学习借鉴张家口市兄弟县区的乡村旅游、民宿、影视产业等先进经验，进一步推动我区文化旅游产业发展，准确把握全区旅游发展脉搏，3月17、18日，由区委宣传部部长苑晓玲和政府副区长杨邵敏带队，赴张北县德胜村、桥西区清河影视基地、崇礼区张家口赛区临时规划展厅、古杨树场馆群及赤城县杨家村、铭悦乡居进行了考察。区文旅局、文联、万全镇、洗马林镇、膳房堡乡、城乡文旅公司主要负责人参加学习考察。', '考察的第一站来到了位于张北县小二台镇的德胜村。德胜村整合原有的生态自然资源本底，以周边的旅游资源和区位交通优势为依托，以乡村振兴政策为主导，以改善农村人居环境为突口，结合地域传统文化与生活方式，通过“旅游＋”，催生新产品、拓展新业态，打造新坝上民居示范区；建设休闲观赏和文化品味区，推出新型扶贫公益项目。创新儿童体验和娱乐活动区，制造网红效应，形成特色的文化农业产业发展模式。', '走进德胜村，“决战决胜”映入眼中，一栋栋返璞归真的民宿，错落有致，恬静自然，走在其中，聆听着讲解员专业的讲解，详细了解了民宿的装修风格、功能布局、经营模式、运营收益等方面内容。德胜村依托良好的产业基础，采取“公司＋专业合作社＋乡村旅游民宿户”的形式，盘活农民现有闲置房产，创建民宿集聚群，打造德胜新村坝上民宿旅游第一村，扩大“德胜”品牌效应，让德胜新村由活到火。其超前理念、合理规划、高效建设、优品服务等诸多内容值得学习借鉴。通过考察学习，大家纷纷表示，将以此次学习考察为契机，借鉴成功经验，拓宽发展思路，因地制宜发展乡村旅游。', '考察的第二站来到了位于张家口市桥西区东窑子镇清河村泉子沟的清河影视基地，桥西区清河影视基地是中国广播电影电视联合会授牌的 “中国军事影视城”“全国影视指定拍摄景地”。以张库大道为题材创拍，体现交流、开放、包容、融合、共赢的“一带一路”精神的电视剧《塞上风云记》 在此取景拍摄并在央视热播，吸引了多家影视创作团队前来投资合作。中央广播电视总台电视剧《大决战》在此进行拍摄，为建党100周年献礼。清河影视产业基地已成为我市重点文化工程和冬奥预热项目。', '考察的第三站来到了崇礼区张家口赛区临时规划展厅、古杨树场馆群，崇礼区张家口赛区临时规划展厅墙上悬挂着张家口冬奥村/冬残奥村的整体图象、国家越野滑雪中心、国家跳台滑雪中心、运动员滑雪场景以及相关配套设施等。古杨树场馆群已初具规模，讲解员分别就国家冬季两项中心、国家越野滑雪中心、冰玉环项目以及2022年北京冬奥会奥运村进行了详细的介绍，同时对场馆的未来规划有了初步的认识。', '考察的最后一站来到了赤城县杨家村、铭悦乡居。铭悦·林谷溪舍民宿项目位于镇宁堡乡杨家村，充分发挥杨家村资源优势，采用空心村治理模式中的旅游开发模式对杨家村进行治理。', '以“绿水青山、生态家园”为基调，本着原生态、文明宜居、民风淳朴、独厚的自然环境优势，打造生态民宿旅游，为全县“空心村”整治、乡村旅游发展树立典型。', '铭悦乡居民宿旅居项目位于赤城县浩门岭旧村，是赤城县“空心村”治理改革创新试点项目，项目占地面积134230平方米，集体建设用地70960平方米，建筑面积40200平方米，计划规范建设341栋精品民宿院落。目前已建成50套，在建完成主体105套。', '每到一处，考察组成员都与当地领导、旅游企业负责人、民宿业主、工作人员等进行深入的交流，全面细致地了解乡村旅游、民宿业、影视产业及冰雪运动产业的管理运营、招商引客等情况，认真学习探讨成功经验和作法。通过实地考察学习和听取情况介绍，考察组一致认为，此行收获很大，不仅增长了见识、开阔了眼界，还拓宽了思路，学习了运营管理模式，更加坚定了发展好我区旅游产业的信心和决心。下一步将消化好考察学习的好经验、好做法并整理形成调研报告，结合我区实际和优势，推动我区旅游产业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>9</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>张家口市市场监管局组织广告经营发布单位赴北京冬奥组委观摩学习</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2019-10-11</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://scjg.zjk.gov.cn/single/665/185713.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['张家口市市场监管局组织广告经营、发布单位赴北京冬奥组委观摩学习-张家口市市场监督管理局', '为推进奥林匹克标志保护，规范2022年冬奥会涉奥广告发布，避免违法违规广告发布、制作，进一步促进广告业的健康有序发展，10月10日，张家口市市场监管局组织我市部分广告经营、发布单位赴北京冬奥组进行专题观摩学习。', '北京冬奥组委市场开发部品牌保护处副处长刘正韬结合实例，解读了涉奥标志、商品及广告的发布注意事项以及相关知识产权保护的有关常识；赞助商服务处副处长李超就奥林匹克赞助商权益保护及相关侵权情况进行详实的解读，并在其后的座谈会分别就与会人员的咨询、提问进行解疑释惑，现场互动交流踊跃。', '学习考察期间，与会人员参观了北京冬奥组委首钢办公区、北京冬奥会和冬残奥会展示中心及北京2022特许商品商店。', '张家口市新闻中心、张家口市广告商会11家会员单位及部分广告企业的相关监管人员及广告审查人员近40人参加。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>9</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>张家口市市场监管局组织广告经营发布单位赴北京冬奥组委观摩学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2019-10-10</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/12878.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['为推进奥林匹克标志保护，规范2022年冬奥会涉奥广告发布，避免违法违规广告发布、制作，进一步促进广告业的健康有序发展，10月10日，张家口市市场监管局组织我市部分广告经营、发布单位赴北京冬奥组进行专题观摩学习。', '北京冬奥组委市场开发部品牌保护处副处长刘正韬结合实例，解读了涉奥标志、商品及广告的发布注意事项以及相关知识产权保护的有关常识；赞助商服务处副处长李超就奥林匹克赞助商权益保护及相关侵权情况进行详实的解读，并在其后的座谈会分别就与会人员的咨询、提问进行解疑释惑，现场互动交流踊跃。', '学习考察期间，与会人员参观了北京冬奥组委首钢办公区、北京冬奥会和冬残奥会展示中心及北京2022特许商品商店。', '张家口市新闻中心、张家口市广告商会11家会员单位及部分广告企业的相关监管人员及广告审查人员近40人参加。', '张家口市市场监督管理局召开宣贯《中华人民共和国药品管理法》、《中华人民共和国疫苗管理法》暨培训会议', '10月10日下午，张家口市局药品流通科组织召开了全市药品流通领域宣传贯彻《药品管理法》、《中华人民共和国疫苗管理法》暨培训工作会议。会上做了培训动员，并从做好"两法"的宣贯必须要提高思想认识；做好"两法"的宣贯必须要切实依法履行好监管责任；做好"两法"的宣贯必须要切实依法履行好企业主体责任；做好"两法"的宣贯必须要营造...']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>9</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>张家口市机关事务管理局赴保定学习考察公共机构垃圾分类工作</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2019-11-12</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/91848.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['月5日，张家口市机关事务管理局田峰副局长带领相关工作人员一行到保定市机关事务管理局学习考察公共机构垃圾分类工作，座谈交流了工作经验，考察了保定市政府垃圾分类投放收运设施建设情况，并到研发可回收垃圾智能分类系统的企业参观考察。', '为适应新时期民族宗教工作新要求，提升全市民族宗教干部队伍业务水平和服务质量，实现机构改革期间人员调整的良好过渡，紧密结合 "不忘初心、牢记使命" 主题教育，张家口市民宗局于11月5日-7日开展了全市民族宗教干部业务培训班。本次培训采取了集中授课和分组讨论的形式，邀请了省民委政策法规处张宁生处长、监督检查处赵明宇处长、市司法局行政执法协调监督处丁泽副处长为大家授课']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>9</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>中共张家口市林业和草原局党组召开党组扩大会</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2019-09-02</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/118824.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['年8月30日下午，市林业和草原局党组召开党组（扩大）会，传达有关会议和市领导讲话精神。局党组书记白凤鸣主持会议并讲话。局党组成员和其他处级领导以及局机关各科室、各直属单位负责人参加了会议。', '会议共有四项议程。一是传达学习了中共张家口市委办公室《关于深入学习宣传〈张家口首都水源涵养功能区和生态环境支撑区建设规划〉的通知》、中共张家口市委办公室《关于首都 "两区”建设的几点建议》和 "两区”规划相关内容。二是传达学习了中共中央国务院《关于支持深圳建设中国特色社会主义先行示范区的意见》。三是学习了《张家口市代表团赴唐山、沧州、衡水、邢台、邯郸学习考察报告》。四是传达了《关于今年以来重大典型案件及其教训的通报》和《回建同志在全市领导干部警示教育大会上的讲话》精神。', '白凤鸣指出，建成首都水源涵养功能区和生态环境支撑区是习近平总书记对张家口的明确定位，是党中央交给张家口的重大政治任务，全市林草系统要站在战略全局的高度，深刻认识建成首都两区的重大意义和深远影响，切实增强学习宣传《规划》的政治自觉、思想自觉、行动自觉。要迅速在全市林草系统掀起学习宣传 "两区”规划的热潮，以实际行动推动首都 "两区”建设。要认真学习中共中央、国务院《关于支持深圳建设中国特色社会主义先行示范区的意见》精神，深刻认识支持深圳建设中国特色社会主义先行示范区的重大意义，牢固树立 "四个意识”，坚定 "四个自信”，坚决做到 "两个维护”，自觉从思想上政治上行动上同党中央保持高度一致。要学习先进地市的好经验好做法，以首都 "两区”建设为抓手，强弱项、补短板，实现高质量发展，圆满完成全年目标任务。', '白凤鸣强调，要坚定理想信念、站稳政治立场、强化革命精神。要严明纪律和规矩，把党纪、党规铭记于心、践之于行。要敬畏纪律和规矩，让纪在法前，纪严于法。要模范遵守纪律和规矩，真正做到党中央提倡的坚决响应、党中央决定的坚决照办、党中央禁止的坚决杜绝，确保党中央和省委、市委各项重大决策部署在全市林业和草原系统落细、落小、落地、落实。', '8月29日，张承高速公路崇礼南互通改建工程在紧张有序推进中。 目前，崇礼南互通改建工程的113片30米预制梁全部吊装完成，部分钢箱梁桥也已完成跨越张承高速的架设，其它现浇梁、钢箱梁安装，桥面铺装等工程也在紧张施工中，标志着该工程建设已进入桥梁上部结构的全面推进阶段，为路面、混凝土护栏及附属工程的分项施工奠定了坚实的基础。 截至目前，主线工程完成75%，与实现年底建成通车目标又近了一步。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>9</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>借鉴肥乡经验助推我市互助幸福院发展</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2019-08-13</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/10485.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['按照市委书记回建指示要求，推进我市农村互助幸福院规范化运营、高质量可持续化发展，2019年8月8日至9日，张家口市民政局由局长罗利民带队，局主管领导、科室负责人以及尚义、康保县民政局主要负责同志一行8人，到邯郸市肥乡区学习考察农村互助幸福院建设及管理运营情况。考察组先后到前屯村、后屯村农村互助幸福院实地走访考察，又召开座谈会进行面对面交流。肥乡区政府、邯郸市民政局、肥乡区民政局先后就互助幸福院建设运营从不同角度给予了介绍，市民政局一行人员与他们进行了深度的交流、探讨，深入了解了肥乡区农村互助幸福院建设管理运行模式。', '肥乡区互助幸福院坚持村级主办、互助服务、群众参与、政府支持的总体原则，利用各村闲置的房屋建设互助幸福院，免费供独居老人集中居住，老人们相互照顾、共享晚年。目前，区财政每年列支财政预算用于幸福院设施设备的更新维护和管理运行；每个农村互助幸福院都配建卫生室，实现了医养结合的全覆盖；整合各部门政策和资金，突出重点帮助互助幸福院解决实际困难。他们的这些做法，适应当地农村实际，符合当地群众的需要，因此从2012年建第一所至今一直被群众认可，有的幸福院甚至一床难求，进入了良性的发展。村里尽孝之风更加浓厚，也带动民风的好转，干群关系融洽，村 "两委" 的凝聚力、向心力、号召力进一步增强。', '学习肥乡区经验之后，我局召开局长办公会，就我市农村互助幸福院发展进行专题研讨，确定了分区域、有侧重地发展农村养老，继续在坝上贫困地区及山区推进互助幸福院建设，充分发挥', '农村互助幸福院在我市农村养老、脱贫攻坚、空心村 "治理" 、易地扶贫搬迁等工作中的重要作用，', '探索适合我市的农村互助幸福院运营模式，加大政府投入力度和部门帮扶，建立长效管理机制，注重发展医养结合，全面提升留守、空巢、独居老人的生活质量和水平；在坝下人口相对稠密、经济条件较好、乡村老人不愿入住幸福院的县区利用现有的农村互助幸福院开展日间照料和日常活动，为老人们提供休闲娱乐场所，进一步提升老人的幸福感、获得感。', '2019年8月12日，市林业和草原局党组书记白凤鸣先后赴康保县西苗圃、白龙山苗圃和屯垦林场进行了现场调研。 白凤鸣指出，在今后的造林绿化工作中，各县区一定要按照适地适树的原则，科学编制作业设计，做到本地苗木应用尽用，切实提升造林成活率和绿化成效。 白凤鸣强调，国有林场承担着保护和发展重点区域森林资源的使命，一定要做好各项经营工作，在保护好来之不易的森林资源的同时，尽可能改善林场职工待遇']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>9</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>全市扶贫挂职干部研讨班开班</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2019-08-17</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/10719.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['要全面落实党中央和省、市委决策部署，充分发挥作用，突出工作重点，不断提升扶贫挂职工作的整体水平；', '培训中，学员们收听收看了国务院扶贫办综合司司长苏国霞所作的题为《以习近平扶贫工作重要论述为指导坚决打赢脱贫攻坚战》的视频讲座并进行座谈交流，还深入到沽源县和张北县实地学习考察。', '回建主持召开多能互补分布式供暖助力脱贫攻坚工作会议强调 深入调查 典型示范 以实在成效让群众受益 张家口新闻网讯（记者 郭晓通）8月13日下午，市委书记回建主持召开多能互补分布式供暖助力脱贫攻坚工作会议，听取农村可再生能源供暖模式汇报，研究部署相关工作。回建强调，要坚持对上负责与服务百姓相结合，立足我市农村冬季取暖实际和推进旅居发展需求，深入调查研究，因地制宜选择多能互补分布式供暖模式，抓好试点']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>9</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>喀喇沁旗人民政府张文泽一行赴我区考察光伏扶贫电站项目</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2019-07-08</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/9451.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['年6月25日，内蒙古自治区喀喇沁旗委常委、旗人民政府常务副旗长张文泽一行5人赴我区学习考察光伏扶贫电站项目，政府副区长宋继东、区发改、扶贫等部门陪同考察。考察组一行先后赴杜坛庄集中式光伏扶贫电站、安静庄村级光伏扶贫电站进行实地考察，参观了光伏方阵、集中式电站升压站、监控室，详细了解了光伏电站从前期手续准备到项目建设、完工并网的全过程和项目运营扶贫等情况。座谈会上，考察团一行与我区陪同人员就扶贫成效巩固和脱贫攻坚、厕所革命等方面进行了友好交谈，并交换了意见。', '6月下旬，在中国中铁电气化局施工人员操作下，京张高铁下花园站10千伏配电所一次受电启动成功，所内电气设备一次带电运行正常，成为京张高铁全线首座带电运行的配电所，标志着京张高铁电力工程正式拉开送电序幕，也为下一步按期展开联调联试工作创造先决条件。 京张高铁下花园站10千伏配电所，处于京张正线和崇礼支线的交汇点，承担着京张高铁河北段怀来至张家口南站以及下花园至崇礼铁路太子城站区段的通信、信号、防灾']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>9</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>喀喇沁旗人民政府张文泽一行赴我区考察光伏扶贫电站项目</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2019-07-05</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/38757.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['近日，内蒙古自治区喀喇沁旗委常委、旗人民政府常务副旗长张文泽一行5人赴我区学习考察光伏扶贫电站项目，政府副区长宋继东、区发改、扶贫等部门陪同考察。考察组一行先后赴杜坛庄集中式光伏扶贫电站、安静庄村级光伏扶贫电站进行实地考察，参观了光伏方阵、集中式电站升压站、监控室，详细了解了光伏电站从前期手续准备到项目建设、完工并网的全过程和项目运营扶贫等情况。座谈会上，考察团一行与我区陪同人员就扶贫成效巩固和脱贫攻坚、厕所革命等方面进行了友好交谈，并交换了意见。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>9</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>我县考察团赴康保县就脱贫攻坚工作进行学习考察</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2019-07-22</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.zjkha.gov.cn/content/28203.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['日前，我县党政学习考察团在县委书记武占强的率领下，到康保县就脱贫攻坚工作进行学习考察。旨在学习借鉴康保县在脱贫攻坚工作中的先进经验和做法，进一步推动我县脱贫攻坚工作向纵深发展，为今年年底脱贫摘帽打下坚实基础。', '县领导李建龙、路国云、冷张君、武永祥、郝迎光、李建国、肖汪洋、全志忠、冀致河、杜京、张璐、支向阳及各乡镇党委书记、乡镇长、县直相关部门主要负责人参加学习考察。', '考察中，考察团一行先后实地考察了康保县哈咇嘎乡平乡村、康保镇道北村、屯垦镇南井子村、县扶贫档案馆。就村庄环境卫生整治、“双基”建设、迎接国考相关情况、空心村治理、扶贫档案管理等情况进行了考察学习。', '考察学习中，县考察团成员对康保县建立的服务群众的“小红帽”“黄马甲”“白大褂”3支具有鲜明标志的脱贫攻坚队伍和大喇叭、公开栏、二维码三大服务群众的平台印象深刻，深有感触。据了解：康保县的包村干部、驻村第一书记、帮扶责任人和村干部在入户帮扶、座谈走访过程中，都佩戴“志愿服务”标识“小红帽”。主动亮身份、讲政策、做表率、树形象，受到了群众欢迎。同时要求每名公益性岗位的贫困户均统一穿着“黄马甲”。规范了岗位设置，引入了绩效考核，激发了贫困户参与的积极性。组建了33支“白大褂”服务队，为贫困群众进行健康扶贫。', '康保县委副书记杨志勇围绕补短板、“双基”建设、异地搬迁、危房改造、健康扶贫、人居环境改造、规范基层基础工作、内源扶贫、乡村文明建设等方面介绍了康保县的脱贫攻坚情况。', '保县委副书记杨志勇围绕补短板、“双基”建设、异地搬迁、危房改造、健康扶贫、人居环境改造、规范基层基础工作、内源扶贫、乡村文明建设等方面介绍了康保县的脱贫攻坚情况。', '武占强表示：通过此次的考察学习，我们通过眼观耳听，对康保县的巨大变化十分震撼。康保县环境优美，乡村美丽，城市气派，百姓幸福，民风淳朴，社会稳定。执行力坚决。康保县扶贫攻坚的宝贵经验对于我们来说弥足珍贵。尤其是康保县的“小红帽”“黄马甲”“白大褂”“大喇叭”、“公开栏”、“二维码”是康保县服务群众、联系群众的有机探索和创新，体现了康保县广大干部群众的创造性、创新性和示范性。所以，康保县成为全省的先进，全市的典范名副其实，是我们学习的榜样。我们要全面学习康保县的先进经验，把康保县的经验学回去，真正用于指导我们怀安脱贫攻坚的实践，我们要对照康保县的先进经验，在接下来的脱贫攻坚工作中，要恶补短板，快补弱项，为我们实现今年年底脱贫摘帽的目标打下坚实基础。', '7月16日下午，政府县长李建龙赴柴沟堡镇第十屯村特色经济林种植区、太平庄乡高家寨村以及该村2018年森林质量精准提升杏扁栽植区，就生态扶贫工作进行专题调度。县委常委、县委办主任李建国以及县政府办、自然资源和规划局、琪泰扶农建设开发有限公司、柴沟堡镇、太平庄乡负责同志参加。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>9</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>区党工委书记张河军带队赴蔚县学习交流</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2019-08-30</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/12/25607.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['根据市委副书记韩占山同志8月13日在全市信访工作会议上的指示精神，8月26日上午，区党工委书记张河军、区党工委副书记秦占军率队赴蔚县学习考察信访工作规范化建设。', '张河军书记一行在蔚县群众工作中心观摩了蔚县信访局 "智慧信访" 系统，听取了蔚县信访局关于开展 "23441" 工作法介绍，以及 "两会一队一室" 工作模式开展情况介绍，观看了 "智慧信访" 工作专题片，参观了蔚县信访局规范化建设以及信访工作文化建设情况。蔚县信访局工作人员现场演示了 "智慧信访建设" 、 "信访事项甄别" 、 "来访人员登记排序" 、 "网上视频接访" 等工作流程。蔚县信访开展的以 "约访、督访、下访、聊访" 为主要内容的 "四联访" ，展示了横向联动、纵向推动解决信访事项的 "四函" 工作新模式，为考察组留下深刻印象。考察组表示要坚持以习近平新时代中国特色社会主义思想为指导，坚持把信访工作作为了解民情、集中民智、维护民利、凝聚民心的一项重要工作，千方百计为群众排忧解难，要以此次交流学习为契机，进一步做好塞北管理区信访工作规范化建设。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>9</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>万全区卫健局赴山西省大同市考察大病不出县国家级精准扶贫工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019-06-10</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/8494.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['5月31日，万全区卫健局局长方练兵带领局机关有关人员、区中两院和部分卫生院院长一行12人，赴山西省大同市云州区学习考察 "大病不出县" 国家级精准扶贫工作。考察人员首先听取了云州区卫生和体育局关于 "大病不出县" 国家级精准扶贫工作介绍，相互交流了健康扶贫、医疗体制改革等方面的工作方式、方法和经验，同时对重点学科建设、远程门诊乡镇全覆盖、 "行走的医院" 扶贫项目进行了研讨。随后考察人员一行实地观看了云州区医院、云州区卫生院、西坪镇卫生院 "大病不出县" 项目建设运行情况。期间，云州区卫生和体育局有关领导还着重介绍了 "行走的医院" 的工作流程、 "全科医生助诊包" 的使用和作用。此行使考察人员了解到 "大病不出县" 精准扶贫项目切实提升了当地医院、乡镇卫生院和村卫生室的医疗技术服务水平，当地老百姓不出县就能享受到大医院专家的医疗技术服务，发展 "互联网+医疗健康" 是健康扶贫、强医惠民的必然趋势和重要途径。通过此次学习考察双方均表示希望在未来的工作中能进一步加强交流学习，学习彼此好的做法和经验，促进工作更好地开展。（万全区卫健局）', '，万全区卫健局局长方练兵带领局机关有关人员、区中两院和部分卫生院院长一行12人，赴山西省大同市云州区学习考察 "大病不出县" 国家级精准扶贫工作。考察人员首先听取了云州区卫生和体育局关于 "大病不出县" 国家级精准扶贫工作介绍，相互交流了健康扶贫、医疗体制改革等方面的工作方式、方法和经验，同时对重点学科建设、远程门诊乡镇全覆盖、 "行走的医院" 扶贫项目进行了研讨。随后考察人员一行实地观看了云州区医院、云州区卫生院、西坪镇卫生院 "大病不出县" 项目建设运行情况。期间，云州区卫生和体育局有关领导还着重介绍了 "行走的医院" 的工作流程、 "全科医生助诊包" 的使用和作用。此行使考察人员了解到 "大病不出县" 精准扶贫项目切实提升了当地医院、乡镇卫生院和村卫生室的医疗技术服务水平，当地老百姓不出县就能享受到大医院专家的医疗技术服务，发展 "互联网+医疗健康" 是健康扶贫、强医惠民的必然趋势和重要途径。通过此次学习考察双方均表示希望在未来的工作中能进一步加强交流学习，学习彼此好的做法和经验，促进工作更好地开展。（万全区卫健局）', '按照省、市 "三深化、三提升" 工作部署，围绕 "改善市场环境、实现便民消费" 目标，我局高标准推进便民市场建设。截至五月底，全市已有9家便民市场竣工并投入运营，完成全年16家目标任务的56.3%，提前一月实现了 "双过半" 目标。其中，桥东3家，桥西2家，经开区、宣化区、万全区、涿鹿县各1家。其余7家便民市场建设正在有序推进中。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>9</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>王虎屯乡组织学习抓党建促脱贫主体党课</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2019-06-19</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.zjkha.gov.cn/content/27502.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['6月18日，我乡组织学习抓党建促脱贫主体党课。会议上，乡党委书记马万福就湖南学习考察后的心得体会与各村村书记、第一书记分享交流。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>9</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>阳原县组织脱贫攻坚省内考察学习周活动</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2019-06-11</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/22/48977.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['为丰富全县脱贫攻坚思路，开拓脱贫攻坚视野，阳原县坚持走出去亲身感受，学到手奋力攻坚，积极学习借鉴其它市县在产业扶贫、防贫保险、贫困退出等方面的典型做法和工作经验，全面提升本县脱贫攻坚工作质量，确保打好打赢脱贫攻坚战。2019年5月29日至6月1日由县领导带队，组织1', '个乡镇党委书记、县财政局、农业农村局、扶贫办主要负责人及县人保公司、扶农公司负责人等共计2', '人先后赴邯郸市魏县、馆陶县，邢台市内丘县、临城县，保定市易县进行了学习考察。学习考察活动围绕听、看、录、记等方式，对魏县的防贫保险及绿珍菌业扶贫产业、馆陶县的电子商务，易县的贫困退出及其它县区的特色扶贫产业进行认真的观摩学习。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>9</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>张家口市万全区卫健局赴山西省大同市考察大病不出县国家级精准扶贫工作</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019-06-11</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/38515.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['张家口市万全区卫健局赴山西省大同市考察“大病不出县”国家级精准扶贫工作 - 张家口市万全区人民政府', '"大病不出县" 健康扶贫工程项目是由中国农工民主党创办的公益性机构 "中国初级卫生保健基金会" 会同中国医师协会、中国光华科技基金会及中西部扶贫发展基金共同发起，并联合国内顶级医疗、卫生、科研机构共同承办的医疗卫生专项扶贫项目，旨在发挥中国农工民主党在国内医疗卫生领域的优质资源优势，帮助国内欠发达地区基层医疗机构解决品牌、资金、技术、人才、科研等方面困难，提高欠发达地区基层医疗机构技术服务水平。', '近日，张家口市万全区卫生健康局局长方练兵带领局机关有关人员、区中两院和部分卫生院院长共12人，赴山西省大同市云州区学习考察 "大病不出县" 国家级精准扶贫工作。', '考察人员首先听取了云州区卫生和体育局贺局长关于 "大病不出县" 国家级精准扶贫工作介绍，相互交流了健康扶贫、医疗体制改革等方面的工作方式、方法和经验，同时对重点学科建设、远程门诊乡镇全覆盖、 "行走的医院" 扶贫项目进行了研讨。', '随后考察人员一行实地观看了云州区医院、云州区卫生院、西坪镇卫生院 "大病不出县" 项目建设运行情况。期间，云州区卫生和体育局有关领导还着重介绍了 "行走的医院" 的工作流程、 "全科医生助诊包" 的使用和作用。此行使考察人员了解到 "大病不出县" 精准扶贫项目切实提升了当地医院、乡镇卫生院和村卫生室的医疗技术服务水平，当地老百姓不出县就能享受到大医院专家的医疗技术服务，发展 "互联网+医疗健康" ，是健康扶贫、强医惠民的必然趋势和重要途径。', '通过此次学习考察双方均表示希望在未来的工作中能进一步加强交流学习，学习彼此好的做法和经验，促进工作更好地开展。（霍艳荣）']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>9</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>南留庄镇召开赴三省一市学习考察报告会暨扶贫工作推进会</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2019-05-24</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/22/70629.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['为尽快全面打赢脱贫摘帽大决战，加快建设经济强县、美丽蔚州步伐，按照县里组织开展的 "打擂比武决胜观摩学习促提升" 考察学习活动安排，镇党委书记樊韬，孟家堡村第一书记任燕鹏，白后堡村书记苏正芳，曹疃村书记刘宝武随县考察团先后赴四川、贵州、湖南、重庆的南部县、泸县、黔西县、瓮安县、湄潭县、江口县、花垣县、奉节县等地进行了学习考察，深入学习借鉴了脱贫攻坚先进经验和成功做法。5月24日南留庄镇召开了全体镇干部、各村书记、驻村第一书记参加的镇赴三省一市学习考察报告会暨扶贫工作推进会。在会上，外出考察的白后堡村书记苏正芳、孟家堡村第一书记任燕鹏、曹疃村书记刘宝武就学习考察所看所想所感做了发言，特别是孟家堡村第一书记任燕鹏结合孟家堡村脱贫攻坚工作讲了具体意见和建议，指出做好脱贫攻坚工作关键是产业发展和群众满意度，与会同志受益匪浅。最后，镇党委书记樊韬同志结合考察学习和全镇脱贫攻坚工作实际讲了针对性强操作性强的21字工作措施，要求镇村干部提高思想站位，把思想和行动自觉统一到县委、镇党委决策部署上来，把脱贫攻坚工作放在心上，抓在手上，重点是 "三不愁俩保障" 、产业发展和群众满意度，切实巩固脱贫成效，为全县脱贫摘帽和全镇脱贫攻坚工作贡献自身力量。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>9</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>怀安县赴兄弟县学习考察创建文明城市工作</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019-04-03</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.zjkha.gov.cn/content/26939.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['4月3日，怀安县创城办组织住建局、柴沟堡镇、教科局、电视台等成员单位共13名工作人员，赴怀来县学习考察创建文明城市工作。', '考察组一行先后考察了府前街、惊喜蔬菜市场、嘉馨园社区、文化公园、府前小学、长城路等实测点位，同时到教育局考察学习了未成年人思想道德建设工作。沿途所见，怀来县整洁卫生、文明有序的城乡面貌，以及在社区、学雷锋志愿服务站、公园、应急避难场所、未成年人思想道德建设等领域的理念、做法、经验，令考察团成员耳目一新。除了听介绍，成员们还把相关素材和经验拍摄下来，病进行摄入交流研讨。', '考察组将通过学习借鉴怀来县创建文明城市工作中的许多好的思路、方法和经验，针对我县创建文明城市工作进一步加强创新创建理念，沥青创建思路，优化创建措施，不断提升全县创建文明城市工作水平，形成全民动员、全民参与、全民共享的工作格局，全力做好创建文明城市工作。', '为进一步学习宣传贯彻全国两会精神，引导广大干部群众把思想和行动统一到中央各项决策部署上来，日前由县委宣传部牵头，抽调业务骨干，深入机关、农村、社区等，开展全国两会精神宣讲。宣讲团紧密联系我县发展实际、党的建设实际和干部群众思想实际，针对干部群众关心关注的热点问题，创新宣讲形式，运用清新朴实的话风、鲜活生动的语言和实例，把全国两会精神讲清楚、讲明白，让党员干部群众，在热烈和谐的氛围中进一步统一思想、...']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>9</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>品民宿拓发展思路观梅展悟傲骨精神</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019-03-22</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/6587.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['为了推进两怀文化旅游产业融合发展，借鉴怀柔区先进的民宿发展理念和淡季旅游发展新方向，2019年3月8日-9日，怀安县文广新局组织怀安县域内部分旅游企业应邀赴怀柔区学习考察。怀安县委常委、副县长刘金波，县文广新局局长宗跃宏、副局长王世军及怀安假日御景开发有限公司、仟姿盛牡丹产业有限公司相关负责人；怀柔区渤海镇党委委员、副镇长秦红霞，旅游办主任彭兴金，九渡河镇旅游办主任李万江，响水湖旅游公司总经理李鸿飞分别参加考察交流活动。', '月9日，怀安县一行在渤海镇旅游办主任彭兴金陪同下，实地参观了渤海镇岑舍、老木匠、和易园、渔塘、明明山居等经典民宿客栈，与各民宿经营者围绕设计理念、运营方式、改造问题等进行了深入的研讨交流。', '在两地民宿发展座谈会上，渤海镇党委委员、副镇长秦红霞结合渤海镇国家特色旅游景观名镇建设、支持民宿旅游发展作了详细讲解，并对怀安县发展民俗民宿如何少走弯路提出了有针对性地建设指导意见。 北京响水湖旅游公司总经理李鸿飞陪同怀安县一行，实地参观北京首届长城梅花节暨第四届响水湖长城梅展。李鸿飞总经理围绕北京响水湖长城旅游景区发展冬春淡季旅游的初衷，打造 "文旅盛会、经贸平台、群众节日" 的经营理念进行了详细讲解，并诠释了梅花不屈不挠、傲雪迎春、坚韧不拔的傲骨精神。针对怀安仟姿盛牡丹产业有限公司发展油用牡丹产业，李鸿飞总经理给出了诸多具有建设性的指导意见。', '本次实地考察前，怀安县一行还与九渡河镇旅游办主任李万江、副主任程明珠及九渡河镇域内部分民宿客栈经营者结合对口帮扶乡镇旅游发展工作召开了座谈会，双方围绕九渡河镇助力第六屯乡民俗旅游发展充分沟通交流想法，为下一步九渡河镇对口帮扶工作奠定了坚实的基础。', '为了发挥怀柔区的教育资源优势，进一步引导对口帮扶地区优秀学生树立正确价值观，激发他们的学习兴趣与动力，近日，怀安县柴沟堡一中部分师生赴怀柔区,与丰宁县第一中学，四子王旗第一中学，卢氏县一高等学校，共同参加了由怀柔区教委统筹组织的2019年 "京冀蒙豫" 高三优秀学生游学交流活动。 游学活动中，怀安县柴沟部一中的同学们与怀柔区第一中学部分优秀学生进行深度交流，每一名新同学都']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>9</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>对政协张家口市第十二届委员会第二次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019-01-10</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/zxta/4017.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['随着张家口经济和社会的发展，尤其是居民消费水平和消费观念的提升和变化。越来越多的人对于拥有汽车和使用汽车的看法也发生了变化。电动汽车分时租赁能满足无车市民的出行需求，也为偶尔需要用车的人提供了方便。对市民来说，采取租赁的方式，不仅省去了购车费用，而且避免支付保险费、税收和维修等诸多麻烦；时间选择更加灵活，满足了部分短时间内有租车需求的市民；分时租赁网点分布贴近客户，为市民提供便捷出行；信息化的自助式预约、租车、还车和支付服务，操作简单，更接地气。调查数据显示，私家车长时间处于停驶状态，造成了资源和经济的浪费。研究表明，对于每年累积行驶里程在10000公里之内的车主，采取分时租赁要比拥有一辆私家车更为经济划算。使用新能源汽车，也更加节能环保。', '一、管理工作职责需尽快确定，张家口市交通运输局城市客运管理处 "三定" 方案中没有明确汽车租赁管理职能。新能源汽车分时租赁作为一个新的市场，还是存在许多突出的问题。新能源汽车分时租赁管理的法律、法规相对欠缺，所以在对新能源汽车管理及行政执法中缺少法律依据，这样不仅不能根据市场和经济的发展制定相应的新能源汽车发展规划和有关政策，也不能很有效的规范新能源汽车的经营行为。', '二、新能源汽车分时租赁缺乏保险的支持，没有第三者责任险、车上座位责任险。无法在车辆使用中发生意外事故造成人身伤亡或财产的直接损毁的赔偿责任负责。给租赁者造成较大的经济负担，出现事故无法理赔的情况。', '三、无法保证驾驶人的驾驶经历以及驾驶员状况。是否酒驾、毒驾，驾驶员身体状况适不适合驾驶汽车上路，有没有安全隐患，以及驾驶员和租赁人员是否是同一个人都缺乏取证管理。', '四、新能源汽车的安全运营，维修，租金、押金退还的管理缺乏有效的手段。会给租赁者造成不必要的麻烦和经济损失。', '我市自开展新能源汽车推广工作以来，明确将公交、环卫、物流等公共服务领域作为重点，大力推广新能源汽车应用。2014年-2017年，我市共推广应用新能源汽车1955辆（自然车），折合标准车16638辆，其中公共服务领域新能源汽车1541辆（自然车），折合标准车15377辆。截止2017年底，还没有新能源出租汽车投入运营。', '市委、市政府主要领导高度重视，将新能源汽车推广工作作为减少大气污染、做好2022冬奥会筹办、促进本地产业发展的一项重点工作。市政府主要领导召集召开了多次工作会、协调会。2018年2月22日，春节过后上班第一天，市长武卫东主持召开了新能源汽车推广工作会议，对今后一阶段的新能源汽车发展和推广工作做了安排部署。', '目前在分时租赁领域，我市已有张家口帅狗汽车租赁有限公司购置的30辆纯电动汽车投入运营。今年3月，由市政府张文浩副秘书长带队，市交通运输局、交投公司、文旅投公司派专人赴杭州吉利集团优行科技公司就新能源汽车出行服务品牌 "曹操专车" 进行了学习考察，并由市文旅投、交投公司与吉利集团优行科技公司合资组建张家口曹操专车公司，有吉利优行公司提供曹操专车的运营平台和管理模式，计划于6月底前完成注册等工作。', '2018年，省新推办领导小组下达给我市的新能源汽车推广应用任务是4000辆标准车。2018年市政府确定的新能源汽车推广任务重点为氢燃料电池公交汽车、新能源出租车、新能源网约车等。市新推办各成员单位将一如既往的做好新能源汽车推广应用工作，用足用好国家、省各项新能源汽车推广扶持政策，完善新能源汽车配套基础设施建设，为市民出行提供更多便利。', '对政协河北省第十二届委员会 第一次会议第577号提案的答复 王振贵委员： 您提出的 "关于迎冬奥完善天主教主教府工程" 的提案收悉，经认真研究，现答复如下： 一、主教府工程建设基本情况 天主教主教府建设地点位于经开区沈家屯镇高家屯村大西沟快速路西侧。建设规模为一座钢架结构的天主教堂和一栋框架结构的办公楼及附属设施，总建筑面积5500平方米。总投资2240万元，其中省政府出资']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>9</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>塞北管理区常务副主任带队考察宁夏固原市马铃薯产业</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2018-10-26</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/116/23992.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['张家口市塞北管理区管理委员会 - 塞北管理区常务副主任带队考察宁夏固原市马铃薯产业', '月20日至22日，区常务副主任聂明带领相关人员前往宁夏回族自治区固原市，学习考察马铃薯产业发展工作。聂主任先后与中国科学院兰州化学物理研究所环境材料与生态化学研究发展中心副主任、国家马铃薯产业技术体系贮藏加工研究室主任、岗位专家刘刚教授，中国环境科学研究院朱克松工程师等进行座谈，实地考察了固原玉明淀粉有限公司，详细了解企业在马铃薯在生产过程中废水汁水蛋白提取、尾水还田、马铃薯产品开发等方面所做的工作。固原市的马铃薯产业开发、废水中蛋白质提取及其废水再利用灌溉农作物，取得了良好效果，对我区马铃薯产业非常有借鉴意义。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>9</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>蔚县涌泉庄乡召开三省一市学习考察汇报会暨扶贫工作专项会议</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2019-05-23</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/53/70603.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['2019年5月17日上午，为进一步扎实推进我乡精准脱贫工作,加快脱贫攻坚步伐，包乡县领导曹义荣政委提前谋划，超前安排，组织涌泉庄乡召开 "涌泉庄乡三省一市学习考察汇报暨扶贫工作专项会议" 深入学习贯彻5月13日县委第三次常委扩大会，传达梁书记考察总结十九条先进工作经验，对标定位提前对全乡脱贫工作安排部署，并制定下发了切实可行的文件推动工作落实到位。 县公安局曹义荣政委及全体领导干部、各村村书记、包村干部、驻村工作组第一书记等人参加会议。', '会议中，甄乡长阐述了习近平总书记4月15日-17日在重庆考察并主持召开解决 "两不愁、三保障" 突出问题座谈会，强调全国各地区各部门务必高度重视、统一思想、抓好落实鼓作气，顽强作战，越战越勇，着力解决 "两不愁、三保障" 突出问题。强调到2020年稳定实现农村贫困人口不愁吃、不愁穿、义务教育、基本医疗、住房安全有保障是贫困人口脱贫的基本要求和核心指标。 为认真贯彻落实会议精神,5月16日下午，我乡召开领导班子会，对开展解决 "两不愁、三保障" 突出问题进行排查梳理，研究确定了安全饮水、危房改造等15项重点工作任务，明确了各项任务的完成时限、牵头领导及责任人。各包片领导、包村干部、驻村第一书记、村书记主任务必高度重视、抓好落实，对照任务分解清单中的完成时限、牵头领导及责任人在既定的时限内完成各项工作任务，为全乡的顺利脱贫退出打下坚实基础。 丁书记具体讲解了梁书记考察总结十九条先进工作经验,并要求各部门各村要强力统筹，要细化具体任务、时间、工作内容以及工作要求；要明确目标，齐心协力，围绕规划，统筹推进项目实施；要有序推进，立即行动起来，进一步加快脱贫攻坚的步伐。 最后，曹义荣政委指出，我们要自觉提高认识，脱贫攻坚是一项复杂的系统性工程，必须突出重点、聚焦关键，着力解决突出问题，要加快推进饮食安全、危房改造等工程，确保 "两不愁，三保障" 落到实处，切实推动精准扶贫工作的有序开展。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>9</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>万全区副区长胡万琴一行到我县学习考察戏剧团队管理模式</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2018-12-29</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/80/47380.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['日，万全区副区长胡万琴带领万全区财政、人社、编办、文广新局和华梅演义集团负责人到我县学习考察戏剧团队管理模式。副县长王会婵陪同考察并主持召开汇报座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>9</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>市机关事务管理局召开外出考察成果交流暨落实回建书记座谈指示精神研讨会</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2018-12-05</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/91793.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['市机关事务管理局召开外出考察成果交流暨落实回建书记座谈指示精神研讨会-张家口市人民政府', '月4日，我局组织召开外出考察成果交流暨落实回建书记座谈指示精神研讨会，会议由局长张永波主持，全体副科级以上干部参会。会上，参加外出考察的人员逐一汇报学习考察体会，交流学习经验；各科室负责人就如何落实回书记指示精神做好年前各项工作及明年工作思路作发言。张永波局长对做好今后工作提出三点要求:一是机关事务改革要瞄准社会化、市场化方向，推进管服分离，按照“管办分开、事企分开、保障性服务与经营性服务分开”的原则，完善机关、下属事业单位、企业“三级管理体系”，壮大下属企业，以购买服务方式由企业承接服务保障工作。二是机关事务工作要以网格化、标准化为切入点，按照“定人、定责、定岗”的三定原则，合理明确职责，以职定岗，以岗定责，细化工作流程，进一步提升工作效率。三是服务保障要以细节化、精细化为着力点，努力在提升服务品质上下功夫，真正把机关事务工作落细、落小、落实。', '习近平在第五个国家宪法日之际作出重要指示强调 弘扬宪法精神 树立宪法权威 使全体人民都成为社会主义法治的忠实崇尚者自觉遵守者坚定捍卫者 栗战书出席 "深入学习贯彻实施宪法 坚定不移推进改革开放" 座谈会并讲话 新华社北京12月4日电 在第五个国家宪法日到来之际，中共中央总书记、国家主席、中央军委主席习近平作出重要指示强调，坚持依法治国首先要坚持依宪治国，坚持依法']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>9</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>对尚义县第十六届人民代表大会第四次会议第号建议的答复</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2020-12-10</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.zjksy.gov.cn/single/144/5808.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['按照2018年5月市委市政府 "两办" 联合印发的《关于推进殡葬综合改革试点工作的实施意见》文件要求，在2020年乡镇中心性农村公益性公墓覆盖率要达到20%，2022年乡镇中心性农村公益公墓达到50%，2025年实现全覆盖。', '我县今年上半年规划乡镇中心公益性公墓、村级公益性墓地共147处，占地面积255291平米，全部纳入2020-2035土地规划。为推动公墓建设，今年年初民政局就乡镇中心性农村公墓建设进行了专门的安排部署，确定了南壕堑镇、大青沟镇和小蒜沟镇为2020年全县乡镇中心性农村公墓建设单位，制定下发了《尚义县民政局关于农村公益性公墓建设的意见》。8月18日，我县召开了由上述三个乡镇主要领导、民政、自然资源等部门参加的乡镇中心性公墓建设调度会，并于8月25日由民政局主管领导带队组织南壕堑镇、大青沟镇和小蒜沟镇民政所长到沽源县、下花园区和宣化区就公墓建设进行了专门学习考察。', '目前，小蒜沟镇在地上村投资80余万元，建设面积5亩，建设墓穴185个，建成了公益性公墓一处。大青沟镇已在陈所良村完成了选址，正在建设。南壕堑镇在满克图村北已规划13亩土地，计划每亩200个墓穴。围栏已经围好，土地已经平整，正在修路。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>9</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>对政协张家口市第十二届委员会第四次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2020-10-27</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/zxta/29241.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['您提出的关于《加快装配式建筑产业发展，推动建材产业升级的建议》已收悉，现答复如下：', '人民政府关于推进建筑产业现代化大力发展装配式建筑的实施意见》（张政字[2017]29号）、河北省住建厅《关于进一步推进全省装配式建筑发展的通知》（冀建节科函[2019]34号）确定的目标任务，依据《河北省促进绿色建筑发展条例》等法规的明确要求，全面推进我市装配式建筑发展。2020年提出：各县（区）、管理区、经开区新建建设项目中，除政府投资和以政府投资为主的公共建筑项目以及工业建筑项目要全部采用装配式建筑以外，所有新建住宅商品房项目均按照不低于20%的比例配建装配式建筑。装配式建筑应符合省工程建设标准《装配式建筑评价标准》（DB13(J)/T8321-2019），装配率达到50%以上。鼓励非装配式建设项目在设计中采用预制楼梯、叠合楼板等预制构件。', '2、提升建筑节能材料（产品）和技术推广应用水平。加强建设工程节能材料（产品）和技术推广应用中的服务与管理，施行全市统一的建筑节能材料（产品）和技术推广应用管理制度，以装配式建筑技术、墙体保温技术、高性能门窗技术、太阳能、生物质能等可再生能源和清洁能源技术、高性能防水材料、高效散热器等国家和省推广应用的技术和产品为重点，积极推广通过节能产品认证、取得节能和绿色建材标识的建筑节能材料（产品）及设备。严禁推广使用国家或本省限制、禁止生产或使用的建设工程节能材料和技术，以及使用禁止或限制的生产工艺或原料生产的建设工程节能材料（产品）。', '3、着力推动装配式建筑生产基地建设。指导张家口建工集团广建新型建筑节能材料有限公司、河北际源建筑产业化发展有限公司、张家口恒泰宜居房屋建造有限公司等行业领军企业以装配式工业化住宅、装配式集成住宅和超低能耗装配式建筑为主线展开技术引进、开发生产和标准化企业建设,并取得省级装配式建筑生产基地。', '一是按照省市政府、住建厅关于加快推进全省建筑产业化工作的指导意见和要求，全面落实《张家口市人民政府关于推进建筑产业现代化大力发展装配式建筑的实施意见》，牢固树立发展的理念，助推企业快速协调发展。二是组织相关企业、机构到国内大型钢构企业应用示范项目建设地进行学习考察，为着力解放思想、引进技术、加快发展创造条件。三是以省住建厅确定的工作目标为方向，强化组织机构建设，明确工作职责，全面打好工作基础，认真落实建筑产业现代化政策、标准、规范体系，并以钢结构、木结构和装配式集成住宅为当前主要发展方向，采取试点示范、完善支撑，重点突破、分步实施，城乡协调、全面推进。四是完善产业布局，根据和市装配式建筑的发展需求，在全市范围内支持基础条件好、企业技术能力强的企业布局新的装配式建筑产业基地。五是针对建筑节能管理人员和执业人员的业务水平参差不齐的问题，集中就专业技术、各级管理等方面进行宣贯，全面提高我市建筑节能工作水平。五是利用各种媒体宣传平台加强宣传力度，提高装配式建筑社会认知和认同程度。', '九三学社： 贵单位提出的关于《在老旧小区改造中增强便老设施配套的建议》的提案收悉，现答复如下： 一、老旧小区改造情况 （一）2018-2020年老旧小区改造计划及完成情况。2018年，根据住建部老旧小区改造试点工作要求部署，结合我市实际，张家口市老旧小区改造工作领导小组办公室制定了《张家口市人民政府办公室关于印发张家口市老旧小区三年改造工作（2018-2020年）实施方案的通知》。《方案》坚持&amp;']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>9</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>万全区举办年扶贫干部专题培训班</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2020-10-16</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/43858.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['2020年是脱贫攻坚收官之年，为切实提高扶贫干部扶贫脱贫工作能力，推进产业扶贫发展，巩固提升脱贫成果，开拓扶贫干部眼界。10月11日，万全区举办2020年扶贫干部专题培训班。220余名扶贫系统一线党员干部、村书记和驻村干部参训。', '培训会指出，扶贫脱贫工作受到新冠肺炎疫情和洪水灾情的新挑战，巩固成果防止返贫须经受新的考验。即将到来的考核是今年最后一次考核，也是涉及总结前5年扶贫成效的考核。希望参训人员能够充分理解开展培训的重要意义，认清当前负重建压的工作态势，对工作内容及着力点和思路进行再梳理，提高业务素质，强化实践能力，迎接考核和考验。希望大家能够把培训和所从事的工作统筹起来，多管齐下、多面发力，抽空兼顾进行，把扶贫脱贫攻坚与乡村振兴战略相结合和衔接，注重实效，为贫困户和乡村谋发展。培训过程中，希望大家严格遵守扶贫培训纪律，真正利用好这次学习的机会，认真听讲、深入领会，真下苦功，保证学习质量，做到学以致用，并运用到日常的工作中，为迎接国考和省考取得好成绩打下坚实基础，为切实巩固脱贫成果提供强大支撑，确保如期打赢打好扶贫脱贫攻坚战。', '培训首先由张家口市委党校教授梁立华以“积极探索产业精准扶贫新路径，如期打赢脱贫攻坚战”为题从产业精准扶贫提出的背景、精准扶贫方略对产业扶贫实践的新要求和精准扶贫背景下产业扶贫的模式及启示三个方面进行了授课。', '此次培训经过大量的前期准备工作，课程由区扶贫办结合实际精心编排，采取集中培训与实地外出学习考察相结合的方式进行，培训班共分两期，每期4天，主要针对产业扶贫的短板，围绕产业扶贫的内容展开。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>9</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>市律协会长冯海兵与省律协考察团一行赴贵州省律师协会学习考察</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2020-09-29</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/28131.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['、邢台市律师协会会长张之永、省律师协会知识产权法律专业委员会主任李双盈、省律师协会仲裁与调解委员会副主任张永泽等一行七人赴贵州省律师协会学习考察。贵州省律师协会副会长石利民主持召开交流座谈会，贵州省律师协会会长白敏、贵州省律师协会副会长潘登勇、贵州省律师协会生态文明专业委员会主任郑世红、贵州省律师协会知识产权专业委员会主任李建等参加座谈交流。', '2020年9月21日，司法部公布了全国优秀律师事务所和全国优秀律师名单，并进行了公示。我市河北厚霖律师事务所主任任志宏荣获全国优秀律师称号。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>9</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>新地标诞生老火车将拉来新生活</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2020-12-12</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/single/170/54166.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['12月7日，记者实地探访该项目，只见工人们迎着呼呼的冷风，紧张有序地忙碌着，铺装路面、焊接架构、运送物料，一切都为了项目能够早日向市民开放。', '位于桥东区南口路段的老火车步行街南临工业文化主题公园，北至德胜南街，采取狭长带状设计。街道全长375米，最宽处28米，最窄处14米。经过近半年的规划设计和施工作业，该步行街已经初见雏形。记者在现场看到，10节报废绿皮火车经过翻新改造，变成了一个个特色餐饮档口，贯穿步行街南北 ，形成了餐饮与文化紧密结合的特色火车景观。步行街西侧，6节仿照世界知名火车1:1定制的火车车厢依次排列，将被打造成6个特色酒吧餐厅。', '整条步行街共有140多家档口和餐饮门店，分为精致小吃区、品牌餐饮区、西餐酒吧区。除火车外，还引入了双层巴士、集装箱等元素，面积从9-800平米不等，几乎覆盖了所有档次的餐饮需求。同时还精心设计了夜间亮化效果，由九品拱门搭建的灯光天幕，流光溢彩、绚丽无比，将给市民带来不一样的感受，建成后将成为我市又一网红打卡美食基地。" 项目负责人麻志成介绍说。', '记者在现场了解到，为最大限度地融入京张铁路文化元素，步行街北出入口采取了仿青龙桥火车站的设计。仿古的青砖，汉白玉阴刻而成的门头，矗立街口，仿佛穿越到110年前，传达着浓厚的文化气息。', '2014年火车北站停用后，沿途铁路附近成了闲置空地，随着铁路部门工作重心向城市南部的转移，更无暇顾及此片区域，开放式的空间再加上无人管理，很快这里便成了周边居民投放垃圾、违章停车的场所，导致环境卫生脏乱差，严重影响市容市貌。', '区委区政府本着留存历史、保护工业遗产的原则，从桥东未来发展的长远考虑出发，主动与铁路部门沟通协商，最终确定了对此区域进行保护性利用的方案。', '"桥东区被誉为火车拉来的城市，因铁路而生的怡安街，曾经繁华兴盛，数十年引领桥东乃至张家口的商业潮流。火车北站和京张铁路是我区重要的历史文物，在中国工业发展史上都留下过浓墨重彩的一笔。保护工业遗址，弘扬桥东铁路文化，彻底改变周边脏乱差的现状。" 区委明确了这样的规划设计理念。', '思路愈加清晰，如何利用好这片区域，让居民受益？为此，区委主要领导亲自谋划，亲自部署，多次深入实地现场调研，学习考察其他地区工业文化保护性开发项目，并广泛征求意见，亲自修改完善规划设计，最终确定了建设老火车步行街的设计方案。这是我区以京张铁路文化为依托，继去年建设完成工业文化主题公园后，持续拓展城市会客厅项目功能和空间，为市民打造的又一高档次的城市休闲餐饮场所，是我区今年重点实施的民生工程。', '采访当日，正值农历大雪节气，最低气温达到零下16度，如何克服低温，保证施工效果，考验着工程建设者的智慧和意志。', '据施工人员介绍，目前步行街内正在进行地面铺装、室内装修和墙体安装工程，因为气温较低，每天有效施工时间只有8个小时，130余名工人从上午9时到下午4时不间断满负荷施工，午饭都在工地上吃，大家追进度，赶工期，全力以赴确保如期完工。', '记者在施工现场看到，为保证地面铺装工程顺利进行，工人们在施工区域搭起了塑料大棚，并通过采暖设备，将棚内温度保持在8摄氏度左右，大棚外工人们架起了一口直径1米多的巨型炒锅，将沙子翻炒至滚烫后，立即用于地面砖铺装作业，一铲铲热气腾腾的沙子和加入防冻剂水泥，将一块块石砖牢牢地固定在了地面。', '"不仅是这样，地面铺装工程完成后，工人们还要在地面上铺置草垫、棉被进行保温，三至五天后才可以正常使用。" 施工单位负责人魏经理补充到。', '用冒着热气的沙子铺装路面，顶着低温焊接架构，迎着寒风安装墙体，施工过程虽然辛苦，但大家却信心十足，采访过程中，几位施工人员纷纷表示，承担桥东区重点项目建设非常荣幸，这份荣幸也激励着每一位工友，大家有信心圆满完成建设任务。', '12月9日，市安委会第四考核组在组长武永平同志带领下，到桥东区开展为期三天的2020年度安全生产目标管理年终考核及延伸巡查。区政府组织召开考核汇报会，区政府区长尚秀伟同志出席会议，区政府党组成员、办公室主任刘小健同志主持会议，区安委会有关成员单位主要负责人参加会议。会上，武永平同志简要介绍了考核的重要意义、重点内容、总体安排以及工作要求；刘小健同志代表区政府汇报了桥东区2020年安全生产工作开展情...']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>9</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>桥东名企丨奥斯特不锈钢年坚持创新实现跨步跃升</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020-11-04</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/content/53660.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['以生产不锈钢容器为主的张家口奥斯特不锈钢工程有限公司成立于2001年，公司位于桥东区创业路，现已发展成为我市一家知名的民营企业，2015年被认定为国家高新技术企业，经过近20年的发展，公司现拥有国家级专利19项，产品销售遍布世界各主要国家，国内市场占有率连续多年保持20%以上，全国第一。 据公司董事长王中生介绍，当时他经过市场调研和考察学习，发现国内能够大规模制造安装酒类生产的不锈钢设备厂家少之又少，尤其在当时红酒市场异常火爆，如果能成立一家酒类生产设备企业肯定会大有市场。 看准机会，说干就干。2001年王中生投入 80余万元购买设备、租用厂房、引进技术人才。很快不锈钢薄壁容器制造技术就被王中生团队攻克，当时国内具备此项制造工艺的企业只有4家，奥斯特不锈钢因为价格低、质量好、工艺新很快成了行业中的佼佼者。 公司成立后不久，王中生就接到了来自北京红星酒厂的一笔200万元的订单。随后企业不断发展壮大陆续与长城葡萄酒集团、王朝葡萄酒集团、江苏洋河酒厂、山西杏花村汾酒厂等国内知名酒厂合作，2014年公司在国内同行业中已具有极强的影响力和认可度，一些国外企业也主动向王中生发来了订单。 "当时一家来自澳大利亚的红酒制造企业一直从意大利进口生产设备，通过对比发现我们的产品不仅质量好而且价格还低，于是果断地与我们签署了合作协议，直到现在我们还保持着密切的合作。" 王中生说。 作为一家高新技术企业唯有靠不断的创新，才能在激烈的市场竞争中获得发展。王中生所经营的酒类生产设备制造安装行业，全部属于非标准化产品，每一个新产品的研发都是一个攻坚克难的过程，每一笔订单都要根据客户需求量身定制，从设计到生产，再到安装环节，每一步都离不开科技创新，投入使用后技术人员还要根据客户实际使用效果，进行反复改装、调试，确保产品功能发挥到最大化。 随着传统制酒行业的不断发展，有合作伙伴提出是否可以研发一条全自动化的制酒设备，这样既可以减少人工成本，又能提高生产效率。 王中生充分了解客户需求后，一方面组织科研人员开展课题攻关，另一方面通过学习考察积极寻找技术依托。2014年与中船重工旗下企业签署战略合作协议，中船重工发挥技术领先优势，奥斯特不锈钢公司发挥制造和市场优势，双方取长补短共同进行新产品研发。最终经过近两年多的研发、实验、磨合等过程，终于研发成功，设备自动化、智能化程度处在全国一流水平。2017年奥斯特不锈钢公司成功中标汾酒自动化生产项目，仅此一项目就实现销售收入9000余万元。 近年来奥斯特不锈钢企业始终保持着每年销售额3%的科研投入力度，为科技人才开出丰厚的待遇，一批科研课题被逐个攻克。该公司经过6年时间研发成功的小型果酒蒸馏设备，每年销售额均保持在500万元左右。同时依托新技术不断转型升级，与金龙鱼厂家合作的国内第一条酿醋流水线，已完成生产安装正处在调试阶段，将为下一步丰富产品类型、拓宽市场领域打下良好基础。 "未来几年，我们将持续加大科研投入力度，进一步巩固科研创新能力，针对市场的新变化，满足客户的新需求，主动转型升级，积极融入新发展格局。" 王中生如是说。', '11月2日，全省乡镇和街道改革跨市互查组到我区就乡镇和街道改革工作进行检查验收。区委常委、组织部长王鹏飞陪同检查，区委组织部、区委编办、区司法局、区行政审批局负责同志参加。检查组先后到五个乡镇和街道，通过实地查看、翻阅资料、现场提问等形式，对改革涉及的党建统领基层治理、优化机构编制及人员配备、基层审批服务体系建设、基层综合执法体系建设、综合指挥和信息化网络中心等六大类五十项指标进行检查验收。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>9</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>邯郸市大名县委组织部来我县学习考察易地扶贫搬迁安置区管理工作</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.zjkkb.gov.cn/single/22/6624.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['邯郸市大名县委组织部来我县学习考察 易地扶贫搬迁安置区管理工作 - 康保县人民政府', '，大名县委组织部来我县学习考察易地扶贫搬迁工作，先后深入到县城集中安置区、张纪镇安置区进行了参观学习。', '名县考察人员参观了安置区就业、医疗、便民、物业四个服务中心，并深入了解组织设置及运行情况。对我县成立安置区党工委、建设楼宇党支部、推行党员 "双重管理" 模式、建立网格式管理体系等经验做法给予高度赞扬，我县超大的安置区规模、齐全的配套设施、周到的便民服务令考察人员赞不绝口。表示回去以后，要以康保为标杆，认真学习康保县推进易地扶贫搬迁工作的超大力度、安置区管理的科学规范、党组织的优化设置、完善的便民为民设施以及舒适的生活环境，为大名县推进易地扶贫搬迁安置区管理服务工作提供典范。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>9</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>邯郸市大名县委组织部来康保县学习考察易地扶贫搬迁安置区管理工作</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.zjkkb.gov.cn/single/30/6627.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['9月3日，大名县委组织部来我县学习考察易地扶贫搬迁工作，先后深入到县城集中安置区、张纪镇安置区进行了参观学习。', '大名县考察人员参观了安置区就业、医疗、便民、物业四个服务中心，并深入了解组织设置及运行情况。对我县成立安置区党工委、建设楼宇党支部、推行党员"双重管理" 模式、建立网格式管理体系等经验做法给予高度赞扬，我县超大的安置区规模、齐全的配套设施、周到的便民服务令考察人员赞不绝口。表示回去以后，要以康保为标杆，认真学习康保县推进易地扶贫搬迁工作的超大力度、安置区管理的科学规范、党组织的优化设置、完善的便民为民设施以及舒适的生活环境，为大名县推进易地扶贫搬迁安置区管理服务工作提供典范。(组织部）', '大名县考察人员参观了安置区就业、医疗、便民、物业四个服务中心，并深入了解组织设置及运行情况。对我县成立安置区党工委、建设楼宇党支部、推行党员']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>9</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>桥东区委书记冯祥利率队到我县考察学习</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2020-07-09</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.zjkkb.gov.cn/single/19/6308.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['治理、易地扶贫搬迁、产业就业扶贫、县城建设等工作进行考察学习。县领导刘雪松、魏红侠、李斌、柳呈祥、胡启荣、靳冬明、赵万新一同考察并参加座谈会。', '冯祥利一行先后到张纪镇特色小镇、县经济开发区、县城易地搬迁集中安置区、县城建设现场进行实地考察，通过听取介绍、现场交流等方式，详细了解我县在', '在张纪镇特色小镇、县城易地搬迁集中安置区，冯祥利一行感叹我县易地搬迁小区的规模大、配套全、管理实、质量高。考察人员纷纷表示，要认真学习我县易地扶贫搬迁小区创新的建设模式，老百姓从农村到城市，从农民到市民，使广大村民共享新型城镇化成果，认真学习社区居民服务中心、就业服务中心、卫生服务中心、物业管理中心等精细化管理服务水平，认真学习完善的产业配套，实现', '在县经济开发区，冯祥利一行到善能康保生物质热电有限公司、鑫赛新能源科技有限公司考察，每到一处，考察人员都认真听取项目负责人介绍，详细了解我县经开区管理体制、运行机制、投融资模式及园区发展规划、企业发展情况等方面工作情况。在实地参观、听取介绍后，考察团对我县企业发展、产业带贫等工作取得的成效给予高度评价，一致认为，我县经开区产业链条完善，企业自动化、智能化程度高，发展前景好，充分发挥了企业带贫作用，培育出了符合当地实际的特色产业体系。', '在县城建设现场，冯祥利一行详细听取了我县重点项目建设情况。冯祥利指出，近两年康保发生了翻天覆地的变化，投资力度大、速度快，合理设置城市空间，科学规划路网水网，完善公共设施配套，提高市民居住舒适度，打造出宜居、宜业、宜游的坝上新城。座谈会上，刘雪松对桥东区一行的到来表示欢迎，并就我县经济发展、脱贫攻坚、城乡基础设施建设、乡村治理等工作进行了介绍。他指出，此次考察是增进两地感情、互相交流学习的一次良好契机，希望两地进一步加强联系、加强交流，促进共同发展。冯祥利说，此次来康保学习考察，感受到一种不畏艰难、勇于挑战自我的精神，学习到一种跳出扶贫抓扶贫，以脱贫攻坚统揽经济社会发展全局的理念，体会到一种昂扬向上、积极作为的精神状态，体会到一种人民至上、以人民为中心的为民情怀。同时，也切实感受到康保城市建设的超前经营理念和发生的巨大变化。他表示，要以此次考察为契机，认真学习借鉴康保的好经验、好做法，结合自身实际，进一步加大工作力度，做好各项工作。座谈期间魏红侠还介绍了我县脱贫攻坚、农业农村及城建重点工作。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>9</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>桥东区委书记冯祥利率队到康保县考察学习</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2020-07-09</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.zjkkb.gov.cn/single/30/6311.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['7月7日，桥东区委书记冯祥利带领四大班子领导及相关部门负责人到我县就 "空心村" 治理、易地扶贫搬迁、产业就业扶贫、县城建设等工作进行考察学习。县领导刘雪松、魏红侠、李斌、柳呈祥、胡启荣、靳冬明、赵万新一同考察并参加座谈会。', '冯祥利一行先后到张纪镇特色小镇、县经济开发区、县城易地搬迁集中安置区、县城建设现场进行实地考察，通过听取介绍、现场交流等方式，详细了解我县在"空心村" 治理、易地扶贫搬迁、产业就业扶贫、城市建设等方面的好做法和好经验。', '冯祥利一行先后到张纪镇特色小镇、县经济开发区、县城易地搬迁集中安置区、县城建设现场进行实地考察，通过听取介绍、现场交流等方式，详细了解我县在', '在张纪镇特色小镇、县城易地搬迁集中安置区，冯祥利一行感叹我县易地搬迁小区的规模大、配套全、管理实、质量高。考察人员纷纷表示，要认真学习我县易地扶贫搬迁小区创新的建设模式，老百姓从农村到城市，从农民到市民，使广大村民共享新型城镇化成果，认真学习社区居民服务中心、就业服务中心、卫生服务中心、物业管理中心等精细化管理服务水平，认真学习完善的产业配套，实现"两区同建" ，打造 "三公里就业圈" ，使搬迁群众搬得出、稳得住、能致富。', '在张纪镇特色小镇、县城易地搬迁集中安置区，冯祥利一行感叹我县易地搬迁小区的规模大、配套全、管理实、质量高。考察人员纷纷表示，要认真学习我县易地扶贫搬迁小区创新的建设模式，老百姓从农村到城市，从农民到市民，使广大村民共享新型城镇化成果，认真学习社区居民服务中心、就业服务中心、卫生服务中心、物业管理中心等精细化管理服务水平，认真学习完善的产业配套，实现', '在县经济开发区，冯祥利一行到善能康保生物质热电有限公司、鑫赛新能源科技有限公司考察，每到一处，考察人员都认真听取项目负责人介绍，详细了解我县经开区管理体制、运行机制、投融资模式及园区发展规划、企业发展情况等方面工作情况。在实地参观、听取介绍后，考察团对我县企业发展、产业带贫等工作取得的成效给予高度评价，一致认为，我县经开区产业链条完善，企业自动化、智能化程度高，发展前景好，充分发挥了企业带贫作用，培育出了符合当地实际的特色产业体系。', '在县城建设现场，冯祥利一行详细听取了我县重点项目建设情况。冯祥利指出，近两年康保发生了翻天覆地的变化，投资力度大、速度快，合理设置城市空间，科学规划路网水网，完善公共设施配套，提高市民居住舒适度，打造出宜居、宜业、宜游的坝上新城。', '座谈会上，刘雪松对桥东区一行的到来表示欢迎，并就我县经济发展、脱贫攻坚、城乡基础设施建设、乡村治理等工作进行了介绍。他指出，此次考察是增进两地感情、互相交流学习的一次良好契机，希望两地进一步加强联系、加强交流，促进共同发展。', '冯祥利说，此次来康保学习考察，感受到一种不畏艰难、勇于挑战自我的精神，学习到一种跳出扶贫抓扶贫，以脱贫攻坚统揽经济社会发展全局的理念，体会到一种昂扬向上、积极作为的精神状态，体会到一种人民至上、以人民为中心的为民情怀。同时，也切实感受到康保城市建设的超前经营理念和发生的巨大变化。他表示，要以此次考察为契机，认真学习借鉴康保的好经验、好做法，结合自身实际，进一步加大工作力度，做好各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>9</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>对标先进学习经验积极推进农垦集团改革发展</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2020-06-16</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/23027.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['近日，由市国资委调研员李长青、市农业农村局调研员李生、交投集团董事长孙健男、总经理马晓春等领导带队，赴承德市御道口农垦实业集团有限公司进行学习考察，围绕农垦区域集团化组建方式、农垦集团的运营模式、农垦集团化后如何理顺农垦发展体制、农垦集团内部管理制度的建立等课题进行了深入调查和学习。并先后到塞北管理区（国营沽源牧场）和察北管理区（国营察北牧场）分别同两个管理区的主要领导召开座谈会进行研究农垦改革事宜，进一步统一思想、明确思路、坚定信心，为制定我市农垦集团改革方案创造了条件。', '6月9日晚，市长武卫东主持召开专题会议，调度北京大学第三医院崇礼院区国家区域医疗中心项目建设工作，协调解决工程项目难点问题。市政府秘书长张爱民出席。 武卫东指出，北医三院崇礼院区项目是贯彻落实习近平总书记做好各项冬奥会筹办工作、高质量推进京津冀协同发展等一系列重要指示精神的一项具体实践，同时也是重要的民生项目，既可以造福当地群众，又可以服务全市、服务首都，乃至为更大区域内的人民群众提供一流的医疗服']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>9</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>脱贫攻坚记种上订单菜销售不用愁万株西蓝花助力农民增收</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2020-06-21</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/23175.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['"这30万株西蓝花，将成为农民增收的新渠道。" 6月6日，望着田野里火热的劳动场面，桥东区教育和体育局驻东望山乡周顶屯村第一书记王利生说。', '对周顶屯村人来说，通过发展产业尝到了甜头。去年，在王利生的带动下，周顶屯村依托 "村企联盟" 建起百亩蔬菜基地，先后种植40亩大葱、40亩豆角和20亩其他蔬菜。通过尝试蔬菜批发、爱心大葱认购活动，王利生带着驻村工作队队员，与村 "两委" 干部们将蔬菜全部售完，村集体实现增收4.8万余元。', '"农民种菜，最愁的就是销路。" 今年，为了让菜农不用为销售发愁，王利生带着工作队员到坝上学习考察，最终与张北县一家大型种植基地合作，依托该基地种植技术及生产管理模式，发展订单式农业，种植西蓝花。选定种植西蓝花后，他们首先从该基地购置了30万株优质西蓝花籽种。', '"现在我们的西蓝花长势非常好，预计6月25日起进入市场。随后将进行第二季种植，确保9月15日进入市场销售，与坝上的西蓝花正好错开上市时间，只要我们把蔬菜的品质搞上去，销量肯定错不了。" 王利生说。', '据悉，王利生成立了周顶屯蔬菜种植农业专业合作社，进一步规范资金管理，与张北西蓝花种植基地达成协议，技术人员全程指导种植。', '6月3日，在桥东区大仓盖镇定兴堡村，特色种植 "试验田" 里，正在机械化种植张杂谷。据了解，这是驻村单位桥东区公厕管理处和村企联盟对口企业碧桂园集团张家口利仁房地产开发有限公司联合开辟的100亩土地，建设特色种植， 其中包括张杂谷85亩、土豆10亩、西瓜5亩，助力农民增收。 当日上午，在特色种植 "试验田" 里，67岁的村民谷登栋正跟在机器后面查看种植']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>9</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>秦皇岛市体育局选派人员到张家口市全民健身活动中心学习考察</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2020-06-04</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/124252.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['6月2日至3日，秦皇岛市体育局考察团选派全民健身中心主任戴劲带队，一行3人到张家口市全民健身活动中心调研，交流管理及运营模式的先进经验。', '考察团一行，先后参观了张家口市全民健身活动中心羽毛球馆、乒乓球馆、篮球综合馆、网球馆、健身健美厅、综合场馆厅，全方位、多角度、深层次了解并认真听取了相关工作人员的情况介绍。', '张家口市全民健身活动中心负责人详细介绍了场馆的建设结构、设计布局和使用功能，对运营管理模式、人员管理安排、能源费用支出、体育产业发展、提升场馆活力、丰富场馆功能等方面进行了交流、座谈。', '通过实地参观和听取情况介绍，戴劲表示，张家口市全民健身活动中心的场馆运营理念对秦皇岛市有着很好的借鉴意义，为秦皇岛市全民健身中心打造优质服务，提升场馆功能提供了可借鉴、可推广、可复制的重要参考，希望今后进一步加强沟通交流，并衷心感谢张家口市体育局对此次调研考察工作的大力支持。', '近日，张家口市生态环境局党组书记、局长高领两次召开专题会议，研究生态环境执法工作。高领局长强调，全市生态环境执法人员要深刻汲取第一季度省执法效能考核落后的教训，全面提高环境执法监管效能，帮扶指导企业提升环境管理水平，针对环境执法中的薄弱环节，不断强化现场执法技能的训练，着力加强生态环境执法能力。 1、加强思想政治建设，增强环境执法工作的责任感和使命感。始终把思想政治建设摆在首位，通过强有力的思想...']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>9</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>桥东区在化危为机中赢得发展主动权</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2020-05-14</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/21784.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['今年以来，面对突如其来的新冠肺炎疫情，桥东全区上下坚决贯彻落实习近平总书记重要指示和省市决策部署，准确把握 "危" 和 "机" 的关系、当前和长远的关系，充分发挥主观能动性，化危为机。今年第一季度全部财政收入完成22.5亿元，全市排名第一；全区地区生产总值完成47.1亿元，总量全市第一；一般公共预算收入完成1.6亿元，同比增长23.2%，增幅全市第二；固定资产投资同比增长6.5%；规模以上工业增加值同比增长15.5%，全市第二；社会消费品零售总额完成11.9亿元，总量全市第二，实现了疫情防控和经济社会发展双胜利，赢得了发展的主动权。', '面对新冠肺炎疫情影响，我区项目建设推进、招商引资活动受到影响限制，全区经济发展面临艰巨挑战。第二季度，是抢时间、赶进度、补损失的关键时期。如何把落下的进度赶回来，把疫情造成的损失夺回来，桥东区坚决果断摒弃等靠观望的思想观念，奋起作为逆转被动不利。', '机遇总是垂青有准备的人。危机面前，加快发展的责任使命更加凸显。区委、区政府准确把握大局，科学运用全面、辩证、长远的眼光谋划桥东未来，牢牢把握国家新一轮发展机遇期，提出 "一跑两争" 的工作思路。区委、区政府主要领导以超乎寻常的紧迫感和责任感谋划推动工作，多次往返石家庄、北京等地，亲自沟通协调，最大限度争取支持。要求全区充分发挥有效投资在稳增长中的关键作用，掀起重大项目建设新高潮，为桥东区化危为机、赢得发展主动权指明了方向、提供了遵循。区直各部门全面贯彻落实区委决策，加快赴省进京步伐，对接沟通，争跑资金，争跑政策，在全市各县区中率先发力，为全区发展抢占先机。', '今年3月，中央第一批地方专项债券发布后，区财政局、发改局工作人员组成联合工作组，第一时间对全区重点项目进行摸底，严格按照申报要求，科学合理包装项目，全体人员加班五天五夜，最终抢在项目资料网上上传截止时间的前一分钟，完成上传任务。随后，区财政、发改、住建等部门负责人又赶赴石家庄，与省财政厅、省发改委相关部门进行了面对面的沟通对接，最终我区共有12个项目列入国家项目库，初步获批债券金额16.3亿元。', '"此次申请的第一批专项债券，包含全区老旧小区改造项目、城市会客厅项目、停车场项目等17个重点项目，涉及我区经济社会民生发展各个领域，不仅利息低，而且其十年的超长还款期限，为我区长远发展赢得了主动权。与此同时，第二批专项债券申请工作也紧锣密鼓地申报中，相信也一定会传来好消息的。" 区财政局局长张胜利说。', '一份努力，一份希望；锲而不舍，终有收获。在区委、区政府主要领导的高度关注和亲自盯办下，全区各部门各单位也纷纷结合各自行业特点，全力一跑两争。区财政局、区发改局等部门负责人一周三次当天往返石家庄，就为了能与上级对口部门现场沟通，最终敲定。区委组织部积极争取上级社区建设奖补资金116万元；区委宣传部为工业文化主题公园东丽书院申请到专项资金110万元；区文旅局经过争跑对接，争取到我区旅游发展专项资金27.68万元并将区文化馆、图书馆项目推送至中央项目库，争取中央预算内资金支持。', '"用11种不同的颜色区别出11个网格，用不同标志区分了不同类型的驻街单位。" 在这张怡安街社区疫情防控指挥图上，辖区人口、房屋等情况直观清晰，一目了然。', '今年以来，我区各乡镇、街道将防控成果、经验做法有效转化为社会网格化、数据化治理机制。花园街街道坚持党建引领，细化网格化防控机制，通过对全辖区人口 和房屋进行了五次全覆盖排查的基础上，绘制了《党建引领基层治理基础示意图》。姚家庄镇绘制的《疫情防控摸排分布图》，用不同颜色区分村里的常住户、外租户和空房户，各村具体情况在一张地图上一览无余，对提升基层社会治理能力水平起到了很大作用。', '针对工作实际和基层创新亮点，区委区政府及时安排部署，科学谋划设计，第一时间汇总提升基层创新治理的做法经验，引领整合辖区各方资源力量参与创新管理、开展疫情防控、创城、物业管理等工作，采取划小单元格的方式，将辖区46个社区划分为516个网格，以网格为作战单位，形成网格化联防联控机制。全区先后组织党员干部进行了6轮细致入户摸排，掌握了全区人员、房屋等大量基础信息数据，并整合公安、住建、物业等信息，建立大数据库，科学完善加快弥补社会治理体系、能力方面的不足、短板。', '区委区政府站在提升基层社会治理能力的长远思考和全局高度，坚持党建引领， 聚焦服务群众、服务大局、服务社会，全面加强和创新基层治理，打造共建共治共享的社会治理格局。区委、区政府主要领导多次主持召开会议研究推进，相关处级领导亲赴先进地区学习考察智慧社区建设先进经验，以花园街街道为试点绘制了 "党建引领基层治理" 网格化示意图，并通过3D建模技术，简洁直观、清晰明了地掌握辖区各类情况，不仅为疫情排查工作提供了便利，更有力推进了平安智慧社区建设。', '同时， 把党建工作贯彻到基层社会治理各领域全过程，健全基层党组织体系，发挥党员先锋模范作用，有效组织动员各方面力量围绕服务群众、服务大局、服务社会探索基层治理的方式和路径， 提升基层治理效能。', '"桥东区作为全市中心城区，人员、经济往来频繁，在全市各县区中，属于理论上的疫情高风险地区，防控形势极为严峻。我区认真总结分析疫情防控中的经验教训，补齐社区治理短板， 健全社区服务体系，拓展社区服务领域，切实发挥联系群众、发动群众的作用，让这张小地图发挥了大作用。" 区委组织部副部长秦赟说。', '能不能取得疫情防控和经济社会发展双胜利，既是对全区各级党组织和党员、干部践行初心使命、体现责任担当的试金石，也是检验作风能力和斗争本领的磨刀石。', '这是一次异常严峻的 "大考" 。疫情之初，区委向各级党员干部提出要求，也在攻坚克难的过程中检验着、锤炼着广大党员干部的品质、成色。', '区委坚持以 "十四个坚持看" 的考察识别标准，推动形成防控一线实干担当的鲜明导向。在应对新冠肺炎疫情过程中，全区党员领导干部始终把人民群众生命安全和身体健康放在第一位，制定周密方案，组织各方力量开展防控排查，采取切实有效措施，全区形成了全面动员、全面部署、全面加强疫情防控的工作局面，确保我区防控工作有力开展，涌现出了一大批先进典型和先进事迹。', '随着疫情形势的持续向好，区委区政府准确把握疫情和经济社会发展形势，紧紧抓住主要矛盾和矛盾的主要方面，加快恢复生产生活秩序，加快复工复产复市进度。今年全区共谋划安排重点项目7大类、共计70项，计划投资547亿元；区政府牵头先后举办三场政银企对接会，赛诺生物科技有限公司成功获批农商银行200万元低息贷款；瑞莘实验家具有限公司通过技术革新，提高生产效率，疫情期间销售额逆势上扬。', '上半场是防控，下半场是发展。全区党员领导干部抢抓千载难逢的发展机遇，以等不起、慢不得的紧迫感，把所有心思用在工作上，创先争优，齐心协力，汇聚起推动桥东高质量发展的磅礴力量。', '新导向，新标准，新作为。扎实深入践行 "三改" 行动，区委办公室建立完善 "七讲七学" 制度 ，创新学习方式，提升全体干部政治素质、理论水平和工作能力，打造 "能说、会写、善谋、爱学、擅处" 全面过硬干部队伍。区委政法委认真贯彻中央和省市区委工作部署，充分发挥工作能动性，先后形成了机关15项92条管理制度，促进了机关工作的规范和效能的提升。区财政局通过建立 "四项机制" ，提升干部 "四种能力，全面提升财政干部队伍能力素质和业务工作水平，更好地履行服务经济社会发展职能。', '善于化危为机，赢得发展主动权，关键在人。今年以来，桥东区以 "改造思想、改变习惯、改进作风" 行动为遵循，全区各级党组织凝聚力、战斗力向心力更强了；广大党员干部干事创业的信心干劲更足了；各级各部门、广大基层干部群众创新创造的活力更强了。', '复工复产，以快补晚，为解当务之急，全区各级各部门不遗余力，付出了超常的辛苦与汗水。区政务大厅全面启动 "双休日不打烊" 政务服务，对服务量大、与市民生活工作关系密切的105项行政许可及200余项公共服务事项实现双休日可办理。有效破解了 "上班时间没空办事，下班时间没处办事" 的难题，真正实现了 "政务服务不打烊" ；区法院主动延伸司法服务触角，24名法官深入辖区48家企业，为民营企业复工复产提供 "零距离" 司法服务，以高质量的司法服务护航企业健康发展。', '广大农村第一书记提早谋划产业项目，精心设计致富路径，坚决打赢乡村振兴主动仗。双庙村大力发展北芪菇产业项目，各项基础设施建设扎实推进，初步估算，项目投产后，将实现村民收益和长远示范带动的双重效益；周顶屯村大力发展西兰花订单式农业，带动周边50余名村民就近打工，有了稳定的收入；定兴堡村充分发挥村集体带动示范作用，发展传统西瓜种植产业，以最高品质的产品，带领村民创新种植结构，持续增产增收；青寺村结合自身村庄整洁、环境优美的优势，大力发展农家院等一条龙式产业，做足乡村旅游文章，让城里人流连忘返;', '"在统筹疫情防控和经济社会发展的严峻斗争中，全区各级党组织和广大党员、干部把初心使命、责任担当化为冲锋在前、迎难而上的实际行动，以良好的精神状态、工作作风、能力素质经受住了考验，这是我们变压力为动力、化危为机的重要保障。"', '桥东区东望山乡西望山村的 "希望爱心农场" 里热闹非凡。该区交通局50余个 家庭、乡村两级工作人员、西望山村村民等150余人在这里种下西红柿、黄瓜等10余种蔬菜的 种子，之后培土浇水体验田园劳作的快乐。同时，这50余个家庭的成员光荣地成为了 "希望 爱心农场" 的农场主。 近年来，经全区上下共同努力，桥东区贫困村全部脱贫出列、剩余贫困人口一户一人， 贫困发生']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>9</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>摘帽奔富在这希望的田野上在张家口桥东区周顶屯村</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2020-04-26</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/gzbs/20983.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['在张家口桥东区周顶屯村百亩蔬菜种植基地，施肥、覆盖地膜、安装滴灌管道、安装机井变频泵、打压试水温床……半个月来，驻村第一书记王利生和村里的农民们一起平整土地、施肥作业，为今年的种植做准备。', '"30万株西兰花种苗将被植入这片沃土中，这是咱村脱贫的新计划、新奔头。 " 望着这复苏的田野和热腾腾的劳作场面，王利生的眼角上扬，尽是兴奋和喜悦。', '对周顶屯人来说，通过产业脱贫致富让大家尝到了甜头。 去年，在驻村第一书记王利生的带动下，周顶屯村依托 "村企联盟" 建起了百亩蔬菜基地，先后种植了40亩大葱，40亩豆角和20亩茄子、西红柿、辣椒等十余种蔬菜。 尝试做蔬菜批发， 开展全城爱心大葱认购活动，辛苦加用心，王利生带着驻村工作队员、村 "两委" 干部们打了一个漂亮的突击战，蔬菜全部售完，村集体实现增收4.8万余元。', '"王书记，今年咱种啥呀？ " "按去年的来，还是换种别的？" 一开春，村民们都等着王利生拿大主意，大家的种植热情格外高涨。', '"今年想换个挣钱的品种。" 选择新的种植品种，对王利生来说，是尝试，更是挑战。 "根据去年的经验， 今年我们首先考虑的是销路，只有卖个好价钱，才能帮助村民拿到真金白银。"', '得知王利生的想法，全国人大代表、东望山乡元子河村联合党支部书记郭建仁支持并帮他牵线搭桥。王利生带着工作队员到坝上学习考察、反复研究，最终决定与张北县一家大型种植基地合作，打算依托该基地种植技术及生产管理模式，发展订单式农业。', '"订单式农业能解决我们解决销售难题。" 选定种植西兰花后，他们首先从该基地购置了30万颗优质西兰花籽种。', '"坝上地区是我市优质西兰花的主要产区，因种植面积广、品质高，广受全国各地客商欢迎。 周顶屯村与坝上地区气候有20天的差距，如果我们的西兰花能够提前20天上市，一定能卖个好价钱。 " 王利生正是瞅准了这个时间差，从土地施肥到育苗，再从把种苗栽入大田到上市运输，将每一项环节精准计划。', '"现在我们的籽种正在育苗基地育苗，长势非常好，预计4月23日移栽到大田，50天生长期后6月初就能进入市场，随后马上要进行第二季的种植， 确保9月15日第二季进入市场销售， 与坝上的西兰花正好错开了上市时间，只要我们把蔬菜的品质搞上去，销量肯定错不了。 " 王利生边说边用手机展示从育苗基地传过来的种苗视频， 一颗颗种苗翠绿欲流，长势喜人。', '为确保今年西兰花种植成功，王利生做了充足的准备工作，成立了周顶屯蔬菜种植农业专业合作社，进一步规范资金管理，与张北西兰花种植基地达成协议，技术人员将全程指导种植， 同时充分考虑恶劣天气对农业的影响，提前做好应对准备。', '"施肥、采购农资、手续跑办……最近可把我忙坏了， 上周把滴灌设备都安装铺设了，就是为了种出最好的西兰花，今年这场摘帽奔富仗我们一定要打赢。 "', '为全面贯彻落实党中央和省委、 省政府决策部署， 助力打赢脱贫攻坚收官战，日前，全省脱贫攻坚战 "百日攻坚" 第一联合督战组赴沽源县展开督战工作。 此次督战共分三个阶段进行。第一阶段重点围绕剩余贫困人口脱贫、贫困县脱贫摘帽、脱贫攻坚 "回头看" 和国考反馈问题整改四个方面工作开展督战；第二阶段重点围绕脱贫摘帽县巩固提升、六项重点任务清单、 防贫长效机制建']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>9</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>沙沟镇全域推进农村空心村治理工作纪实</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/179/20284.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['近段时间以来，沙沟镇党委、政府始终把思想和行动高度统一到党中央重大决策和省委、市委、区党工委部署要求上来，把 "空心村" 治理工作作为全面实施乡村振兴战略，大力改善农村人居环境，助力 "特色小城市" 建设的重要抓手。以 "开局就是决战，起步就是冲刺" 的全新姿态掀起 "空心村" 治理工作的热潮，着力描绘宜居、宜业、宜游 "特色小城市" 的宏伟蓝图。', '"空心村" 治理工作是改革农村面貌的 "一场革命" ，开拓工作局面的 "一招活棋" ，检验干部作风的 "一次大考" ，事关乡村振兴战略开局，必须总揽全局，慎之又慎', '牵一发而动全身。为统筹推进全镇的 "空心村" 治理工作集中攻坚，沙沟镇下好全域推进一盘棋，在学懂弄通、做实上下功夫。在区召开动员部署会后的第一时间，立即召集党政领导班子成员、全体镇工作人员和各行政村村两委成员召开动员部署会，集体认真学习上级的会议精神和工作方案等相关文件，与会人员逐字逐句地学，踊跃地发表意见和看法，达到了深化认识、凝聚共识的目的。 "他山之石可以攻玉" ，镇党委多次组织带领镇村干部和村民代表到周边的尚义、张北、沽源、康保进行了学习考察，苏家村党支部自行组织村民到周边县区镇村进行了参观考察，学习借鉴统筹城乡发展、农村规划建设管理以及特色产业发展、特色小镇建设等方面的成功经验，推动我镇村干部进一步开阔视野、解放思想、更新观念，让党员群众广泛参与村庄规划编制，以更高的标准，更科学的规划实施 "空心村" 治理，打造宜居、宜业、宜游的美丽乡村，精心打造沙沟村和苏家村联村并建示范样板村，同时为下一步发展休闲农业、文化旅游、健康养生产业积累经验。通过参观考察，实地调研，开阔了眼界，找准了差距，带回了办法。集中攻坚决心更加坚定，信心更加充足。', '牵一发而动全身。为统筹推进全镇的 "空心村" 治理工作集中攻坚，沙沟镇下好全域推进一盘棋，在学懂弄通、做实上下功夫。在区召开动员部署会后的第一时间，立即召集党政领导班子成员、全体镇工作人员和各行政村村两委成员召开动员部署会，集体认真学习上级的会议精神和工作方案等相关文件，与会人员逐字逐句地学，踊跃地发表意见和看法，达到了深化认识、凝聚共识的目的。 "他山之石可以攻玉" ，', '通过参观考察，实地调研，开阔了眼界，找准了差距，带回了办法。集中攻坚决心更加坚定，信心更加充足。', '为积极稳妥推动工作有序开展，沙沟镇坚持以实施方案为引领，谋定而后动。在充分学习上级文件精神和先进地区经验的基础上，结合沙沟镇实际，细化了 "空心村" 治理项目工作实施方案的具体内容，确定 "路线图" ，绘好 "时间表" ，制定 "任务书" 。邀请北京资深规划设计公司，将农村人居环境整治作为规划的重点内容，将集中攻坚与长远发展紧密结合，坚持一张蓝图绘到底,抱着 "功成不必在我、建功必须有我" 的决心，分步实施，稳妥推进。 描 线 打好集中整治攻坚战 重宣传，声势浩大助攻坚。通过召开村民大会、印发明白纸、告知书、村内大喇叭广播、微信群等方式，把 "空心村" 治理相关政策传达到每个群众中，让补偿政策入脑入心。让群众自觉提高思想认识，真正从内心深处给予理解和认可，真切感受政府改善居住环境、为民谋福祉的良苦用心。为强化宣传效能，妥善使用自媒体平台，通过在微信公众号平台上发布 "空心村" 治理工作信息，为 "空心村" 治理工作点明了方向，树立了优秀典型，真正把锐意攻坚的旗帜举了起来，全民参与的氛围强了起来。', '为积极稳妥推动工作有序开展，沙沟镇坚持以实施方案为引领，谋定而后动。在充分学习上级文件精神和先进地区经验的基础上，结合沙沟镇实际，细化了 "空心村" 治理项目工作实施方案的具体内容，确定 "路线图" ，绘好 "时间表" ，制定 "任务书" 。邀请北京资深规划设计公司，将农村人居环境整治作为规划的重点内容，将集中攻坚与长远发展紧密结合，坚持一张蓝图绘到底,抱着 "功成不必在我、建功必须有我" 的决心，分步实施，稳妥推进。', '重宣传，声势浩大助攻坚。通过召开村民大会、印发明白纸、告知书、村内大喇叭广播、微信群等方式，把 "空心村" 治理相关政策传达到每个群众中，让补偿政策入脑入心。让群众自觉提高思想认识，真正从内心深处给予理解和认可，真切感受政府改善居住环境、为民谋福祉的良苦用心。为强化宣传效能，妥善使用自媒体平台，通过在微信公众号平台上发布 "空心村" 治理工作信息，为 "空心村" 治理工作点明了方向，树立了优秀典型，真正把锐意攻坚的旗帜举了起来，全民参与的氛围强了起来。', '明责任，个个肩上有担子。沙沟镇为了压实工作责任，专门成立了 "空心村" 治理工作组，由党委书记任总负责人、政府镇长任总指挥，各班子成员分别任各工作小组组长、副组长，抽调所有镇工作人员及涉及拆迁村的村两委成员，举全镇之力推进我镇空心村" 治理工作。建立一级抓一级、层层抓落实的工作局面。各工作组内详细分工，将工作任务逐项分解，做到每项工作有责任领导、有具体责任人，制定工作计划、目标要求和具体措施，推动责任落实。', '激先锋，好钢用在刀刃上。以党建 "红色" 引擎驱动乡村 "绿色" 发展，沙沟镇将空心村" 治理和党组织建设有机结合起来，', '同步推进，打破以往 "一村一支部" 的格局，以联村并建优化村的党组织设置，整合党组织资源，通过采取 "强弱村联姻，大小村挂靠，好差村互补" 的办法，建立联合党组织和规模村党组织，将原来9个农村党支部调整设置为农村联合党总支和规模村党组织，目前正在起步运行阶段，逐步实现资源共享、优势互补、事业共兴、党建互动共强的农村建设工作平衡发展多赢局面。同时，积极引导各村党组织书记不断适应新使命和新职能，提升自身工作能力，真正使农村基层党组织成为打赢 "空心村" 治理攻坚战、深入实施乡村振兴战略的组织者、推动者和实践者。此外，我们要积极发掘在 "空心村" 治理工作中涌现出的优秀个人，将培树推出涌现出的先进典型，在全镇党员干部群众树立一批可学可比的标兵标杆，充分发挥农村党员干部先锋模范作用。', '"空心村" 治理作为乡村振兴的第一场硬仗，我镇思考如何实现乡村振兴与生态环境保护双赢，决定重点发展生态种养、生态旅游等特色产业，努力造就 "一个产业园区就是一个旅游景点、一座乡村民居就是一道怀旧风景、一道农家土菜就是一份童年回忆" ，让绿水青山成为可用可享的金山银山，真正实现产业强、百姓富、生态美的宏伟蓝图。', '我镇立足资源优势，提升品质，立足中小企业创业园区，结合当地蔬菜产业，突出 "农业招商" 战略，以 "空心村" 治理为契机，计划整合集体资源，盘活固定资产，利用集体闲置存量土地资源，吸引新能源项目落户，在壮大农村集体经济的基础上，增加群众就业岗位，同时认真做好财政资金扶持村集体经济发展项目的实施，不断探索以市场化手段壮大农村集体经济。下一步还将通过组织培训、典型带动等有效手段，大力发展我镇的特色农牧业，以我镇正式跻身国家级农业产业强镇行列为契机，依托马铃薯蔬菜产业聚集优势，积极引导群众劳动力进入农业园区，通过流转土地挣租金、入股分红挣股金、入园打工挣薪金的方式，稳定增加人民群众的经济收入。', '面对新形势、新任务、新要求，全镇镇村干部正以 "时不我待，只争朝夕" 的紧迫感， "功成不必在我，建功必须有我" 的使命感投入到 "空心村" 治理工作工作中。按照实施方案时间进度要求，圆满完成 "空心村 "治理拆迁工作任务，为下步开工建设打下坚实的基础。', '5月18日上午，沙沟镇召开2020年"空心村"治理动员部署会。主要任务是为有效推进乡村振兴战略实施，进一步改善我镇农村人居环境，促进农村闲置土地资源高效利用，切实完成好"空心村"治理工作,努力实现察北管理区打造宜居、宜业、宜游"特色小城市"目标。镇党政领导班子成员、区农垦集团有限公司有关同志、全镇党员干部、沙沟村、苏家村、吉家村、骆驼房村...']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>9</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>常委区长就组建审批局工作进行调研</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2017-05-16</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/29472.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['区委、区政府主要领导对组建审批局工作高度重视，由贵川区长安排部署具体工作。为顺利推进行政审批局组建，常委区长亲临政务服务中心调研指导工作，协调解决审批局办公场所问题，为行政审批局筹建提出了切实可行的办法和意见。为借鉴其他市、县行政审批局组建的先进经验，由贵川区长协调编办、交易中心、人社局、行管办、高新区组成考察组，由政府党组成员、高新区副主任李旭峰、王拥平带队，赴廊坊市高新技术园区、天津市滨海新区、邢台市威县、衡水市武强县四地审批局进行学习考察，为我区行政审批局组建积累了宝贵工作经验。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>9</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>孙海东赴嘉博文公司成都蒲江耕地质量提升综合服务示范基地进行学习考察</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2016-09-09</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/80/34490.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['孙海东赴嘉博文公司成都蒲江耕地质量提升5+1综合服务示范基地进行学习考察 - 阳原县人民政府', '至 9月2日，应北京嘉博文生物科技有限公司邀请，县委书记孙海东、县政协主席赵爱民、县政府副县长郝崭文带领县委办、政府办、农业管理中心、国土资源局、扶贫办、辛堡乡、皮管局等部门主要领导赴嘉博文公司成都蒲江耕地质量提升5+1综合服务示范基地进行学习考察。通过考察，考察组一行人对嘉博文公司有机废物生物强化腐殖化和土壤质量修复提升方面的技术、装备、产品有了深入了解，并在对我县土壤质量提升方面与嘉博文公司达成了初步合作意向。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>9</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>大同市大同县人大到红旗楼街道人大工委学习考察</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2017-03-24</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/single/31/35601.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['3月24日上午，大同市大同县人大常委会副主任乔焕、刘德选等一行五人在区人大常委会副主任阴万宏、办公室主任刘焕荣的陪同下到红旗楼街道就人大街工委建设情况进行学习参观。', '大同市大同县人大常委会学习组一行实地察看了红旗楼街道人大工委的办公场所，与街道党工委书记尹建荣就街道人大工委近年来工作的相关情况进行了深入学习交流。乔焕表示，红旗楼街道人大工委工作亮点纷呈、经验丰富、务实创新、与时俱进,是大同县人大学习的榜样和借鉴的标杆。大同县人大常委会将结合自身实际,学习借鉴红旗楼街道人大工委的成熟经验,进一步加强和改进大同县人大常委会的立法、监督、代表工作,加强人大机关建设,提高人大工作实效。', '为进一步提高民兵防火扑救、避险救援技能，更好完成春季尤其是清明期间防火任务，我办事处民兵骨干共10人参加了桥东区组织的防火军事训练。本次训练为期四天，3月21日至22日，民兵骨干在河北建筑工程学院进行森林火灾预防与扑救安全的学习。23日至24日，在龙泉广场进行了森林防火军事演练。通过本次活动，民兵骨干学到了更多的专业知识，救援技能得到了进一步提升。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>9</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>塞北管理区理论学习中心组召开专题学习会</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2017-05-24</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/116/20570.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['月21日下午，塞北管理区理论学习中心组召开专题学习会，区管委会主任胡荣就赴浙江学习考察见闻体会进行了传达、交流学习，区理论学习中心组全体成员、区副科以上干部参加了集中学习活动。', '学习会上，区管委会主任胡荣同志就历时20天的省委党校组织的全省处级干部中青班到浙江学习考察的见闻体会，跟全体与会者交流了自己的感受体会。胡主任指出，浙江的营商环境好，每年斥资几个亿来培训企业家，对企业家干部培训实行制度化、常年化；还建立了企业家、大学生就业孵化器，给予大学生每年几万元贷款直到孵化成熟并推向社会；社会精英们爱研究政策的变化，其判断形势的能力之强、之准，令人叹服。胡主任认为，塞北要发展，一要强化忧患意识，时刻有危机感；二要加强学习培训和继续教育；三是鼓励创业、创新；四是干部要勇于担当，多讲奉献；五是规划先行，顶层设计；六是 "二山" 理论，即 "绿水青山就是金山银山" ，环境保护必须放在首位；七是对不适应发展的项目、企业，实行 "腾笼换鸟，凤凰涅槃" 。', '通过学习，在座的塞北管理区干部们都感到精神振奋，耳目一新。大家纷纷表示，将参照学习浙江及其他先进地区的先进经验及做法，根据塞北实际，创新开展工作，为建设美丽、富裕、文明和谐新塞北，完成三大历史任务、交出两份优异答卷做出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>9</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>江苏省无锡市双拥办一行人到桥东区学习考察双拥工作</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2016-08-30</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/content/33979.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['上午，江苏省无锡市双拥办主任王印廷率领考察组一行6人到我区考察学习双拥工作，深入到 "全国爱国拥军模范单位" 建国北路社区实地察看学习并召开座谈会交流双拥创建工作经验。市民政局副局长张东升，区政府副区长何景明和桥东民政和民族宗教事务局领导陪同考察交流。', '我区是 "全国双拥模范城" 七连冠城市主城区，也是全市驻军第一大区。建国北路社区在今年七月召开的全国双拥模范城（县）命名暨双拥模范单位和个人表彰大会上被命名为 "全国爱国拥军模范单位" 。座谈会上，建国北路社区书记曹丽静', '的主要做法、组织领导、宣传教育、军民共建、政策落实等问题进行了深入交流，并和考察组同志一起观看了双拥工作宣传片。无锡市考察组对我区双拥工作给予了高度评价，一致认为桥东区有先进的双拥工作理念，完善的双拥工作制度和扎实的双拥工作基础。无锡市双拥办主任王印廷对无锡市双拥工作的特点和经验做法进行了详细介绍，双方就今后如何进一步做好双拥工作提出了很多宝贵意见和建议。市民政局副局长张东升，区政府副区长何景明表示，希望两地彼此加强交流、增进友谊、促进合作，共同推动双拥事业大发展。', '2016年8月19日，区桥东区民政和民族宗教事务局召开乡低保对象医疗救助工作培训会，全区5个街道办事处46个社区的民政医疗救助工作人员参共计50余人参会。培训会上，分别对医疗救助对象的医疗救助范围、救助政策、申请审批程序等内容进行了解读，对实际工作中出现的问题进行了解答，对今后的医疗救助工作提出了具体要求。通过此次培训，增强了民政医疗救助经办人员对医疗救助政策的理解和掌握，提高了业务办理能力，为我...']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>9</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>县委书记孙海东赴嘉博文公司成都蒲江耕地质量提升综合服务示范基地进行学习考察</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2016-09-09</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/22/34492.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['县委书记孙海东赴嘉博文公司成都蒲江耕地质量提升5+1综合服务示范基地进行学习考察 - 阳原县人民政府', '至 9月2日，应北京嘉博文生物科技有限公司邀请，县委书记孙海东、县政协主席赵爱民、县政府副县长郝崭文带领县委办、政府办、农业管理中心、国土资源局、扶贫办、辛堡乡、皮管局等部门主要领导赴嘉博文公司成都蒲江耕地质量提升5+1综合服务示范基地进行学习考察。通过考察，考察组一行人对嘉博文公司有机废物生物强化腐殖化和土壤质量修复提升方面的技术、装备、产品有了深入了解，并在对我县土壤质量提升方面与嘉博文公司达成了初步合作意向。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>9</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>中石化石家庄炼化分公司驻柏树乡卧羊台村工作组工作进展顺利</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2016-07-12</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/52/54424.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['六月份以来，在乡党委、政府领导下，在村两委和村民支持配合下，我们紧紧围绕精准脱贫中心工作，继续深入村里，了解村民意愿，积极推进各项精准脱贫工作的开展。 一、工作开展情况 1、应邀参加了柏树中心学校举办迎 "六、一" 活动。6月1日与乡领导及其他省、县工作组第一书记一起参加了柏树小学举办的庆 "六、一" 活动。期间，为学生们颁发了三好学生证书、礼品，观看了孩子们精彩表演，一同为获得县级校级三好学生优秀班干部颁了奖。看到了贫困山区孩子们天真烂漫的笑容，我们颇有返老还童的感觉，并励志要进一步对贫困家庭孩子们做些事情，在努力推进贫困村脱贫的同时，时刻不忘教育帮扶的重任，为孩子们的美好明天贡献我们的力量。 2、工作组走出去，学习考察石家庄周边美丽乡村、合作社。6月7日至8日，我工作组一行三人，赴石家庄周边美丽乡村栾城东牛庄大任庄、灵寿北广化村进行了实地考察。身临其境的看到了两个美丽乡村的村容村貌、产业发展，以及两个种植合作社的运营情况，促动了我们的心灵。回到村后，召集村两委，将我们的所见所闻、照片等给大家进行了细致介绍，让他们感受到人家村两委班子思维活跃、思路清晰，善拼敢闯，真抓实干，感受到村民积极致富愿望。 3、学习李保国先进事迹。6月14日，我们工作组集中收看了李保国同志的先进事迹报告会，李保国同志将百姓当做自己的亲人，成为百姓拥戴的 "科技财神" 。他举办不同层次的培训班800余次，培训人员9万余人次，他始终以山区人民致富为己任，时刻将百姓冷暖挂在心上。李保国同志将的事迹，深深感动我们工作组每位同志，作为有着共同使命的我们，我们要争当李保国式好干部，学习和发扬他的崇高精神，用我们的实际工作去做好今年的脱贫攻坚战。 4、带领村两委走出去，学习其他脱贫村好的做法。6月22日，工作组召集村两委班子成员到邻近脱贫村进行了学习。首先我们一行到乡政府，乡党委赵书记给我们讲解了柏树乡的总体规划，我们村纳入了度假休闲区，给我们指引了方向。接下来到松枝口村、张家营村就农家乐和村合作社跑办、成立进展以及后续发展思路情况和他们两个村书记进行了交流和探讨。通过此次村两委走出去，大家看到了别人的发展，自己的落后，对改变观念起了很大作用。 5、多次组织召开村两委、部分村民座谈，跑办资金。一个月来，组织召开了几次卧羊台村两委班子座谈会，征求了部分村民意见建议，大家畅所欲言，就自己的想法与大家进行交流。最后就卧羊台整体基础设施建设及产业设想做了部分规划。工作组回到公司进行了扶贫工作汇报和资金跑办，此项工作正在积极推进中。 二、工作感受 1、我们负责的四个自然村，都属于老龄化村落，村民思想保守，工作的开展有一定难度。 2、村里各项基础设施很差，没有一项产业，迫切希望上级部门给予大力支持。 三、下一步工作计划 1、协调我公司资金尽早到位。 2、积极处进白石口村引水项目。 3、调查研究合作社、农家乐等工作。 4、进一步深入了解村情民意。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>9</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>张辉军带队到邯郸馆陶等地考察美丽乡村建设</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2016-05-12</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/80/32459.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['至6日，县委副书记张辉军带领县美丽办、发改局、住建局等部门同志和部分乡镇党委书记、乡镇长到邯郸市馆陶县、保定市安新县实地学习考察美丽乡村建设先进经验。', '考察团一行先后到馆陶县粮画小镇寿东村、羊洋花木小镇李沿村、黄瓜小镇翟庄村和安新县王家寨村、大淀头村、东淀头村进行了实地考察。每到一处，考察团成员都认真察看各村的基础设施、民居改造、村庄绿化、农家小院、电商平台建设等情况，并与当地负责同志深入交流，详细了解规划设计、运作模式、旅游开发、产业布局等情况，询问咖啡屋、豆腐坊、农家乐的经营状况。每到一地，整齐干净的街道、庄重大气的房屋色调、变化多样的墙体装饰、规范统一的宣传画、乡土特色的景观节点都给大家留下了深刻印象，对两县在美丽乡村建设中因地制宜、花小钱办大事的作法深有感触、深受启发。', '考察中张辉军指出，馆陶县和安新县的美丽乡村建设既特色显明，又富有内涵，实现了主题、文化、产业的有机融合，突显了农村特色，每个村都有各自的亮点，理念新、标准高、效果好。张辉军要求各乡镇要认真学习借鉴两县美丽乡村建设的好经验、好作法，认清自身差距和不足，特别是要在规划设计、文化内涵、产业发展等方面开拓思路，提升标准，努力打造一批富有特色的美丽乡村。', '期间，考察团还先后到保定市涞源县和石家庄市平山县实地考察了易地扶贫搬迁和屋顶分步式光伏扶贫项目。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>9</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>精准脱贫重在帮扶夹心层群体</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2016-05-14</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/content/33234.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['精准脱贫工作开展以来，桥东区食品和市场监管局驻大辛庄村工作组在区、镇党委的坚强领导下，派出单位的指导帮助下，采取入户调研、走访座谈、重点剖析等方式，对该村贫困状况进行了细致的调查摸底，对党员队伍思想状况进行了深入', '村两委班子成员共3人，村民代表39人。该村以玉米种植为主要产业，共有耕地5104.5亩，其中水浇地4000亩，人均耕地面积达到2.9亩。现有蔬菜种植合作社2个，养殖合作社1个， 2015年全村人均收入达到2950元。由于种植品种单一、附加值低、价格波动大，导致农业收入不稳定；村里无集体收入，对老弱病残、丧失劳动能力的困难群体，引领带动、帮扶救助的能力有限。', '从调研结果分析，按照村民生活收入水平可分为三类人群：第一类是脱贫致富类。此群体以青壮年居多，具备一定文化素质和较强劳动能力，头脑灵活，有致富门路，致富愿望强烈。多年来在党的富民政策引领和各级政府的帮助指导下，通过经商办企业、规模化种植养殖、外出务工等途径，已经走上了致富奔小康的光明大道，部分优秀者还能引领带动亲友及周边群众共同致富。这一群体及其带动辐射人群，生活较为富足，抵御风险的能力较强，在村民中占比过半；第二类是基本温饱类。以中老年低收入家庭为主。文化水平低，劳动能力较弱，思想相对保守，缺少致富渠道，跟不上致富的队伍，发展后劲不足，满足于吃饱穿暖。这类群体多以农作物种植为主业，受市场价格等因素影响较大，收入偏低且不稳定，自身抵御风险的能力较差，稍有变故就可能重新返贫，处在贫富之间的"夹心层"位置。这一占比30%左右的群体，由于存在不确定性和反复的可能，也就成为脱贫攻坚的焦点和难点，应予以重点破解；第三类是贫困弱势类。几乎涵盖了村中所有年老体弱、疾病缠身、智障残疾、无人照料的老弱病残、鳏寡孤独人群。他们有的常年卧床、行动不便，有的精神异常、行为怪异，有的先天残疾、不能自理。这10%左右的困难群众基本丧失劳动能力，无经济收入来源，且大多常年须用药维持，完全依靠社会救济、政府救助、亲友接济勉强度日，无任何发展可言。', '针对调研掌握的现实情况，工作组认为帮扶应突出重点、区别对待、精准帮扶,由原来的 "大水漫灌" 转变为 "精准滴灌" ，分别采取引导提升、巩固帮扶、保障救助等办法，扎实推进精准脱贫。对于具备致富能力的群体，其自身造血能力强，应以加强政策引导为主，在资金扶持、信息共享等方面提供支持，帮助其扩大经营规模，提质增效，进一步增强 "造血" 机能，提升主动 "献血" 的能力和意识，充分发挥引领带动作用；对于贫困弱势群体，受自身条件影响无力摆脱现状，想要脱贫只有为其 "输血" 。政府和社会应加大救助帮扶力度，提高救助标准，扩大救助范围，完善农村养老保险，筹建各类生存保障基金，尝试推广农村养老扶助义工模式，通过社会兜底，做到老有所依、病有所医、困有所助，让更多的困难群众感受到党的关怀、政府的关注、社会的关爱；对于处在 "夹心层" 的重点人群，应抓住机遇、全力以赴，通过政策倾斜加大惠民力度，采取项目带动、合作入股、产业就业、教育培训、科技服务等一系列方法措施，为其 "输入造血干细胞" ，增强自身体质，提高免疫力和抵抗力，巩固现有成果，谋求更大的发展。', '党组织领导班子是农村的一面旗帜，好的领导班子能改变农村的面貌，而差的领导班子可能导致农民对党组织离心离德。把那些政治素质高、群众威信高、自身致富能力强、带领群众致富能力强的"双高双强"型人才充实进班子，特别选准配强村党支部书记。配强的基层党组织要积极带领农民党员学习党的理论知识，坚持与时俱进，主动提高自己的思想理论水平。要严格规范和监督农村党组织的决策程序，关系到农民利益的决策要征求农民的意见，这样不仅体现了农村的管理民主，而且可以增强决策的规范性与科学性。要完善民主测评制度与绩效考核制度，严格落实《党风廉政建设责任制》，狠抓村党员干部廉洁自律，牢固树立党在群众中的威信。', '党员素质提高机制。村级党组织要建立学习制度，进行政策和科技培训，长期坚持。建立健全农村党员目标管理、量化考核、规范评议、权利保障等制度，完善优秀党员评选和奖励办法，调动党员服务群众、服务社会的积极性；二是农民发家致富、促进经济发展机制。通过学习教育，让农村群众特别是处在 "夹心层" 的低收入群众了解国家最新相关政策，掌握一定的职业技能，提升发家致富的科技本领，促进农村经济发展，加快脱贫致富步伐；三是党员作用发挥和农村关爱机制。搭建活动载体，强化为农服务，党员带头为群众办实事、办好事。探索帮扶农村五保户、老弱病残等弱势群体的长效机制；四是推进农村民主政治建设工作机制。通过落实民主管理、民主决策，健全完善村民代表会议，经常听取群众意见和建议，接受群众监督，进一步密切党群、干群关系，确保农村政治稳定、经济发展、社会进步。', '充分发挥致富能手的作用，提供更多的优惠政策，增强他们扩大规模、增加就业帮扶岗位的积极性，让处在 "夹心层" 的低收入群体在当地就能得到稳定收入，既帮助解决了当前的贫困问题，又能促使其掌握一两门实用技术，为有潜力的低收入群体进一步创业积累经验、奠定基础。今年工作组与村委会共同努力，已争取专项帮扶资金筹建养牛场，按照标准化生产、集约化经营，产业化发展的整体思路，精心组织，科学规划，力争年底建成，计划吸纳百余户村民入股，并签订协议，确保其最低收益。工作组还走访了已有的3家种养殖合作社、6户养殖大户，协助解决矛盾困难，帮助申请项目贷款，鼓励扩大经营规模，要求其为本村提供更多的务工岗位，带动更多的低收入家庭合作入股，共同致富。同时，在与低收入家庭座谈交流时，积极鼓励其自力更生、自主创业。对那些有潜能、有愿望自主创业的低收户家庭，各级政府及相关部门还要想方设法提供更多的优惠政策、村集体也要全力以赴创造更多的便利条件，切实提高他们自主创业的主动性、迫切性。', '扶贫要先扶志气。处于 "夹心层" 的低收入群体中，普遍存在保守封闭的思想，面临致富无门的困难。要通过政策讲解、典型示范，成果展示等途径，鼓励引导他们树立改变贫困落后面貌的信心和决心，自立自强、不等不靠。要组织有创业愿望、有致富想法、有知识文化的年轻人外出学习考察，开拓思路、增长见识，为短期脱贫，长期致富打下基础。要持之以恒地把学习知识、提升素质作为治本之策，着力增强农民的致富本领，把更多的 "输血者" 变为 "造血者" 。一方面抓好农业及相关产业科学技术知识的普及，开展种养殖实用新技术的培训，推广集约高效、节能环保新型技术，提高农业资源和投入品的使用效率。如推广配方施肥等农业科技实用技术；另一方面推进农村劳务的开发，组织实施外出务工人员培训工程，提高农村人口的综合素质和自我发展能力，扩大就业渠道，积极鼓励农村剩余劳动力外出务工增加农民的收入。', '要抢抓机遇，用好帮扶资金，加强基础设施建设。结合美丽乡村建设工程，科学规划、合理安排，积极推进基础设施建设，硬化乡村道路，美化村容村貌，规范文娱场所，建设村级养老、幼教机构、网络进村入户、添置医疗设备、配备常用药品，实现小病不出村就能及时医治，知识不出村就能深入学习，信息不出村就能收集掌握，休闲不出村就能尽情享乐。通过有效落实，真正达到改善农村生存条件，降低生产生活成本的目的，增强农民群众的幸福感，为脱贫致富奔小康打下更为坚实的基础。', '精准脱贫工作开展以来，桥东区食品和市场监管局驻大辛庄村工作组在区、镇党委的坚强领导下，派出单位党委的指导帮助下，采取入户调研、走访座谈、重点剖析等方式，对该村贫困状况进行了细致的调查摸底，对党员队伍思想状况进行了深入调研分析。现将掌握的情况及相关思考建议报告如下：一、党员自然结构大辛庄村共有党员76名，其中女性党员11名，党员占全村人口总数的4.4％。从调查情况来看，农村党员队伍结构呈现"...']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>9</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>政府县长李建龙赴甘肃省甘南藏族自治州学习考察</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2018-07-10</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.zjkha.gov.cn/info/content/24686.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['6月24日-27日，政府县长李建龙随市政府副市长燕旺林一行，赴甘肃省甘南藏族自治州，学习考察全域无垃圾治理、农牧村污水处理和厕所改造、生态文明小康村建设等工作。', '怀安县“双创双服”活动工作简报第32期怀安县“双创双服”活动领导小组办公室2018年7月10日优化营商环境，更好发展市场主体7月5日下午，怀安县食品和市场监督管理局与审批局领导在审批局会议室举行研讨会议，就如何优化营商环境与我县市场主体如何更好发展进行了研究。首先，审批局领导对我县2017年与2018年上半年市场主体相关数据进行了总结。2017年底，我县市场主体数量为9642户。2018年截止6月...']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>9</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>张家口市首届伴手礼设计大赛活动详情</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2018-07-06</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.zjk.gov.cn/content/tzgg/175820.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['支持单位：张家口广播电视台、张家口日报社，张家口文旅投集团、张家口建投集团、张家口建发旅投集团，张家口学院，张家口市职教中心，宣化文化创意产业园区，台湾文化创意产业联盟、张家口市旅游业商会、张家口创智文化传媒公司、张家口崇礼山水旅游公司、宣化区公证处', '面向全社会广泛征集，地域不限。广大企业、院校、研发机构、设计公司、自由设计师等以单位或个人名义参赛，特邀请台湾地区知名设计师全程参与。', '2、方式：进入大赛指定市旅发委官网、官微扫“预报名”二维码页面，填写相关预报名信息并上传，获得参赛资格。', '（1）提交参赛表一份。在大赛指定的市旅游发展委员会官网、官微下载如实准确填写相关信息；', '（2）提交1000字以内设计说明一份。包括创意来源、设计构思、传承用途、市场定位、材质使用、使用方法、工艺特征、知识产权等情况；', '（6）大赛不收取任何报名费用，作品相关打样、邮费由参赛者自理，参赛报名的实物及材料原则上不予退还。', '3.内容：组织参赛选手深入到重庆市、成都市，学习考察当地伴手礼产品，进一步修改完善各自创作产品。', '2.内容：邀请国内顶级文化创意专家，开展专题培训，系统讲解伴手礼开发创意过程，对参赛选手作品进行点评指导，引导参赛选手再次修改完善。', '（1）产业价值（40%）。贴近生活，贴近市场、适应人性化需求，具有较高的实用价值，具备一定产业开发价值，并符合各界的采购能力，可应用于现实生产生活，引领发展趋势；', '（2）创意水平（20%）。设计独特新颖，体现创意创新，制作工艺独特，或运用新材质或新技术；', '（3）文化内涵（20%）。突出张家口本土历史文化的元素和形象，突出传统文化的独特魅力与时尚元素有机结合；', '（4）艺术表现（20%）。具备较高的艺术性、观赏性、趣味性，能够较好地满足市场的审美要求。', '3、内容：在张家口第二届旅游产业发展大会暨旅游商品博览会中设立专柜展出，并在旅游商品博览会采购签约仪式中推广、批量生产销售。', '各县区林业局（农委）： 根据《河北省林业厅关于2018－2019年度省级林业重点龙头企业和专业合作组织申报及认定工作的通知》（冀林字〔2018〕108号）文件要求，请各县区林业主管部门，按属地管理原则，积极组织申报。并做好企业或组织申报材料初审工作，确保资料的完整性、真实性。各县区林业主管部门务必在7月20日前完成初审、分类、汇总工作，并以正式文件上报市林业局产业科（邮箱：zjkcyk@163.c']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>9</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>封殿胜副县长一行到北京怀柔区学习考察并开展合作对接工作</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2018-07-30</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.zjkha.gov.cn/content/24826.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['，怀安县县委常委、副县长封殿胜，县委常委、副县长刘金波携怀安工信局张美万局长、张洪文副局长、怀安县宏都食品有限公司潘洪仲董事长、怀安德桂中小企业创业辅导基地服务有限公司余贤金董事长等一行，到北京怀柔区拜访学习并开展2018年扶贫协作和支援合作对接工作。', '在怀柔区经信委书记、主任马天彪同志的陪同下，我县和怀柔区经信委等相关领导在三楼会议室进行座谈。会上两地相互介绍交流了经济发展、京冀扶贫协作等情况，为推动两地扶贫协作和对口帮扶打下良好的基础。', '7月26日，由省储粮管理中心主任王雪松带队组成的省级储备粮规范化管理考核组一行8人，到我县天丰省级粮食储备有限公司对2017年度省级储备粮管理工作进行考核评价。市、县粮食局有关领导陪同检查。考核组一行对天丰公司所储省级储备粮的数量、质量、储存安全、科学储粮、计划执行、安全生产、库存管理、信息化管理系统使用及维护、队伍建设和档案管理等方面进行认真、详细地检查验收。检查组对天丰公司2017年度省级储备...']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>9</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>怀来县来万全区学习考察新时代农民讲习所建设工作</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2018-06-19</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/34525.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['6月15日上午，怀来县委宣传部组织全县17个乡（镇）宣传委员来我区孔家庄镇义兴堡村、宣平堡乡霍家房村深入学习考察了 "新时代农民讲习所" 建设工作。区委宣传部有关负责同志陪同学习考察。', '在区委宣传部的带领下，考察团首先来到孔家庄镇义兴堡村，在听取了讲解员关于讲习所的总体情况讲解后，对 "新时代农民讲习所" 阵地建设进行了学习观摩。在讲习所现场，区委宣传部负责同志就讲习所阵地建设有关事项，为考察团进行了简要介绍；考察团就制度建设、队伍建设、档案建设、讲习情况等方面内容进行了细致的询问和了解，并与乡、村有关负责同志进行了深入学习交流。', '在宣平乡霍家房村 "新时代农民讲习所" ，考察团先后学习参观了 "村史讲习室" 、 "儿童讲习室" 、 "妇女讲习室" 等建设情况，听取了讲习所建设和活动开展情况的详细介绍，富有鲜明特色的讲习阵地深深吸引了考察团一行，让他们赞不绝口，流连忘返。', '考察团一行表示： "此次学习考察让我们增长了见识，开拓了思路，为推动我县‘新时代讲习所’建设工作具有很好的学习借鉴意义。今后我们将继续加强与万全的学习交流，互相取长取短，努力把这项工作抓实抓好。"']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>9</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>封殿胜副县长一行到北京怀柔区学习考察并开展合作对接工作</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2018-07-03</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.zjkha.gov.cn/content/24623.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['，怀安县县委常委、副县长封殿胜，县委常委、副县长刘金波携怀安工信局张美万局长、张洪文副局长、怀安县宏都食品有限公司潘洪仲董事长、怀安德桂中小企业创业辅导基地服务有限公司余贤金董事长等一行，到北京怀柔区拜访学习并开展2018年扶贫协作和支援合作对接工作。', '在怀柔区经信委书记、主任马天彪同志的陪同下，我县和怀柔区经信委等相关领导在三楼会议室进行座谈。会上两地相互介绍交流了经济发展、京冀扶贫协作等情况，为推动两地扶贫协作和对口帮扶打下良好的基础。', '2018年6月26日，怀安县县委常委、副县长封殿胜，县委常委、副县长刘金波携怀安工信局张美万局长、张洪文副局长、怀安县宏都食品有限公司潘洪仲董事长、怀安德桂中小企业创业辅导基地服务有限公司余贤金董事长等一行，到北京怀柔区拜访学习并开展2018年扶贫协作和支援合作对接工作。在怀柔区经信委书记、主任马天彪同志的陪同下，我县和怀柔区经信委等相关领导在三楼会议室进行座谈。会上两地相互介绍交流了经济发展、京...']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>9</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>中国税务报河北国税让服务在创新中提升</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2017-12-29</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/single/170/39088.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['"那么多数据能够瞬间导入，而且精准无误，这让我们大开眼界。" 近日，河北省衡水市国税局学习考察组组员在邯郸市峰峰矿区国税局体验税收报表数据快速导入软件，对该局这个创新成果竖起大拇指。', '这个报表数据快速导入软件是河北省国税系统2017年度70个重点创新项目之一。今年以来，全省各级国税机关对接业务需求，积极推进创新项目建设，形成了一批可复制的创新成果。12月13日，河北省国税局召开创新项目评审会，来自省内各级国税机关的18项创新成果获奖。', '始终坚持问题导向和需求导向，是河北省国税系统推进思维创新、项目创新和工作创新的鲜明特色。全省各级税务机关创新项目都立足于发现和解决问题，提高管理和服务质效。', '前不久，自主创业的邯郸市民冯学梅在下班回家的路上到某银行网点自助办理了领用发票业务。该网点新开辟了24小时自助办税服务区，可提供代开发票、领用发票和打印税票等涉税服务。 "在店里通过手机APP提交需求，到银行网点随时打印发票，实在是很方便。" 冯学梅说。', '在沧州市渤海新区，国税机关试点推行的网络版电子发票系统，同样得到纳税人点赞。使用该系统后，商家开票信息直接传输到电子发票平台，税务端可随时获取，企业端可随时下载和打印发票。该系统试点单位沧州市盐百商厦财务负责人贾永红表示，电子发票成本只是纸质发票的三十分之一，仅这一项商厦每月就减少费用支出9万多元。', '河北苹乐面粉机械集团有限公司是一家外向型生产企业。公司法定代表人李建军说： "通过国税局的信息采集平台，公司出口退税办理进度一目了然。" 李建军所说的信息采集平台，是石家庄市国税局开发的税收执法公示信息采集平台，该平台依托金税三期系统导入数据，实现了公示信息自动提取、归集、审核和推送，既方便纳税人随时查阅，也减轻了税务人员重复录入的负担。', '在推进创新项目建设过程中，河北省国税局坚持用质量标准引导创新，这个标准被提炼成两句话：创新实打实、实对实，不摆花架子；创新项目是否成功，唯一的评判者是实践。', '河北建设集团安装有限公司会计张秋平最近迷上了秦皇岛市国税局的 "空中课堂" 。这是一个由河北省国税局持续助推的服务类创新项目，通过系列微视频和集成式二维码等形式，辅导纳税人便捷办税。数据显示，秦皇岛市国税局办税服务厅业务量已由今年上半年的日均300笔降至今年11月的日均60笔，另一边，纳税人网络办税率提升到99.4%。', '邯郸市峰峰矿区国税局研发的税收报表数据快速导入软件同样是一个实现 "双赢" 的创新项目。该软件实现了49张报表一键导入，减轻了征纳双方的工作量，目前已在全省20个县区局推广。', '12月13日，在河北省国税局创新项目评审现场，衡水市国税局开发的 "固定资产智能辅助管理系统" 吸引了许多评委的关注。省局财务处处长苏淑萍表示，该系统实现了资产电子化标签管理，有效解决了资产状态难追踪、同形物品难分辨和盘点清查精准度低等问题，目前已在市局机关和部分县区局试点运行。', '所有创新项目的出发点和落脚点，是优化税收管理和服务。基于这样的认识，河北省国税局在抓项目开发和培育的同时，重点抓好项目验证和推广，通过再开发，助推项目成果在更大范围内应用。', '据河北省国税局有关负责人介绍，2017年河北省国税系统70个重点创新项目中有90%左右具备推广价值，已有过半数创新项目在省内部分单位推广，30%左右创新项目在全省国税系统推广，3个创新项目得到国家税务总局认可并在全国范围推广。', '"那么多数据能够瞬间导入，而且精准无误，这让我们大开眼界。"近日，衡水市国税局学习考察组成员在邯郸市峰峰矿区国税局体验税收报表数据快速导入软件，对该局这个创新成果竖起大拇指。 这个报表数据快速导入软件是全省国税系统2017年度70个重点创新项目之一。今年以来，全省各级国税机关对接业务需求，积极推进创新项目建设，形成了一批可复制的创新成果。12月13日，省国税局召开创新项目评审...']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>9</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>李德县长带队赴沧州东光县聊城东阿县考察学习</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2017-09-20</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/22/41294.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['近日，李德县长带队赴沧州市东光县、聊城市东阿县考察学习土地整理、美丽乡村建设、危房改造及养驴产业。县政协主席刘锋、副县长李志军、郭昌明，政府办、攻坚办、国土、住建、扶贫、农牧和乡镇主要负责人陪同。', '考察人员一行来到沧州市东光县小邢村就土地整治、美丽乡村建设进行考察学习，首先参观了小邢村村容村貌整治、公园建设、村民活动中心及民俗展馆，并进行了交流座谈。小邢村在积极用好上级土地政策同时，探索出了一条符合村情民意的农村产业发展之路。经过10余年的稳步发展，使只有160户、560人，耕地1300亩的小村实现了一个奇迹，那就是全体村民整体搬迁，村民们全部搬进了居民小区，住上了楼房，过上了', '一样的生活。小邢村通过土地流转、兴办企业，使农民已基本告别了传统农业种植生活，大多从事工业生产，实施了学有优教、劳有多得、住有宜居、老有颐养、病有良医 "五大惠民工程" ，通过学习考察活动，开阔了眼界，学到了经验，为我县农村脱贫致富、产业发展提供了好的思路和借鉴。', '在聊城市东阿县考察学习土地整理、危房改造和养驴产业中，东阿县充分发挥区位优势和独特的产业基础，踏出了一条致富强县之路。在脱贫攻坚工作中，利用国土资源相关政策，优先在贫困村开展土地复垦工作，将贫困村范围内的未利用地、废弃坑塘、残次林地复垦为耕地，并将土地收益全部返还村集体用于村集体发展，为改善基础设施建设和发展集体经济提供了强大了物质保障。考察人员一行还到国家黑毛驴繁育中心、大桥镇绿旺养驴专业合作社进行了参观学习。座谈会后，阳原县与张家口宸鹏佳禾农业开发有限公司、山东东阿黑毛驴牧业科技有限公司签订三方战略合作协议，与山东东阿县的合作牵手，将为加快我县养驴产业发展奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>9</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>我市考察组赴太原市考察放心肉菜示范超市创建工作</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2017-08-17</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://scjg.zjk.gov.cn/single/665/182825.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['为学习借鉴太原市“放心肉菜”示范超市创建工作经验特别是100条细化验收标准，进一步推进我市“放心肉菜”示范超市创建工作，市政府食安办、市食药监局派出由黄守林副主任(副局长)带队、由部分创建超市和市局相关科室及相关县区监管部门负责同志参加的一行13人的学习考察组，于2017年8月13日至15日赴太原市进行了专题考察。学习考察活动得到了太原市政府食安办、市食药局的高度重视和大力支持。座谈交流中，太原市局高俊常副局长和市食安办综合处、食品流通处负责人详细介绍了创建工作经验，逐项解释了考评验收细则，考察组现场观摩学习了太原市美特好超市(Meet All)创建成效，考察组成员就创建中的一些重点事项与对方监管部门及超市负责同志进行了详细询问与探讨交流，考察活动取得了预期效果。特别是太原市坚持“政府搭台、企业唱戏”的创建思路，加大政府推动力度，强化部门指导服务，调动企业创建主体积极性，美特好超市自建集中配送中心，采取统一采购、统一检测、统一标识、统一配送、电子公示等举措，建立起了完善的农产品及食品质量安全管控电子网络追溯系统，实行农超对接、订单农业、厂商挂钩及基地+企业+超市的运营模式，建立优质精品专柜，对我市推进创建工作具有十分重要的借鉴意义。考察结束后，黄守林副主任(副局长)主持召开总结会，要求县区监管部门及创建超市要学习借鉴太原市创建经验做法，抓紧落实创建工作，确保最短时间内取得成效。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>9</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>河北日报选准目标注重质量抓好推广我省国税系统在创新中提升服务</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2017-12-29</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.zjkqd.gov.cn/single/170/39087.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['河北日报：选准目标 注重质量 抓好推广 我省国税系统在创新中提升服务 - 张家口市桥东区人民政府', '"那么多数据能够瞬间导入，而且精准无误，这让我们大开眼界。" 近日，衡水市国税局学习考察组成员在邯郸市峰峰矿区国税局体验税收报表数据快速导入软件，对该局这个创新成果竖起大拇指。', '这个报表数据快速导入软件是全省国税系统2017年度70个重点创新项目之一。今年以来，全省各级国税机关对接业务需求，积极推进创新项目建设，形成了一批可复制的创新成果。12月13日，省国税局召开创新项目评审会，来自省内各级国税机关的18项创新成果获奖。', '始终坚持问题导向和需求导向，是全省国税系统推进思维创新、项目创新和工作创新的鲜明特色。全省各级国税机关创新项目立足于发现和解决问题，提高管理和服务质效。', '前不久，自主创业的邯郸市民冯学梅下班回家时，顺路到某银行网点的自助办税终端办理了领用发票业务。该网点新开辟了24小时自助办税服务区，可提供代开发票、领用发票和打印税票等涉税服务。 "在店里通过手机APP提交需求，到银行网点随时打印发票，实在是很方便。" 冯学梅说。', '在沧州市渤海新区，国税机关试点推行的网络版电子发票系统，同样得到纳税人点赞。使用该系统后，商家开票信息直接传输到电子发票平台，税务端可随时获取，企业端可随时下载和打印发票。该系统试点单位沧州市盐百商厦财务负责人贾永红表示，电子发票成本只是纸质发票的1/30，仅这一项商厦每月就减少费用支出9万多元。', '河北苹乐面粉机械集团有限公司是一家外向型生产企业。公司法定代表人李建军说： "通过国税局的信息采集平台，公司出口退税办理进度一目了然。" 李建军所说的信息采集平台，是石家庄市国税局开发的税收执法公示信息采集平台，该平台依托金税三期系统导入数据，实现了公示信息自动提取、归集、审核和推送，既方便纳税人随时查阅，也减轻了税务人员重复录入的负担。', '在推进创新项目建设过程中，省国税局坚持用质量标准引导创新，这个标准被提炼成两句话：创新实打实、实对实，不摆花架子；创新项目是否成功，唯一的评判者是实践。', '河北建设集团安装有限公司会计张秋平最近迷上了秦皇岛市国税局的 "空中课堂" 。这是一个由省国税局持续助推的服务类创新项目，通过系列微视频和集成式二维码等形式，辅导纳税人便捷办税。数据显示，秦皇岛市国税局办税服务厅业务量已由今年上半年的日均300笔降至今年11月的日均60笔，另一边，纳税人网络办税率提升到99.4%。', '邯郸市峰峰矿区国税局研发的税收报表数据快速导入软件同样是一个实现 "双赢" 的创新项目。该软件通过设置会统报表数据自动导入软件、民营自动计算表、对账单自动提取校对表三个功能模块，实现了49张报表一键导入，减轻了征纳双方的工作量，目前已在全省20个县（市、区）局推广。', '所有创新项目的出发点和落脚点，是优化税收管理和服务。基于这样的认识，省国税局在抓项目开发和培育的同时，重点抓好项目验证和推广，通过再开发，助推项目成果在更大范围内应用。', '石家庄市国税局研发的 "企业所得税汇算清缴申报风险提示系统" ，就是一个先后被省国税局、国家税务总局认可和推广的创新项目。该系统企业端实现了企业所得税年度纳税申报表（A类）、增值税申报表、财务报表713个指标的逻辑错误及风险校验，税务端实现了涉税风险分类管理，为后续评估核查提供了数据支持。系统在全市上线后，超过7万户企业修改表间错误信息13.7万条，3.8万户企业修改风险错误信息近6万条，增加所得税6.13亿元。推广到全省后，30.2万户纳税人更正错误信息43.07万条、涉税风险信息16.85万条，增加所得税9.67亿元。2017年4月，国家税务总局在全国推广该系统。', '12月13日，在省国税局创新项目评审现场，衡水市国税局开发的 "固定资产智能辅助管理系统" 吸引了许多评委的关注。省国税局财务处处长苏淑萍表示，该系统实现了资产电子化标签管理，有效解决了资产状态难追踪、同形物品难分辨和盘点清查精准度低等问题，目前已在市局机关和部分县区局试点运行。', '省国税局有关负责人介绍，2017年全省国税系统70个重点创新项目中有90%左右具备推广价值，已有过半数创新项目在省内部分单位推广，30%左右创新项目在全省国税系统推广，3个创新项目得到国家税务总局认可并在全国范围推广。', '红旗楼小学百名学生参加万人滑雪体验活动。在滑雪场洁白的雪道上，孩子们身着滑雪服，在教练的指导下，热身、上下板、平地坡度滑行、制动……专业的滑雪体验让孩子们充满了好奇同时也体会到无比的快乐！张家口市以2022年冬奥会为契机，开展冰雪进校园活动，使中小学生冰雪体育运动得到普及。相信孩子们会越滑越棒！']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>9</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>市个私党委召开工作会议</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2017-07-03</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://scjg.zjk.gov.cn/single/665/182268.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['在2017年“七一”前夕，市个私党委召开了市个体私营企业党委全体委员和直属党支部书记及组织委员参加的工作会议，这次会议总结回顾了市个私党委2016年以来的工作情况，传达了赴厦门学习考察非公党建工作情况，安排部署了市委组织部交办的党组织信息采集和党员信息采集工作。全体委员针对如何进一步做好非公党建工作进行了热烈的讨论，对市个私党委在发展党员、开展党务培训以及加强党组织活动方面提出建议。最后，市个私党委书记闫钧同志做了讲话，对市个私党委的工作提出了五个要求：一是要抓好体系建设，对企业党员的变化要实行凡进必登，凡登必核，凡核必管，建好党员台账，做到底数清。二是要抓好组织建设，要按照组织部的安排部署，加快步伐，完成组建任务。三是要抓好示范建设，要达到创建一个，过硬一个，巩固一个，带动一片的标准。四是要抓好队伍建设，要在培养党务工作者队伍和党员队伍上下功夫，真正培养一支高素质的党员队伍。五是要抓好制度建设，要完善支部各项工作制度，要在制度完备的情况下抓好落实。', '会后，各位委员都认为在“七一”召开这次会议非常必要，也非常有意义，纷纷表示回去以后要尽快把这次会议的精神传达到每位党员，完成好组织部门交办的工作任务，在抓党建工作上多下些功夫，让党组织真正发挥出促进企业生产的积极作用。(任晓菲)']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>9</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>塞北管理区理论学习中心组召开专题学习会</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2017-06-20</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/11/20651.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['塞北管理区理论学习中心组召开专题学习会，区管委会主任胡荣就赴浙江学习考察见闻体会进行了传达、交流学习，区理论学习中心组全体成员、区副科以上干部参加了集中学习活动。', '学习会上，区管委会主任胡荣同志就历时20天的省委党校组织的全省处级干部中青班到浙江学习考察的见闻体会，跟全体与会者交流了自己的感受体会。胡主任指出，浙江的营商环境好，每年斥资几个亿来培训企业家，对企业家干部培训实行制度化、常年化；还建立了企业家、大学生就业孵化器，给予大学生每年几万元贷款直到孵化成熟并推向社会；社会精英们爱研究政策的变化，其判断形势的能力之强、之准，令人叹服。胡主任认为，塞北要发展，一要强化忧患意识，时刻有危机感；二要加强学习培训和继续教育；三是鼓励创业、创新；四是干部要勇于担当，多讲奉献；五是规划先行，顶层设计；六是 "二山" 理论，即 "绿水青山就是金山银山" ，环境保护必须放在首位；七是对不适应发展的项目、企业，实行 "腾笼换鸟，凤凰涅槃" 。', '通过学习，在座的塞北管理区干部们都感到精神振奋，耳目一新。大家纷纷表示，将参照学习浙江及其他先进地区的先进经验及做法，根据塞北实际，创新开展工作，为建设美丽、富裕、文明和谐新塞北，完成三大历史任务、交出两份优异答卷做出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>9</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>张家口市万全区行政审批局年工作总结及年工作计划</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2017-12-25</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/166/32286.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['张家口市万全区行政审批局2017年工作总结及2018年工作计划 - 张家口市万全区人民政府', '为了推进行政许可权相对集中，根据省、市有关推进行政审批改革要求，区行政审批局于4月28日正式挂牌成立，标志着我区行政审批制度改革进入了崭新发展阶段。', '为高标准组建行政审批局，区政府组织编办、交易中心、人社局、行管办、高新区组成考察组，由区政府有关领导带队， 3月20日赴廊坊市高新技术园区、天津市滨海新区、邢台市威县、衡水市武强县四地审批局进行学习考察，并就考察情况写出了《万全区赴威县、武强县等地关于行政审批局组建及运行工作考察报告》，指导了下步工作的开展。同时为学习其他县区的先进经验做法，多次到赤城、宣化、怀来、康保、怀安等地进行参观学习，为行政审批工作开展拓宽了思路。', '8月3日，区委召开常委会议，确定了行政审批局党组成员和行政领导班子成员。党组配备一名书记、两名副书记和四名党组成员，党组书记由政府常务副区长担任，党组副书记由两名主管项目的副处级领导担任，党组成员由四名科级干部组成。行政领导班子成员由一名局长、两名副局长和主任科员、副主任及园区派驻科级领导干部组成，配齐配强了班子成员，确保工作顺利推进。', '根据 "三定方案" ，区行政审批局核定行政编制31人，事业编制69人；内设11个股室，其中6个业务股（规划国土股、建设项目股、社会服务股、市场服务股、文教卫生股、农林水牧股），2个中心（项目审批服务中心、勘验服务中心），3个管理股室（办公室、政策法规股、信息网络股）。目前到位工作人员53人（行政编制10人、事业编制43人），其中科级领导6人（1人离职、实际在岗5人），一般干部47人（含借调6人）。', '按照划转清单，全区16个职能部门的284项审批事项需划转至区行政审批局。并积极对接上级下放、取消事项，确定承接审批事项240项,其中需事前踏勘事项80项，事后验收事项43项，专家论证事项32项，涉及第三方中介服务事项24项，收费项目19项。通过与16个职能部门逐项协调沟通核对，本着成熟一项承接一项的原则，目前区审批局已承接162项审批事项，承接率67.5%。对承接事项进行了目录化管理，并在网上及时公开，接受社会监督。', '针对承接的审批事项，从与群众生产生活息息相关的事项入手，对行政许可事项进行梳理，采取一事项一核对、先易后难，重点对常办事项优先流程再造。目前已对82项审批事项进行了流程再造，优化程序，减少申报材料86项，减少办理环节44个，压缩办事时限718个工作日。事项审批通过 "一窗" 受理，内部流转、联合审批、信息共享， "一口" 出证，联合踏勘、联合审图、联合验收，方便了企业和办事群众。同时，根据标准化建设要求，审批局统一制定了服务指南、一次性告知单、审查细则，编制了规章制度，并及时存档、网上公开，实现有法可依，违法必究。', '为方便办事群众，9月14日，区政府办公室下发了《关于启用 "张家口市万全区行政审批局行政审批专用章" 的通知》（万区政字〔2017〕229号），对承接的事项，实行 "一枚印章" 管审批，简化了多头盖章的繁琐手续。针对各业务股行政审批事项的档案查询、出具证明、各类表格文书、审批文书、归档文书等我们启用了 "六枚" 业务股室专用章，提高办事效率。', '同时，确定了三种运行模式：\x81即办件办理。审批事项属于即办件的，只要申请人提交的申请材料齐全、符合法定形式，能够当场作出决定的，审批股室即可当场作出书面的行政许可决定，不用办事人多次跑办。‚承诺件办理。审批事项属于承诺件的，对行政许可申请进行审查后，审批股室在法定期限内按照规定程序作出行政许可决定。ƒ上报件办理。审批事项属于上报件的，审批股室依法审查后，通过集体协商，在法定期限内将初步审查意见和全部申请材料审核后报送上级行政机关等待审批。', '为做好审批与监管的相互衔接，实现审批和监管信息互通和资源共享，6月2日，区政府下发了《万全区信息互通和资源共享机制的实施意见》的通知，建立了万全区信息互通和资源共享工作邮箱（wqqxxht@163.com），要求各相关部门确定一名领导和一名信息联络员，专门负责此项工作，具体抓好监管信息的传输和所需审批信息的通报工作，确保信息交流及时、准确、有效；原则上各相关部门每周五互通一次，每月牵头部门汇总一次，并将相关情况形成书面报告报送领导小组审查。每季度召开一次成员单位联席会议，通报信息互通和资源共享情况，研究解决工作中存在的实际问题。', '特别是为将审批结果及时向监管部门推送，审批局在全区首例开通移动互联网大数据 "云MAS" 短信平台，将审批事项的项目名称、种类、法人及地址等信息当天推送到相关监管部门；同时，还在全市创新启用 "邮政政务快递" 将审批事项以公函形式向监管部门实行周推送行政审批过程和结果信息，告知审批事项办结情况，以方便职能部门及时监管到位。', '为了起步规范，有章可循，先后出台了《张家口市万全区行政审批局组建工作科室设立及人员调整草案》、《关于组建行政审批局的调研报告》、《关于万全区行政审批局组建工作方案》、《关于万全区行政审批新机制运行管理暂行办法》、《关于万全区信息互通和资源共享机制的实施意见》等规范性制度文件，保证了审批局的正常运转。', '同时，为做到 "便民、快捷、规范、高效" 审批，制订了万全区行政审批局《帮办代办服务制度》、《审批事项申报材料容缺后补制度》、《行政审批与监管协调联动工作制度》、《主管副局长审批终结制度》、《集体协商会议制度》、《联席会议制度》、《工作人员行为规范》、《投诉管理制度》、《干部考核管理制度》等31项制度，做到用制度管人、靠制度管事，切实把权力关进制度的笼子。', '为确保审批事项勘验、评审工作规范运行，制定出台了《勘验、评审工作制度》、《勘验、评审工作实施细则》，《勘验中心勘验流程及相关制度》等，对于审批过程中需现场勘验的事项，分单项勘验、联合勘验和聘请第三方勘验三种形式。由相关审批股室提出申请，并提交《现场勘验申请表》。勘验中心负责联系申请人或机构，确定勘验时间，按规定时限完成勘验工作。需业务部门联合踏勘的，由勘验中心出具《万全区行政审批局关于联合现场踏勘函》，并送达相关部门。如需聘请第三方勘验的，由勘验中心提请局务会研究决定，从专家库中实行随机抽取。勘验完成后，形成勘验报告，出具相关勘验结果。', '结合目前审批局现受理的162项审批事项实际情况，按照 "流程最优、限期最短、成本最低、服务最好" 的目标，为统一规范现场踏勘、审图、验收行为，积极开展 "专家库" 建库工作。在依托原各部门启用的专家和市审批局专家库的基础上，以 "就近、便利、公开、透明" 原则，联系附近7个县（区）各类评审专家176人，其中有持多个资质专家的是15人，初步达成合作意向85人。目前正在对各类专家资质等级及人员信息进行审核、备案中，预计专家库可在11月底初步建成。此外，勘验工作中涉及14项三方机构评审工作，为了方便企业办事、规范评审过程，正在初步梳理并联系相关具有资质的三方评审机构，组建 "三方机构评审库" 。', '12345市长热线并入961890群众服务热线后，反映问题日益增多，为使问题及时得到解决，审批局高度重视这项工作，安排专职工作人员负责热线催办和反馈，强化热线服务。全年热线共接交办件182件，已办结164件，向投诉人回复回访率100%，群众满意率95%。', '为提供优质的营商服务环境，今年区政府投资对宣传文化大楼进行了高标准装修改造，受到办事群众的一致称赞。一楼、二楼为政务服务大厅， 一楼设有国税、地税、公证、公安、打字复印窗口，二楼设有不动产登记中心、房产交易中心、项目统一受理窗口、园区审批局受理窗口、中介窗口等。三楼为行政审批局6个审批股室、档案室、房产交易办公室、信访投诉接待室；四楼为机关办公区，包括3个管理科室、勘验中心、项目服务中心、视频电子监控室、大型会议室，圆桌会议室。', '对照《张家口市万全区创建省级文明城市工作指南》，制定了《行政审批局2017年文明城市创建攻坚实施方案》，按照目标任务，认真积极开展各项文明创建工作。对照创建目标、标准和责任，制定文明城市创建责任分工，细化分解成三部分9大项16小项，并将创建任务、内容、责任股室、责任人、完成时限落实到人，全面推进了创建工作的深入开展，营造了良好的创城氛围，提升了我区的对外良好形象。', '一是制作48块社会主义核心价值观、职业道德、社会公德宣传图，营造浓厚的氛围。利用电子屏播放宣传图片、创城活动图片、标语等内容。二是开展以 "培育诚信思想、倡导诚信行为" 为主题的创建文明城市的宣传活动，活动中党员干部志愿者向群众发放了《市民诚信倡议书》、《争创全国文明城市》宣传手册和诚信宣传彩页等共计500多份，提升市民的诚信意识，倡导群众积极参与文明城市创建活动；三是开展 "访千楼万家 创建文明城市" 活动，通过到社区入户调查发放填写创城群众意见表、调查问卷、宣传创城内容，发放宣传资料；四是开展 "倡导公德，投身公益" 义务劳动活动，组织工作人员在楼前休闲广场开展志愿服务活动，通过清扫道路、捡拾垃圾、指挥交通，为创建文明城市添彩。五是开展创建文明城市大签名活动，全体工作人员和前来办事群众在 " 创建文明城市，人人有责" 大幅标语上进行签名。', '为落实国家扶贫政策，我局在人员紧张的情况下选派两名优秀工作人员常驻红旗扬沟村进行精准帮扶，同时全体干部参加结对帮扶。一是多次深入村里与村两委干部及农民群众调研座谈交流，了解他们的所思所想所盼，帮助贫困村制定了脱贫发展思路，实现精准帮扶；二是七一前深入到红旗扬沟村开展了讲党课、宣讲扶贫政策、慰问老党员和贫困户活动，坚持既扶贫又扶志。三是组织全体干部职工为逯家湾村两名大病患者爱心捐款，共捐善款1880元，真正将党的关怀、组织的温暖送到他们的心坎上。', '建立周五学习制度，将《中国共产党章程》、《习近平总书记系列重要讲话》、《关于新形势下党内政治生活的若干准则》《中国共产党问责条例》和《中国共产党党内监督条例》作为学习的主要内容，要求干部抄写学习笔记，撰写心得体会。为庆祝建党90周年、喜迎党的十九大，按照区委的要求，组织全体党员干部多次收看《永远在路上》、《将改革进行到底》、《榜样》等专题片，开展交流讨论，学习老一辈无产阶级革命家为了理想和信念不怕牺牲的大无畏精神，以敢为人先、砥砺前行的勇气、立足岗位，为行政审批制度的改革贡献力量。同时，为规范党员言行，争做合格党员，组织开展了 "四个意识" 专题民主生活会，认真开展批评与自我批评，使全体党员更加深刻、全面地认识了自己，达到了增进团结、交流思想、明确方向、促进整改的目的。', '为迅速深入的贯彻落实省、市、区机关作风整顿工作会议精神，切实加强新形势下干部作风建设，根据区委、区政府的统一部署和要求，结合实际工作，大力开展以 "转作风、强素质、建体系、严奖惩" 为主题的深化机关作风整顿活动。深入开展了 "一问责八清理" 活动，对 "放管服" 改革不到位问题、 "不作为、乱作为、慢作为" 问题、 "三不分" 问题进行了深刻剖析，认真查找存在的问题，列出问题台账，并在规定时间内完成了整改，营造了良好的办事环境。', '当前，我区行政审批工作虽然取得了一定成绩，但与上级要求还有一定差距，特别还存在人员配备不足、专业人才缺乏、业务不精、思路不宽等问题。下一步，我们将认真贯彻落实党的十九大精神，进一步转变政府职能，深化审批制度改革，以建设全市一流的行政审批局为目标，重点做好以下几方面工作：', '学习贯彻党的十九大精神，把思想和行动统一到党的十九大精神上来，是行政审批局贯穿全年工作的首要任务。一是要抓好层层传达环节。上至局领导，下至基层党员干部要迅速行动起来，将党的十九大报告和党章修正案、中纪委工作报告等重要文件精神层层传达下去，确保党的十九大精神传达到每一个党支部、每一位党员干部和群众。二是要抓好学习环节。通过举办各种形式的培训班、民主生活会组织党员干部认认真真、原原本本学习党的十九大报告，深刻领会习近平新时代中国特色社会主义思想，撰写心得体会。三是要抓好实践环节。要将十九大报告的精神实践到具体的日常工作、学习、生活中，作为行动指南和精神食粮，大胆改革、不懈努力。', '首先，邀请区法制办对审批局工作人员加强法律、法规的学习，做到法定授权方可为，法无授权不可为。其次，组织人员互相学习审批业务知识，做到一人多能、一人多岗。三是聘请原涉及审批事项的各市局专业人员，对工作人员进行业务培训和指导，提高办理事项的能力。四是外出学习，对标定位，向全国、全省一流审批先进单位学习，用现成的经验和做法指导工作，少走弯路。五是通过公开招聘方式加强审批专业人才的配备。', '一是加强对审批工作人员的监督和考核，二是加强对审批服务工作的监督和考核，建立健全各项内部监督管理制度，明确管理内容，严格服务标准，对办事人员审批案卷和工作人员的服务质量进行监督。通过现场核查、系统调取、案卷抽查、音视频监控等方式，对办理审批的情况进行绩效考核。要畅通社会和群众监督渠道，广泛接受社会监督和评议，', '一是加强审批流程再造。打破原有审批模式，按照企业办事事项和办事流程改革运行机制，实行一个窗口流转、车间式流水线审批的管理方式，对简单事项实行立等审批，对联办事项实行一口办理，对并联审批实行一章多效，对踏勘验收实行统一勘验，通过一个窗口流转，实现 "一窗收件、联合审批、信息共享、一次发证" 的审批模式和 "一条龙、一站式" 服务机制。', '二是加强审批标准化建设。按照 "流程最优、期限最短、成本最低、服务最好" 目标，推进行政审批规范化、标准化建设。建立覆盖基本建设、行业准入、技术改造和外资外贸等方面的审批标准流程，统一制定审批事项、方式、流程、服务、场所、监督检查等标准，构建 "全事项、全过程、各环节" 相互配套协调的标准体系。', '三是改进审批服务方式。继续贯彻党中央、国务院决策部署，全面落实《国务院办公厅关于加快推进 "多证合一" 改革的指导意见》（国办发〔2017〕41号）要求，通过 "减证" 推动 "简政" ， "多证合一" 改革顺利推进并取得成效。对实施的行政许可事项，要从申请人取得许可结果的角度出发进行合并同类项改革，变多个事项为一个事项，变多次审批为一次审批，变串联审批为并联审批。对发放给同一申请人且提交的申请材料重合度较多的行政许可证照，进一步探索 "多项合一、多证合一" 改革，实现行政许可结果的整合与精简，进一步方便企业和群众办事创业。在整合范围上，要严格遵循《意见》要求，只整合信息采集、记载公示、管理备查类的一般经营项目涉企证照事项，以及企业登记信息能够满足政府部门管理需要的涉企证照事项，对于关系国家安全、经济安全和公民生命财产安全的行政许可类事项不予整合，确保改革依法合规、于法有据。', '四是推进 "互联网+政务服务" 建设。以全市 "互联网+政务服务" 试点为契机，逐步推行政务服务事项网上办理，完善网上受理、审批、公示、查询、投诉等功能，实行集中办理、一站式办结，形成网上服务与实体大厅、线上与线下功能互补、相辅相成的政务服务新模式。以便民、快捷、高效为原则，将审批服务功能向乡镇延伸，真正实现让群众 "少跑腿、好办事、不添堵" ，打造全市一流行政审批服务机关。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>9</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>蔚县林业局多措并举扎实推进学习型党组织建设</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2016-04-29</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/53239.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['蔚县林业局党总支始终把学习作为一项重要政治任务，从责任落实、创新学习方式、搭建学习平台和丰富学习内容四方面着手，扎实推进学习型党组织建设，取得良好效果。一是落实学习责任。严格落实党委抓思想理论建设的主体责任，明确党总支书记和支部书记抓学习 "第一责任" ，由室股场领导干部、环节干部作为领学人，精心制作课件、搜集学习资料，确保领导、环节干部每年带学不少于2次，使学习任务真正落到了实处。二是创新学习方式。把集体学习与个人自学相结合、到兄弟县区学习考察和聘请学者辅导相结合，把理论学习与实践相结合，定期组织干部带着问题深入一线开展走访调研，切实在不同的环境中让干部增长知识、拓宽视野，提升业务能力。三是搭建学习平台。在发挥基层讲堂、活动室党员主阵地作用的同时，利用微信微薄等网络学习平台，用图文并茂、简单易懂的方式，输送知识养分，增强干部学习积极性。四是丰富学习内容。党员干部当前理论和业务水平，坚持 "缺什么、补什么，缺什么、学什么" 的原则，做到因人施教、因需施教，使学习更加接地气。注重知识的全面性和整体性，在内容摆布上不仅安排政策理论、法律法规方面内容，也布置些地区人文历史、林业发展适用技术方面内容，多方位全角度满足干部职工的学习需求。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>9</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>察北管理区发展改革局关于月份专题学习计划</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2016-05-11</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/52/12288.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['按照我区区工委宣传部《关于推荐3月份学习专题》的通知精神，及时召开了学习部署会议，根据推荐学习的专题。我局党组织节选了三个专', '坚持个人自学和集中学习相结合，每周学习一个专题，其中集中学习每周学习不少于2次，每次不少于1个小时，其余的学习时间由个人自行安排。', '. 深入学习贯彻习近平总书记近日关于 "两学一做 "学习 教育作出的重要指示精神，深刻认识 "两学一做" 学习教育的重大意义，履行抓好 "两学一做" 学习教育的主体责任，坚持区分层次，突出问题导向，把全面从严治党落实到每个支部、每名党员。', '2.深入贯彻落实赵克志书记在省委全面深化改革领导小组第14次、15次会议、在河北党政考察团京、津、浙学习考察期间、在省委中心组学习会、3月17日全省领导干部会议上的讲话精神和3月26日省委常委会议精神。', '.深入贯彻落实赵克志书记在省委全面深化改革领导小组第14次、15次会议、在河北党政考察团京、津、浙学习考察期间、在省委中心组学习会、3月17日全省领导干部会议上的讲话精神和3月26日省委常委会议精神。', '3.深入贯彻落实赵克志书记4月8日在省委常委会上的讲话精神，深入学习贯彻习近平总书记的批示精神。坚决拥护党中央查处郭伯雄的正确决定。三、学习要求', '.深入贯彻落实赵克志书记4月8日在省委常委会上的讲话精神，深入学习贯彻习近平总书记的批示精神。坚决拥护党中央查处郭伯雄的正确决定。', '（一）要提高认识，加强领导，继续坚持和完善各项学习制度，形成干部职工自觉学习的长效机制，使学习进一步制度化、规范化。', '（三）单位领导要带头参加学习，发挥领导干部在学习中的示范作用，在集中学习的同时还要坚持自学。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>9</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>膳房堡乡组织乡村干部考察学习美丽乡村建设经验</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2016-05-04</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/26085.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['为学习借鉴周边地区美丽乡村建设的先进经验和做法，拓展乡村干部建设美丽乡村的思路，进一步做好美丽乡村建设工作，4月30日，膳房堡乡党委书记带领全体班子成员和部分村的两委班子成员共28人，深入到尚义县南壕堑镇十三号村学习考察 "美丽乡村" 建设经验，看精品、取真经，推进全乡美丽乡村建设。', '每到一处，考察组成员都详细了解当地新农村建设规划管理、旅游开发及对生态资源保护利用等情况，与南壕堑镇、村干部进行深入交流，实地感受曲南壕堑镇美丽乡村建设成果及管理经验。考察结束后，还集中观看了十三号村美丽乡村建设专题片，召开了座谈会，亲身感受了兄弟村庄建设美丽乡村的良好氛围，耳闻目睹了美丽乡村带来的巨大变化，同时也看到了自身差距，深化了认识，增强了建设美丽乡村的动力和信心。', '下一步，膳房堡乡将按照美丽乡村建设总体要求，结合该乡生态旅游建设，认真学习和领会兄弟乡镇在美丽乡村建设方面的好经验、好做法，在正北沟村、膳房堡村、膳南山村、巨德堡村全面建设美丽乡村，切实改善人居环境，让美丽乡村建设的成果惠及广大人民群众。（王玉龙）']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>9</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>张虎副书记带领相关部门赴康保县农村互助养老院学习考察</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2016-03-15</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/52330.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['3月9日，张虎副书记、吕志明副县长带领县财政局、发改委、扶贫办等相关部门一把手就移民搬迁相关工作赴康保县学习考。张虎书记一行分别到康保县农村互助养老院、胡家房村互助幸福院、处长地乡互助养老院、芦家营村互助养老院、西井子村互助养老院进行了学习考察，这些互助养老院按照 "集中居住、分户生活、统一管理、互助服务" 的运行模式，完善服务制度、拓展服务领域、提升服务质量，确保了农村孤寡空巢老人安享晚年。为我县移民搬迁工作的顺利开展积累了丰富的经验。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>9</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>蔚县组团考察美丽乡村建设工作</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2016-03-09</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/52317.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['近日，县委副书记张虎、副县长吕志明及有关乡镇、部门负责人一行，先后到石家庄市平山县、北京市怀柔区、廊坊市大厂回族自治县等地，学习考察当地的美丽乡村建设情况。 结合我县实际，考察团一行实地查看了平山县、怀柔区、大厂回族自治县三地的美丽乡村建设情况，详细听取了当地领导的情况介绍。从项目实施，资金来源与使用，具体规划等方面，全面深入地了解了美丽乡村实际建设推进工作的各方面情况。通过考察学习，考察团成员进一步明确了我县美丽乡村实施工作的方向和具体步骤，为我县此项工作的顺利开展奠定了较为科学的实施基础。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>9</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>察北管理区司法局关于开展解放思想抢抓机遇奋发作为协同发展活动</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2015-12-08</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/52/11896.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['张家口市察北管理区管理委员会 - 察北管理区司法局关于开展“解放思想、抢抓机遇、奋发作为、协同发展”活动', '我局开展 "解放思想、抢抓机遇、奋发作为、协同发展" 大讨论活动中，紧密结合我局实际，创新实干，努力实现司法行政工作新跨越、新发展。', '是深入学习，夯实解放思想大讨论活动的基础。制定解放思想活动学习计划表，对各阶段的学习内容、需要掌握重点进行细化。采取专题学习会、指定书目自学、学习考察、集中研讨交流与分散学习等形式，提高学习效果。', '是查摆问题，明确解放思想大讨论活动的工作方向。通过解放思想大讨论活动，从思想、组织、纪律、作风、效能等方面进行认真剖析，制定整改措施，推动司法行政工作实现良性循环发展。', '三是立足基层，突出解放思想大讨论活动的主题。领导班子带领科室负责人深入基层，如何进一步做好矛盾纠纷排查调处和法律服务工作及 "七五" 普法规划启动等工作开展专题调研，听取基层的意见和建议。采取召开座谈会、走访了解、实地察看等多种形式，宣传涉及 "三农" 的法律法规，引导矛盾纠纷化解，帮助修订村约民规，帮助村两委不断完善各项制度，指导民主法治村创建工作。', '四是丰富形式，拓宽解放思想大讨论活动的渠道。充分利用内部简报、宣传橱窗、普法网络等载体，及时报道解放思想大讨论活动的进展情况以及好做法、好经验，全面宣传司法行政工作解放思想、科学实干的新思路、新举措、新成效，展现司法行政队伍的饱满热情和崭新风貌。', '五是加强督导，确保解放思想大讨论活动的实效。以 "亮承诺、明责任" 为原则。同时细化、量化承诺内容，按时序排定履诺进度和明确责任。把学习动员、查摆问题、整改提高作为督导检查的重点，及时掌握各司法所解放思想大讨论活动的进度，并对存在的问题与不足提出整改意见和建议，确保解放思想大讨论活动取得实实在在的效果。', '今年的12月4日是第二个国家宪法日，也是第十五个全国法制宣传日。察北管理区法制宣传教育办公室高度重视，提前谋划，广泛动员，积极部署，精心组织形式多样的法制宣传活动。我区法宣办积极谋划，强化措施，联合宇宙营乡、沙沟镇和黄山管理处在全区范围内设置3个宣传点，开展了"宪法进社区"、"宪法进校园"、"宪法进企业"、知识竞赛等活动，此次宣传活动内容...']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>9</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>察北管理区交通运输局解放思想抢抓机遇奋发作为协同发展大讨论推进方案</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2016-01-13</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/179/12039.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['张家口市察北管理区管理委员会 - 察北管理区交通运输局“解放思想、抢抓机遇、奋发作为、协同发展”大讨论推进方案', '为深入推动全局 "解放思想、抢抓机遇、奋发作为、协同发展" 大讨论扎实开展，根据区党工委印发的《关于在全区 "解放思想、抢抓机遇、奋发作为、协同发展" 大讨论推进方案》（察办字〔2015〕20号）部署，结合我局实际，特制定如下推进方案。', '按照党工委要求，局领导班子决定全局解放思想大讨论活动延长至2016年底。《察北管理区交通运输局 "解放思想、抢抓机遇、奋发作为、协同发展" 大讨论实施方案》中确定的 "跟踪考核、推动践诺" 环节顺延至2016年底， "总结验收、效果评诺" 环节在2016年6月底进行阶段性验收、2016年12月底进行总结验收，', '继续深入学习习近平总书记系列重要讲话精神和 "三严三实" 专题教育规定学习内容，及时组织学习党的十八届五中全会精神、省委八届十二次全会精神、市委十届七次全会精神，学习省委书记赵克志系列讲话精神、党课内容，学习市委书记侯亮在全市大讨论动员会上的讲话和市委全会上的讲话，学习区党工委书记在全区大讨论动员会上的讲话等内容。', '将学习研讨作为深化 "三严三实" 专题教育、深入推进大讨论的重要内容。参照区党工委理论中心组做法，', '每次集中学习研讨后，将学习主题、发言记录等学习情况形成报告，报区党工委大讨论领导小组办公室备案。学习研讨要做到有计划、有主题、有记录、有发言提纲、有心得体会、有研讨成果，真正将学习研讨抓出成效。', '一是党组织书记讲党课。局党支部书记在 12月10日之前为本单位全体干部讲1次党课，党课讲稿提前报区党工委大讨论领导小组办公室审查。二是充分利用新媒体。', '新媒体不受时间、空间限制，借助手机、互联网、数字电视、网络电视等多种新媒体终端，通过微信、易信公众号向全区党员推送学习资料，将大讨论活动与党员学习教育结合起来，创新党内组织生活学习形式。', '要科学制定日常学习和培训计划，切实抓好每周的定时学习，及时安排对上级重大决策部署和新实施的政策、法律法规的重点学习，开展多层次、多形式的学习交流和培训。对各类会议和活动要留存影像资料备查。', '坚持走出去、学回来，切合实际对标定位，主动向京津交通部门学习考察，主动向发达地区看齐。学习考察后，要形成高质量对标报告，报告内容包括对标先进查找出自己的什么问题，学到了哪些好的经验做法，通过对标定位谋划了哪些具体工作举措等，', '对照 "八破八立" ，结合 "三严三实" 查找出的问题，通过自我剖析、听取服务对象和基层群众的意见建议、网络征集等多种方式，查找思想观念问题，查找工作落实问题，查找作风状态问题。同时广泛开展 "我为发展献良策" 活动，通过问计专家学者、市场主体、普通群众，广泛征集推动发展有价值的意见建议。要结合征求到的意见建议，经班子集体研究、群众分析评议、主管区领导把关签字后，形成问题清单和整改清单，于 2015年12月15日前报区党工委大讨论领导小组办公室审核，', '问题清单和整改清单所列内容，要作为年度 "三严三实" 专题教育民主生活会批评和自我批评重要内容。', '深入挖掘最能体现解放思想和担当实干的工作事例，不断在深化改革、转变职能、改进作风、担当落实等方面推出更多的 "一招鲜" 。', '要对各部门的活动开展情况进行严密审查，查找问题、挖掘典型、分析研判，通报落后、鼓励先进。局大讨论领导小组办公室将组织 "两代表一委员" 以及普通群众代表，评审、评议各部门学习考察对标报告、问题清单和整改清单、体现解放思想和担当实干工作事例等，对问题查找没深度、对标定位无成果、推进落实不到位、发展成效不明显的，要求推倒重来。', '结合落实《推进领导干部能上能下若干规定(试行)》，解决一些部门发展意识不强的问题，部门职能转变不到位、权力下放不彻底的问题，解决一些部门和干部主动作为不够、干事劲头不足、缺乏担当实干精神等问题，确保通过大讨论推动我局全面发展。', '修订完善干部选拔任用和考核评价办法，建立健全严格的干部监督惩处机制，对敢于担当、锐意进取、积极作为的干部引导激励，对 "不作为慢作为乱作为" 的干部及时采取措施，果断进行处理。', '各部门要围绕我局 "十三五" 规划推出一批力度大、措施实、接地气、有效果的改革措施。各部门', '各部门要立足职能特点，结合群众意愿，加强与上级部门的汇报沟通，积极争取政策、资金、人才等多方面支持。局解放思想大讨论', '要将大讨论取得的成果转化为推动发展的实际行动，以思想大解放推动全局各部门和党员干部抓住三大历史机遇，加速绿色崛起。围绕全局发展总体规划，通过解放思想，不断健全完善市场环境、投融资体制、分配制度、人才培养引进使用、转变政府职能等多个方面体制机制。要立足引导察北交通发展新常态，根据全局 "十三五" 规划目标任务，', '把解放思想的成果，体现到全局 "十三五" 规划和体制机制创新上，把发展思路落实到具体的载体、路径和抓手上。', '参照区党工委做法，局领导班子明确了大讨论领导小组及其办公室职责任务，各部门也要成立相应机构，做好与局大讨论领导小组及其办公室对口联系。局', '党支部主要负责同志作为第一责任人，要亲自上手，亲自推动，带头解放思想，带头创新思路，带头形成成果。', '强化督导、调研、指导工作，确保大讨论扎扎实实推进。局大讨论活动领导小组组成员要切实将督导责任扛在肩上，抓在手上，从严从实的督查指导各部门深入推进大讨论活动的有序开展，对大讨论各个环节步骤、关键动作、取得成效、存在问题进行督导，定期通报督导结果。同时做好与区党工委大讨论领导小组的对接联系。', '局大讨论领导小组办公室重点对各部门解放思想工作事例进行调研指导。对重视程度不高、组织推动不力、走形式走过场的部门和个人，直接约谈主要负责人，并在全局进行通报。局大讨论', '，重点深挖各部门开展大讨论的好的经验做法与先进个人、集体，通过报纸报刊、电视网络媒体进行宣传报道，动员全局干部职工、广大群众参与进来，进一步激发干事创业的热情。', '附件：局 "解放思想、抢抓机遇、奋发作为、协同发展" 大讨论领导小组及其办公室组成人员名单', '为切实加强对全局 "解放思想、抢抓机遇、奋发作为、协同发展" 大讨论的组织领导，参照区党工委做法，现就局大讨论领导小组及其办公室成员和主要职责明确如下。', '领导小组的主要职责是，学习贯彻中央和省市委、区党工委有关部署和要求，研究全局大讨论的重大问题，统筹推进全局大讨论深入扎实开展。', '领导小组办公室的主要职责是，落实好领导小组议定事项，具体抓好大讨论整体谋划、组织协调、指导推进、沟通服务、宣传引导、督促检查等工作。', '解放思想 担当实干做好察北经济腾飞的推动者――察北管理区交通运输"解放思想、担当实干"专题研讨会发言稿按照会议要求，下面我就交通运输行业深入学习贯彻市委中心组学习会议和市委十届七次全会精神，围绕"解放思想、抢抓机遇、奋发作为、协同发展"，围绕"抓住三大机遇、实现绿色崛起"，推动察北交通运输快速发展、率先突破，讲几点体会。一、把握机遇和挑战...']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>9</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>万全县个私协组织会员代表赴山西广灵蔚县崇礼学习考察</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2014-06-23</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/17322.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['万全县个私协组织会员代表赴山西广灵、蔚县、崇礼学习考察 - 张家口市万全区人民政府', '万全县个私协会充分发挥企业 "娘家人" 作用，于6月19日至20日在市个私协会牵头、市局阎均副局长带领下，组织会员30余人，赴山西广灵、蔚县、崇礼开展了为期2天的学习考察、交流经验、对接项目活动，开阔了企业家眼界，学习到其他企业先进的管理理念，为企业发展提供了宝贵经验。', '6月19日，考察组一行首先来到了蔚县欣奇典生物科技有限公司，参观了企业规范化的管理模式和厂区建设情况，该企业在2008年建厂，短短的几年内成长为河北省农业产业化龙头企业，其厂区的规范化程度和发展速度给大家留下了深刻的印象。随后考察组来到了山西广灵，走在广灵干净整洁的道路上，看到新城区规划有序的建设，两年来翻天覆地的变化，标准之高、速度之快，都给大家留下了深刻的印象。考察组一路向南来到了广灵县长青环保能源有限公司，', '在会议室，公司魏经理为大家介绍了公司发展历程，使大家了解了这个以秸秆为原料进行发电和供暖的环保能源企业的概况，了解后大家都对这个能用秸秆发电的企业表现出浓厚的兴趣，因为万全是中国糯玉米之乡，玉米种植面积很大，每年地里的秸秆都不好处理，焚烧污染环境，而这样的企业正好能解决这个问题，大家都感觉万全也需要这样一个环保能源企业。下午，考察组来到了蔚县南张庄焦氏剪纸有限公司，参观了剪纸这一中国传统文化独特的艺术魅力，了解了企业在创办以来坚持艺术传承与研发创新相结合，围绕国内外市场需求，逐步把剪纸这一民间艺术推向世界舞台的辉煌历程。', '6月20日，考察组一行又来到了崇礼县，走在崇礼县的街道上大家都惊叹于崇礼县城这几年的变化。在崇礼，考察组先后参观了河北清远投资有限公司旗下的梦特芳丹假日酒店、古恩瑞斯生物科技有限公司，企业的管理理念、现代化程度以及员工的素质都给大家留下了深刻印象，大家都感叹道自己的企业与他们相比，确实存在着差距。', '两天的学习考察圆满结束，在万全县工商局召开的座谈会上，大家都对本次行程仍觉意犹未尽，纷纷总结学习的内容，寻找公司更好的发展方向和内部管理方法。大家表示，通过两天的学习考察，真切感受到了个私协会对广大会员的关怀，真正拉近了企业与个私协会、工商局的距离，希望以后个私协会能组织更多的学习考察活动，为广大会员学习先进的管理方法和经验提供条件，从而带动企业更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>9</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>李建富带队赴怀安县等地学习考察产业园区建设</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2014-10-13</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/79/20334.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['，县政府副县长李建富带领县政府办、园区办、工信局、财政局、国土局、编委办、工商局、要家庄乡等单位有关负责同志，赴怀安县、万全县和宣化县三地产业集聚区进行学习考察。考察期间，考察团实地参观了怀安县国家公共安全与应急产业创新基地、万全县经济开发区、宣化县东山高新技术产业开发区及中煤张家口煤矿机械有限责任公司等企业，并与各县政府领导和园区、企业有关负责同志进行了深入座谈交流，详细了解园区在融资平台建设、组织', '机构设立、项目引进入园等方面的好经验、好做法，收到了良好效果，为我县加快园区建设提供了有力参考。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>9</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>蔚县县领导赴江苏省考察学习</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2014-06-11</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/35241.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['学习考察组一行本着开阔视野、拓展思路、深入对接、力求实效的原则。先后与江苏省徐州市维维集团、盐城市东台市中粮集团进行了广泛深入的对接洽谈，详细地考察了两企业的经营模式、经营思路和现状。并到徐州市新沂市，就城建项目进行了参观学习。', '学习考察过程中，蔚县县委书记燕旺林代表县委、县政府充分表达了全县上下打造 "工业强城、商贸重城、文化名城" 为战略发展目标的具体构想与举措，以及全县人民人心思进、共谋发展的信心和决心。希望宾主双方在已有洽谈磋商成果的基础上，进一步加深了解、增进互信，互为依托、加快发展。受访企业与新沂市当地领导，对蔚县互利共赢、共谋发展的思路与举措给予高度评价，表示将加快目前相关洽谈合作项目的推进速度，结合企业的经营发展方向，积极融入到该县 "项目、园区、县城" 建设中来，努力实现合作双赢。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>9</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>阳原县浮图讲乡三举措提高党员干部能力</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2014-05-07</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/79/16879.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['一是在培训中提升素质。通过利用"周四讲堂"，办班培训、领导班子成员轮流上党课的形式，就农村政策法规、群众工作、发展党员等方面进行专题培训，使村"两委"干部整体素质有了明显提升。', '二是在考察中解放思想。针对全乡产业发展实际，组织村书记、主任有选择性地到山东省淄博市高新区、涿鹿县矾山镇、大田洼乡进行参观学习考察，就花卉苗木种植、文化旅游产业发展、重点项目实施进行考察。不仅学习了先进地区干部工作理念，更要学习他们孜孜不倦工作精神。一种是破解瓶颈的创新精神，另一种是艰苦奋斗的创业精神，再一种是夙夜在公的实干精神。从而实现以思想大解放推动工作大提升。', '三是在工作中培树人才。 针对重点项目村启用在矛盾面前敢于碰硬、在风险面前敢于作为、在关键时刻敢于挺身而出的担当型干部；在发展基础好的村启用甘于奉献、持之以恒的实干型干部；在贫困落后村启用思路开拓、敢闯新路的创新型干部。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>9</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>李建富带队赴怀安县等地学习考察产业园区建设</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2014-10-11</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/80/20285.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['，县政府副县长李建富带领县政府办、园区办、工信局、财政局、国土局、编委办、工商局、要家庄乡等单位有关负责同志，赴怀安县、万全县和宣化县三地产业集聚区进行学习考察。考察期间，考察团实地参观了怀安县国家公共安全与应急产业创新基地、万全县经济开发区、宣化县东山高新技术产业开发区及中煤张家口煤矿机械有限责任公司等企业，并与各县政府领导和园区、企业有关负责同志进行了深入座谈交流，详细了解园区在融资平台建设、组织机构设立、项目引进入园等方面的好经验、好做法，收到了良好效果，为我县加快园区建设提供了有力参考。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>9</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>察北管理区纪工委重拳出击肃风纪建章立制提效果</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2014-09-05</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/179/8725.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['张家口市察北管理区管理委员会 - 察北管理区纪工委 重拳出击肃风纪 建章立制提效果', '察北管理区纪工委明确职责定位，突出主业，紧紧围绕监督执纪问责，深化转职能、转方式、转作风，出重拳执纪监督，下力气整改建制。', '今年以来，我委共组织9次明察暗访，检查单位40多个，其中包括乡镇、管理处、派驻单位，做到检查对象全覆盖。通过检查发现全区各单位工作作风明显好转，但个别单位仍存在迟到早退、部分单位工作人员不在岗、空岗缺岗人员没有去向提示、没有很好地落实AB岗制度等现象。现已对9个存在违反工作纪律问题的单位进行了通报批评，对发现存在苗头性问题的单位下发监察建议书3份。', '通过检查发现作风问题，如出车制度不完善，工作纪律不严格，纪工委除加大监督检查处理力度外，边查边建制，研究分析制度层面源头上出现的问题，逐一建立完善制度，及时下发通知、建议书，谋划作风建设的长效机制。目前，全区各部门单位完善细化了以下几项制度：一是严格办公用房，严格按照《党政机关办公用房建设标准》的相关规定整改到位，不允许打擦边球、搞变通。二是严格公务用车，建立公务用车派车单、钥匙保管制度，严禁超标配车、公车私用。三是严禁私设 "小金库" 。严禁用公款购买赠送礼品，讲派头、摆阔气、超规格接待。四是严禁外出考察。禁止组织无实质内容、无明确目的的外出学习考察活动。五是严禁班上娱乐。严禁工作人员上班时间进行游戏、炒股、购物等与工作无关的事情，力刹班上娱乐的歪风邪气。六是严格考勤和请销假制度。认真落实AB岗、限时办结、一次性告知等工作制度，确保工作有效衔接。七是纠正行业不正之风。重点整治不作为、乱作为，吃拿卡要、生冷硬拖、慵懒散漫等行为，以及执法不公不廉、办人情案等侵害群众利益问题。', '下一步我们将更加积极主动转职能，痛下决心改方式，毫不动摇转作风。突出纪检监察机关监督执纪问责职能，边监督检查，边促其整改完善，边建章立制，如此循环往复，直至政治清明、政府清廉、干部清正成为我区的名片，为民作公仆、实干成事业、清廉树形象成为我区的写照。', '教育实践活动进入查找问题、明确方向阶段以来，我们认真按照区党工委、区活动办的工作部署安排，坚持高标准严要求，精心组织，周密安排，开好专题民主生活会，以求达到沟通思想、增进团结、凝聚力量，推动工作的目的。日前，区纪工委书记张体铁深入我处参加专题民主生活会。在听取管理处领导班子和领导干部发言后，张书记给予充分肯定。他用"五个特点、三点希望"对本次民主生活会作了全面总结。他在点评中指...']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>9</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>尚义县考察团深入安家堡乡学习考察综治工作</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2014-03-31</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/16355.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['3月27日，尚义县政法委副书记杨孝广携各乡镇党委副书记一行18人，深入安家堡乡学习考察综治工作。县政法委副书记、综治办主任田丰军，安家堡乡党委副书记田瑞东陪同考察。尚义县考察团一行先后参观了安家堡乡综治工作站、乡便民服务大厅、张贵屯村综治工作站，仔细查看了各类档案资料，详细了解了 "四个覆盖" 、 "六位一体" 机制运行情况和乡便民服务措施。杨书记对该乡综治工作给予高度评价，表示回去后将结合实际，推广该乡综治工作的好经验和好做法，进一步提高全县综治工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>9</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>蔚县组工干部深入安家堡乡学习考察</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2014-03-21</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/16243.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['3月19日，蔚县组织部副部长蔡建武带领各乡镇副书记、组织委员等50余名组工干部，深入安家堡乡学习考察 "三三" 为民服务体系。县委组织部副部长杨海明、政府乡长郑有宏等县乡领导陪同考察。', '蔚县考察团参观了安家堡乡便民服务大厅，了解了大厅功能分区、运行机制、人员构成等情况，聆听了郑乡长介绍的AB岗无缺位服务制度；集中服务、代理服务、上门服务三种服务模式。随后又深入到邹家庄村便民服务站，参观了警务室、综治调解室、村民活动中心，重点了解了该村开展 "三诺一争" 、 "四个覆盖" 活动情况及 "门前三包" 卫生保洁长效机制实施情况。蔚县组工干部对该乡便民服务工作给予高度评价，表示回去以后会把该乡便民服务工作先进经验、好的做法推广至各乡镇，全面提高蔚县便民服务工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>9</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>浮图讲乡采取三项措施不断提升党员干部引领能力</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2014-01-23</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/97/14977.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['通过利用 "周四讲堂" ，办班培训、领导班子成员轮流上党课的形式，就农村政策法规、群众工作、发展党员等方面进行专题培训，使村 "两委" 干部整体素质有了明显提升。', '针对全乡产业发展实际，组织村书记、主任有选择性地到山东省淄博市高新区、涿鹿县矾山镇、大田洼乡进行参观学习考察，就花卉苗木种植、文化旅游产业发展、重点项目实施进行考察。不仅学习了先进地区干部工作理念，更要学习他们孜孜不倦工作精神。一种是破解瓶颈的创新精神，另一种是艰苦奋斗的创业精神，再一种是夙夜在公的实干精神。从而实现以思想大解放推动工作大提升。', '。一种是破解瓶颈的创新精神，另一种是艰苦奋斗的创业精神，再一种是夙夜在公的实干精神。从而实现以思想大解放推动工作大提升。', '三是在工作中培树人才。 针对重点项目村启用在矛盾面前敢于碰硬、在风险面前敢于作为、在关键时刻敢于挺身而出的担当型干部；在发展基础好的村启用甘于奉献、持之以恒的实干型干部；在贫困落后村启用思路开拓、敢闯新路的创新型干部。', '针对重点项目村启用在矛盾面前敢于碰硬、在风险面前敢于作为、在关键时刻敢于挺身而出的担当型干部；在发展基础好的村启用甘于奉献、持之以恒的实干型干部；在贫困落后村启用思路开拓、敢闯新路的创新型干部。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>9</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>孔家庄街道办事处年工作总结</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2014-01-17</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/166/15743.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['抓学习，提素质。将每周五规定为党员干部的 "集中学习日" ，对大讨论活动和党的十八大文件精神、《中华人民共和国公务员法》、《中国共产党章程》进行了深入系统的学习；', '，邀请县委党校副校长做了 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动宣讲报告会；自活动开展以来，街区党员干部共记录1万字以上学习笔记60余篇，撰写大讨论学习心得体会30篇，个人学习考察报告15篇，班子及个人对标定位报告40余份。通过多种形式的学习实践活动，使党员干部职工的思想得到了进一步解放、理论素养得到了明显提升。同时我们还在党员群众中开展了以 "我为社区建设出谋划策" 为主题的意见建议征集活动，共梳理汇总党员群众提出的意见建议153条。二是谨对标、慎定位。为把大讨论活动落到实处，街道党委开展了以 "学先进、找差距、促发展" 为主题的实践活动。5月底，由县委组织部门牵头带队，分别赴廊坊市、石家庄市和张家口市两个街道、11个社区参观学习，找准标杆，正确定位。经参观学习，确定了硬件、软件建设分别对标桥东区红旗楼街道办事处和五一路街道办事处，党建工作对标石家庄市桃园镇庄窠社区党建双轨制，网格化管理对标宣化区天泰寺街道办事处九天庙社区。三是突宣传，强舆论。学习期间，对外发表新闻稿件62篇，其中省级2篇，市级14篇，县级46篇，宣传氛围营造浓厚，效果明显，排名兄弟单位前列。', '，邀请县委党校副校长做了 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动宣讲报告会；自活动开展以来，街区党员干部共记录1万字以上学习笔记60余篇，撰写大讨论学习心得体会30篇，个人学习考察报告15篇，班子及个人对标定位报告40余份。通过多种形式的学习实践活动，使党员干部职工的思想得到了进一步解放、理论素养得到了明显提升。', '为把大讨论活动落到实处，街道党委开展了以 "学先进、找差距、促发展" 为主题的实践活动。5月底', '找准标杆，正确定位。经参观学习，确定了硬件、软件建设分别对标桥东区红旗楼街道办事处和五一路街道办事处，党建工作对标石家庄市桃园镇庄窠社区党建双轨制，网格化管理对标宣化区天泰寺街道办事处九天庙社区。三是', '确定了硬件、软件建设分别对标桥东区红旗楼街道办事处和五一路街道办事处，党建工作对标石家庄市桃园镇庄窠社区党建双轨制，网格化管理对标宣化区天泰寺街道办事处九天庙社区。三是', '认真贯彻落实《关于进一步做好社区组织的工作用房、居民公益性服务设施建设的通知》（万政字【2010】148号）精神，在上级部门的大力支持和帮扶下，在相关部门通力协作下，民主东街社区于7月中旬搬迁至怡泰小区内200平米新办公场所；商业街社区于8月份搬迁至雅菊苑小区内1100平米的办公场所；位于万友庄园西侧经济适用住房小区内的西环路社区260平米办公场所全部竣工，近期搬迁；地道桥旁新华西街社区新办公场所已落实。截至目前，7个社区均实现了自有办公用房。社区办公场所实现了 "从无到有、从小到大、从旧到新、从平房到楼房" 的新跨越。', '办事处《关于开展特色社区创建活动的实施意见》要求，各社区根据自身优势，都确立了创建项目，11月份将进入特色社区项目验收阶段，届时一批活力四射、个性鲜明、群众欢迎的特色社区将呈现出独特的魅力， "一社区一特色" 、 "一社区一品牌" 格局初步形成。', '4、结对帮扶再谱新篇章。今年是结对帮扶活动开展的第三年，也是最为关键的一年，即精品社区建设年，目前，县直14个结对帮扶单位共投入社区建设资金111900多万元，为社区建设注入新活力。', '，结对帮扶工作会在新华东街社区召开，组织部长梅晓春对近三年的结对帮扶工作成绩表示肯定，对下一轮结对帮扶工作的开展提出了大致设想。', '成功举办了以 "唱响中国梦" 为主题的彩色周末文艺晚会，其中由街区工作人员自编自演的快板说唱节目《社区花开春满园》，受到了群众的一致好评。二是民主西街社区身残志坚的退休老干部王殿贵多年来利用自己的积蓄助学、助残，入围2013年中国文明网 "中国好人榜" 候选人。三是民主西街社区操场文化、广场文化建设欣欣向荣，目前文艺活动队伍已达到10支，活动人数超过300人，推动了社区群众文化的长驱发展。', '，街道对社区班子及工作人员半年工作情况进行了例行考核并通报。根据考核结果和工作需要，对民主西街、新华西街社区领导班子进行了适当调整。', '通过考核，进一步增强了社区班子成员的工作积极性和主动性，形成了比学赶超的工作氛围。', '牢固树立 "民生为上、服务为先" 理念，依托 "两个中心" （街道便民服务中心和社区服务中心），大力推进 "六进六前" 工程（便民服务站进社区，把服务窗口前置；群众说事室进社区，把矛盾化解在前期；精品阵地进社区，把硬件建设跨到前列；结对共建进社区，把资源整合在前沿；网格化管理进社区，把精细服务做到前端；文化活动进社区，把精神文明传播前移），民生工作成绩可佳。', '种保障性住房申请户进行了详细的入户摸底调查和严格审核，分配经济适用房154套，取消不符合享受住房困难补助户', '办理困难职工救助和重大疾病救助38人次；通过调查摸底，为15名困难职工上报了家庭基本情况登记表；54名干部职工参加了张家口市职工重大疾病医疗互助活动，缴纳医疗互助金2700元。', '为200余名残疾人发放了 "爱心助残卡" ，为6名残疾人各申领洗衣机一台，为8名视力残疾人、17名智力残疾人、28名肢体残疾人和9名精神残疾人建立了特困重度残疾人家庭档案。', '认真落实综治维稳群防群治工作机制，组成了一支412人的平安建设队伍，确保信访信息上报的准确性和各类隐患处置的及时性。', '3、矛盾排调。坚持 "日排查、周上报、月总结" 制度；对排查出的不稳定因素全部进行登记建册，严格落实 "五包一" 责任制、实施 "一对一" 稳控方案，力争实现 "小事不出社区、大事不出街道" 。今年以来，共成功化解矛盾纠纷45起，4起信访案件已同相关部门积极协调处理解决。', '坚持 "日排查、周上报、月总结" 制度；对排查出的不稳定因素全部进行登记建册，严格落实 "五包一" 责任制、实施 "一对一" 稳控方案，力争实现 "小事不出社区、大事不出街道" 。', '强化对社区矫正和刑释解教人员的心理疏导和教育管控，做到不脱管、不失控，防止其重新犯罪。', '总的来说，2013年街道整体工作均有了较大进步，但仍然存在一些不足之处：一是社区"三有一化" 目标落实不到位，特别是工作人员和办公经费缺口较大；二是民生保障亟待加强，对弱势群体的帮扶力度仍显不足,特别是养老托老工作还是空白点；三是特色社区创建滞后，品牌意识不浓，执行力差；四是社会维稳工作做的还不够扎实；五是"共驻共建" 活动有待加强，社区与驻区单位缺乏沟通，这些问题我们将在今后的工作中下力气加以解决。', '一年来，办事处在县委、县政府的正确领导下，在各级各部门的大力支持下，紧紧围绕全县中心工作，按照"夯实基础强功能、创新管理优服务、维护稳定构和谐、共驻共建促发展"的总体工作思路，以 "科学化管理、人性化服务" 为工作理念，以 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动为载体，全力推进社区 "三有一化" 目标落实，不断创新社会化管理，满足群众各类服务需求，推动整体工作大幅度提升，为构建 "大党建、大民生、大稳定、大发展" 格局奠定了坚实的基础。2013年，孔家庄街道办事处党委连续第六年被县委授予 "先进基层党委" 荣誉称号。', '一年来，办事处在县委、县政府的正确领导下，在各级各部门的大力支持下，紧紧围绕全县中心工作，按照"夯实基础强功能、创新管理优服务、维护稳定构和谐、共驻共建促发展"的总体工作思路，以 "科学化管理、人性化服务" 为工作理念，以 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动为载体，']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>9</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>尚义县考察团深入安家堡乡学习考察综治工作</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2014-03-27</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/31/16333.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['3月27日，尚义县政法委副书记杨孝广携各乡镇党委副书记一行18人，深入安家堡乡学习考察综治工作。县政法委副书记、综治办主任田丰军，安家堡乡党委副书记田瑞东陪同考察。尚义县考察团一行先后参观了安家堡乡综治工作站、乡便民服务大厅、张贵屯村综治工作站，仔细查看了各类档案资料，详细了解了 "四个覆盖" 、 "六位一体" 机制运行情况和乡便民服务措施。杨书记对该乡综治工作给予高度评价，表示回去后将结合实际，推广该乡综治工作的好经验和好做法，进一步提高全县综治工作水平。（张 强）', '月27日，尚义县政法委副书记杨孝广携各乡镇党委副书记一行18人，深入安家堡乡学习考察综治工作。县政法委副书记、综治办主任田丰军，安家堡乡党委副书记田瑞东陪同考察。尚义县考察团一行先后参观了安家堡乡综治工作站、乡便民服务大厅、张贵屯村综治工作站，仔细查看了各类档案资料，详细了解了 "四个覆盖" 、 "六位一体" 机制运行情况和乡便民服务措施。杨书记对该乡综治工作给予高度评价，表示回去后将结合实际，推广该乡综治工作的好经验和好做法，进一步提高全县综治工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>9</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>阳原县浮图讲乡采取三项措施不断提升党员干部引领能力</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2014-01-16</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/79/14856.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['一是在培训中提升素质。通过利用 "周四讲堂" ，办班培训、领导班子成员轮流上党课的形式，就农村政策法规、群众工作、发展党员等方面进行专题培训，使村 "两委" 干部整体素质有了明显提升。', '通过利用 "周四讲堂" ，办班培训、领导班子成员轮流上党课的形式，就农村政策法规、群众工作、发展党员等方面进行专题培训，使村 "两委" 干部整体素质有了明显提升。', '针对全乡产业发展实际，组织村书记、主任有选择性地到山东省淄博市高新区、涿鹿县矾山镇、大田洼乡进行参观学习考察，就花卉苗木种植、文化旅游产业发展、重点项目实施进行考察。不仅学习了先进地区干部工作理念，更要学习他们孜孜不倦工作精神。一种是破解瓶颈的创新精神，另一种是艰苦奋斗的创业精神，再一种是夙夜在公的实干精神。从而实现以思想大解放推动工作大提升。', '。一种是破解瓶颈的创新精神，另一种是艰苦奋斗的创业精神，再一种是夙夜在公的实干精神。从而实现以思想大解放推动工作大提升。', '针对重点项目村启用在矛盾面前敢于碰硬、在风险面前敢于作为、在关键时刻敢于挺身而出的担当型干部；在发展基础好的村启用甘于奉献、持之以恒的实干型干部；在贫困落后村启用思路开拓、敢闯新路的创新型干部。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>9</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>石门管理处解放思想改革开放创新驱动科学发展大讨论活动推进方案</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2013-12-31</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/31/7157.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['张家口市察北管理区管理委员会 - 石门管理处“解放思想、改革开放、创新驱动、科学发展”大讨论活动推进方案', '为认真落实市、区关于深入开展 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动的要求，确保大讨论活动扎实推进、取得实效，经我处大讨论活动领导小组研究，提出如下推进方案。', '以党的十八大精神、省委八届五次全会精神以及市区解放思想大讨论活动动员大会精神为指导，以 "解放思想、改革开放、创新驱动、科学发展" 为主题，着力解决精神状态、思想观念、体制机制、政策规定、政务服务、法制建设、创新驱动、干部管理八方面突出问题，抓学习增动力，找问题查症结，树标杆定目标，找路径明举措，直击要害、寻求突破，聚焦成果、确保成效。', '把更快更好地推动我处科学发展作为活动的突出主题和根本目的，通过大讨论活动，进一步认清发展现状、理清发展思路、激发发展动力，以活动的深入开展推动科学发展，用科学发展的成效检验活动成果。', '把解决制约发展的突出问题作为活动的中心和重点，始终扭住思想观念、体制机制等方面的要害问题，深挖症结根源，边学边查边改，努力破除发展瓶颈，扫除发展障碍，实现后来居上。', '把反映我处实际、体现我处特点、呈现我处个性贯穿全过程，始终立足实际，研究特色问题，运用特色载体，形成特色做法，在创新创造中开创活动新局面、开辟发展新境界。', '把开展大讨论活动作为当前一项重要的工作任务，明确目标、落实责任、严格标准、严格时限，环环相扣、步步深入，扎扎实实地做好各个环节工作，确保虚功做实、实功做深、取得实效。', '在 5月20日前召开动员大会。为确保动员质量，按照省市区要求，精心制定活动的实施办法和推进方案，逐层深入、全面发动，确保覆盖到一般干部。', '坚持个人自学和集体学习相结合，以学促思，以思促变，以变促破，以破促立，为大讨论奠定坚实的思想基础。', '①理论中心组学习。 5月20日前，围绕理论学习大讨论活动主题，至少组织1次高质量的中心组学习活动。并将有关学习情况于及时上报活动办。', '③组织专题报告会。5月25日前后组织1场以区域发展、金融创新、城镇建设等为主题的专题报告会。', '前，对大讨论活动进行集中宣传报道；责成专人收集、整理对活动开展的认识、意见、建议，每周一次汇总上报区活动办。', '围绕制约影响发展的突出问题，确立研讨课题，深入开展专题研讨。根据实际情况，研究确立研讨课题，由领导牵头负责，开展深入研讨。专题研讨集中安排在5月中旬到 6月8日进行。 6月10日前，将研讨成果上报区活动办。', '广泛发动社会参与，组织开展 "我为察北科学发展献良策" 等活动，多种形式征求建议。', '①搞好集中征集。5月25日前，通过领导干部调研走访、开展问卷调查等多种形式，广泛开展意见建议集中征集活动。对征集的建议汇总筛选后，于5月28日前上报区活动办成果组。', '②组织专家研讨。围绕重点工作和发展中的一些重大课题、突出问题，邀请相关领域专家进行研讨，征询对加快发展、破解瓶颈的建议对策。', '充分利用报纸、电视、网络等各类平台，发动群众积极参与，畅谈对解放思想的认识、意见、建议。', '①开辟 "一把手" 访谈专栏。从 5月20日起，察北电视台、《今日察北》开设访谈专栏，播放、刊发，主要领导访谈，及时反映新思路、新举措、新成效。', '②设立公开承诺专栏。从5月20日起，察北电视台、《今日察北》开设公开承诺专栏，围绕体制机制、政务服务、法制建设等方面做出公开承诺，推动大讨论活动深入开展。', '③推出系列评论文章。要把握大讨论各个阶段的时间节点，适时推出评论文章，深度阐述活动的重要意义和丰富内涵，对活动进行正确引导，增强活动的思想性和影响力。', '立足自身实际，瞄准先进地区和行业标兵，认真仔细筛选，确立学习标杆，明确赶超目标，并形成初步对标方案，确保标杆可看、可信、可学、可赶。', '要深入研究对标对象情况，进行全面对比分析，通过全面对标找差距、找动力、找路径、找方向。组织干部到对标单位进行学习考察，深入了解成功经验，形成高质量的考察报告。', '根据学习考察和征求意见情况，对照对标单位的先进经验和发展模式，研究确定本单位的工作思路目标，制定达标、赶标、超标的时间表和路线图，对标定位方案要反复征求社会各界人士意见，并进行公示，力求符合实际、切实可行。', '①围绕影响本单位科学发展的突出问题，制定相关政策和措施。②对所献良策、调研报告、制度成果等梳理汇总、编印成册。', '为进一步加强辖区食品安全，净化食品消费环境，保障全区人民的身体健康和生命安全，我局2013年多次配合全区食品安全隐患排查整治或本局组织人员对辖区内定点屠宰场及酒类经营户的食品安全工作进行了全面检查。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>9</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>塞北发改局深入推进解放思想抢抓机遇奋发作为协调发展大讨论活动措施</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2015-12-07</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/116/18304.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['张家口市塞北管理区管理委员会 - 塞北发改局深入推进“解放思想、抢抓机遇、奋发作为、协调发展”大讨论活动措施', '根据区工委在全区开展大讨论活动的安排部署，发改局及时召开了大讨论活动动员会，为进一步深化大讨论活动的开展，发改局全面部署，由局领导在全局工作会上安排部署了具体推进措施。', '根据区工委确定的活动开展时间，我单位扎实推进大讨论活动，必须进一步强化领导责任，一是明确领导机构职责。成立了大讨论活动领导小组，专门负责大讨论活动的具体工作。二是单位党支部书记要为本单位全体干部职工讲一次党课，留存讲党课影像资料备案。', '把集中学习教育作为深入推进大讨论活动的重要内容。集中安排时间继续深入学习习近平总书记系列重要讲话精神和大讨论活动规定学习内容，及时组织学习党的十八届五中全会精神，学习省委书记赵克志系列讲话精神、党课内容，学习市委书记侯亮在全市大讨论活动动员会上的讲话和市委十届七次全会上的讲话精神，学习区工委书记大讨论活动动员会上的讲话精神等。学习要有记录，有笔记。', '对标先进单位，主动走出去学习考察，学习好的经验和作风，查找本单位工作中存在的问题和不足，形成问题清单和整改清单。推出并落实本单位 "一招鲜" 措施，切实深化改革、转变职能、改进作风、担当落实。', '健全干部职工奖惩机制，完善工作制度，引导干部职工主动作为，摈弃安于现状、被动应付的惰性思想，树立勇于担当、攻坚克难的本领和作风。严格执行审批制度，坚持做到公平公正，按照市发改委下放和简政的审批程序开展审批工作，全程协助项目单位办理项目前期手续，全面提升服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>9</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>郭磊庄镇喜迎农博士</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2015-07-20</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/22154.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['近日，郭磊庄镇喜迎贵客，这位远道而来的贵客是大有来头，他就是 "河北电视台农民频道"', '《农博士在行动》栏目的特约农博士，高级农艺师李恒真教授。李教授从事农业研究20余年，是全国农业领域炙手可热的知名专家，精通瓜果蔬菜栽培、田间管理以及病虫害的防治技术，李教授此', '培训会上，李博士依据我们当地实际深入浅出的从打拢、育苗、移植等蔬菜栽培阶段进行详细分析讲解，李博士生动幽默的语言让参训人员很容易学到了实用栽培技术，此次参加培训的', '近年来，郭磊庄镇结合蔬菜种植优势，大力推广棚室蔬菜种植，不断加大农业科技推广力度，充分利用 "三级技术服务体系" ，通过外出学习考察、举办科技讲座、现场指导、发放资料等形式让技术进村入户，培训农户4000多人次，提升农民学习科技、应用科学技术促进增收致富的水平。目前，全镇共建设各类棚室607个，其中温室大棚145个，春秋棚397个，拱棚65个']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>9</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>宝鸡市食安办来我市学习考察国家食品安全城市创建工作</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2015-09-21</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://scjg.zjk.gov.cn/single/665/183357.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['，宝鸡市食品安全城市创建办副主任、市食药监局调研员王玉川一行13人来我市学习考察食品安全城市创建工作。17日下午，我市与宝鸡方面就创城工作进行了座谈交流。市食安办副主任、食药监局副局长黄守林介绍了我市食品安全城市创建工作情况、主要做法和已取得的成效，市创建办各专项工作组、经开区食品和市场监督管理局负责同志参加座谈交流，与宝鸡市考察组进行了深入交流探讨。座谈会后，宝鸡市考察组到经开区食品和市场监督管理局姚家房所进行了参观学习。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>9</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>郭磊庄镇户科技示范户喜领物化补贴</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2015-06-24</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/21769.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['有效发展以 "亚雄、立宇" 为龙头的设施种植、现代牧业，不断加大农业科技推广力度，充分利用 "三级技术服务体系" （市级专家组授课、县级技术人员培训、镇农业服务中心指导），通过外出学习考察、举办科技讲座、现场指导、发放资料等形式让技术进村入户，培训农户4000多人次，提升农民学习科技、应用科学技术促进增收致富的水平，该镇还投资30余万元建起了 "农机推广中心" ，致力培训职业农民。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>9</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>孔家庄街道十二五工作总结</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2015-12-04</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/166/24461.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['"十二五" 时期，是孔家庄街道快速发展基础上抓住新机遇、取得新突破、实现新跨越的五年。街道在县委、县政府的正确领导下，以邓小平理论、 "三个代表" 、科学发展观重要思想为指导，认真学习贯彻党的十八大、十八届三中、四中全会精神，立足街情实际，按照 "夯实基础强功能、创新管理优服务、维护稳定构和谐、共驻共建促发展" 总体工作思路，紧紧抓住全县加快推进城乡一体化、 "建设张家口新区，实现万张同城化" 及全面深化改革的重大战略部署的历史机遇，转变工作作风，提升居民服务水平，推动各项社会事业全面发展，圆满完成了 "十二五" 计划确定的各项任务，开创了社会发展新局面。', '年以来，按照街道《关于开展特色社区创建活动的实施意见》要求，街道将 "一社区一特色" 、 "一社区一品牌" 的特色社区创建工作不断做实做强。五年来，根据各社区自身优势，创建了气象后街社区 "三三" 为民服务体系、商业街社区大课堂、民主东街社区 "党员爱心传递驿站" 、新华东街社区文化家园、民主西街社区 "圆梦慈善" 公益平台、新华西街社区关爱互助、西城郊社区 "卫生服务站" 党建特色品牌， "一社区一特色" 、 "一社区一品牌" 格局初步形成。', '为改善社区干部结构，2012年，按照 "用制度管人、凭实绩用人" 要求，通过工作考核、选聘、提拔等形式，7名优秀大学生村官、5名社区工作者充实到社区两委班子中，社区班子进一步优化，', '，6名副科领导兼任社区党组织书记，进一步突出 "书记" 的领导核心作用和抓社区各项工作的责任意识，并且', '面向社会公开招聘30名社区工作人员，扩充社区工作者队伍，使每个小社区达到5人，大社区达7-9人，两委班子平均年龄由42.5岁降至39岁，大专以上学历占到90.5%，初步实现了社区领导干部队伍的年轻化、知识化，班子整体素质明显提高。', '争取省、市福彩社区奖补资金，不断加强社区活动场所建设。特别是结对帮扶活动开展以来，', '街道强力推进社区活动场所和配套设施建设，确保做到 "有场所议事" 。通过项目支持、财政投资、社区自筹、单位帮扶等方式，', '努力在社区建立文化活动中心、阅览室等活动场所，街道累计投资20余万元建设文化活动室9个，阅览室3个，配套图书1万余册。二是创立文化活动品牌。为丰富居民文化生活，积极开展社区文化服务，街道形成了 "消夏欢歌" 等文化活动品牌。三是创建文体活动队伍。目前社区文艺活动队伍已达到10支，活动人数超过300人，极大丰富了社区居民文化生活。四是做大做强广场文化。自2011年以来，各社区举办20余场文艺演出，激发群众参与热情。五是积极培树道德模范典型。近年来，社区涌现出拥军爱民的80岁高龄老人高玉琼,身患重症不忘奉献的有志青年李建,助学、助残退休老干部王殿贵,义务献血无私捐献骨髓的低保户张永才等一批道德模范。', '五年来，孔家庄街道牢固树立 "民生至上，服务为先" 理念，不断创新社会化管理，满足群众各类服务需求，努力营造良好的社会环境，推进整体工作大幅度提升。', '建强社区便民服务阵地。先后投资50余万元，建设了10个社区便民服务中心。目前，全部社区都实现了 "一站式" 便民服务，打造了 "三级" 便民服务平台，社区规范化建设得到加强。', '打造社区居家养老乐园。商业街社区和气象后街社区与张家口市阳光家园养老托老中心合作建成了社区养老托老中心，可容纳床位50张。', '严格落实保障性住房。街道配合住建局等相关单位通过 "查" "看" "问" "访" "核" 五种形式对辖区保障性住房进行调查走访，并对符合条件的申请户进行公示。自2011年以来，街道配租经济适用房227套，廉租房367套，公租房66套。', '自2012年街道建立网格化管理模式以来，由最初的7个社区、44个网格，发展到现在15个社区、101个网格。近年来，街道按照 "分级管理、界限清晰、全面覆盖" 的原则，充分发挥网格单元优势，不断完善网格化信息数据，并根据每季度入户信息及时更新网格信息。', '年街道制定了《关于县城住宅小区成立业主委员会的实施方案》，明确了小区业主委员会选举的办法、步骤和时间。积极探索社区领导干部和物业公司管理人员相互交叉任职模式，形成社区、物业公司和业主委员会 "三位一体" 的小区管理模式。按照 "以点带面，逐步展开，选举条件成熟一个选举一个" 的思路，稳步推进小区业主委员会的选举工作。目前街道共有小区94个，其中21个已完成业主委员会选举工作。', '年街道制定《关于全面推行 "群众说事室" 创建工作的实施意见》，规定每月5日、25日、25日为社区 "说事日" ，明确了说事内容，规定了说事程序，即 "述、议、定、办、评" 五步工作法。自 "群众说事室" 工作开展以来共接待群众3000余次，反映涉及保障性住房、吃水难、物业纠纷等问题约1200件，其中96%已答复或解决。 "群众说事室" 工作开展情况先后两次被《人民日报》报道，被市、县两级新闻媒体广泛宣传，得到了良好的社会效果。', '推进社区网格化管理纵深发展，确保群众的服务在网格、矛盾化解在网格、治安稳控在网格。', '坚持抓好防控网络建设，实行信访工作 "周周清" ，发挥稳定队伍作用，不断完善大调解体系，加强治安防范、整治力度。', '加强对重点人群的管控力度，在重要活动期间严格落实 "三包一" 责任制，对辖区内的社区矫正人员特别安置帮教人员做到 "四个一" ，即：走访社区了解情况一次、上门家访一次、见面谈话一次、心理疏导一次；了解和掌握他们家庭情况、现实表现，做好超前防范。', '圆满完成各项教育实践活动。在各级党组织和党员中深入开展 "创先争优" 、党员 "先进性、纯洁性" 教育、实现伟大中国梦、党的群众路线教育实践活动、 "三严三实" 专题教育活动等一系列活动，进一步增强了基层组织的凝聚力、战斗力和号召力，进一步改进了党员、干部的工作作风，进一步健全了各项规章制度，为贯彻落实依法治国打下基础。', '基层民主政治进一步健全。健全了民主生活制度、民情恳谈会、民情分析会制度、民主测评和述职述廉等制度。', '切实加强党风廉政建设。切实履行党风廉政建设 "两个责任" ，把廉政建设工作纳入到总体目标管理，结合党的群众路线教育实践活动，以制度建设为重点，切实根除党员干部 "四风" 之弊，切实加强领导干部廉洁自律工作。同时坚持标本兼治，重在治本，强化监督，防微杜渐，完善了廉政建设责任制、领导干部重大事项报告制度、干部外出学习考察管理制度、公务用车管理制度等，使廉政建设在制度上和措施上不断落实，从源头上堵住了腐败现象的滋生。', '组织部于2011年专门出台了《关于县直单位结对帮扶街道社区的实施方案》，明确了帮扶主体和对象，落实了帮扶任务，制定了考核奖惩措施，并从14个县直帮扶单位中各筛选出一名素质高、能力强、热爱社区工作的干部到社区挂职锻炼；', '为每个社区配备了一名优秀大学生村官；2013年为每个社区落实党建经费1万元；2014年创建 "共驻共建、共创和谐" 街道党建特色品牌；帮扶工作开展期间连续召开了四次工作调度会，有力推动了帮扶工作的开展。', '综上所述， "十二五" 期间，孔家庄街道社会各项事业发展取得了显著成绩，全面完成了 "十二五" 计划，为 "十三五" 发展奠定了良好的基础。2008年以来，街道党委连续8年被评为县级 "先进基层党委" ；2012年和2014年，街道连续两届被市委市政府授予 "文明单位" 荣誉称号；2012年，街道办事处被河北省妇女联合会评为 "基层组织建设示范街道" ，新华东街社区被河北省妇女联合会评为 "基层组织建设示范社区" 、被全国妇联、教育部、中央文明办评为 "全国家庭教育工作示范社区" 、被河北省卫生厅和河北省爱卫办评为 "全民健康生活方式行动示范社区', '成绩已经成为过去，但是认真总结，我们还发现了自身存在的一些问题和不足：一是社区办公经费入不敷出，远远不能满足社区日益发展的需要。二是社区缺乏高素质工作人员，工作水平、工作效率低。三是工作创新能力不足，社区特色品牌需进一步建设。这些问题制约了街道的快速发展，针对这些问题我们将在 "十三五" 工作中逐步采取有效措施加以解决。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>9</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>年阳原县产业集聚区工作总结及年工作要点</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2015-06-04</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/79/24985.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['今年以来，阳原县委、县政府围绕市委、市政府提出的 "四型" 经济，紧密结合我县 "3+5" 产业格局，下大力抓好 "三项重点" 工作，在市园区办的指导下，努力推进园区建设各项工作。', '今年，在县政府财力十分紧张的情况下，累计投入资金8222万元，不断完善集聚区基础设施建设。综合加工园和机械工业园 完成征地1300亩。5月18日园内主干道开工建设，道路总长5.3公里，总投资3498万元，标准为路宽40米双向四车道，目前路基工程基本完成。同时完成园区内道路绿化2.7公里。毛皮产业园 针对国内外裘皮市场行情及产业发展现状，完善裘皮城精品商城内部设施，改造配楼三、四楼及主楼四、五楼，设置总面积16000平方米的加工区，已改造9000平方米，已有3户裘皮整皮加工企业入驻。华阳集中供热中心已完成锅炉房建筑工程及29MW热水锅炉2台，供热能力达到80万平方米，已为裘皮城提供集中供热。硝染基地已委托资助单位完成了园区总体规划设计、污水处理厂总体设计、大气和水环境监测及环评报告等。同时完成皮草风情园景观绿化工程。', '县委县政府责成县商务局牵头，相关单位配合，积极申报省级经济开发区，目前正在进行资料收集和整理。将《阳原县产业聚集区总体规划》修订为《阳原县经济开发区总体规划》，正在征求专家意见。硝染基地已委托资质单位完成了园区总体规划设计、污水处理厂总体设计、大气和水环境监测及环评报告等。聘请张家口建筑规划设计院编制了控制性详细规划。并积极与北京东西部能源技术研究院等资质单位沟通联系，编制产业发展规划。', '积极推进园区内企业续建项目。推进达鑫陶瓷二期、佳蕾陶业二期、飞龙家具二期、华阳集中供热中心项目、苏原煤台迁建项目等企业续建项目建设进度，争取早日完工见效。供热中心已交付使用，佳蕾二期工程已部分投产，达鑫二期工程正在进行开工前准备。', '下大力推进在建项目建设。阳原县新元素毛皮硝染有限公司项目于8月完工，9月投入生产。', '鼓励县内企业搬迁入园。引导县内企业实施搬迁入园技改项目，扩大规模，壮大实力。张家口华益皮草有限公司整体搬迁入驻毛皮产业园国际裘皮城加工区，并于9月投入生产。阳原县弘福工矿有限公司的混凝土泵车输送管系列产品生产线项目已开工建设。', '努力推进在谈项目签约。积极努力、多方协调推进在谈项目进度，促进项目签约落地。10月11日，县政府与中德环保有限公司签订鑫光华生物质能热电厂新建工程项目。该公司是国内首家在德国主板上市的公司，项目总投资3.5亿元，已完成选址工作，有望在2015年4月完成核准并开工建设。阳原和惠磁材永磁体项目又确定了补充条款，和惠磁材公司正在请示母公司。', '编印招商宣传册。县园区办编印了招商宣传册，并发放给相关企业和人员，用于招商引资宣传。', '扩大宣传和对外招商。年初，全县召开了全民创业大会，邀请了100多位在外有所成就的阳原籍人士，积极宣传阳原的招商政策，鼓励他们致富不忘家乡，回乡创业或招商引资。今年已有广东佛山市陶瓷协会考察团和湖北襄阳物流协会考察团前来考察园区建设，扩大了对外宣传和交流合作。阳原国际裘皮城有限公司按照县政府的招商政策，联系江苏、浙江和湖南等地的10多家毛皮加工企业前来考察，目前已有2家企业入驻裘皮城。', '学习借鉴先进地区经验。今年县政府多次组织部门和乡镇到万全、宣化等市内先进园区进行学习考察，借鉴园区建设经验，开阔了思路，增强了信心和决心。', '投入不足。由于县政府财力有限，致使园区基础设施建设投入不足，影响项目招商及落地。企业融资困难，续建在建项目推进速度较慢。', '围绕市委、市政府提出的 "四型" 经济和我县提出的打响 "两个品牌" （泥河湾、毛皮），主攻 "两大工程" （传统产业振兴、城镇建设提升），强化 "四项举措" （项目建设、全民创业、创新驱动、环境建设），在市园区办的指导下，通过学先进、强机构、编规划、夯基础、抓招引、上项目，推进产业集聚区取得更大的发展。', '二是下大力推进园区基础设施建设进度，尤其是综合园区征地、道路建设，裘皮城改造工程，裘皮城供热中心和硝染基地基础设施建设等，为项目落地提供基础保障。', '三是推进在建的达鑫二期、佳蕾二期、飞龙二期、华益搬迁、银河彩貂成衣扩能技改、永盛的废水治理及综合利用项目、新源公司的澳兔皮生产线扩建项目和硝染基地项目建设进度，尽快竣工并投入试生产。', '四是加大招商引资力度，招引企业入园，特别是尽早促成弘福工矿公司和和惠磁材公司项目开工建设。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>9</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>阳原县委组织部有关同志赴尚义县小蒜沟镇学习考察</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2015-03-04</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/22/23308.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['，县委组织部副部长杜志光带领有关科室同志赴尚义县小蒜沟镇学习考察基层组织建设、农村干部考核及 "三三" 为民服务体系建设情况。', '组织部一行首先参观了小蒜沟镇便民服务大厅，听取了镇领导关于 "三三" 为民服务体系、村级代办、党员志愿服务等工作的情况介绍，与大厅工作人员进行了详细交流。随后，实地查看了该镇基层组织建设、村 "两委" 换届、农村干部管理考核等方面的档案资料，详细听取了该镇党委书记通文学相关情况介绍。最后，组织部一行到该镇牛家营村进行实地观摩，与村干部进行了深入座谈交流。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>9</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>万全县郭磊庄镇依托三大优势调整产业结构</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2014-11-14</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/18802.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['近几年，郭磊庄镇瞄准现代高效农业作为调整产业结构，农民致富增收的突破口，先后流转土地510亩建成暖棚145个，春秋棚399个。', '一是 "资源优势" 。郭磊庄镇地处河川区，水资源丰富便于灌溉；该镇是万全县的四大镇之一，土地资源充足；镇政府合理引导，促使土地有序流转，为发展设施蔬菜创造有利条件；成立合作社，发挥集体优势，提高凝聚力。', '二是 "区位优势" 。郭磊庄镇企业较多，镇域内的河北亚雄现代农业有限公司是一家农产品加工企业，农民生产的各类农作物能就地加工，远销各地。该企业建成高科技智能棚2个，为周边村民及企业自身选育优质品种种苗，从源头上把好关保障产出优质蔬菜。', '三是 "技术优势" 。充分利用 "市级专家组授课、县级技术人员培训、镇农业服务中心指导" 三级技术服务体系，通过外出学习考察、举办科技讲座、观看录像、现场指导、发放资料等形式使技术进村入户，共培训农户4000多人次。', '今年，春秋棚与大田相比，效益明显，何家屯村主任李东流转土地120亩，建成春秋棚100个，在蔬菜市场不景气的情况下产值达到80万元，纯收入近20万，户均增收6000元，安排剩余劳动力100余人，实现社会效益和经济效益的双丰收。（李长海 渠彩娜）']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>9</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>浮图讲乡组织党员干部赴大田洼乡学习考察</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2013-12-05</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/79/14300.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['在开展 "学访改促" 主题实践活动中，浮图讲乡党委、政府通过学习身边先进的人，学习身边先进的事，不断深化 "学精神" 的载体和形式。12月3日，该乡组织乡党政领导班子成员和各村村书记、主任，共计33人，到大田洼乡学习考察。考察组先后参观考察了大田洼乡小长梁遗址保护，小田洼、东谷', '大田洼乡是一个不足6000人的小乡，过去交通不便，信息闭塞，群众过着节衣缩食的生活，是个贫穷落后的地方。与浮图讲乡相比，无论是自然禀赋，还是生产条件、产业基础都有差距，然而大田洼乡干部群众能够扎实推进遗址保护征地工作；高标准改造提升了农村面貌；饮水工程更是克服了极大的困难和挑战，迈出了坚实的步法；街道硬化一个村从大街到每个巷全部硬化；退耕还林管理在全乡更是屈指可数的先进乡镇。在这片古老的土地上，让党员干部看到了工作的方向、前进的动力。', '为了进一步查找全乡工作中的不足，在随后召开的学习研讨会上，与会人员讨论后一致认为，大田洼乡能有今天翻天覆地的变化，需要学习的地方很多，但最重要有三种精神值得全乡党员干部去学习和借鉴：一种是破解瓶颈的创业精神，另一种是艰苦奋斗的创新精神，再一种是夙夜在公的实干精神。', '乡党委号召全乡党员干部要认真学习大田洼乡这三种精神，依据各村的优势和特色，谋划好、实施好重点项目、产业结构调整、农村面貌提升、党建等工作，知难而进，乘势而为，变压力为动力，突出重点、培育亮点，坚决打一场漂亮的翻身仗。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>9</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>浮图讲乡组织党员干部赴大田洼乡学习考察</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2013-12-10</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/97/14390.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['在开展 "学访改促" 主题实践活动中，浮图讲乡党委、政府通过学习身边先进的人，学习身边先进的事，不断深化 "学精神" 的载体和形式。12月3日，该乡组织乡党政领导班子成员和各村村书记、主任，共计33人，到大田洼乡学习考察。考察组先后参观考察了大田洼乡小长梁遗址保护，小田洼、东谷坨', '大田洼乡是一个不足6000人的小乡，过去交通不便，信息闭塞，群众过着节衣缩食的生活，是个贫穷落后的地方。与浮图讲乡相比，无论是自然禀赋，还是生产条件、产业基础都有差距，然而大田洼乡干部群众能够扎实推进遗址保护征地工作；高标准改造提升了农村面貌；饮水工程更是克服了极大的困难和挑战，迈出了坚实的步法；街道硬化一个村从大街到每个巷全部硬化；退耕还林管理在全县更是屈指可数的先进乡镇。在这片古老神奇的土地上，让党员干部看到了工作的方向、前进的动力。', '为了进一步查找全乡工作中的不足，在随后召开的学习研讨会上，与会人员讨论一致认为，大田洼乡能有今天翻天覆地的变化，需要学习的地方很多，但最重要有三种精神值得全乡党员干部学习和借鉴：一种是破解瓶颈的创业精神，另一种是艰苦奋斗的创新精神，再一种是夙夜在公的实干精神。', '乡党委号召全乡党员干部要认真学习大田洼乡这三种精神，依据各村的优势和特色，谋划好、实施好重点项目、产业结构调整、农村面貌提升、党建等工作，知难而进，乘势而为，变压力为动力，突出重点、培育亮点，坚决打一场漂亮的翻身仗。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>9</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>怀安县教育系统一行人到蔚县第三中学考察观摩</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2013-12-10</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/22/29419.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['月20日，怀安县教育局局长王平率怀安教育局、教研室部分领导及该县中小学校长、骨干教师一行60余人，到蔚县城第三中学学习考察初中课改经验，蔚县教育局局长温桂泉、教研室主任张有德参加了交流活动。', '活动中，怀安县教育系统一行人深入课堂，听了县城三中语文、数学、英语、物理、政治的五科八节课，并与三中一线教师进行了分科教研交流。三中校领导介绍了该校的基本情况、教改历程、主要成绩，特别是仔细解读了具有三中特色的 "1263" 教学模式。怀安县教育局局长王平高度赞誉了县城三中先进的办学理念、高效的课堂教学模式和师生饱满的精神状态。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>9</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>我县组团赴察北重点企业考察学习</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2013-11-08</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/31/14697.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['月7日，政府副县长王思周组织县工信局、工商联主要领导及14家重点民营企业负责人，赴察北管理区学习考察企业发展规划制定、生产运营等方面的成功经验和做法。考察团一行先后深入现代牧业（察北）有限公司、蒙牛乳业（察北）有限公司、雪川农业发展有限公司等重点企业，听取企业负责人的情况介绍，深入生产车间进行现场参观，随后我县考察团和察北管理区相关领导进行了座谈交流。期间，王县长对我县民营企业发展提出四点要求：一是企业家外出考察学习，一定要避免现场热血澎湃、回家束手无策的现象，要真正放平心态，确保有感受、有收获；二是我县有基础产业、交通区位、人才资源三大比较优势，企业在今后发展中，一定要发挥好、利用好。三是企业在发展过程中，一定要克服小富即满的保守思想，把眼界放长远，善于走出一条借力借智、合作双赢的发展之路；四是要紧抓产业调整升级的契机，强化长宇、万矿、禾久等龙头企业的作用，积极组建集团联盟，合力把产业做大做强，争取尽快培育出几家本土上市企业。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>9</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>怀安县教育系统一行人到蔚县第三中学考察切磋初中课改经验</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2013-12-02</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/29187.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['11月20日，怀安县教育局局长王平率怀安教育局、教研室部分领导及该县中小学校长、骨干教师一行60余人，到蔚县城第三中学学习考察初中课改经验，蔚县教育局局长温桂泉、教研室主任张有德参加了交流活动。 活动中，怀安县教育系统一行人深入课堂，听了县城三中语文、数学、英语、物理、政治的五科八节课，并与三中一线教师进行了分科教研交流。三中校领导介绍了该校的基本情况、教改历程、主要成绩，特别是仔细解读了具有三中特色的 "1263" 教学模式。怀安县教育局局长王平高度赞誉了县城三中先进的办学理念、高效的课堂教学模式和师生饱满的精神状态。 蔚县教研室主任张有德主持教学活动交流会。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>9</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>万全县组团赴察北重点企业考察学习</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2013-11-08</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/14698.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['11月7日，政府副县长王思周组织县工信局、工商联主要领导及14家重点民营企业负责人，赴察北管理区学习考察企业发展规划制定、生产运营等方面的成功经验和做法。考察团一行先后深入现代牧业（察北）有限公司、蒙牛乳业（察北）有限公司、雪川农业发展有限公司等重点企业，听取企业负责人的情况介绍，深入生产车间进行现场参观，随后我县考察团和察北管理区相关领导进行了座谈交流。期间，王县长对我县民营企业发展提出四点要求：一是企业家外出考察学习，一定要避免现场热血澎湃、回家束手无策的现象，要真正放平心态，确保有感受、有收获；二是我县有基础产业、交通区位、人才资源三大比较优势，企业在今后发展中，一定要发挥好、利用好。三是企业在发展过程中，一定要克服小富即满的保守思想，把眼界放长远，善于走出一条借力借智、合作双赢的发展之路；四是要紧抓产业调整升级的契机，强化长宇、万矿、禾久等龙头企业的作用，积极组建集团联盟，合力把产业做大做强，争取尽快培育出几家本土上市企业。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>9</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>万全县高庙堡乡李虎庄村发展特色农业助民增收致富</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2013-10-30</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/14347.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['面对耕地均为旱地的自然情况，李虎庄村两委干部多方参观学习考察，从蔚县引进了5亩旱葱苗进行试验种植，目前，旱葱已收获上市，每亩', '李虎庄村采取 "党支部引导、党员干部领办、致富能人带头、群众自愿联合" 的方式，联合28户农民共同出资15万元，组建了广源种植专业合作社，逐步发展"企业+合作社+商标+农户"订单农业的经营模式，依靠合力帮助更多的农民走共同富裕的路子。', '三是商标引导推民富。村里注册了 "北方老李家" 商标，今后将对当地的旱葱、西瓜等农产品统一管理，']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>9</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>我县组团赴外地学习考察</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2013-11-19</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/72/28871.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['日，我县组团赴保定市、邢台市、邯郸市学习考察。县委书记燕旺林，县人大常委会主任于力，县政协主席孙智勇等县四大班子领导，以及有关部门、乡镇主要领导参加了学习考察活动。', '学习考察团一行先后深入到保定市徐水县大王店经济技术开发区，邢台市临城县古鲁营西村、内丘县候文孝村、小辛旺村、西张麻村，邯郸市永年县油村进行实地参观，了解和学习各地在农村面貌改造提升工作中的先进经验和做法。', '通过学习考察，县委书记燕旺林等县领导要求考察团全体人员要积极总结，认真梳理，对标定位，查找不足，借鉴外地先进经验和作法，找准工作思路，作到学以致用。要通过学习考察，制定出台适合本乡镇、本部门促进工作的有力措施，全力以赴推动我县农村面貌改造提升工作再上新台阶，让广大群众得到更多实惠，以优异的成绩向全县人民交一份满意的答卷。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>9</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>西城镇迎来怀来县学习考察团</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2013-09-30</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/79/12791.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['近日，西城镇桥良水村承接了就农村面貌改造工作前来参观学习的怀来县考察团。由怀来县委组织部干部、乡镇组织委员和村书记等80余人组成的考察团，在我县组织部、西城镇和桥良水村等人员的陪同下，先后考察了桥良水村两室建设、村庄建设、产业发展、休闲旅游等工作开展情况。', '活动期间，双方以座谈会、实地观摩等形式进行了面对面的交流。怀来县考察团成员怀着浓厚的兴趣一边参观、听取相关情况介绍，一边拍照、记录留存资料，并对桥良水村的农村面貌改造、特色旅游村建设给予高度评价。', '近年来，桥良水村立足邻近大觉寺·八龙山生态文化园区这一区位优势，通过原始风貌保护与现代开发相结合，重点打造成生态旅游度假村。规划总投资1亿元，分4年完成村庄整治、富民产业、文化旅游等建设。截止目前，已累计投入资金62万元，完善了便民服务室、医务室、农家书屋、互助养老院等便民服务平台；完成主街道硬化 700米，植树8000株，安装路灯20盏，新建主街道仿古墙 600米，落实危房改造39户。投资15万元对全村1300亩杏扁进行嫁接整修，通过管理改造，不断提到经济效益，有效增加农民收入。投资120万元，新建了文化健身广场、游泳池、农家特色餐厅等工程，并已投入使用。', '桥良水村在下步工作中，规划投资5000万元，新建占地200亩的山坡别墅区一处；引资1600万元，在村东南500米处建高标准旅游度假村一处；同时抓紧实施真武庙、远古溶洞、回音石等旅游项目开发，丰富旅游线路。力争通过4年的不懈努力，将桥梁水村建成集 "民俗体验、生态观光、旅游休闲" 为一体的特色旅游度假村。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>9</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>关于开展解放思想大讨论活动第二阶段的情况汇报</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2013-10-16</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/52/5365.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['按照 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动部署，我镇解放思想大讨论活动转入到第二阶段，通过到对标单位进行考察学习，结合我镇实际，查摆问题，分析原因，理清思路，明确措施，取得了阶段性成效。现将第二阶段开展情况汇报如下：', '在我镇深入开展解放思想大讨论活动转入第二阶段后，我镇随即召开了党委会议。会上，党委书记施振清同志对我镇第二阶段的工作提出了具体要求，要求不走形式，不搞花架子，不能有厌战情绪，要继续加大学习力度，扎扎实实地开展自查自纠，切实把我镇自身存在的问题找实、找准、改好。我们针对活动开展的不同阶段制定相应措施和方案，在第一阶段活动开展的基础上再接再厉，对第二阶段进行周密的安排部署，对每个环节进行细化，提出新的工作要求，确保了活动顺利进行。', '我镇确立了两个对标单位，近学白塔管理处，远对张北县馒头营乡。6月9日和6月10日，我镇组织机关干部和村干部共计15人到张北县馒头营乡和区白塔管理处进行考察学习。在考察期间，我镇结合实际，认真分析对比找差距，切实开展 "五比五查" 活动：比先进乡镇思想解放的程度，查自己思想观念上的差距；比先进乡镇体制上的创新，查自己工作体制、运行机制中存在的弊端；比先进乡镇优化发展环境的做法，查自己为单位、基层、群众服务方面存在的问题；比先进乡镇与时俱进、抢占先机、乘势快上的进取意识，查自己在责任感、压力感、危机感、使命感等方面存在的不足；比先进乡镇的自我加压、奋发有为、争创一流的精神状态和工作作风，查自己在事业心和工作目标、工作标准、工作举措、工作力度方面存在的欠缺。通过此项活动，大大提高了干部群众的政治素质和业务能力，镇解放思想大讨论领导小组办公室对查找出的问题进行分类归纳，认真梳理剖析根源。', '我镇对照标杆，实施了万高效节水农业示范工程。我镇结合实际情况综合运用工程、技术、管理等多种措施，', '实施农业节水改造工程，发展高效节水农业。成立了沙沟镇水利技术服务中心及沙沟村、苏家村、哈尔胡洞村、吉家村4个农民用水者协会，', '。园区覆盖水浇地面积12108亩，用以种植白菜、萝卜、马铃薯等高效农业经济作物，共配套机井63眼、变压器31台，安装智能检测设备71套，铺设地下管道24190米。配备以膜下滴灌、指针式圆盘喷灌节水设备为主和以半固定式喷灌、卷扬式喷灌为辅的水利浇灌设备。园区规划铺设了宽6米、长7.1公里砂石道路，道路两侧种植了北京杨2000株，种植了具有观赏性和经济性作物的葵花260亩、紫花苜蓿70亩、菜籽120亩。', '通过合理配置资源，引进新技术、新品种，建立农村经济合作组织，逐步形成节水示范、生态农业、观光农业为一体的 "大农业" 产业布局。', '我们加大招商引资力度，在土地资源利用和奶牛养殖小区建设方面 "做文章" 。通过商家集中连片开发土地资源，实现土地资源利用的最大化，集中连片种植高效农业经济作物，壮大村集体经济，实现农民向产业工人转移，提升农村品味。我们实现奶牛养殖进圈进舍，发展现代牧场的养殖模式，就必须通过吸引项目投资来实现。目前，张家村福星奶牛养殖场刚刚奠基。该项目可覆盖到小庙子村、脑包底村甚至是沽源县和康保县的几个村庄。养殖场占地180亩，拟投资2000万。一期工程投资1300万，今年竣工，实现奶牛存栏600头。二期工程明年竣工，实现奶牛存栏1200头，养殖场建成后奶户年增收292万元，户均增收1.93万元。苏家村总投资777万元的昌德奶牛养殖合作社也将完成二期工程，实现入舍奶牛千头的目标。我们通过帮助商家跑办牧场补贴、土地政策优惠等措施吸引和鼓励商家投资建场，逐步把全镇各村奶牛养殖发展成为奶牛养殖小区或者现代牧场，实现养殖结构转型，实现养殖产业的可持续发展。', '下一阶段工作中，我镇将继续认真按照区党工委的统一部署，进一步把大讨论活动向纵深推进。抓好大讨论活动成果的拓展延伸，总结经验，推广典型，最终实现提高干部队伍素质，服务人民群众，促进全镇经济建设又好又快发展的目标要求。', '按照区党工委关于开展"解放思想、改革开放、创新驱动、科学发展"活动的要求，我镇立足实际，瞄准先进地区和行业标兵，学习借鉴外地先进经验，对标定位，加快我镇经济建设步伐，紧紧围绕影响和制约我镇科学发展的突出问题，广泛征求党员群众的意见建议，制定跟进、赶超的具体措施。现就对标定位情况汇报如下：一、对标单位基本情况（一）"坝上节水示范之乡"张北县馒头营乡张北县馒头营...']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>9</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>洗马林镇三措并举严控三公经费</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2013-09-24</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/31/13914.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['为牢固树立艰苦奋斗、勤俭节约的优良作风，向 "三公"消费 亮剑，确保公务考察学习费用、公务用车经费、公务接待费等"三公"消费的支出原则上实现零增长，洗马林镇三措并举，切实降低行政成本。', '一是严控公务考察学习费用，实现零增长。外出学习考察实行审批管理、计划管理、经费管理、台账管理，严格执行请销假制度、事后报告制度，同时明确 "严禁借学习考察、出差、开会等名义用公款旅游" 等六条纪律， "凡未履行审批备案手续，私自公费外出学习考察的，一经发现，一律视为 "公款旅游" 等四种情形实施责任追究。', '二是公务用车统一调度，严格规范管理。镇车辆实行派车单制度，集中管理，统一调度，严禁公车私用，严禁酒后驾驶。公务车辆实行统一保险，定点加油、定点维修。不执行定点加油、定点维修的，费用不予报销。新车辆购置及车辆处置由镇党委扩大会议研究决定，按照相关规定处理。', '三是公务接待实行审批制，压缩支出费用。我镇统一确定各村、镇直各单位公务接待费用，严格控制接待范围和经费开支标准，做到 "三单合一" （公务接待审批单、原始菜单、正式发票一致），对违反 "三单合一" 规定的，不予报销。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>9</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>围绕经济抓党建抓好党建促发展</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2013-09-06</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/179/5190.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['围绕党员群众服务中心建设、农业产业发展、基础设施建设等新农村建设情况，在对比中寻找差距，在学习中寻求答案。', '相关领导关于近年来发展情况的介绍，借鉴了各村在支部建设、制度建设、基础设施建设方面的先进经验，主动对标找差距，全力定位争上进。', '通过这次学习考察，不仅增进了我区和康保县之间的交流，同时也为双方今后在业务发展和理念创新上提供了互相学习、互通有无的平台，为进一步加强基层组织建设奠定了良好基础。', '中国的造字总是很有意思，或从世间万物中象形而来，或用实物寓意而生，一笔一划，皆有深意。比如"廉"字，上广下兼，原指厅堂的侧边，喻棱角分明，品行端方，而在古字中，"广"字又往往意指房屋，广字旁的字往往与房屋有关，在中国人的观念中，"廉"，与家密不可分。到底家庭在廉政中有着多大的影响？元朝宰相张养浩说过一句话："居官所以不能清白者，...']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>9</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>万全县洗马林镇三措并举严控三公经费</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2013-09-25</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/13921.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['为牢固树立艰苦奋斗、勤俭节约的优良作风，向 "三公消费" 亮剑，确保公务考察学习费用、公务用车经费、公务接待费等 "三公消费" 的支出原则上实现零增长，洗马林镇三措并举，切实降低行政成本。', '一是严控公务考察学习费用，实现零增长。外出学习考察实行审批管理、计划管理、经费管理、台帐管理，严格执行请销假制度、事后报告制度，同时明确 "严禁借学习考察、出差、开会等名义用公款旅游" 等六条纪律， "凡未履行审批备案手续，私自公费外出学习考察的，一经发现，一律视为 "公款旅游" 等四种情形实施责任追究。', '二是公务用车统一调度，严格规范管理。镇车辆实行派车单制度，集中管理，统一调度，严禁公车私用，严禁酒后驾驶。公务车辆实行统一保险，定点加油、定点维修。不执行定点加油、定点维修的，费用不予报销。新车辆购置及车辆处置由镇党委扩大会议研究决定，按照相关规定处理。', '三是公务接待实行审批制，压缩支出费用。我镇统一确定各村、镇直各单位公务接待费用，严格控制接待范围和经费开支标准，做到 "三单合一" （公务接待审批单、原始菜单、正式发票一致），对违反 "三单合一" 规定的，不予报销。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>9</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>高庙堡乡增强六种意识培养过硬作风</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2013-07-01</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/31/12687.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['高庙堡乡通过开展 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动，使全体干部职工', '要进一步增强 "六种意识" ：一是进一步增强加快发展的责任意识。全乡干部紧紧围绕推进我县四大主导产业发展的中心任务，抢抓扶贫攻坚机遇，以发展设施农业为切入点，今年规划在黑石堰村新建春秋蔬菜大棚58个和肉猪繁育项目基地一处。现已流转土地70亩，建成了41个长60米、宽8.8米的大棚框架。同时铺设防渗水管1460米和输电线600米，新修东西两条3米宽，长508米的道路。二是进一步增强真抓实干的务实意识。重实际、说实话、办实事、求实效。对定下来的事情，就要从领导同志带头做起，抓具体、具体抓，一抓到底，直至抓出成效。', '对包村干部实行定期入村、按时汇报的管理要求，要真正深入所包村，同村干部、村民代表座谈，认真了解村情民意，做好入村工作日记。要求', '下排干部每月驻村时间不少于3天。三是进一步增强有令必行、有禁必止的纪律意识。要认真执行集体领导和分工负责制，对于分管的工作敢于负责，敢于碰硬，真正把该管的管起来，把该抓的抓起来。对自己解决不了的问题，该请示的请示，该汇报的汇报。要严格遵守组织纪律，切实做到有令则行，有禁则止，努力在全乡上下形成齐心协力抓发展的良好局面。四是进一步增强勤政为民的服务意识。注重为群众办实事、解难题、送温暖，近日，结合我乡实际，乡政府设立了便民服务大厅，大厅共设置了4个服务窗口，包括民政优抚、社会保障、退耕还林补贴发放、农经服务等服务项目。群众来办事，提供 "一站式" 优质服务。始终做到权为民所用、情为民所系、利为民所谋，以实实在在的工作取信于民。五是进一步增强高效快捷的效率意识。要全面推进工作提速，简化办事程序，提高办事效率，真正为加快发展提供优质高效快捷的服务。领导班子成员要充分发挥表率作用，对下级和基层请示的问题，能当场答复、解决的要当场答复、解决；不能当场答复解决的，要立即进行协调沟通，一定时间内必须给予明确答复。既不能越权越位行事，也不能延时误事，确保事事有着落，件件有回音。六是进一步增强与时俱进的开拓意识。要坚持发展是硬道理，紧跟时代和形势发展变化的要求，坚持不懈地解放思想，更新观念。要善于学习借鉴', '学习和借鉴先进地区农村建设的好经验、好做法，高庙堡乡多次组织村书记、主任及包村干部等有关人员赴张北学习考察。实地学习农村建设的创新实践和成功经验。', '努力做到发展有新思路，改革有新突破，开放有新局面，各项工作有新举措。 （高庙堡乡）']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>9</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>万全县高庙堡乡打响农村面貌改造提升工作开局战役</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2013-07-01</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/12705.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['一是组织乡领导干部和村书记、主任观看全省实施农村面貌改造提升推进大会，要求各部门务必认真学习领会大会精神。二是召开我乡农村面貌改造提升工作会议并成立领导小组，结合我乡实际情况，明确具体的工作目标，制定详细的工作方案。要求各村要明确具体要求、任务标准，合理有效利用资源，避免资金浪费和重复投资，同时结合自身特点，借鉴典型经验做法，由主管领导牵头负责抓好各项工作。三是组织考察组实地学习考察，6月19日，乡党委组织重点改造村书记、主任及包村干部等有关人员赴张北油篓沟乡喜顺沟村、玻璃彩村等地学习创新实践和成功经验。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>9</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>县卫生局率团赴栾城迁安丰宁学习考察</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2013-07-02</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/31/12722.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['近日，在全县上下深入开展 "解放思想、改革开放、创新驱动、科学发展" 大讨论之际，县卫生局局长张秀萍率系统内各单位主要负责人到石家庄市栾城县、唐山市迁安市（县级市）、承德市丰宁县学习考察，并就公立医院综合改革、标准化村卫生室建设以及卫生信息化建设等工作进行对标学习。', '期间，我县考察团先后聆听了三地卫生局的情况介绍，每到一处，考察团成员都认真观摩，详细询问，深入了解，倾心体会，共实地考察了县级医疗机构2所、乡镇卫生院4所、村卫生室3所，并分别与当地卫生工作人员进行了详细座谈。在迁安市，该市卫生局长胡春刚全程陪同参观、察看，随时讲解介绍，使我考察团同志深刻感受到迁安卫生系统同仁的真诚与热情，对该市卫生规模建设之大和基础设施之健全深表惊撼。在栾城县，考察团仔细聆听了该县县医院公立医院综合改革经验，认真观看了冶河中心卫生院的卫生信息化演示。在丰宁考察村卫生室一体化管理中，考察团实地参观了撒二营村卫生所，认真聆听经验介绍，详细询问做法，大家感触颇深，受益匪浅，这对今后做好我县村卫生室一体化管理工作提供了有益借鉴。大家表示，通过本次学习，拓宽了视野，学习到了先进的知识理念，为今后的工作明确了方向，增强了信心，鼓舞了干劲。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>9</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>万全县人口计生局解放思想大讨论突出实效</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2013-07-04</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/12778.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['连日来，县人口计生局采取多种形式，全面开展 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动，重点破解人口计生发展十个难题，增强创新发展动力，推动各项工作再上新台阶，再创新成绩。', '按照 "解放思想大讨论活动" 的实施方案，该局及时组织集中学习，准确分析当前形势，以解决当前影响和制约人口计生事业发展的突出问题为突破口，深入开展专题研讨活动，研究确立如何提高孕前优生健康检查的目标人群受检率、覆盖率；如何改进季服务，有效提高服务效率水平；如何方便群众办证、简化程序；如何提高计生系统政风行风水平及群众对计生工作的满意率；如何实现流动人口计划生育均等化服务等十项课题，通过基层调研、开展座谈、外出学习考察等形式，研究探讨破解发展的新思路、新举措，形成了全员参与、攻坚克难、干事创业的良好局面。', '，以解决当前影响和制约人口计生事业发展的突出问题为突破口，深入开展专题研讨活动，研究确立', '如何提高孕前优生健康检查的目标人群受检率、覆盖率；如何改进季服务，有效提高服务效率水平；如何方便群众办证、简化程序；如何提高计生系统政风行风水平及群众对计生工作的满意率；如何实现流动人口计划生育均等化服务等十项课题，通过基层调研、开展座谈、外出学习考察等形式，研究探讨破解发展的新思路、新举措，形成了全员参与、攻坚克难、干事创业的良好局面。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>9</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>孔家庄街道办事处以四式法推动大讨论活动纵深发展</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2013-06-25</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/31/12614.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['自 "解放思想、改革开放、驱动创新、科学发展" 大讨论活动开展以来，孔家庄街道办事处深入贯彻省委八届五次全委会议精神和上级关于大讨论活动文件精神，以 "思想的再解放、作风的再转变、管理的再提升、潜力的再挖掘" 为口号，结合自身实际，以 "主动学、请进来、走出去、沉下去" 四种方式方法，破除广大干部员工的思想藩篱和思维定势，开阔赶超发展思路，大力推进大讨论活动向纵深发展，加快街道经济社会发展步伐。', '省委八届五次全委会议精神和上级关于大讨论活动文件精神，以 "思想的再解放、作风的再转变、管理的再提升、潜力的再挖掘" 为口号，结合自身实际，以 "主动学、请进来、走出去、沉下去" 四种方式方法，破除广大干部员工的思想藩篱和思维定势，开阔赶超发展思路，大力推进大讨论活动向纵深发展，加快街道经济社会发展步伐。', '街道将每周五定为集中学习日，以 "大讨论活动内容，党的十八大精神及其他政治理论、方针政策为学习内容，由街道副科级领导干部进行授课，进行系统学习，通过学习，明显提高了干部队伍的理论素养和整体素质，同时也为大讨论活动奠定了理论基础。', '街道邀请县委党校副校长闫凯同志进行 "解放思想、改革开放、驱动创新、科学发展" 大讨论活动专题宣讲报告，报告内容生动精彩，主题鲜明，思路清晰，既有理论深度、宽广视野，又有很强的针对性、指导性和感染力。通过举办宣讲会，使街区干部职工启发了思维，开阔了视野，使大家更清楚的了解为什么要解放思想、怎样解放思想，使大家更加坚定了开展大讨论活动的必要性，进一步增强了忧患意识、危机意识、责任意识和大局意识。宣讲会掀起了街道新一轮 "解放思想、改革开放、创新驱动、科学发展" 大讨论热潮。', '报告内容生动精彩，主题鲜明，思路清晰，既有理论深度、宽广视野，又有很强的针对性、指导性和感染力。通过举办宣讲会，使街区干部职工启发了思维，开阔了视野，使大家更清楚的了解为什么要解放思想、怎样解放思想，使大家更加坚定了开展大讨论活动的必要性，进一步增强了忧患意识、危机意识、责任意识和大局意识。宣讲会掀起了街道新一轮 "解放思想、改革开放、创新驱动、科学发展" 大讨论热潮。', '为将 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动进一步推向深入，破解影响和制约街区科学发展过程中存在的突出问题，孔家庄街道办事处由县委组织部门牵头，街区机关干部共计20余人组成的学习考察团，分别于5月30日、31日,6月9日赴外地就街区建设中的先进经验和做法进行了学习考察。重点考察内容为社区办公服务用房建设、社区工作经费来源、集体经济创收渠道、工作运行机制、特色服务、共驻共建、党的建设、创新社会管理、为民服务网络建设（志愿者服务）。考察团先后参观了廊坊市广阳区爱民东道街道办事处及所属的馨境界社区、石家庄市桥东区阜康街道办事处、石家庄市桃源镇庄窠社区等13个学习点，通过参观考察，使我们更深刻的明白了自身的差距和不足，进一步拓宽了发展思路，明确了发展方向，增强了对我街区如何加快发展的认识。', '街区党员干部将大讨论活动对标定位行动与为群众办实事、办好事相结合，深入社区走访调研，了解群众心声，广泛征求群众意见建议，梳理汇总意见建议153条，为困难群众解决各类实际问题63件。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>9</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>塞北东大门管理处结合大讨论活动对标定位外出学习考察报告</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2013-06-27</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/116/11582.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['张家口市塞北管理区管理委员会 - 塞北东大门管理处结合“大讨论”活动对标定位外出学习考察报告', '为了借鉴其他县区经济发展的成功经验，进一步解放思想，改革开放、创新驱动、科学发展，拓宽思路，扩大开放，加快发展交流与合作，促进我管理处经济社会持续、协调、快速、健康发展，使管理处的经济步入发展的快车道。', '学习过程中首先听取了黄盖淖镇党委书记郭富对该镇基本情况介绍及新农村建设、城镇建设规划、禁牧等方面工作先进经验。随后郭书记为我们做向导先后参观了该镇的特色家猪、家鸽养殖业基地和口蘑种植业基地。', '考察团成员与当地干部职工广泛接触，边看边学，边听边问，边议边思，从比较中看差距，从经验中受启迪，从思考中谋发展。感受到由于思想观念、发展思路、政策运用、机制创新、地域等方面的差异，使经济发展水平有了如此巨大的差距；普遍感到此次考察学习，解放了思想，开阔了眼界，启发了思路，收获非常大。看外面，比自己，我们深感差距大，震动大，压力大，所有考察组成员纷纷表示要增强加快经济发展的紧迫感和责任感，要冷静地分析在经济社会事业尤其是在基础设施建设，经济发展思路上与', '的先进经验，进一步解放思想，更新观念，结合实际，理清思路，把握重点，真抓实干，推动经济发展更快更好的发展，为我管理处的经济和各项社会事业的全面发展作出更新更大的贡献。', '从规模建设到发展前景，从技术管理到投资收益，让我们感触颇多，尤其是口蘑种植业，从土壤、水源、温度、投资额度等方面分析，这项特色种植业完全可以"移花接木"到我管理处，用这本"真经"拓宽老百姓致富快富的路子。', '的差距。通过此次学习考察，我们要学习的发展眼光、战略思维和高标准定位，学习加快发展的强烈机遇意识，学习']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>9</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>高庙堡乡打响农村面貌改造提升工作开局战役</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2013-07-01</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/31/12688.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['一是组织乡领导干部和村书记、主任观看全省实施农村面貌改造提升推进大会，要求各部门务必认真学习领会大会精神。二是召开我乡农村面貌改造提升工作会议并成立领导小组，结合我乡实际情况，明确具体的工作目标，制定详细的工作方案。要求各村要明确具体要求、任务标准，合理有效利用资源，避免资金浪费和重复投资，同时结合自身特点，借鉴典型经验做法，由主管领导牵头负责抓好各项工作。三是组织考察组实地学习考察，6月19日，乡党委组织重点改造村书记、主任及包村干部等有关人员赴张北油篓沟乡喜顺沟村、玻璃彩村等地学习创新实践和成功经验。(高庙堡乡)', '农村面貌改造提升工作会议并成立领导小组，结合我乡实际情况，明确具体的工作目标，制定详细的工作方案。要求各村要明确具体要求、任务标准，合理有效利用资源，避免资金浪费和重复投资，同时结合自身特点，借鉴典型经验做法，由主管领导牵头负责抓好各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>9</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>塞北管理区林业水务局解放思想改革开放创新驱动科学发展大讨论活动对标考察心得体会</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2013-06-20</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/11/11457.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['张家口市塞北管理区管理委员会 - 塞北管理区林业水务局“解放思想、改革开放、创新驱动、科学发展”大讨论活动对标考察心得体会', '塞北管理区林业水务局“解放思想、改革开放、创新驱动、科学发展”大讨论活动对标考察心得体会', '为了深入贯彻落实党的十八大和省委八届五次全会精神，按照区《中共张家口市委塞北管理区工作委员会关于在全区开展解放思想、改革开放、创新驱动、科学发展大讨论活动的实施方案》的要求，', '人赴张北县水务局、察北管理区水务局等地进行了对标学习考察。考察期间，通过实地观摩、相互交流等多种学习方式，解放了思想，提升了能力，增长了见识，增强了信心，为进一步推进我局水利工作', '佳圣农业庙滩科技园区位于张北镇庙滩行政村，由张北县佳圣农作物种植有限公司建设，园区计划总投资', '平米，分会展、现代化种植、育种三个功能区；示范区分燕麦、土豆、甜菜、胡亚麻及特征蔬菜五大功能区进行繁殖示范。', '目前，该科技园区已经被确定为市级蔬菜标准园，建成后将充分发挥核心区的科技引领作用，利用区位和资源特色，引进适合当地气候的特种蔬菜，强化甜菜、土豆、燕麦和油籽的资源优势，辐射带动近', '考察中既看张北县、察北管理区高效节水示范基地信息化管理平台、节水设施、自动气象站、灌溉预报系统、水利技术服务站、农田道路、道路绿化、项目停车场；张北县佳圣农业科技园无土栽培技术、管道式栽培技术、墙体式栽培技术、立体管道栽培技术；既听考察地介绍经验、谈体会，也由我们提出问题共同探讨。总之考察形式多样、气氛活跃，使大家视野开阔，认识升华，方向明确，信心增强，必将对我区水利今后工作起到非常重要的指导和促进作用。', '高效节水示范基地信息化管理平台、节水设施、自动气象站、灌溉预报系统、水利技术服务站、农田道路、道路绿化、项目停车场；', '既听考察地介绍经验、谈体会，也由我们提出问题共同探讨。总之考察形式多样、气氛活跃，使大家视野开阔，认识升华，方向明确，信心增强，必将对我区水利今后工作起到非常重要的指导和促进作用。', '在农业示范区建设上，都是高起点、高站位、高科技、引领一方的项目，投入多、规模大、示范带动作用明显，品牌效应突出，形成了 "企业带动农民增收，农民为企业扩大效益" 的良性循环。相比而言，我区的农业示范区建设处于起步阶段，尤其是缺乏农业龙头项目，以至还有许多工作需要加强。', '一要学习他们先进的用水理念、严格的水资源管理考核激励机制、科学合理的水权分配。二要学习先进县区解放思想、敢想敢干的创新精神。三要学习先进市县立足资源，放大优势的发展定位。', '总之，通过学习考察，对标先进单位，学习借鉴经验，把思想触动变为推动工作的具体行动，结合我局实际，因地制宜，努力蹚出一条水利事业科学发展、跨越赶超的新路。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>9</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>阳原县工商局赴延庆工商局学习考察</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2013-06-18</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/79/11413.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['近日，阳原县工商局一行10人在纪检组长何富强带领下，到北京延庆工商局考察学习。这是落实县解放思想大讨论活动安排部署，开展外出考察对标学习的一次具体行动。', '考察组首先认真听取了延庆工商局副局长李建的总体工作情况和经验介绍，同时听取了副局长卢宏德、注册科长吴艳梅、食品科长郭德、企监科长张文杰相关工作经验介绍。其次参观了该局登记注册大厅、食品检测大厅和调度指挥中心，并观看了电子商务网络监控现场演示。考察组进一步了解了延庆工商先进监管理念和执法方式，学习到更多服务举措。考察结束后座谈会上，大家畅所欲言，表示要将学到的先进经验应用到具体工作中，为开创阳原工商工作新局面作出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>9</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>蔚县民政局对标张家口市桥西区地名公共服务工程建设</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2013-06-18</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.zjkyx.gov.cn/single/30/24077.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['近日，县民政局党委副书记陈绍勇带队参观学习了张家口市桥西区地名管理工作，重点参观学习了地名规划、地名标志牌设置、led地名标志牌、规范的地名审批程序及手续、数字地名的应用等地名公共服务工程项目。 通过学习考察，县民政局认为应积极争取政府支持，尽快建立健全我县地名管理制度，进一步规范地名管理工作，建立起我县数字地名应用工程。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>9</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>解放思想改革开放创新驱动科学发展对标实施方案</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2013-06-21</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/179/4846.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['张家口市察北管理区管理委员会 - “解放思想、改革开放、创新驱动、科学发展”对标实施方案', '区党工委、管委会组织开展的 "解放思想、改革开放、创新驱动、科学发展" 活动是一项提升发展实力、凝聚发展合力，推动全区经济实现跨越式发展的重大举措，同时也是进一步优化交通环境，更好地服务经济建设的战略决策。为全面开展好此项活动，并取得预期效果，结合我局工作实际，特制定以下实施方案。', '坚持以科学发展观为指导，以实现全区交通事业超前发展为目标，通过与交通系统先进单位开展 "对标" 活动，学习掌握先进单位实现快速发展的指导思想和思维方式，学习掌握先进单位的发展思路与措施，学习掌握先进单位的建设经验和管理模式。在学习中认真对照先进经验查找自身不足，制定整改方案，真正做到取人之长、补己之短。加速推进全区交通事业与发达县、区对接，使全区交通事业产生一个大的飞跃，真正实现又好又快发展。', '遵照基本情况相近、可比、能学的原则，我局在全省交通系统内进行了认真细致地调查摸底，全面筛选，通过调查走访、咨询主管部门和网上搜索查询等方式，并经过反复对比，最后确定：张家口市张北县交通运输局作为我局对标单位。', '河北省张北县以其壮美的自然风光、悠久的历史文化、独特的资源优势、良好的投资环境，展示出广阔的发展前景。张北县地处河北省西北部，内蒙古高原南缘的坝上地区，是离京津地区最近的高原地区，夏天气候凉爽是避暑胜地，总面积', '个自然村。与我区相比人口较多、面积较大、有区位优势，同属平原地区，但发展交通的基础条件比较接近，其交通发展经验具有可借鉴和可操作性。近年来，该县依托张石高速以及', '国道、省道张化线、张尚线交通优势，抢抓发展机遇，占领交通建设制高点，使全县交通事业实现了跨越式发展。截止目前，全县公路通车总里程达到', '公里。通过实地考察、学习，该县交通运输局在加快交通建设步伐，全方位服务经济建设方面的主要经验和做法，可归纳为以下六个方面。', '该县交通运输局在局长常秀平带领下，局领导一班人解放思想、改革创新，坚定不移地贯彻落实科学发展观，大力破除因循导旧观念和计划经济体制的束缚，树立了靠改革找出路，以创新求发展的工作理念，通过一系列的调查研究、论证，确定了全县交通工作改革创新思路。该县交通运输局在交通发展中始终把握了改革创新这条主线，不断推出创新举措，使全县交通工作保持了先进性和前瞻性。', '该县交通运输局充分利用张石高速路的自然优势和坝头路建设的契机，争抢交通建设项目，大力推进高速连接线建设和省道改建工程，以及农村公路建设工程，赢得了交通发展的空间和时机，交通大项目源源不断地落户该县。由于该县正确把握住了交通发展机遇，使得该县交通事业发展越来越快，交通事业越做越大，越做越强，国、省干线达到', '该县局交通各项基础管理工作严格按照科学化、规范化的目标要求，脚踏实地抓落实。运输市场大力开展集中整治活动，规范经营行为，市场秩序井然有序，实现了健康快速发展。安全生产方面，建立例会制度，完善安检机制，健全应急预案，定期采取查纠措施，实现了安全生产、文明生产。', '围绕增强干部职工队伍整体素质的目标，该局下大力量抓政治、业务素质的提高，抓政治理论学习培训，强化党的思想建设和组织建设，思想水平和道德水平显著提高。大力开展技术培训和技术练兵活动，打造了一批技术尖子和业务骨干，为工作上档次，管理上水平奠定了基础。干部职工队伍整体素质的大幅度提高，增强了凝聚力和战斗力，为各项工作目标任务的完成增加了无穷的动力，成为创建一流队伍、打造一流业绩的关键性措施。', '要认真对照张北县交通运输局的先进工作经验，客观地总结回顾我局的各项工作，坚持高起点、高站位，认认真真地开展学习活动，真正把 "张北经验" 学到手，实现自我超越、赶超先进。', '（一）深入开展学习 "张北经验" 的宣传动员活动。要大力宣传张北交通快速发展的先进经验，正确分析和认识我们自身优势和潜力，加油鼓劲，赶超张北。', '（二）组织开展对口学习、考察活动。组织各站、室、队领导到张北交通运输局进行对口学习考察，真正学到先进经验，弥补我们的不足，实现创新与提高。', '（三）对照先进找差距、查根源。通过对口学习考察、对照反思，要真正找到自身存在的差距，尤其是在指导思想、创新意识、工作理念方面存在的问题和差距，一定要找准、找透、找全，形成系统的对照自查报告，要发动干部职工对自查报告进行修改补充，以便使自查报告更加贴近实际。', '（四）认真制定赶超方案。在自查的基础上，要根据存在的差距和问题有针对性地制定整改方案和措施，整改标准必须坚持高起点、高站位，应该定位在标杆单位之上，充分显示赶超先进的目标和信心，激励干部职工自我加压、奋起直追，真正达到赶超升位的目标。整改方案一定要明确责任部门、责任人、完成时限和具体措施，以便于明确目标责任促落实，确保整改目标的全面实现。', '（五）加大力度、狠抓落实。要按照赶超方案层层抓落实，按阶段目标任务进行工作调度，及时解决实施过程中存在的困难和问题，确保目标方案顺利实施。要加强工作督查、指导，搞好经验交流，真正起到互相促进、共同提高的作用。', '通过开展与张北县交通运输局对标活动，真正学到张北县交通运输局加快交通发展的成功经验，不断丰富我局的工作思路，开阔我局的视野，激发调动我局开拓创新、争创一流的决心和勇气，使我局整体工作再上一个大台阶，再创交通工作新辉煌，为全区经济实现跨越式发展做出重要贡献。', '根据管理区安排要求，开展"解放思想、改革开放、创新驱动、科学发展"活动以来，我局紧密结合交通工作实际，全面安排部署，精心组织实施，迅速在全局掀起开展"解放思想、改革开放、创新驱动、科学发展"活动热潮。现将我单位开展此项活动第一阶段工作小结如下。一、开展"解放思想、改革开放、创新驱动、科学发展"活动是当前及今后我们交通系统进一步解放思想，学...']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>9</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>塞北工商局赴沽源县工商局学习考察</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2013-07-24</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/116/11947.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['工商局的总体工作情况和经验介绍，同时听取了注册、食品、企监等相关工作经验介绍，参观了该局登记注册大厅、食品检测大厅和调度指挥中心，并观看了电子商务网络监控现场演示。考察组进一步了解了', '工商先进监管理念和执法方式，学习到更多服务举措。考察结束后大家表示要将学到的先进经验应用到具体工作中，为开创']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>9</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>桥良水村迎来怀来县学习考察团</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2013-09-02</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/97/12470.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['月29日，西城镇桥良水村承接了就农村面貌改造工作前来参观学习的怀来县考察团。由怀来县委组织部干部、乡镇组织委员和村书记等80余人组成的考察团，在我县组织部、西城镇和桥良水村等人员的陪同下，先后考察了桥良水村两室建设、村庄建设、产业发展、休闲旅游等工作开展情况。', '活动期间，双方以座谈会、实地观摩等形式进行了面对面的交流。怀来县考察团成员怀着浓厚的兴趣一边参观、听取相关情况介绍，一边拍照、记录留存资料，并对桥良水村的农村面貌改造、特色旅游村建设给予高度评价。', '近年来，桥良水村立足邻近大觉寺·八龙山生态文化园区这一区位优势，通过原始风貌保护与现代开发相结合，重点打造成生态旅游度假村。规划总投资1亿元，分4年完成村庄整治、富民产业、文化旅游等建设。截至目前，已累计投入资金62万元，完善了便民服务室、医务室、农家书屋、互助养老院等便民服务平台；完成主街道硬化700米，植树8000株，安装路灯20盏，新建主街道仿古墙600米，落实危房改造39户。投资15万元对全村1300亩杏扁进行嫁接整修，通过管理改造，不断提到经济效益，有效增加农民收入。投资120万元，新建了文化健身广场、游泳池、农家特色餐厅等工程，并已投入使用。', '桥良水村在下步工作中，规划投资5000万元，新建占地200亩的山坡别墅区一处；引资1600万元，在村东南500米处建高标准旅游度假村一处；同时抓紧实施真武庙、远古溶洞、回音石等旅游项目开发，丰富旅游线路。力争通过4年的不懈努力，将桥梁水村建成集 "民俗体验、生态观光、旅游休闲" 为一体的特色旅游度假村。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>9</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>万全县宣平堡乡组织村支部书记考察学习推动全乡农村面貌改造提升工作</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2013-08-12</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/13440.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['万全县宣平堡乡组织村支部书记考察学习推动全乡农村面貌改造提升工作 - 张家口市万全区人民政府', '为提高村支部书记的思想觉悟、开拓思路，更好的开展农村面貌改造提升活动，8月8日，宣平堡乡组织6个重点提升村村支部书记前往我县新农村建设优势村学习考察。', '各村整齐一致的房屋、宽阔整洁的硬化道路、内涵丰富生动的文化墙、道路两旁绿树鲜花交相辉映、节能减耗的太阳能热水器和路灯、宽敞明亮的村委会服务厅等无不感染着每一位参观者。通过参观学习和当地干部交流讨论经验，各村支部书记不仅仅是视觉上的感观，而是在治村理念和管理模式方面有了转变和创新。', '通过本次活动，即提高了党员干部的思想觉悟、开阔了眼界，同时也从实际的新农村工作中学习到了经验。本次活动完成后，宣平堡乡及时召开了学习讨论会结合我乡实际工作谈思路、谈经验、谈方法，促进了学习考察成果向实际工作进行转化。', '村支部书记们纷纷表示将以此次学习考察为契机，转变思想理念，开拓创新，争取保质保量的完成好农村面貌改造提升工作。为全面提升我乡的新农村建设水平做出不懈努力。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>9</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>阳原县工商局赴延庆工商局学习考察</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2013-08-05</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/97/12148.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['，阳原县工商局一行10人在纪检组长何富强带领下，到北京延庆工商局考察学习。这是落实县解放思想大讨论活动安排部署，开展外出考察对标学习的一次具体行动。', '考察组首先认真听取了延庆工商局副局长李建的总体工作情况和经验介绍，同时听取了副局长卢宏德、注册科长吴艳梅、食品科长郭德、企监科长张文杰相关工作经验介绍。其次参观了该局登记注册大厅、食品检测大厅和调度指挥中心，并观看了电子商务网络监控现场演示。考察组进一步了解了延庆工商先进监管理念和执法方式，学习到更多服务举措。考察结束后座谈会上，大家畅所欲言，表示要将学到的先进经验应用到具体工作中，为开创阳原工商工作新局面作出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>9</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>年工作总结和下半年工作谋划</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2013-07-12</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.zjkyy.gov.cn/single/97/11756.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['今年以来，在县委、县政府的正确领导下，我们以党的十八大精神为指导，认真贯彻落实县委十届三次全会精神暨全县经济工作会，按照县委、县政府提出的抓好 "三件大事" ，突出 "七项重点工作" 的总体要求，深入开展 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动，抓项目、保稳定、促发展，各项工作取得了较好成绩，现将上半年工作总结如下：', '加强调度，召开相关部门参加的规上工业企业调度会，现场协调企业上报数据与相关部门政策存在的问题。二是积极帮助企业科学管理、深挖潜能、加大技改投入、创新产品、拓宽销路，以加大生产任务，增加销售收入。三是建立工业经济运行月跟踪制度，每月定期深入企业，了解生产经营情况，及时准确掌握企业生产运行情况，并分析上报县有关领导，解决企业生产过程中的问题。四是认真贯彻落实《阳原县扶持发展 "三上企业" 暂行办法》、《张家口市支持工业经济提升发展奖励办法》、《河北省人民政府办公厅关于实行加快培育规模以上工业企业十项措施的通知》等文件精神，以及省、市、县支持工业发展的财政资金优先用于支持规模以上企业发展的政策文件。五是对拟入统企业进行跟踪服务，对其生产情况进行监测，适时进行分析。', '要家庄乡基本完成了道路工程征地工作，总体规划中的道路系统建设修改完毕，总体规划正在聘请专家评审。县政府正在积极协调解决道路建设资金。二是机械加工企业搬迁项目，已组织3家机械加工企业到园区考察，天津企业考察后一直保持联系，并将我县招商引资优惠办法转发给该企业，目前企业正在调研论证。县内的弘福工矿和弘阳机械厂两户企业正在进行论证、研究。与此同时，我们积极谋划建设占地200亩的机械加工创业辅导基地，建设标准化厂房10套，拟引进或出租给无能力建设厂房的小机加工企业。三是达鑫陶瓷隧道窑节能技改项目二期工程，车间主体厂房已建成，原料场地已完成硬化，成型车间正在进行窑炉安装，大部分设备已经订购，部分设备已进厂，三期工程已破土动工，到目前完成投资8000多万元。', '飞龙家具有限公司木器综合加工基地建设二期工程，现已投入1200万元建成标准化车间2个12000平方米，新上套房家具生产线1条，其他2个车间，生产线正在建设当中。二是佳蕾陶业有限公司二期工程纳米高岭土项目，车间主体已完工，正在安装设备，已具备天然气通气条件，有望年内投入生产，并', '服务企业是工信局的基本职能。为此，我们始终把指导、服务和帮扶企业作为局的基础工作，常抓不懈。', '今年，我们继续深入企业搞好对标活动，一是积极跑办市对标办，推荐弘阳机械厂为我县市直 "一对一" 帮扶企业，针对该厂机械加工业务，与中煤张家口煤矿机械有限公司成功对接，在业务、技术、人才等方面对该厂予以帮扶。二是深入推进 "大讨论" 活动，5月份我局组织要家庄乡、规划局等主要领导带领弘阳机械等企业负责人赴万全、怀仁进行对标学习，市西山产业集聚区和万全县发展机械加工的建设经验，怀仁陶瓷产业园区的建设经验，对我县产业集聚区的建设极具借鉴意义。三是把', '达鑫陶瓷公司和飞龙家具公司作为县内标杆企业，积极引导企业学习，并通过交流达到相互学习，达到共同提高的目的。', '按照省市文件精神，我们已为4户企业申报国家和省级扶持资金。为阳原国际裘皮城申报河北省中小企业发展专项资金创业辅导基地类专项资金，为三义庄矿业有限公司和燎原新型建材有限责任公司申报国家中小企业发展专项资金项目，为弘阳机械厂申报河北省中小企业发展专项资金项目,拟争取扶持资金200万元。二是召开', '"银、企、政" 对接会，在以往银企联系会的基础上，增大政府引导协调力度，成功为企业融资1.47亿元；同时还筛选了13户中小企业推荐给各家银行，并成功建立银企联系。三是加强培训，组织10多户企业分别参加市政府举办的推动金融创新、服务企业发展专题讲座和市中小企业协会组织的企业管理知识专题讲座，不断提高企业从业人员素质。', '我们认真学习贯彻落实近期省、市、县有关安全生产的文件精神，并就下发的有关安全生产大检查、百日安全生产隐患排查整治行动和防汛等工作进行了安排部署，与各企业签订了责任状，并就安全生产大检查工作进行了宣讲。为确保系统安全生产和安全度汛，制定了安全生产大检查工作方案和安全防汛工作方案，成立了3个安全生产工作检查工作组，深入企业进行安全生产，为企业安全生产保驾护航，发现隐患，提出整改意见，督促企业限期整改，形成常态，以生产的安全，促进企业的长远发展。', '努力做好包扶的高强乡段庄村的帮扶工作，对该村进行力所能的帮助。四是继续做好系统及非公有制企业党风廉政、精神文明及工青妇等工作。', '今年，我们按照市、县推进园区建设工作文件精神，我们积极谋划落实，通过工业聚集区的建设，实现我县工业的振兴提升，进而促进县域经济的跨越赶超。一是拟写了阳原县产业集聚区推进方案、阳原县机械工业园区推进方案和阳原县全民创业实施方案，并经过多次修改，上报县政府。二是按照县解放思想大讨论的安排，组织相关单位和企业赴万全和山西怀仁就工业园区的建设进行了学习考察，增长了见识，开阔了思路，受到了启发，撰写了考察报告，对我县工业聚集区的建设具有较好的借鉴指导作用。三是接待了市工业聚集区实地核查组的实地查验，在整理核查组指导意见的基础上，就我县工业聚集区的建设提出了建议，并撰写了产业集聚区管理办法等，不断推进园区建设。', '工信系统因企业改制不彻底，遗留问题较多，企业职工上访较为频繁，系统企业的稳定工作十分艰巨。特别是 "两会" 期间，局级领导直包系统企业维稳，成立应急处置领导小组，制定突发事件应急预案，摸排重大不稳定问题，24小时值班。一是做好达惠机械有限公司的稳定工作。按照县政府安排，抽调一名有信访工作经验的干部积极参与县工作协调组工作，并派多名干部进驻企业，掌握有信访苗头人的动向，做好职工的思想政治工作。二是对系统其他企业的信访稳定问题进行详细摸排，研究拟定稳控措施，细化分解，确定责任单位、责任人、化解方案等。三是多次召开专题会议，分析研判系统维稳形势，建立相关有效的信息掌控体系，动员全局干部职工做好本职工作，尽全心、尽全力、尽全责做好系统企业维稳工作，确保 "两会" 顺利召开。', '1、按月按季分解总目标，完成规上工业增加值增长和入统企业必保目标。由于规上工业增加值是上级统计部门按规上工业总产值推算出来的。因此，一是我们将原11家规上企业2012年的完成指标，按增长15%的比例测算出2013年的工业总产值指标，同时考虑平衡各企业各月各季统计上报指标，避免先低后高现象，降低逐月逐季递增的斜率，将2013年工业总产值指标按月按季分解到各企业。二是对拟新增入统的7家企业进行全方位分析，包括钙业公司、达鑫陶瓷、仁恒精细粘土、华益皮草、李佳皮草、龙腾皮草，炎桦裘皮，根据其实际情况，拟定工业总产值指标和入统时间，确保完成。同时对这些企业入统的相关手续进行登记摸底，按照 "缺什么补什么" 的原则，协调相关部门创造条件，不惜一切代价完成办理任务。三是局领成立4个工作组，分包企业，随时监测调度，积极沟通协调，帮助企业解决入统过程中遇到的困难和问题。', '。由于规上工业增加值是上级统计部门按规上工业总产值推算出来的。因此，一是我们将原11家规上企业2012年的完成指标，按增长15%的比例测算出2013年的工业总产值指标，同时考虑平衡各企业各月各季统计上报指标，避免先低后高现象，降低逐月逐季递增的斜率，将2013年工业总产值指标按月按季分解到各企业。二是对拟新增入统的7家企业进行全方位分析，包括钙业公司、达鑫陶瓷、仁恒精细粘土、华益皮草、李佳皮草、龙腾皮草，炎桦裘皮，根据其实际情况，拟定工业总产值指标和入统时间，确保完成。同时对这些企业入统的相关手续进行登记摸底，按照 "缺什么补什么" 的原则，协调相关部门创造条件，不惜一切代价完成办理任务。三是局领成立4个工作组，分包企业，随时监测调度，积极沟通协调，帮助企业解决入统过程中遇到的困难和问题。', '采取切实措施确保原有11家企业一家也不退出。二是建立例会制度、调研分析督导指导制度、部门和企业与部门和部门之间及时沟通和送达信息制度，以确保随时掌握各项工业运行指标。三是盯紧目标，从年初开始就以冲刺状态工作，按月通报各企业运行情况，并分析制定有效的下步工作方案。四是对于民营经济工作要明确各乡镇有专门的副乡镇长主管，确保准确及时上报各种报表。', '按照县已制订了扶持 "三上企业" 发展优惠办法，积极落实兑现政策，帮助企业跑办相关事宜。二是积极为企业服好务，帮助规上企业争取国家、省级、市级扶持中小企业专项资金和工业企业技术改造专项资金。三是市局正在制订全市工业企业运行发展鼓励办法，在今后，一切扶持政策全部向规上工业企业倾斜，或者必须是规上工业企业才能享受扶持和申报专项资金等优惠政策。四是召开工业经济运行工作表彰会，对工业经济运行工作做出突出贡献的企业和单位进行隆重的表彰和宣传，营造大力发展工业的氛围。', '"一区六园" 的阳原县产业集聚区总体规划基本完成，按照规划的产业布局，加快陶瓷工业园区、机械工业园区、皮毛工业园区及综合加工园区入园项目的招商引资力度，通过项目的落地建设，培育新的工业经济增长点，拉动县域经济的发展。尤其是集聚区起步区的建设迫在眉睫，将协调相关单位做好起步区的道路工程和水、电、路等基础设施建设，力争尽快达到项目和企业入驻的基本条件。', '近期，国家、省、市相继出台了许多支持小微型企业发展的优惠政策措施。我们将进一步抓好贯彻落实工作，编印《民营经济政策汇编》发放到企业手中，使企业了解各级政府的税收优惠政策、财政资金支持政策、土地政策等等；召开不同层次、不同领域、不同形式的银企对接会，努力为小微型企业拓宽融资渠道，化解融资难题；支持协助小微型企业进行技术改造，提升小微型企业创新能力，加快淘汰落后产能工作；除了组织企业参加省市组织的培训外，聘请专家召开一次规模较大的专题知识培训，提升县内企业所有者、经营者、管理者的经营管理水平等。', '我们工信系统停产企业多，遗留问题多，造成了不稳定因素多。众多不稳定因素均与企业改制进程有关，', '随着企业改制的不断深入，我们拟定稳控措施，细化分解，确定分包领导和责任人，做好思想和行动的稳控，确保系统稳定。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>9</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>宣平堡乡组织村支部书记考察学习推动全乡农村面貌改造提升工作</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2013-08-12</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/31/13430.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['宣平堡乡组织村支部书记考察学习推动全乡农村面貌改造提升工作 - 张家口市万全区人民政府', '为提高村支部书记的思想觉悟、开拓思路，更好地开展农村面貌改造提升活动，8月8日，宣平堡乡组织6个重点提升村村支部书记前往我县新农村建设优势村学习考察。', '各村整齐一致的房屋、宽阔整洁的硬化道路、内涵丰富生动的文化墙、道路两旁绿树鲜花交相辉映、节能减耗的太阳能热水器和路灯、宽敞明亮的村委会服务厅等无不感染着每一位参观者。通过参观学习和当地干部交流讨论经验，各村支部书记不仅仅是视觉上的感官，而是在治村理念和管理模式方面有了转变和创新。', '通过本次活动，既提高了党员干部的思想觉悟、开阔了眼界，同时也从实际的新农村工作中学习到了经验。本次活动完成后，宣平堡乡及时召开了学习讨论会结合我乡实际工作谈思路、谈经验、谈方法，促进了学习考察成果向实际工作进行转化。', '村支部书记们纷纷表示将以此次学习考察为契机，转变思想理念，开拓创新，争取保质保量地完成好农村面貌改造提升工作。为全面提升我乡的新农村建设水平做出不懈努力。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>9</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>加快万全县社区科学化发展的启示和建议</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2013-07-11</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/132/12924.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['按照 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动的安排部署，街道办及7个社区负责人先后赴在全省社区工作中较为先进的廊坊市广阳区、石家庄市桥东区、我市桥东区、宣化区进行了学习考察。通过对考察中所见所闻进行认真梳理、总结，获益良多。这里特谈一下关于加快推进我县社区科学化发展的几点启示。', '通过对石家庄、廊坊等地社区发展状况的深入考察，各地发展模式多样而新颖，结合我县社区发展实际，很有借鉴意义。', '一是机制上有创新。在推动社区规范化发展中， "1+3" 大工委制、建立信息管理平台机制、 "社区第一书记" 制等工作机制在原有机制的基础上进行了大胆的补充和革新，有效提升了工作效率。"1+3" 大工委制创建方面，在各街道（镇）分别建立了综合、联合、居民三个党委，在不断完善三个党委工作职责、运行机制、相关制度的基础上，进一步下沉工作重心，将三个党委职能一并延伸到社区，以社区党委为领导，社区党员代表大会、社区居民委员会和社区监督委员会为支撑，通过定期协调、双向服务、党群联动、反馈通报等机制的规范和约束，有效整合辖区资源，进一步凝聚党建合力。建立信息管理平台方面，积极探索建立了人口信息服务管理物联平台、 "共产党员信息智能卡" 和区级、街道、社区 "三级管理" ，有效地加强了对居民的管理服务。执行 "社区第一书记" 机制方面。通过选派区直部门科级正职到社区兼任第一书记，第一书记结合各自部门特点，充分发挥指导、协调、帮扶、服务作用，在推动发展、解决民生、维护稳定等方面取得显著成效。', '二是模式上有突破。当前，社区工作的难点主要集中在社会管理、村转社区、经费紧张等方面， "三员一队" 、 "双轨制" 党建、 "契约式管理、项目式服务" 、 "三站一会" 综合服务管理模式有效地破解了这些难题。实行精细化管理，推行 "三员一队" 网格化。选好配强网格管理员、信息采集员、事务帮办员和综合服务队，按岗位特长，将人员分配到各个网格，形成了点面结合、横向到边、纵向到底、全面覆盖的网格管理模式。破解村转社区难题，推广 "双轨制" 党建。石家庄市桥东区桃源镇在村转社区后，面对既不能沿用农村管理体制，又不能照搬城市社区管理模式的难题，在率先推行集体资产产权制度改革的基础上，同步建立社区党组织和股份公司党组织，以支部书记联席会议等形式，对股民和居民实行 "双联双管双服务" ，取得了明显的成效。强化资源整合，实施 "契约式管理、项目式服务" 模式。石家庄市桥东区69个社区分别在摸清各自资源优势后，列出能为驻社区单位提供的服务和需要其提供的项目，以服务的姿态主动进行沟通协调，以协议的形式签订双向服务的项目，形成了双赢发展的有利局面。创新社会管理思路，成立 "三站一会" 综合服务管理模式。宣化区各社区设有社区综合服务站、和谐社会建设工作站、社会管理工作站与居委会相互协调配合，实行精细化管理，将各项工作落实到每一个分管领导、每一个相关科室，使各项工作开展更有针对性，工作各环节环环相扣，衔接顺畅，运转高效。', '三是服务上有精品。所观摩的街道和社区在开展各自工作中都结合自身实际开展了具有区域特色的一系列工作，全力出精。针对下岗职工再就业问题，廊坊市曙光道社区以劳动就业服务中心为依托，联合统建楼社区的 "手工作坊" 开展推荐就业服务；针对流动人口家庭儿童无人照料的问题，石家庄市桥东区建设 "暑期社区小课堂" 关怀品牌；为满足辖区老年人养老服务需求，我市红旗楼社区全力打造日间照料服务中心，有效提高老年人生活质量。各社区切实贴近实际工作，根据不同特点，充分发挥各自优势资源，着力打造富有特色的工作亮点，满足了广大群众的需求。', '随着城镇化进程的不断加快，深化社区建设，强化社会管理已成为当前各级党委、政府的一项重要任务，从社区建设、社会管理取得的经验和成效，有以下四点值得思考。', '一是思路创新是社区发展的 "导航仪" 。思路决定出路，通过深入考察调研，这些社区之所以成功在于其思想解放程度高、创新意识强，敢于冲破旧机制的条条框框，不断探索和开辟新的发展渠道，与时俱进，最大程度适应当前经济社会发展需要和人民群众的切身利益。', '二是载体丰富是社区发展的 "动力源" 。不断丰富载体是破解社区建设难题及丰富社区居民精神文明生活的重要途径。纵观各成功社区，都是通过形式多样的载体和媒介，创造出了和谐宽松的发展环境，不仅提升了居民的生活水平，也创造出更为适宜的投资软环境，为社区科学化发展提供源源不断的动力。', '三是班子过硬是社区发展的 "助推器" 。班子的好坏直接关系着社区的发展前景。观摩点的成功社区均有一支作风过硬、强有力的街道社区领导班子，在社区建设中，不断解决新问题、取得新成绩、实现新发展。同时班子队伍团结协作，形成凝聚合力，更好的推动社区发展，满足居民日益增长的物质文化需求。', '四是硬件到位是社区发展的 "支撑伞" 。硬件设施是社区发展强有力地支撑，通过学习考察我们发现，在省、市处于领先位置的几个社区在办公场所、社区网格系统、活动阵地、宣传阵地等方面的建设上均较为完善，雄厚的硬件配置更大程度上为社区居民日常生活提供便利。基础设施的夯实，进一步增进了居民的幸福感和满意度，同时，随着社区工作人员素质不断增强，逐步形成了软硬结合、相得益彰的良性发展态势。', '通过考察学习，并在认真分析我县社区建设中存在的突出问题的基础上，现就加强社区建设提出以下四点建议：', '一是整合网络资源，在创新社会管理机制上下功夫。结合我县实际，在社区建立终端服务平台，充分协调县民政、人社、计生等部门，整合部门间网络资源，实现社区与相关部门的网络共享。同时，积极探索建立人口信息服务管理物联平台、 "共产党员信息智能卡" 和区级、街道、社区 "三级管理" ，抓好电子政务平台建设，实现无纸化办公，更好地服务居民。', '二是建立共驻共建工作运行机制，在形成合力上下功夫。结合近年来共驻共建工作取得的经验和存在的问题，进一步讨论制定加强社区共驻共建工作的意见，重点在共建平台建设、共建工作考核、共建工作制度建设三个方面下功夫，建立 "契约式管理、项目式服务" 模式，着力提高共建工作的质量和水平。', '三是打造社区文化品牌，在促进社区文化和谐上下功夫。我县社区近年来也在社区文化建设上下了一定功夫，积极举办 "彩色周末" 晚会，创建 "消夏欢歌" 、 "咱老百姓的乐子" 等文化品牌。但是由于艺术人员队伍配备不强，资金不足等原因，活动搞得次数少，形式较为单一。建议我县进一步加大打造社区文化品牌的资金投入力度，加强社区优秀文化人才配置力度，进一步充实社区文化队伍，将社区文化办的更有特色和吸引力。', '四是建立 "双轨制" 党建模式，在推进村转社区工作上下功夫。随着城镇化进程不断加快，城郊村逐步转化为社区是必然趋势，为此，积极探索建立 "双轨制" 党建模式，加快东红庙村、西红庙村、南李家庄村、旧窑子村等村向社区转变步伐。', '五是拓宽引资渠道，在解决社区经济来源上下功夫。目前，街道办和各社区的办公经费，远远不能满足社区建设和开展各项活动的需要。结合各先进地区做法，建议以县财政、街道办、驻街单位三结合筹资的方式，解决当前的资金困难。即县财政设立社区建设发展资金；街道办通过开办家政服务中心、社区中介等方式进行创收；以 "共驻共建" 为抓手，积极争取驻街单位的资金支持。', '六是提供优质服务，在加大人员配备上下功夫。社区活动场所建成后，功能更加完善，服务项目随着增多，对从事街道、社区工作的人员数量和素质也提出更高的要求，为街道、社区输入新鲜血液势在必行。为此，建议我县将更多的高素质大学生未就业人员充实到社区队伍当中，既增长了他们的才能，又壮大了社区的力量。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>9</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>对标定位找差距理清思路找出路</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2013-07-12</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/179/4929.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['立足察北的产业特点和发展实际，围绕 "远学和林格尔，近学塞北" 的对标定位，由区领导带队，察北一行人员先后到塞北管理区、内蒙和林格尔县、蒙牛乳业总部和安徽五河县现代牧业蚌埠牧场、秋实草业公司进行学习考察。通过对标定位，我们重新审视区情，纵观全区发展实际可以概括为 "三大优势、三大不足、三大风险" 。', '一是培育绿色产业，完善马铃薯、乳业、饲草、清洁能源绿色产业链。二是开展绿化造林，打造万亩精品工程和20公里绿色长廊景观带。三是发展以沼气发电、生物有机肥生产为主的循环经济，让绿色成为察北最亮的名片。', '进一步完善规章制度，转变工作作风，加大整治力度，抓好 "招商引资、项目建设、改善民生和社会管理" 四项重点工作，打造便捷、高效、宽松、安全、诚信的发展环境。', '进一步完善沙沟镇中小企业创业园区 "七通一平" 基础设施建设，年内力争实现新入园企业4家，总数达到7家。2017年，园区固定资产投资不低于40亿元，入住企业不少于20家，企业占地2000亩以上，形成年产值15亿元，年纳税亿元以上规模，再造一个察北。', '以11家产业化龙头企业为依托，打造奶牛养殖、饲草种植、马铃薯繁育、乳品加工四大农业产业基地。形成奶牛养殖与乳品加工、饲草种植加工、沼气发电、有机肥生产、光伏发电、马铃薯育种与商品薯加工6条农业产业化链条。', '全区4家乳品加工企业要不断兴建高端奶生产线，到2017年，日加工鲜奶能力达到4000吨，形成全省一流的乳产品加工基地。', '年内新发展一家万头以上规模养殖场，新发展3-5家千头以上规模小型牧场，到2017年奶牛存栏突破10万头，养殖规模和管理水平达到国际一流标准。', '打造金沙管理处、沙沟镇1.7万亩高效节水示范区,建设种薯基地2万亩，拓展商品薯基地20万亩。培强马铃薯精深加工企业，新上三条马铃薯条、薯泥、鲜切产品生产线，年加工能力突破12万吨。新建文洛式玻璃温室、马铃薯原料库，推进马铃薯种薯繁育的国际化深度开发，将企业做到全国领先、省内第一。', '积极推进奶牛养殖基地及光伏发电一体化项目、20MW太阳能光伏发电项目，年内开工；太阳能槽式光热发电项目，年内完成前期2兆瓦（1兆瓦槽式、1兆瓦塔式）实验光热电站和复合能源实验室建设任务。', '依据修编后的城镇总规，加快编制各类控规、专业规划和专项规划。突出 "乳业" 这一城镇产业，围绕集镇建设、园区建设，拉大城区框架，完善城镇功能，推进城乡一体化发展。实施集中供水、集中供热、天燃气入户、二级汽车站、垦区危房改造搬迁、宇一线三改二工程建设，全面提升城市综合配套功能。推进城镇公共服务管理的市场化运作，建立健全公共基础设施和环境卫生管理长效机制，加快耕地和奶牛的流转，大力实施产业集聚、人口聚集战略，最大限度地引导农村常住人口向城区集聚。', '围绕 "察北乳业如何做大做强" ，借助外出考察机会与蒙牛达成了年内在察北新建1条高端奶生产线协议，与现代牧业达成了新上4万头奶牛、肉牛规模养殖场协议。新上这些项目基于三点考虑，一是要把察北的奶牛养殖做成全国性的示范基地，打造全国奶牛养殖的 "黄埔军校" ；二是发展西门塔尔牛、利木赞牛、鲁西黄牛等高档肉牛养殖,同时上肉牛加工厂，形成新的产业链条；三是发展奶牛养殖与光伏发电一体化项目。', '结合中央八项规定和省市要求，以解放思想大讨论活动为契机，重点开展了纪律作风、财产财务管理、干部人事制度、请示报告制度四项整顿规范，建立健全了纪律作风举报制度、工作作风最差单位评选制度等15项制度，重点解决5个方面的突出问题：一是思想不解放，创新不足的问题。二是精神懈怠，状态不佳的问题。三是作风漂浮，落实不力的问题。四是纪律松懈，政令不畅的问题。五是奢侈浪费，自律不够的问题。通过开展作风纪律整顿活动，促进了全区纪律作风的大改观，现在察北已形成 "上下齐心、凝心聚力、共谋发展、拼搏创新、齐抓共管、跨越赶超" 的良好氛围。', '的理念，把塞北作为对标单位，塞北与我区资源条件一样、起步一样、体制机制一样，而且地域优势没有我们好，面积没有我们大、人口没有我们多，但近三年，发展的水平已远远赶超了我们。把塞北作为对标单位，使全区广大干部群众近距离地感受到了发展的压力，增强了发展的信心。', '我区改制晚,改革开放晚,体制机制存在缺陷，许多项目不能与国家和省直接对接。而且改制时的三定方案，已远远不适应当前形势的发展。特别是没有电力、信访、法检两院等机构，严重制约着经济发展。为此，我们已经向省市发改、供电等部门提出了电力体制改革的申请，其他机构也正在积极争取。', '对国有土地实行集中管理，对国有收益进行上划管理。打破了察北改制以来，以管理处为主各自为阵的土地管理机制和收入分配机制，将28万亩国有土地纳入政府统一管理之下，统一规划、集中开发、规模经营,为大项目落地创造条件，为推进农业产业化奠定基础。', '开展"解放思想、改革开放、创新驱动、科学发展"大讨论活动以来，察北收费站结合自身实际，采取有力措施，以创新突破求实效，以优良服务促发展，实现了活动与工作的良性互动、相互促进、同步发展。狠抓内部管理。建立健全各项规章制度、岗位职责，将管理的触角延伸至全站方方面面；坚持以制度管人，以军事化的形式规范职工的学习、工作和生活的秩序。使内部管理逐步达到规范化、制度化、程序化、科学化。形成...']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>9</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>加快我县社区科学化发展的启示和建议</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2013-07-10</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.zjkwq.gov.cn/single/31/12913.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['按照 "解放思想、改革开放、创新驱动、科学发展" 大讨论活动的安排部署，街道办及7个社区负责人先后赴在全省社区工作中较为先进的廊坊市广阳区、石家庄市桥东区、我市桥东区、宣化区进行了学习考察。通过对考察中所见所闻进行认真梳理、总结，获益良多。这里特谈一下关于加快推进我县社区科学化发展的几点启示。', '通过对石家庄、廊坊等地社区发展状况的深入考察，各地发展模式多样而新颖，结合我县社区发展实际，很有借鉴意义。', '在推动社区规范化发展中， "1+3" 大工委制、建立信息管理平台机制、 "社区第一书记" 制等工作机制在原有机制的基础上进行了大胆的补充和革新，有效提升了工作效率。"1+3" 大工委制创建方面，在各街道（镇）分别建立了综合、联合、居民三个党委，在不断完善三个党委工作职责、运行机制、相关制度的基础上，进一步下沉工作重心，将三个党委职能一并延伸到社区，以社区党委为领导，社区党员代表大会、社区居民委员会和社区监督委员会为支撑，通过定期协调、双向服务、党群联动、反馈通报等机制的规范和约束，有效整合辖区资源，进一步凝聚党建合力。建立信息管理平台方面，积极探索建立了人口信息服务管理物联平台、 "共产党员信息智能卡" 和区级、街道、社区 "三级管理" ，有效地加强了对居民的管理服务。执行 "社区第一书记" 机制方面。通过选派区直部门科级正职到社区兼任第一书记，第一书记结合各自部门特点，充分发挥指导、协调、帮扶、服务作用，在推动发展、解决民生、维护稳定等方面取得显著成效。', '当前，社区工作的难点主要集中在社会管理、村转社区、经费紧张等方面， "三员一队" 、 "双轨制" 党建、 "契约式管理、项目式服务" 、 "三站一会" 综合服务管理模式有效地破解了这些难题。实行精细化管理，推行 "三员一队" 网格化。选好配强网格管理员、信息采集员、事务帮办员和综合服务队，按岗位特长，将人员分配到各个网格，形成了点面结合、横向到边、纵向到底、全面覆盖的网格管理模式。破解村转社区难题，推广 "双轨制" 党建。石家庄市桥东区桃源镇在村转社区后，面对既不能沿用农村管理体制，又不能照搬城市社区管理模式的难题，在率先推行集体资产产权制度改革的基础上，同步建立社区党组织和股份公司党组织，以支部书记联席会议等形式，对股民和居民实行 "双联双管双服务" ，取得了明显的成效。强化资源整合，实施 "契约式管理、项目式服务" 模式。石家庄市桥东区69个社区分别在摸清各自资源优势后，列出能为驻社区单位提供的服务和需要其提供的项目，以服务的姿态主动进行沟通协调，以协议的形式签订双向服务的项目，形成了双赢发展的有利局面。创新社会管理思路，成立 "三站一会" 综合服务管理模式。宣化区各社区设有社区综合服务站、和谐社会建设工作站、社会管理工作站与居委会相互协调配合，实行精细化管理，将各项工作落实到每一个分管领导、每一个相关科室，使各项工作开展更有针对性，工作各环节环环相扣，衔接顺畅，运转高效。', '所观摩的街道和社区在开展各自工作中都结合自身实际开展了具有区域特色的一系列工作，全力出精。针对下岗职工再就业问题，廊坊市曙光道社区以劳动就业服务中心为依托，联合统建楼社区的 "手工作坊" 开展推荐就业服务；针对流动人口家庭儿童无人照料的问题，石家庄市桥东区建设 "暑期社区小课堂" 关怀品牌；为满足辖区老年人养老服务需求，我市红旗楼社区全力打造日间照料服务中心，有效提高老年人生活质量。各社区切实贴近实际工作，根据不同特点，充分发挥各自优势资源，着力打造富有特色的工作亮点，满足了广大群众的需求。', '随着城镇化进程的不断加快，深化社区建设，强化社会管理已成为当前各级党委、政府的一项重要任务，从社区建设、社会管理取得的经验和成效，有以下四点值得思考。', '思路决定出路，通过深入考察调研，这些社区之所以成功在于其思想解放程度高、创新意识强，敢于冲破旧机制的条条框框，不断探索和开辟新的发展渠道，与时俱进，最大程度适应当前经济社会发展需要和人民群众的切身利益。', '不断丰富载体是破解社区建设难题及丰富社区居民精神文明生活的重要途径。纵观各成功社区，都是通过形式多样的载体和媒介，创造出了和谐宽松的发展环境，不仅提升了居民的生活水平，也创造出更为适宜的投资软环境，为社区科学化发展提供源源不断的动力。', '班子的好坏直接关系着社区的发展前景。观摩点的成功社区均有一支作风过硬、强有力的街道社区领导班子，在社区建设中，不断解决新问题、取得新成绩、实现新发展。同时班子队伍团结协作，形成凝聚合力，更好的推动社区发展，满足居民日益增长的物质文化需求。', '硬件设施是社区发展强有力地支撑，通过学习考察我们发现，在省、市处于领先位置的几个社区在办公场所、社区网格系统、活动阵地、宣传阵地等方面的建设上均较为完善，雄厚的硬件配置更大程度上为社区居民日常生活提供便利。基础设施的夯实，进一步增进了居民的幸福感和满意度，同时，随着社区工作人员素质不断增强，逐步形成了软硬结合、相得益彰的良性发展态势。', '通过考察学习，并在认真分析我县社区建设中存在的突出问题的基础上，现就加强社区建设提出以下四点建议：', '结合我县实际，在社区建立终端服务平台，充分协调县民政、人社、计生等部门，整合部门间网络资源，实现社区与相关部门的网络共享。同时，积极探索建立人口信息服务管理物联平台、 "共产党员信息智能卡" 和区级、街道、社区 "三级管理" ，抓好电子政务平台建设，实现无纸化办公，更好地服务居民。', '结合近年来共驻共建工作取得的经验和存在的问题，进一步讨论制定加强社区共驻共建工作的意见，重点在共建平台建设、共建工作考核、共建工作制度建设三个方面下功夫，建立 "契约式管理、项目式服务" 模式，着力提高共建工作的质量和水平。', '我县社区近年来也在社区文化建设上下了一定功夫，积极举办 "彩色周末" 晚会，创建 "消夏欢歌" 、 "咱老百姓的乐子" 等文化品牌。但是由于艺术人员队伍配备不强，资金不足等原因，活动搞得次数少，形式较为单一。建议我县进一步加大打造社区文化品牌的资金投入力度，加强社区优秀文化人才配置力度，进一步充实社区文化队伍，将社区文化办的更有特色和吸引力。', '随着城镇化进程不断加快，城郊村逐步转化为社区是必然趋势，为此，积极探索建立 "双轨制" 党建模式，加快东红庙村、西红庙村、南李家庄村、旧窑子村等村向社区转变步伐。', '目前，街道办和各社区的办公经费，远远不能满足社区建设和开展各项活动的需要。结合各先进地区做法，建议以县财政、街道办、驻街单位三结合筹资的方式，解决当前的资金困难。即县财政设立社区建设发展资金；街道办通过开办家政服务中心、社区中介等方式进行创收；以 "共驻共建" 为抓手，积极争取驻街单位的资金支持。', '社区活动场所建成后，功能更加完善，服务项目随着增多，对从事街道、社区工作的人员数量和素质也提出更高的要求，为街道、社区输入新鲜血液势在必行。为此，建议我县将更多的高素质大学生未就业人员充实到社区队伍当中，既增长了他们的才能，又壮大了社区的力量。（蔡晓敏）']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>9</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>塞北管理区开展大讨论活动研讨会</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2013-07-05</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/52/11694.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['召开了 "解放思想 改革开放 创新驱动 科学发展" 大讨论活动研讨会。专门就前一阶段 "大讨论" 活动的开展情况、各单位对标学习情况进行总结探讨。', '专题发言时，塞北管理区党工委副书记、管委会主任陈青山对前一阶段对标学习的成果进行了总结回顾。塞北管理区对标考察了陕西杨凌和内蒙古的和林格尔经济园区以及芦台经济开发区和汉沽管理区。杨凌的浓厚文化底蕴，雄厚的科技基础，精品的产业园区，让塞北看到了今后努力的方向。内蒙古的和林格尔以乳业生产带动了三产的发展让塞北的干部们很受启发。同时，同为农垦企业改制的芦台、汉沽的发展也让塞北的广大干部倍感震撼。发言中还有的同志结合塞北还提出了要把园区建设做为塞北的支撑，进一步解放思想，大胆的进行改革创新。通过在塞北进行一场大刀阔斧的改革，真正把这次大讨论活动的成果惠及塞北的百姓。', '研讨会上，塞北管理区各机关单位、各管理处领导围绕对标学习考察体会，紧密结合自己分管的工作和各自的职责，畅谈了学习心得体会。并围绕全区改革创新、转变职能、改进作风、提高效能等工作谈了具体思路想法。通过大家的集思广益，纷纷对全区今后的发展提出了建设性的意见，这必将促进塞北经济社会各项事业的长足发展。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>9</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>解放思想全面开创发改工作新局面</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2013-07-09</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/116/11748.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['自管理区开展解放思想大讨论活动以来，区发改局严格按照市委、市政府和区工委的工作要求，牢牢把握解放思想、改革开放、创新驱动、科学发展这一主题，以加强学习和深入调研为手段，以广泛征求意见和梳理问题为依托，紧密结合本单位职责任务，对照先进标杆，认真从思想观念、素质能力、工作作风、制度建设等方面进行深入的剖析，理清了阻碍科学发展的主要问题及其根源所在，在此基础上，初步找到了下一步整改的措施和方法，现分析报告如下：', '局领导班子通过制订学习计划，集中学习中央、省、市领导关于科学发展观重要讲话精神，尤其此次科学发展大讨论活动开展以来，全局上下掀起了学习', '党和国家领导人关于解放思想的重要论述、党的十八大、省委八届五次会议和市委十届四次会议精神的热潮', '，领导班子积极联系本局职责，针对产业结构调整、转型升级的突出问题，就如何更新发展理念、完善发展思路等进行了认真的学习思考，提高了对进一步解放思想、着力破解发展难题重要性的认识。', '为探索新形势下发展改革部门推动科学发展方面的新思路和新做法，借此次开展大讨论活动为契机，局领导班子成员和有关业务科室科长赴先进县区进行了学习考察，与当地发改部门座谈。通过学习考察，我局干部从中深深感受到先进县区在解放思想，推动新一轮大发展方面的科学思路和不凡气魄，很好地开拓了视野，进一步加深了对本部门工作职责定位的认识。', '通过对先进县区经验的吸收，全局的思想观念得到了很大的转变，推动科学发展的工作思路也得到了进一步的明晰：发改部门就是要抓统筹协调，就是要把握发展的大局。具体来讲，一是要切实转变观念，把工作的重心放在对重大问题的研究上，积极做好区工委、管委的参谋和助手；二是要提高各项规划的水平，切实推动规划的有效实施，发挥规划对科学发展的引领作用；三是要把对重大项目的策划和服务，作为推动产业结构升级转型的重要环节来抓；四是要从产业政策、项目准入管理、重大工程建设等方面入手，大力推进节能减排；五是要加强对各项改革的统筹，完善科学发展的机制体制。', '我局领导班子始终坚持用科学发展观统领发展改革工作，坚持把促进经济又好又快发展作为第一要务，坚持把改善民生、增进和谐贯穿各项工作的始终，一手抓规划和重大问题研究，一手抓投资管理和重大项目建设，取得了一定的成绩。同时也认识到，在工作中还存在一些不足。在科学发展观学习、解放思想大讨论活动阶段，我局领导班子采用发放征求意见表等方式向局机关、企业等进行广泛征集意见，并对照先进标杆进行深入剖析，初步归纳出自身存在的问题：', '缺乏与时俱进、锐意进取的开拓精神，深入系统学习新时期的政治经济思想理论和重大方针政策的积极性不够强烈，对国家宏观调控政策的理解把握还不够全面，在贯彻落实尤其是用好国家鼓励发展的政策方面还需要进一步加强。', '更多地满足于应付和完成日常的工作事务，没能充分争取时间去学习和提升把握全局和驾驭市场经济的能力，理论水平还未能完全适应时代发展的新要求，对新形势的分析判断和对重大问题的研究能力有待提高，对经济运行的大趋势关注不够。', '循规蹈矩，对深入调查研究、创新工作方式、提高工作效能的改进不足，深入基层、密切联系群众的力度不够，对周围环境、基层干部群众、企业情况掌握不深，与干部职工交流、沟通不够，在协调配合、服务意识、工作效率等方面仍存在一些不尽如人意的地方，如一些工作有去思考，甚至也有了初步的实施方案，但遇到阻力时，往往就半途而废。', '统筹协调的职能未能有效发挥出来。比如，我们做规划很认真，也花了很多工夫，但由于缺乏实施的机制，对发展的引导作用没有真正发挥出来，而我们至今又没有建立一套有效的机制；又比如，我们对新兴产业的培育方面还缺乏有效的手段，产业结构调整的步伐偏慢。', '当前，管理区正处于实施 "十二五" 规划的关键时期。我们要按照区工委的工作部署，结合我局工作实际，进一步解放思想，开拓创新招商理念，积极谋划科学发展以及推动产业结构调整升级的新思路，开创发展改革工作新局面。', '要明晰思路，做好 "两个新突破" 。明晰新时期新发展阶段对发展改革工作的新要求，明确发展改革工作的定位，创新工作方式，实现重大问题、重点领域、重要对策的研究上新突破，明晰市场经济条件下投资管理应该采取的新思路、新方法、新措施，实现重大项目、重点设施、重要设备引进、建设、管理上的新突破，为推动科学发展和产业转型升级作出新贡献。', '项目建设呈现出数量较多、规模较大、滚动发展的良好态势。有力拉动全区经济社会快速发展。', '充分发挥管理区农牧、生态、风能等资源优势，积极调整产业结构，吸引大企业、大集团投资，发展特色优势产业。围绕乳业、马铃薯、燕麦三条循环经济产业开发，重点发展蒙牛乳业、现代牧业等一批上规模、上档次的农业产业化重点龙头项目，全力构建带动周边、影响内蒙、辐射京津的优势产业集群；围绕风能、光能、煤炭资源，推进发展塞北风电一期项目、塞北风电二期、塞北光伏发电项目以及年产120万吨原煤的冀中能源集团榆树沟煤矿开发项目，在此基础上，以我区丰富的煤炭资源为基础，谋划发展煤炭加工工业；围绕旅游资源，积极打造坝上生态旅游，创立避暑观光的精品旅游路线。', '注重以情招商，以商招商，努力营造 "引得来、留得住、增投资、大发展" 的招商引资氛围。', '立足自身特色和产业优势，抓住京津因发展的重新定位和产业结构调整而出现的企业外迁、产业外溢、项目外扩的良好机遇。敏锐地捕捉信息，主动地抢抓机遇，积极地争跑项目。找准与京津对接合作的切入点和着力点，以产业对接为重点，主动出击、不拘形式、取长补短，实现全方位、多层次、宽领域的对接合作。', '牢固树立 "环境就是生产力" 的项目工作理念，进一步优化招商引资的软、硬环境，出台激励办法，', '扎实做好项目前期工作，对已谋划生成的项目按照程序要求，认真落实项目前期工作的相关责任单位，加强与上级对口部门的沟通和联系，建立项目建设协调联席会议制度，并及时研究分析和协调解决项目工作推进过程中遇到的困难和问题，促进在建项目早日建成投产，前期项目早日开工建设，意向项目早日签约实施。', '我局依法行政工作以全面落实科学发展观为统领，紧紧围绕区工委、管委的中心工作，努力加强自身建设，切实将依法行政贯穿于各项工作的每个环节。认真贯彻落实国家、省、市有关能源工作的法律、法规和政策，研究提出全区能源发展战略、规划和政策措施并组织实施，协调能源发展和改革中的重大问题；按照管理权限，审批、核准固定资产投资项目，组织实施好项目竣工验收工作及建设全过程的监督管理；推进能源行业节能和资源综合利用，组织能源重大设备研发，指导能源科技进步、成套设备的引进消化创新。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>9</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>塞北交通运输局关于赴沽源县交通运输局对标学习情况的报告</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2013-07-05</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.zjksb.gov.cn/single/116/11677.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['张家口市塞北管理区管理委员会 - 塞北交通运输局关于赴沽源县交通运输局对标学习情况的报告', '努力实现塞北交通跨越式发展的热情，6月24日，由局长魏建军带领各股站所主要负责同志共计13人，赴沽源县交通运输局就农村客运管理、源头治超、路域环境治理、农村公路养护和建设以及党政管理方面的先进经验和做法进行了对标学习。现将学习考察情况汇报如下：', '此次考察学习主题明确，考察内容较多，收获丰富。对标学习行动小组结合沽源县交通管理工作的特点和优势，有针对性地对沽源县交通运输局运管所、公路站、路政所等部门工作进行了交流和学习，通过考察发现沽源县便利的交通环境、纵横贯穿的交通网络、紧张有序的公路建设、完善的管理制度、一流的服务质量等方面创出了许多有效的经验，十分值得我们学习借鉴。大家在思想上受到很大震撼，拓宽了视野，看到了工作中存在的差距和不足。大家纷纷表示，考察结束后，将认真总结考察情况，对沽源县交通局的先进做法和经验进行消化吸收、学习借鉴，努力为我区交通发展注入新能量，创造新活力。', '二级客运站1个，农村候车亭98个，招呼牌79个，货运站场4个，驾培1个，维修业户16户。近几年该县交通稳步发展，在项目发展、公路养护、路域环境建设等方面采取了一些新做法，取得了显著成效。', '从提高道路通行质量、改善路网结构入手，实现高速公路、干线公路、农村道路并驾发展，打造县域经济发展的良好平台，年内，重点谋划和实施了', '该县的公路日常管养工作分别由公路管理站和地方道路站负责，乡村道路主要由所在的乡政府负责。', '公路管理站下设4个养护中心，采取 "分段管辖、包段到人、全年管养、重点突击" 的方式，把每条路分到具体的责任养护中心，把每段路再包给具体每个养护工人，全天候进行管理和养护，做到路路有人管，段段有人扫，不扯皮不推诿，主体明确和责任明确。另外，制定了统一管养标准，由局属公路管理站通过定时检查和不定时抽查，采取录像留证的方式，对4个养护中心进行 "一把尺子量到底" 的高标准检查并记分考核。同时采取 "一月一评比，一季一讲评，半年一考核、全年定奖惩" 的方式进行同步管理，实现责任到人、奖惩到人的模式，保证了高标准的公路管养。', '该局采取 "两条腿走路" 的方式，严格落实 "县道县养、乡道乡养、村道村养" 的原则。县道实行专业化养护，境内6条县道由地方道路管理站下属的1个养护中心实施专业化养护，因路施治，确保畅通。乡村道路实施市场化养护，乡镇成立地方道路管理所，组建地方道路养护公司，办理营业执照，选聘公司经理，由养护公司承包本乡镇乡村道路养护，市场化运作。', '路政管理实行全天不间断巡查制，并与养护中心结对子，给养护人员发放了《联系卡》，做到路政管理及时有力和县境内的全覆盖；双超治理工作采取 "固定+流动" 治超相结合的原则，24小时作业。', '该局在不断加快交通基础设施建设的同时，切实把转变机关作风、加强干部职工队伍建设、优化发展环境作为交通各项工作的重中之重。一是通过', '年内开展了客运、货运、出租、公交、维修、超载超限等多个市场和行业的专项整治行动，维护了运输市场的和谐稳定，', '开展了缩短审批时限，减少审批环节，一站式办公和推行上门服务、延时服务和微笑服务等多项活动。三是延伸服务内容，注重打造服务亮点。年内，组建成立了 "巾帼建功岗" 和 "党员示范岗"12个，由先前13名队员组成 "的士雷锋车队" 的基础上，再成立 "党员先锋车队" 和 "文明车队" ，以点带面，全面提升出租车服务质量。', '加大工作的透明度，制定并发放《服务对象征求意见表》，广泛听取社会意见和建议，建立并完善了相关工作制度。', '细化交通系统廉政建设 "十条禁令" ，使每个党员干部受到党内监督、群众监督和舆论监督，确保了相关制度的有效落实。', '这次考察收获丰富，使我局考察团感受颇深，让我们看到了差距，感受到了压力，同时也为我局今后的发展明确了目标，指明了方向。', '农村公路的发展涉及到千家万户及农民群众的切身利益，需要各级有关部门的协调与配合。近年来，我区在农村公路建设上虽然取得了一定的成绩，但与先进地方相比较存在着很大的差距。究其原因，主要还在于认识不到位，"等、靠、要"的思想依然存在。对此，各部门要进一步统一认识，加强领导，继续把农村路网建设列入重要议事日程，充分调动群众的积极性并带领群众真抓实干，形成全员行动、全民动手修建农村公路的格局，促进农村公路建设任务落实。', '通过流动巡查队，采取点面结合、定点监测、流动稽查等办法，对全区要道路和出境路进行全天候、全方位治超工作，全面', '一是成立农村客运发展工作领导小组，加强工作的组织领导，树立 "一盘棋" 的思想，各司其职、各负其责，形成工作合力，确保各项措施落到实处。二是整合公安、交通等各级有关部门的力量，发挥整体合力，完善农村道路交通安全管理模式，采取 "堵、补、疏、呼" 的办法，通过联合执法等综合治理方式，开展农村客运市场非法客运专项整治行动，严厉打击非法从事农村客运的行为，严肃查处农村客运经营者的各类违法违章行为，净化农村客运市场，维护正常市场秩序，为农村客运发展营造良好环境。三是进一步建立完善 "一盯一" 、 "一帮一" 的监管办法，按照户籍管理方式，建立农村客运机动车及驾驶人登记簿，实行 "一车一档" ，全面落实对农村客运驾驶人的监管工作。', '结合机关思想作风纪律整顿工作，落实 "三不下班" （即不接待完办事群众不下班，不处理完当天的业务不下班，不办完急办的事情不下班）和 "三声服务" （即来有迎声，问有答声，走有送声，始终保持微笑服务）制度，坚持 "五项承诺" （文明服务，限时服务，延时服务，预约服务，延伸服务）；各部门主要领导要经常深入基层、深入企业、深入业户，了解困难，寻求办法，协助解决。执法部门树立 "执法也是服务" 观念，做好法律的严肃性与优化发展环境的有机结合；严格落实行政权力公开透明运行制度，执行行政处罚自由裁量权量化标准，杜绝违纪违法和不廉洁现象发生。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>9</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>对标定位找差距学习先进促发展</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2013-07-04</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/179/4891.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['5月28日至6月2日，由区党工委书记王向明，党工委副书记、管委会主任赵光宇带队，组织相关人员到塞北管理区、内蒙和林格尔县盛乐园区、蒙牛乳业总部和安徽五河县现代牧业蚌埠牧场、秋实草业公司进行学习考察。先后与蒙牛集团副总裁白瑛、胡苏东、现代牧业（集团）有限公司董事长邓九强进行了座谈，达成了蒙牛乳业高端奶生产线、现代牧业万头奶牛养殖场两个项目的发展协议。通过学习考察，使察北各级干部解放了思想、创新了思维、学到了经验。更为重要的是看到了差距、理清了思路、明确了方向，坚定了跨越赶超的信心。', '和林格尔县以 "打造卫星城、推进同城化" 为重点，高起点谋划和林未来发展、长远发展问题，培育壮大五大支柱产业，建设 "六大园区" 的招商引资平台，打造资源要素流入 "洼地" 。特别是盛乐经济园区，占地面积40平方公里，随着农牧林水、道路交通、能源电力、城市建设、社会事业等一批打基础、利长远的重大基础项目落地，为推动县域经济发展奠定了坚实基础。', '和林格尔县通过创新思维，大力改革，不断破解发展难题，现在已由空白起步逐步发展完善，地方工业从无到有，乡镇从无到有，一座现代化的新城正在迅速崛起。塞北管理区', '与我区资源条件一样、起步一样、体制机制一样，而且地域优势没有我们好，面积没有我们大、人口没有我们多，但近三年，发展的水平已远远赶超了我们', '在抓县域经济及搞城镇建设方面，和林格尔高起点规划，高强度投入，大力度推进，使当地的城市建设水平高、有品位，产业的发展速度快、规模大、竞争力强。', '所有奶牛标准化养殖场，均是以万头以上规模设计和兴建，是中国首批采用大规模工业化散栏式奶牛畜牧业务模式的地区。', '和林格尔、塞北、蚌埠三地的干部队伍作风硬，真干事、敢干事，遇到大事难事时敢于担当、敢于负责，这是成就各项事业的重要保证。和林格尔创下1年新建万头以上规模奶牛牧场3处，建设小农户科技园400个的速度。塞北管理区在短短几年时间内，引进多家规上企业，全区财政收入也由2009年的1000万发展到现在的1.4亿元。安徽蚌埠以发展现代牧业为中心，建成65万平方米的奶牛圈舍，奶牛存栏总数4万头，日产鲜奶600吨，形成以乳产业为龙头的产业核心区。', '通过对和林格尔、塞北、蚌埠的考察，大家一致认为三地的思路方法、发展路径、成功经验很值得我们学习研究，可以概括为 "四个狠抓" 、 "四个注重" 。', '近年来，和林格尔相继建成了经济开发区、电力产业园区、石材建材园区 "三大工业园区" ，盛乐现代服务集聚区、大南山生态文化旅游园区、大红城现代物流园区 "三大服务业园区" ，构建了 "传统产业新型化、新兴产业规模化、支柱产业多元化" 的产业发展新格局，引进了龙头企业，促进了产业集聚，实现了经济跨越发展，快速从一个国家级贫困县跨越为西部百强县。', '近年来，和林格尔县以云计算为代表的现代服务业迅速崛起，2012年新增规模以上工业企业10家，总投资500多亿元的中国电信、中国移动、京能热电、内蒙古电力集团电力保障等一批云计算及配套项目的开工有力带动了区域产业的发展。塞北管理区在今年实施重点项目14项，总投资81.21亿元，其中3个省级重点项目已完成投资12.6亿元，保证了项目的健康推进。', '安徽蚌埠以打造 "全球性的标准化生态牧场" 为定位，以科技创新为载体，于2011年9月成立秋实草业有限公司。配套种植有机苜蓿草10万亩，确保了自有奶牛场饲料的安全自供，形成以饲草种植、奶牛养殖、牛粪发酵、沼气发电为一体的龙形产业链，日产沼气5.6万立方米，日发电8万千瓦，日产有机固肥600吨，日产有机液肥2400吨，实现了资源的高效循环利用，形成了奶牛规模化养殖的蚌埠样板。', '围绕 "远学和林格尔，近学塞北" 的目标定位，察北将重点做好四项工作，实现 "绿色崛起" ，打造 "现代乳城" 。', '为尽快壮大县域经济，补齐察北经济发展的 "短板" ，我区将以城镇建设和开发风光资源为突破。', '突出 "乳业" 这一城镇产业，实施集中供水、集中供热、天燃气入户、二级汽车站、垦区危房改造搬迁、宇一线三改二工程建设，全面提升城市综合配套功能；推进城镇公共服务管理的市场化运作，建立健全公共基础设施和环境卫生管理长效机制，加快耕地和奶牛的流转，大力实施产业集聚、人口聚集战略。', '积极推进奶牛养殖基地及光伏发电一体化项目、20MW太阳能光伏发电项目，年内开工；太阳能槽式光热发电项目，年内完成前期2兆瓦（1兆瓦槽式、1兆瓦塔式）实验光热电站和复合能源实验室建设任务。', '年内新发展一家万头以上规模养殖场，新发展3-5家千头以上规模小型牧场，进一步增加奶牛存栏。', '全区4家乳品加工企业要不断兴建高端奶生产线，到2017年，日加工鲜奶能力达到4000吨，形成全省一流的乳产品加工基地。', '打造金沙管理处、沙沟镇1.7万亩高效节水示范区,建设种薯基地2万亩，培强马铃薯精深加工企业，形成以 "种薯繁育、贮藏流通、精深加工" 为一体的龙型经济产业链。', '进一步完善规章制度，转变工作作风，加强整治力度，抓好 "招商引资、项目建设、改善民生和社会管理" 四项重点工作，打造便捷、高效、宽松、安全、诚信的发展环境。', '重点在培育绿色产业、开展绿化造林、发展循环经济上实现突破，使察北的生态环境进一步改善，让绿色成为察北最亮的名片。', '进一步完善沙沟镇占地2600亩的中小企业创业园区 "七通一平" 基础设施建设，年内实现新入园企业4家，总数达到7家。2017年，园区固定资产投资按规划不低于40亿元，入住企业不少于20家，企业占地2000亩以上，形成年产值15亿元，年纳税亿元以上规模，再造一个察北。', '近年来，察北管理区把推进清洁生产审核工作作为落实节能减排、发展循环经济的一项重要举措，全面推进清洁生产审核工作。一是加强组织管理，建立健全企业档案，全面掌控企业生产经营、产品产量变化、污染物种类及产排数量等情况，为全力推行清洁生产铺平道路；二是加大执法检查力度，在全区范围内筛选相关企业，加大对于人民群众反映强烈的高污染、辖区内重点企业以及零排放的企业环境监察力度，确保清洁生产审核实施到位；三是加大...']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>9</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>张家口市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>宇宙营乡外出考察学习庆七一</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2013-07-10</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.zjkcb.gov.cn/single/31/6304.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['在党的 "七一" 生日到来之际，宇宙营乡领导班子带领各村书记、主任共计22人到涿鹿县张家堡镇考察学习，并重温了入党誓词，用回顾党的历史庆祝 "七一" 。', '，受到了张家堡镇领导班子成员和供销合作社负责人的热情接待，他们对宇宙营乡这几年的发展给予了肯定，并希望以后继续加强合作交流，共同发展。', '考察结束后，宇宙营乡和张家堡镇共同召开了座谈会，党委书记孟宝结合学习考察的历程说，在党的 "七一" 生日即将到来之际，我们采取组织大家出来考察学习的方式开展 "七一" 活动，是非常有意义的，这也是我们开展解放思想大讨论活动的一项学习内容，我们此次考察让大家开阔了视野，拓展能力，提高了干部的整体水平。他指出，张家堡这几年之所以快速发展，主要是抓住机遇，趁势而上，充分把自身的区位优势和资源优势展示出来，特色种植和合作社超市 "农业+超市" 这种对接形式，是非常具有典范性的，我们要学习和借鉴这种经验做法。当地政府坚持了大企业进入和大项目带动的战略，主动跟踪服务，抓好项目基础配套设施建设，出台优惠政策，为引进大项目和推进重点项目建设打下良好的基础，对我乡发展是非常具有借鉴作用的。他强调希望大家把这次外出考察看到和学习到的先进经验和成功做法，转换为大家在今后工作中的思路和措施，抓住机遇，运筹帷幄，拉动我乡主导产业和三产发展，从而推动我乡经济又好又快发展。', '2013年6月1日上午，宇宙营乡星宇幼儿园在学校操场庆祝六一儿童节。为确保"校园安保"活动的深入开展，实现零发案、零事故的工作目标，察北公安分局宇宙营派出所召开专题会议研究部署"六一国际儿童节"安全保卫工作，并成立领导小组、制定预案，全力做好"六一"儿童节的安保工作，确保全乡小朋友过一个欢乐，祥和，愉快的六一儿童节。一是派出所领导高度重视...']</t>
         </is>
